--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Google ドライブ\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -2238,104 +2238,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2381,207 +2283,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -3194,7 +2998,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3333,7 +3137,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3388,11 +3192,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1761568992"/>
-        <c:axId val="-1761572256"/>
+        <c:axId val="279457936"/>
+        <c:axId val="279461744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1761568992"/>
+        <c:axId val="279457936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,14 +3206,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1761572256"/>
+        <c:crossAx val="279461744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1761572256"/>
+        <c:axId val="279461744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3234,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1761568992"/>
+        <c:crossAx val="279457936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3923,7 +3727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS115"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -3954,54 +3758,54 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="83" t="s">
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="81" t="s">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="78"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="106"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4030,25 +3834,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4176,10 +3980,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4196,7 +4000,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
@@ -4538,32 +4342,32 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="72" t="str">
+      <c r="A5" s="85">
+        <v>0</v>
+      </c>
+      <c r="B5" s="86" t="str">
         <f>B1</f>
         <v>管理システム開発</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="88" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="12">
@@ -4714,15 +4518,15 @@
       <c r="DR5" s="39"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4871,19 +4675,19 @@
       <c r="DR6" s="42"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5002,15 +4806,15 @@
       <c r="DR7" s="39"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5129,29 +4933,29 @@
       <c r="DR8" s="42"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="85">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="95" t="s">
         <v>194</v>
       </c>
       <c r="J9" s="12">
@@ -5284,15 +5088,15 @@
       <c r="DR9" s="39"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -5421,29 +5225,29 @@
       <c r="DR10" s="42"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="85">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="95" t="s">
         <v>194</v>
       </c>
       <c r="J11" s="12">
@@ -5572,15 +5376,15 @@
       <c r="DR11" s="39"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>1.125</v>
@@ -5711,29 +5515,29 @@
       <c r="DR12" s="42"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="85">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="12">
@@ -5856,15 +5660,15 @@
       <c r="DR13" s="39"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5987,19 +5791,19 @@
       <c r="DR14" s="42"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="86">
         <v>2</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6118,15 +5922,15 @@
       <c r="DR15" s="39"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6245,27 +6049,27 @@
       <c r="DR16" s="42"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="72">
+      <c r="A17" s="86">
         <v>2.1</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="12">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -6388,15 +6192,15 @@
       <c r="DR17" s="39"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6515,23 +6319,23 @@
       <c r="DR18" s="42"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="72">
+      <c r="A19" s="86">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="12">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -6660,15 +6464,15 @@
       <c r="DR19" s="39"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6787,23 +6591,23 @@
       <c r="DR20" s="42"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72">
+      <c r="A21" s="86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="12">
         <f>IF(C21&lt;&gt;"",SUM(K21:DR21)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -6932,15 +6736,15 @@
       <c r="DR21" s="39"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7059,23 +6863,23 @@
       <c r="DR22" s="42"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="72">
+      <c r="A23" s="86">
         <v>2.4</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="12">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -7204,15 +7008,15 @@
       <c r="DR23" s="39"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7331,15 +7135,15 @@
       <c r="DR24" s="42"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="12" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
         <v/>
@@ -7458,15 +7262,15 @@
       <c r="DR25" s="39"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="13" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v/>
@@ -7585,15 +7389,15 @@
       <c r="DR26" s="42"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -7712,15 +7516,15 @@
       <c r="DR27" s="39"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -7839,15 +7643,15 @@
       <c r="DR28" s="42"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="12" t="str">
         <f>IF(C29&lt;&gt;"",SUM(K29:DR29)/データ!$D$2,"")</f>
         <v/>
@@ -7966,15 +7770,15 @@
       <c r="DR29" s="39"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="13" t="str">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v/>
@@ -8093,15 +7897,15 @@
       <c r="DR30" s="42"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -8220,15 +8024,15 @@
       <c r="DR31" s="39"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -8347,15 +8151,15 @@
       <c r="DR32" s="42"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
       <c r="J33" s="12" t="str">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
         <v/>
@@ -8474,15 +8278,15 @@
       <c r="DR33" s="39"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
       <c r="J34" s="13" t="str">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v/>
@@ -8601,15 +8405,15 @@
       <c r="DR34" s="42"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8728,15 +8532,15 @@
       <c r="DR35" s="39"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -8855,15 +8659,15 @@
       <c r="DR36" s="42"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
       <c r="J37" s="12" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
         <v/>
@@ -8982,15 +8786,15 @@
       <c r="DR37" s="39"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="13" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v/>
@@ -9109,15 +8913,15 @@
       <c r="DR38" s="42"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="12" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
         <v/>
@@ -9236,15 +9040,15 @@
       <c r="DR39" s="39"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
       <c r="J40" s="13" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v/>
@@ -9363,15 +9167,15 @@
       <c r="DR40" s="42"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9490,15 +9294,15 @@
       <c r="DR41" s="39"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9617,15 +9421,15 @@
       <c r="DR42" s="42"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="74"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="95"/>
       <c r="J43" s="12" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K43:DR43)/データ!$D$2,"")</f>
         <v/>
@@ -9744,15 +9548,15 @@
       <c r="DR43" s="39"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="75"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="96"/>
       <c r="J44" s="13" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v/>
@@ -9871,15 +9675,15 @@
       <c r="DR44" s="42"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="74"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="95"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -9998,15 +9802,15 @@
       <c r="DR45" s="39"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="75"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -10125,15 +9929,15 @@
       <c r="DR46" s="42"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="74"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="95"/>
       <c r="J47" s="12" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
         <v/>
@@ -10252,15 +10056,15 @@
       <c r="DR47" s="39"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="75"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="96"/>
       <c r="J48" s="13" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v/>
@@ -10379,15 +10183,15 @@
       <c r="DR48" s="42"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -10506,15 +10310,15 @@
       <c r="DR49" s="39"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -10633,15 +10437,15 @@
       <c r="DR50" s="42"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="74"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="95"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v/>
@@ -10760,15 +10564,15 @@
       <c r="DR51" s="39"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="75"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="96"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v/>
@@ -10887,15 +10691,15 @@
       <c r="DR52" s="42"/>
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="74"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="95"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11014,15 +10818,15 @@
       <c r="DR53" s="39"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="75"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="96"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11141,15 +10945,15 @@
       <c r="DR54" s="42"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="74"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="95"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11268,15 +11072,15 @@
       <c r="DR55" s="39"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="75"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="96"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11395,15 +11199,15 @@
       <c r="DR56" s="42"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11522,15 +11326,15 @@
       <c r="DR57" s="39"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -11649,15 +11453,15 @@
       <c r="DR58" s="42"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -11776,15 +11580,15 @@
       <c r="DR59" s="39"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -11903,15 +11707,15 @@
       <c r="DR60" s="42"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12030,15 +11834,15 @@
       <c r="DR61" s="39"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12157,15 +11961,15 @@
       <c r="DR62" s="42"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12284,15 +12088,15 @@
       <c r="DR63" s="39"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12411,15 +12215,15 @@
       <c r="DR64" s="42"/>
     </row>
     <row r="65" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12538,15 +12342,15 @@
       <c r="DR65" s="39"/>
     </row>
     <row r="66" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -12665,15 +12469,15 @@
       <c r="DR66" s="42"/>
     </row>
     <row r="67" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12792,15 +12596,15 @@
       <c r="DR67" s="39"/>
     </row>
     <row r="68" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -12919,15 +12723,15 @@
       <c r="DR68" s="42"/>
     </row>
     <row r="69" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13046,15 +12850,15 @@
       <c r="DR69" s="39"/>
     </row>
     <row r="70" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -31174,120 +30978,179 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="311">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -31312,381 +31175,322 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K75:DR75 K4:DR70">
-    <cfRule type="expression" dxfId="75" priority="100">
+    <cfRule type="expression" dxfId="47" priority="100">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="101">
+    <cfRule type="expression" dxfId="46" priority="101">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="102">
+    <cfRule type="expression" dxfId="45" priority="102">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11 J17 J19 J23 J25 J27 J29 J31 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69 J9 D9:D10 I9:I10 J41 J35 J37 J33 J21 D17:I70">
-    <cfRule type="expression" dxfId="72" priority="99">
+    <cfRule type="expression" dxfId="44" priority="99">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J18 J20 J24 J26 J28 J30 J32 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J10 J42 J36 J38 J34 J22">
-    <cfRule type="expression" dxfId="71" priority="98">
+    <cfRule type="expression" dxfId="43" priority="98">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="70" priority="80">
+    <cfRule type="expression" dxfId="42" priority="80">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="41" priority="79">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="68" priority="78">
+    <cfRule type="expression" dxfId="40" priority="78">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="39" priority="77">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="38" priority="69">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:I16 D15:E16">
-    <cfRule type="expression" dxfId="65" priority="61">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:DR69 K67:DR67 K65:DR65 K63:DR63 K61:DR61 K59:DR59 K57:DR57 K51:DR51 K49:DR49 K47:DR47 K45:DR45 K43:DR43 K41:DR41 K39:DR39 K31:DR31 K29:DR29 K27:DR27 K25:DR25 K9:DR9 K7:DR7 K37:DR37 K35:DR35 K33:DR33 K5:DR5 K17:DR17 K15:DR15 K13:DR13 K11:DR11 K53:DR53 K55:DR55 AI20 K19:DR19 K21:DR21 K23:DR23">
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="36" priority="72">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:DR70 K68:DR68 K66:DR66 K64:DR64 K62:DR62 K60:DR60 K58:DR58 K56:DR56 K54:DR54 K52:DR52 K50:DR50 K48:DR48 K46:DR46 K44:DR44 K42:DR42 K40:DR40 K34:DR34 K32:DR32 K30:DR30 K28:DR28 K26:DR26 K24:DR24 K10:DR10 K8:DR8 K6:DR6 K38:DR38 K36:DR36 K22:DR22 K20:DR20 K18:DR18 K16:DR16 K14:DR14 K12:DR12">
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="62" priority="67">
+    <cfRule type="expression" dxfId="34" priority="67">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="61" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C70">
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="32" priority="62">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="58" priority="43">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="57" priority="60">
+    <cfRule type="expression" dxfId="29" priority="60">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="56" priority="59">
+    <cfRule type="expression" dxfId="28" priority="59">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="27" priority="56">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="25" priority="55">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="24" priority="54">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="23" priority="53">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="22" priority="50">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="21" priority="51">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="20" priority="42">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="18" priority="40">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="45" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$C39=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C39=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32747,41 +32551,41 @@
         <f ca="1">IF(TODAY()&gt;=T$27,ガント!AC77,NA())</f>
         <v>31</v>
       </c>
-      <c r="U29" s="52" t="e">
+      <c r="U29" s="52">
         <f ca="1">IF(TODAY()&gt;=U$27,ガント!AD77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="V29" s="52">
         <f ca="1">IF(TODAY()&gt;=V$27,ガント!AE77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="W29" s="52">
         <f ca="1">IF(TODAY()&gt;=W$27,ガント!AF77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="X29" s="52">
         <f ca="1">IF(TODAY()&gt;=X$27,ガント!AG77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="52">
         <f ca="1">IF(TODAY()&gt;=Y$27,ガント!AH77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="52">
         <f ca="1">IF(TODAY()&gt;=Z$27,ガント!AI77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="52">
         <f ca="1">IF(TODAY()&gt;=AA$27,ガント!AJ77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="52">
         <f ca="1">IF(TODAY()&gt;=AB$27,ガント!AK77,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" s="52" t="e">
+        <v>31</v>
+      </c>
+      <c r="AC29" s="52">
         <f ca="1">IF(TODAY()&gt;=AC$27,ガント!AL77,NA())</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="AD29" s="52" t="e">
         <f ca="1">IF(TODAY()&gt;=AD$27,ガント!AM77,NA())</f>
@@ -33201,41 +33005,41 @@
         <f ca="1">IF(TODAY()&gt;=T$27,ガント!AC78,NA())</f>
         <v>44</v>
       </c>
-      <c r="U30" s="49" t="e">
+      <c r="U30" s="49">
         <f ca="1">IF(TODAY()&gt;=U$27,ガント!AD78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="V30" s="49">
         <f ca="1">IF(TODAY()&gt;=V$27,ガント!AE78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="W30" s="49">
         <f ca="1">IF(TODAY()&gt;=W$27,ガント!AF78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="X30" s="49">
         <f ca="1">IF(TODAY()&gt;=X$27,ガント!AG78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="Y30" s="49">
         <f ca="1">IF(TODAY()&gt;=Y$27,ガント!AH78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="49">
         <f ca="1">IF(TODAY()&gt;=Z$27,ガント!AI78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="49">
         <f ca="1">IF(TODAY()&gt;=AA$27,ガント!AJ78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="49">
         <f ca="1">IF(TODAY()&gt;=AB$27,ガント!AK78,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC30" s="49" t="e">
+        <v>44</v>
+      </c>
+      <c r="AC30" s="49">
         <f ca="1">IF(TODAY()&gt;=AC$27,ガント!AL78,NA())</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="AD30" s="49" t="e">
         <f ca="1">IF(TODAY()&gt;=AD$27,ガント!AM78,NA())</f>
@@ -33654,41 +33458,41 @@
         <f t="shared" ca="1" si="0"/>
         <v>-30</v>
       </c>
-      <c r="U31" s="47" t="e">
+      <c r="U31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V31" s="47" t="e">
+        <v>-30</v>
+      </c>
+      <c r="V31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" s="47" t="e">
+        <v>-30</v>
+      </c>
+      <c r="W31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" s="47" t="e">
+        <v>-30</v>
+      </c>
+      <c r="X31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" s="47" t="e">
+        <v>-30</v>
+      </c>
+      <c r="Y31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z31" s="47" t="e">
+        <v>-30</v>
+      </c>
+      <c r="Z31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA31" s="47" t="e">
+        <v>-33</v>
+      </c>
+      <c r="AA31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB31" s="47" t="e">
+        <v>-36</v>
+      </c>
+      <c r="AB31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC31" s="47" t="e">
+        <v>-39</v>
+      </c>
+      <c r="AC31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>-42</v>
       </c>
       <c r="AD31" s="47" t="e">
         <f ca="1">IF(ISERR(AD30-AD28),NA(),AD30-AD28)</f>
@@ -34107,41 +33911,41 @@
         <f t="shared" ca="1" si="4"/>
         <v>13</v>
       </c>
-      <c r="U32" s="45" t="e">
+      <c r="U32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="V32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="W32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="X32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="Z32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="AA32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="AB32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC32" s="45" t="e">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AD32" s="45" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -34560,41 +34364,41 @@
         <f t="shared" ca="1" si="8"/>
         <v>0.59459459459459463</v>
       </c>
-      <c r="U33" s="50" t="e">
+      <c r="U33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" s="50" t="e">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="V33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" s="50" t="e">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="W33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" s="50" t="e">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="X33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" s="50" t="e">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="Y33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" s="50" t="e">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="Z33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" s="50" t="e">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AA33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" s="50" t="e">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" s="50" t="e">
+        <v>0.53012048192771088</v>
+      </c>
+      <c r="AC33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="AD33" s="50" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -35013,41 +34817,41 @@
         <f t="shared" ca="1" si="12"/>
         <v>1.4193548387096775</v>
       </c>
-      <c r="U34" s="50" t="e">
+      <c r="U34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="V34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="W34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="X34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="Y34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="Z34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="AA34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="AB34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC34" s="50" t="e">
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="AC34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>1.4193548387096775</v>
       </c>
       <c r="AD34" s="50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -35390,13 +35194,13 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DI27">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35842,12 +35646,12 @@
   <autoFilter ref="A3:H29"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:H29 A4:B29">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35906,7 +35710,7 @@
       <c r="C2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="70" t="s">
         <v>147</v>
       </c>
     </row>
@@ -35920,7 +35724,7 @@
       <c r="C3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="99"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="54" t="s">
         <v>148</v>
       </c>
@@ -35944,7 +35748,7 @@
       <c r="C4" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="72" t="s">
         <v>152</v>
       </c>
       <c r="G4" s="54" t="s">
@@ -35970,7 +35774,7 @@
       <c r="C5" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="72" t="s">
         <v>157</v>
       </c>
       <c r="G5" s="54" t="s">
@@ -35992,7 +35796,7 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="72" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="54" t="s">
@@ -36014,7 +35818,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="72" t="s">
         <v>165</v>
       </c>
       <c r="G7" s="54" t="s">
@@ -36040,7 +35844,7 @@
       <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="72" t="s">
         <v>169</v>
       </c>
       <c r="G8" s="54" t="s">
@@ -36066,7 +35870,7 @@
       <c r="C9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="73" t="s">
         <v>174</v>
       </c>
       <c r="G9" s="54" t="s">
@@ -36090,7 +35894,7 @@
       <c r="C10" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="72" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="54" t="s">
@@ -36112,7 +35916,7 @@
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="72" t="s">
         <v>178</v>
       </c>
       <c r="G11" s="54" t="s">
@@ -36137,7 +35941,7 @@
       <c r="D12" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="72" t="s">
         <v>179</v>
       </c>
       <c r="G12" s="54" t="s">
@@ -36167,7 +35971,7 @@
         <v>143</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="102"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
@@ -36182,7 +35986,7 @@
       <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="75" t="s">
         <v>181</v>
       </c>
     </row>
@@ -36199,19 +36003,19 @@
       <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="105" t="s">
+      <c r="K15" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="105" t="s">
+      <c r="L15" s="77" t="s">
         <v>151</v>
       </c>
     </row>
@@ -36225,21 +36029,21 @@
       <c r="C16" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="82" t="s">
         <v>171</v>
       </c>
     </row>
@@ -36256,21 +36060,21 @@
       <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="110" t="s">
+      <c r="K17" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="82" t="s">
         <v>183</v>
       </c>
     </row>
@@ -36278,21 +36082,21 @@
       <c r="A18" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="J18" s="110" t="s">
+      <c r="J18" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="110" t="s">
+      <c r="L18" s="82" t="s">
         <v>171</v>
       </c>
     </row>
@@ -36300,21 +36104,21 @@
       <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="109" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="J19" s="110" t="s">
+      <c r="J19" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="110" t="s">
+      <c r="K19" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="L19" s="110" t="s">
+      <c r="L19" s="82" t="s">
         <v>190</v>
       </c>
     </row>
@@ -36322,21 +36126,21 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="109" t="s">
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="110" t="s">
+      <c r="J20" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="K20" s="110" t="s">
+      <c r="K20" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="L20" s="110" t="s">
+      <c r="L20" s="82" t="s">
         <v>183</v>
       </c>
     </row>
@@ -36344,21 +36148,21 @@
       <c r="A21" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="110" t="s">
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="82" t="s">
         <v>171</v>
       </c>
     </row>
@@ -36437,7 +36241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -36461,11 +36265,11 @@
       <c r="B1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="36" t="s">
         <v>53</v>
       </c>
@@ -36863,10 +36667,10 @@
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="97"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="9" t="s">
         <v>28</v>
       </c>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="231">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1591,6 +1591,295 @@
   <si>
     <t>○</t>
   </si>
+  <si>
+    <t>PJの契約書承認</t>
+    <rPh sb="3" eb="6">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト終結</t>
+    <rPh sb="6" eb="8">
+      <t>シュウケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QCD評価報告書</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書作成</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト設計書作成</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QCD評価報告書作成</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントレポート作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAMの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表資料作成</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表練習</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末発表</t>
+    <rPh sb="0" eb="2">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2287,39 +2576,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2330,8 +2596,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2354,20 +2638,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2860,40 +3149,40 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>121</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>125</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>129</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,16 +3281,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3134,13 +3423,13 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3192,11 +3481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279457936"/>
-        <c:axId val="279461744"/>
+        <c:axId val="267992960"/>
+        <c:axId val="267993520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="279457936"/>
+        <c:axId val="267992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3206,14 +3495,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279461744"/>
+        <c:crossAx val="267993520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="279461744"/>
+        <c:axId val="267993520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3523,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279457936"/>
+        <c:crossAx val="267992960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3727,11 +4016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS115"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3751,26 +4040,26 @@
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="90"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="98" t="s">
         <v>0</v>
       </c>
@@ -3796,16 +4085,16 @@
       <c r="AF1" s="102"/>
       <c r="AG1" s="102"/>
       <c r="AH1" s="103"/>
-      <c r="AI1" s="97" t="s">
+      <c r="AI1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="106"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="93"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3814,7 +4103,7 @@
       </c>
       <c r="E2" s="11">
         <f>SUM(J5,J7,J11,J9,J13,J15,J17,J19,J23,J25,J27,J29,J31,J33,J21,J35,J37,J39,J41,J43,J45,J47,J49,J51,J53,J55,J57,J59,J61,J63,J65,J67,J69)/20</f>
-        <v>0.85624999999999996</v>
+        <v>2.5062500000000001</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
@@ -3825,7 +4114,7 @@
       </c>
       <c r="I2" s="11">
         <f>SUM(J6,J8,J12,J10,J14,J16,J18,J20,J24,J26,J28,J30,J32,J34,J22,J36,J38,J40,J42,J44,J46,J48,J50,J52,J54,J56,J58,J60,J62,J64,J66,J68,J70)/20</f>
-        <v>0.49375000000000002</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>30</v>
@@ -3834,25 +4123,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -3980,10 +4269,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4000,7 +4289,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
@@ -4345,7 +4634,7 @@
       <c r="A5" s="85">
         <v>0</v>
       </c>
-      <c r="B5" s="86" t="str">
+      <c r="B5" s="87" t="str">
         <f>B1</f>
         <v>管理システム開発</v>
       </c>
@@ -4355,19 +4644,19 @@
       <c r="D5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="86" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="12">
@@ -4519,14 +4808,14 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4681,13 +4970,13 @@
       <c r="B7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4808,13 +5097,13 @@
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4937,25 +5226,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="89" t="s">
         <v>194</v>
       </c>
       <c r="J9" s="12">
@@ -5090,16 +5379,16 @@
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
@@ -5117,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S10" s="41"/>
       <c r="T10" s="41"/>
@@ -5229,25 +5518,25 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="85"/>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="I11" s="89" t="s">
         <v>194</v>
       </c>
       <c r="J11" s="12">
@@ -5378,16 +5667,16 @@
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
@@ -5412,13 +5701,11 @@
         <v>0</v>
       </c>
       <c r="Y12" s="41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="41"/>
       <c r="AA12" s="41"/>
-      <c r="AB12" s="41">
-        <v>6</v>
-      </c>
+      <c r="AB12" s="41"/>
       <c r="AC12" s="41"/>
       <c r="AD12" s="42"/>
       <c r="AE12" s="43"/>
@@ -5519,25 +5806,25 @@
         <v>1.3</v>
       </c>
       <c r="B13" s="85"/>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="95" t="s">
+      <c r="H13" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="89" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="12">
@@ -5662,16 +5949,16 @@
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
@@ -5688,24 +5975,34 @@
       <c r="W14" s="41"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
       <c r="AB14" s="41">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="AC14" s="41">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="42">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>3</v>
+      </c>
       <c r="AG14" s="41"/>
       <c r="AH14" s="41"/>
       <c r="AI14" s="41"/>
       <c r="AJ14" s="41"/>
       <c r="AK14" s="41"/>
       <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
+      <c r="AM14" s="41">
+        <v>3</v>
+      </c>
       <c r="AN14" s="41"/>
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
@@ -5791,19 +6088,19 @@
       <c r="DR14" s="42"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="86">
+      <c r="A15" s="87">
         <v>2</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -5922,15 +6219,15 @@
       <c r="DR15" s="39"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6049,27 +6346,29 @@
       <c r="DR16" s="42"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="86">
+      <c r="A17" s="87">
         <v>2.1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="12">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -6192,18 +6491,18 @@
       <c r="DR17" s="39"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
@@ -6230,10 +6529,18 @@
       <c r="AG18" s="41"/>
       <c r="AH18" s="41"/>
       <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
+      <c r="AJ18" s="41">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="41">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="41">
+        <v>3</v>
+      </c>
       <c r="AN18" s="41"/>
       <c r="AO18" s="41"/>
       <c r="AP18" s="41"/>
@@ -6319,23 +6626,25 @@
       <c r="DR18" s="42"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="86">
+      <c r="A19" s="87">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89" t="s">
+        <v>48</v>
+      </c>
       <c r="J19" s="12">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -6464,18 +6773,18 @@
       <c r="DR19" s="39"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
@@ -6505,7 +6814,9 @@
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
+      <c r="AM20" s="41">
+        <v>1</v>
+      </c>
       <c r="AN20" s="41"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="41"/>
@@ -6591,23 +6902,25 @@
       <c r="DR20" s="42"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86">
+      <c r="A21" s="87">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95" t="s">
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89" t="s">
+        <v>48</v>
+      </c>
       <c r="J21" s="12">
         <f>IF(C21&lt;&gt;"",SUM(K21:DR21)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -6736,18 +7049,18 @@
       <c r="DR21" s="39"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
@@ -6777,7 +7090,9 @@
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
       <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
+      <c r="AM22" s="41">
+        <v>3</v>
+      </c>
       <c r="AN22" s="41"/>
       <c r="AO22" s="41"/>
       <c r="AP22" s="41"/>
@@ -6863,23 +7178,25 @@
       <c r="DR22" s="42"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="86">
+      <c r="A23" s="87">
         <v>2.4</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95" t="s">
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89" t="s">
+        <v>194</v>
+      </c>
       <c r="J23" s="12">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -7008,18 +7325,18 @@
       <c r="DR23" s="39"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
@@ -7045,11 +7362,21 @@
       <c r="AF24" s="41"/>
       <c r="AG24" s="41"/>
       <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
+      <c r="AI24" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="41">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="41">
+        <v>1</v>
+      </c>
       <c r="AN24" s="41"/>
       <c r="AO24" s="41"/>
       <c r="AP24" s="41"/>
@@ -7135,18 +7462,28 @@
       <c r="DR24" s="42"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="12" t="str">
+      <c r="A25" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="12">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
-        <v/>
+        <v>0.75</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -7183,7 +7520,9 @@
       <c r="AQ25" s="38"/>
       <c r="AR25" s="38"/>
       <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
+      <c r="AT25" s="38">
+        <v>6</v>
+      </c>
       <c r="AU25" s="38"/>
       <c r="AV25" s="38"/>
       <c r="AW25" s="38"/>
@@ -7262,18 +7601,18 @@
       <c r="DR25" s="39"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="13" t="str">
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
@@ -7389,15 +7728,19 @@
       <c r="DR26" s="42"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
+      <c r="A27" s="87">
+        <v>3</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -7516,15 +7859,15 @@
       <c r="DR27" s="39"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -7643,18 +7986,30 @@
       <c r="DR28" s="42"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="12" t="str">
+      <c r="A29" s="87">
+        <v>3.1</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="12">
         <f>IF(C29&lt;&gt;"",SUM(K29:DR29)/データ!$D$2,"")</f>
-        <v/>
+        <v>0.75</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
@@ -7687,8 +8042,12 @@
       <c r="AM29" s="38"/>
       <c r="AN29" s="38"/>
       <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
+      <c r="AP29" s="38">
+        <v>3</v>
+      </c>
+      <c r="AQ29" s="38">
+        <v>3</v>
+      </c>
       <c r="AR29" s="38"/>
       <c r="AS29" s="38"/>
       <c r="AT29" s="38"/>
@@ -7770,18 +8129,18 @@
       <c r="DR29" s="39"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="13" t="str">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
@@ -7897,15 +8256,19 @@
       <c r="DR30" s="42"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
+      <c r="A31" s="87">
+        <v>4</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -8024,15 +8387,15 @@
       <c r="DR31" s="39"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -8151,18 +8514,30 @@
       <c r="DR32" s="42"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="12" t="str">
+      <c r="A33" s="87">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="12">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
-        <v/>
+        <v>2.25</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
@@ -8197,13 +8572,23 @@
       <c r="AO33" s="38"/>
       <c r="AP33" s="38"/>
       <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
+      <c r="AR33" s="38">
+        <v>3</v>
+      </c>
+      <c r="AS33" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT33" s="38">
+        <v>6</v>
+      </c>
       <c r="AU33" s="38"/>
       <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="38"/>
+      <c r="AW33" s="38">
+        <v>3</v>
+      </c>
+      <c r="AX33" s="38">
+        <v>3</v>
+      </c>
       <c r="AY33" s="38"/>
       <c r="AZ33" s="38"/>
       <c r="BA33" s="38"/>
@@ -8278,18 +8663,18 @@
       <c r="DR33" s="39"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="13" t="str">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
@@ -8405,15 +8790,19 @@
       <c r="DR34" s="42"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
+      <c r="A35" s="87">
+        <v>5</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8532,15 +8921,15 @@
       <c r="DR35" s="39"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -8659,18 +9048,30 @@
       <c r="DR36" s="42"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="12" t="str">
+      <c r="A37" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="12">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
-        <v/>
+        <v>2.25</v>
       </c>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
@@ -8712,9 +9113,15 @@
       <c r="AV37" s="38"/>
       <c r="AW37" s="38"/>
       <c r="AX37" s="38"/>
-      <c r="AY37" s="38"/>
-      <c r="AZ37" s="38"/>
-      <c r="BA37" s="38"/>
+      <c r="AY37" s="38">
+        <v>3</v>
+      </c>
+      <c r="AZ37" s="38">
+        <v>3</v>
+      </c>
+      <c r="BA37" s="38">
+        <v>12</v>
+      </c>
       <c r="BB37" s="38"/>
       <c r="BC37" s="38"/>
       <c r="BD37" s="38"/>
@@ -8786,18 +9193,18 @@
       <c r="DR37" s="39"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="13" t="str">
+      <c r="A38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
@@ -8913,15 +9320,19 @@
       <c r="DR38" s="42"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
+      <c r="A39" s="87">
+        <v>6</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
       <c r="J39" s="12" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
         <v/>
@@ -9040,15 +9451,15 @@
       <c r="DR39" s="39"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
       <c r="J40" s="13" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v/>
@@ -9167,18 +9578,30 @@
       <c r="DR40" s="42"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="12" t="str">
+      <c r="A41" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="12">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
@@ -9239,11 +9662,21 @@
       <c r="BO41" s="38"/>
       <c r="BP41" s="38"/>
       <c r="BQ41" s="38"/>
-      <c r="BR41" s="38"/>
-      <c r="BS41" s="38"/>
-      <c r="BT41" s="38"/>
-      <c r="BU41" s="38"/>
-      <c r="BV41" s="38"/>
+      <c r="BR41" s="38">
+        <v>3</v>
+      </c>
+      <c r="BS41" s="38">
+        <v>3</v>
+      </c>
+      <c r="BT41" s="38">
+        <v>3</v>
+      </c>
+      <c r="BU41" s="38">
+        <v>3</v>
+      </c>
+      <c r="BV41" s="38">
+        <v>12</v>
+      </c>
       <c r="BW41" s="38"/>
       <c r="BX41" s="38"/>
       <c r="BY41" s="38"/>
@@ -9294,18 +9727,18 @@
       <c r="DR41" s="39"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="13" t="str">
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="13">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="41"/>
@@ -9421,15 +9854,19 @@
       <c r="DR42" s="42"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="85">
+        <v>7</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>213</v>
+      </c>
       <c r="C43" s="85"/>
       <c r="D43" s="85"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="95"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="89"/>
       <c r="J43" s="12" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K43:DR43)/データ!$D$2,"")</f>
         <v/>
@@ -9552,11 +9989,11 @@
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="96"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="90"/>
       <c r="J44" s="13" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v/>
@@ -9675,18 +10112,30 @@
       <c r="DR44" s="42"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="85"/>
+      <c r="A45" s="85">
+        <v>7.1</v>
+      </c>
       <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="12" t="str">
+      <c r="C45" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="86"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="12">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
@@ -9754,10 +10203,18 @@
       <c r="BV45" s="38"/>
       <c r="BW45" s="38"/>
       <c r="BX45" s="38"/>
-      <c r="BY45" s="38"/>
-      <c r="BZ45" s="38"/>
-      <c r="CA45" s="38"/>
-      <c r="CB45" s="38"/>
+      <c r="BY45" s="38">
+        <v>3</v>
+      </c>
+      <c r="BZ45" s="38">
+        <v>3</v>
+      </c>
+      <c r="CA45" s="38">
+        <v>3</v>
+      </c>
+      <c r="CB45" s="38">
+        <v>3</v>
+      </c>
       <c r="CC45" s="38"/>
       <c r="CD45" s="38"/>
       <c r="CE45" s="38"/>
@@ -9806,14 +10263,14 @@
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
       <c r="D46" s="85"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="13" t="str">
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="41"/>
@@ -9929,18 +10386,30 @@
       <c r="DR46" s="42"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="85"/>
+      <c r="A47" s="85">
+        <v>7.2</v>
+      </c>
       <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="12" t="str">
+      <c r="C47" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="86"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="12">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
@@ -10012,7 +10481,9 @@
       <c r="BZ47" s="38"/>
       <c r="CA47" s="38"/>
       <c r="CB47" s="38"/>
-      <c r="CC47" s="38"/>
+      <c r="CC47" s="38">
+        <v>12</v>
+      </c>
       <c r="CD47" s="38"/>
       <c r="CE47" s="38"/>
       <c r="CF47" s="38"/>
@@ -10060,14 +10531,14 @@
       <c r="B48" s="85"/>
       <c r="C48" s="85"/>
       <c r="D48" s="85"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="13" t="str">
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
@@ -10183,15 +10654,19 @@
       <c r="DR48" s="42"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="85">
+        <v>8</v>
+      </c>
+      <c r="B49" s="85" t="s">
+        <v>85</v>
+      </c>
       <c r="C49" s="85"/>
       <c r="D49" s="85"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -10314,11 +10789,11 @@
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
       <c r="D50" s="85"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -10437,18 +10912,30 @@
       <c r="DR50" s="42"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
+      <c r="A51" s="85">
+        <v>8.1</v>
+      </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="12" t="str">
+      <c r="C51" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="86"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="12">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
@@ -10523,10 +11010,18 @@
       <c r="CC51" s="38"/>
       <c r="CD51" s="38"/>
       <c r="CE51" s="38"/>
-      <c r="CF51" s="38"/>
-      <c r="CG51" s="38"/>
-      <c r="CH51" s="38"/>
-      <c r="CI51" s="38"/>
+      <c r="CF51" s="38">
+        <v>3</v>
+      </c>
+      <c r="CG51" s="38">
+        <v>3</v>
+      </c>
+      <c r="CH51" s="38">
+        <v>3</v>
+      </c>
+      <c r="CI51" s="38">
+        <v>3</v>
+      </c>
       <c r="CJ51" s="38"/>
       <c r="CK51" s="38"/>
       <c r="CL51" s="38"/>
@@ -10568,14 +11063,14 @@
       <c r="B52" s="85"/>
       <c r="C52" s="85"/>
       <c r="D52" s="85"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="13" t="str">
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="41"/>
@@ -10691,18 +11186,30 @@
       <c r="DR52" s="42"/>
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="85"/>
+      <c r="A53" s="85">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="12" t="str">
+      <c r="C53" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="86"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="12">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -10781,7 +11288,9 @@
       <c r="CG53" s="38"/>
       <c r="CH53" s="38"/>
       <c r="CI53" s="38"/>
-      <c r="CJ53" s="38"/>
+      <c r="CJ53" s="38">
+        <v>12</v>
+      </c>
       <c r="CK53" s="38"/>
       <c r="CL53" s="38"/>
       <c r="CM53" s="39"/>
@@ -10822,14 +11331,14 @@
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
       <c r="D54" s="85"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="13" t="str">
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="41"/>
@@ -10945,15 +11454,19 @@
       <c r="DR54" s="42"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
+      <c r="A55" s="85">
+        <v>9</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>215</v>
+      </c>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="95"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="89"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11076,11 +11589,11 @@
       <c r="B56" s="85"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="96"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="90"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11199,18 +11712,28 @@
       <c r="DR56" s="42"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="85"/>
+      <c r="A57" s="85">
+        <v>9.1</v>
+      </c>
       <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="12" t="str">
+      <c r="C57" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="12">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.75</v>
       </c>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
@@ -11292,11 +11815,21 @@
       <c r="CJ57" s="38"/>
       <c r="CK57" s="38"/>
       <c r="CL57" s="38"/>
-      <c r="CM57" s="39"/>
-      <c r="CN57" s="40"/>
-      <c r="CO57" s="38"/>
-      <c r="CP57" s="38"/>
-      <c r="CQ57" s="38"/>
+      <c r="CM57" s="39">
+        <v>2</v>
+      </c>
+      <c r="CN57" s="40">
+        <v>2</v>
+      </c>
+      <c r="CO57" s="38">
+        <v>2</v>
+      </c>
+      <c r="CP57" s="38">
+        <v>2</v>
+      </c>
+      <c r="CQ57" s="38">
+        <v>6</v>
+      </c>
       <c r="CR57" s="38"/>
       <c r="CS57" s="38"/>
       <c r="CT57" s="38"/>
@@ -11330,14 +11863,14 @@
       <c r="B58" s="85"/>
       <c r="C58" s="85"/>
       <c r="D58" s="85"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="13" t="str">
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="13">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K58" s="41"/>
       <c r="L58" s="41"/>
@@ -11453,18 +11986,26 @@
       <c r="DR58" s="42"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="85"/>
+      <c r="A59" s="85">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="12" t="str">
+      <c r="C59" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="12">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
-        <v/>
+        <v>0.875</v>
       </c>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
@@ -11546,11 +12087,21 @@
       <c r="CJ59" s="38"/>
       <c r="CK59" s="38"/>
       <c r="CL59" s="38"/>
-      <c r="CM59" s="39"/>
-      <c r="CN59" s="40"/>
-      <c r="CO59" s="38"/>
-      <c r="CP59" s="38"/>
-      <c r="CQ59" s="38"/>
+      <c r="CM59" s="39">
+        <v>1</v>
+      </c>
+      <c r="CN59" s="40">
+        <v>1</v>
+      </c>
+      <c r="CO59" s="38">
+        <v>1</v>
+      </c>
+      <c r="CP59" s="38">
+        <v>1</v>
+      </c>
+      <c r="CQ59" s="38">
+        <v>3</v>
+      </c>
       <c r="CR59" s="38"/>
       <c r="CS59" s="38"/>
       <c r="CT59" s="38"/>
@@ -11584,14 +12135,14 @@
       <c r="B60" s="85"/>
       <c r="C60" s="85"/>
       <c r="D60" s="85"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="13" t="str">
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
@@ -11707,15 +12258,19 @@
       <c r="DR60" s="42"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="85">
+        <v>10</v>
+      </c>
+      <c r="B61" s="85" t="s">
+        <v>226</v>
+      </c>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -11838,11 +12393,11 @@
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -11961,18 +12516,30 @@
       <c r="DR62" s="42"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="85"/>
+      <c r="A63" s="85">
+        <v>10.1</v>
+      </c>
       <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="12" t="str">
+      <c r="C63" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="12">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
-        <v/>
+        <v>6.375</v>
       </c>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
@@ -12019,11 +12586,21 @@
       <c r="BA63" s="38"/>
       <c r="BB63" s="38"/>
       <c r="BC63" s="38"/>
-      <c r="BD63" s="38"/>
-      <c r="BE63" s="38"/>
-      <c r="BF63" s="38"/>
-      <c r="BG63" s="38"/>
-      <c r="BH63" s="38"/>
+      <c r="BD63" s="38">
+        <v>3</v>
+      </c>
+      <c r="BE63" s="38">
+        <v>3</v>
+      </c>
+      <c r="BF63" s="38">
+        <v>3</v>
+      </c>
+      <c r="BG63" s="38">
+        <v>3</v>
+      </c>
+      <c r="BH63" s="38">
+        <v>12</v>
+      </c>
       <c r="BI63" s="39"/>
       <c r="BJ63" s="40"/>
       <c r="BK63" s="38"/>
@@ -12061,11 +12638,21 @@
       <c r="CQ63" s="38"/>
       <c r="CR63" s="38"/>
       <c r="CS63" s="38"/>
-      <c r="CT63" s="38"/>
-      <c r="CU63" s="38"/>
-      <c r="CV63" s="38"/>
-      <c r="CW63" s="38"/>
-      <c r="CX63" s="38"/>
+      <c r="CT63" s="38">
+        <v>3</v>
+      </c>
+      <c r="CU63" s="38">
+        <v>3</v>
+      </c>
+      <c r="CV63" s="38">
+        <v>3</v>
+      </c>
+      <c r="CW63" s="38">
+        <v>3</v>
+      </c>
+      <c r="CX63" s="38">
+        <v>15</v>
+      </c>
       <c r="CY63" s="38"/>
       <c r="CZ63" s="38"/>
       <c r="DA63" s="38"/>
@@ -12092,14 +12679,14 @@
       <c r="B64" s="85"/>
       <c r="C64" s="85"/>
       <c r="D64" s="85"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="13" t="str">
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="13">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K64" s="41"/>
       <c r="L64" s="41"/>
@@ -12215,18 +12802,30 @@
       <c r="DR64" s="42"/>
     </row>
     <row r="65" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="12" t="str">
+      <c r="A65" s="87">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="12">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
@@ -12280,10 +12879,18 @@
       <c r="BH65" s="38"/>
       <c r="BI65" s="39"/>
       <c r="BJ65" s="40"/>
-      <c r="BK65" s="38"/>
-      <c r="BL65" s="38"/>
-      <c r="BM65" s="38"/>
-      <c r="BN65" s="38"/>
+      <c r="BK65" s="38">
+        <v>3</v>
+      </c>
+      <c r="BL65" s="38">
+        <v>3</v>
+      </c>
+      <c r="BM65" s="38">
+        <v>3</v>
+      </c>
+      <c r="BN65" s="38">
+        <v>3</v>
+      </c>
       <c r="BO65" s="38"/>
       <c r="BP65" s="38"/>
       <c r="BQ65" s="38"/>
@@ -12322,17 +12929,33 @@
       <c r="CX65" s="38"/>
       <c r="CY65" s="38"/>
       <c r="CZ65" s="38"/>
-      <c r="DA65" s="38"/>
-      <c r="DB65" s="38"/>
-      <c r="DC65" s="38"/>
-      <c r="DD65" s="38"/>
+      <c r="DA65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DB65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DC65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DD65" s="38">
+        <v>3</v>
+      </c>
       <c r="DE65" s="38"/>
       <c r="DF65" s="38"/>
       <c r="DG65" s="38"/>
-      <c r="DH65" s="38"/>
-      <c r="DI65" s="38"/>
-      <c r="DJ65" s="38"/>
-      <c r="DK65" s="38"/>
+      <c r="DH65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DI65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DJ65" s="38">
+        <v>3</v>
+      </c>
+      <c r="DK65" s="38">
+        <v>3</v>
+      </c>
       <c r="DL65" s="38"/>
       <c r="DM65" s="38"/>
       <c r="DN65" s="38"/>
@@ -12342,18 +12965,18 @@
       <c r="DR65" s="39"/>
     </row>
     <row r="66" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="13" t="str">
+      <c r="A66" s="88"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="13">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K66" s="41"/>
       <c r="L66" s="41"/>
@@ -12469,18 +13092,26 @@
       <c r="DR66" s="42"/>
     </row>
     <row r="67" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A67" s="85"/>
+      <c r="A67" s="85">
+        <v>10.3</v>
+      </c>
       <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="12" t="str">
+      <c r="C67" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="12">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
@@ -12538,7 +13169,9 @@
       <c r="BL67" s="38"/>
       <c r="BM67" s="38"/>
       <c r="BN67" s="38"/>
-      <c r="BO67" s="38"/>
+      <c r="BO67" s="38">
+        <v>12</v>
+      </c>
       <c r="BP67" s="38"/>
       <c r="BQ67" s="38"/>
       <c r="BR67" s="38"/>
@@ -12600,14 +13233,14 @@
       <c r="B68" s="85"/>
       <c r="C68" s="85"/>
       <c r="D68" s="85"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="13" t="str">
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="13">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K68" s="41"/>
       <c r="L68" s="41"/>
@@ -12725,16 +13358,22 @@
     <row r="69" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A69" s="85"/>
       <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="12" t="str">
+      <c r="C69" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="12">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
@@ -12834,14 +13473,18 @@
       <c r="DB69" s="38"/>
       <c r="DC69" s="38"/>
       <c r="DD69" s="38"/>
-      <c r="DE69" s="38"/>
+      <c r="DE69" s="38">
+        <v>12</v>
+      </c>
       <c r="DF69" s="38"/>
       <c r="DG69" s="38"/>
       <c r="DH69" s="38"/>
       <c r="DI69" s="38"/>
       <c r="DJ69" s="38"/>
       <c r="DK69" s="38"/>
-      <c r="DL69" s="38"/>
+      <c r="DL69" s="38">
+        <v>12</v>
+      </c>
       <c r="DM69" s="38"/>
       <c r="DN69" s="38"/>
       <c r="DO69" s="38"/>
@@ -12854,14 +13497,14 @@
       <c r="B70" s="85"/>
       <c r="C70" s="85"/>
       <c r="D70" s="85"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="13" t="str">
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="13">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K70" s="41"/>
       <c r="L70" s="41"/>
@@ -12990,443 +13633,443 @@
         <v>0</v>
       </c>
       <c r="M72" s="29">
-        <f t="shared" ref="M72:BX72" si="0">SUM(M5,M7,M9,M11,M13,M15,M17,M19,M23,M25,M27,M29,M31,M33,M21,M35,M37,M39,M41,M43,M45,M47,M49,M51,M53,M55,M57,M59,M61,M63,M65,M67,M69)</f>
+        <f>SUM(M5,M7,M9,M11,M13,M15,M17,M19,M23,M25,M27,M29,M31,M33,M21,M35,M37,M39,M41,M43,M45,M47,M49,M51,M53,M55,M57,M59,M61,M63,M65,M67,M69)</f>
         <v>0</v>
       </c>
       <c r="N72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(N5,N7,N9,N11,N13,N15,N17,N19,N23,N25,N27,N29,N31,N33,N21,N35,N37,N39,N41,N43,N45,N47,N49,N51,N53,N55,N57,N59,N61,N63,N65,N67,N69)</f>
         <v>4</v>
       </c>
       <c r="O72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(O5,O7,O9,O11,O13,O15,O17,O19,O23,O25,O27,O29,O31,O33,O21,O35,O37,O39,O41,O43,O45,O47,O49,O51,O53,O55,O57,O59,O61,O63,O65,O67,O69)</f>
         <v>4</v>
       </c>
       <c r="P72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(P5,P7,P9,P11,P13,P15,P17,P19,P23,P25,P27,P29,P31,P33,P21,P35,P37,P39,P41,P43,P45,P47,P49,P51,P53,P55,P57,P59,P61,P63,P65,P67,P69)</f>
         <v>4</v>
       </c>
       <c r="Q72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(Q5,Q7,Q9,Q11,Q13,Q15,Q17,Q19,Q23,Q25,Q27,Q29,Q31,Q33,Q21,Q35,Q37,Q39,Q41,Q43,Q45,Q47,Q49,Q51,Q53,Q55,Q57,Q59,Q61,Q63,Q65,Q67,Q69)</f>
         <v>4</v>
       </c>
       <c r="R72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(R5,R7,R9,R11,R13,R15,R17,R19,R23,R25,R27,R29,R31,R33,R21,R35,R37,R39,R41,R43,R45,R47,R49,R51,R53,R55,R57,R59,R61,R63,R65,R67,R69)</f>
         <v>12</v>
       </c>
       <c r="S72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(S5,S7,S9,S11,S13,S15,S17,S19,S23,S25,S27,S29,S31,S33,S21,S35,S37,S39,S41,S43,S45,S47,S49,S51,S53,S55,S57,S59,S61,S63,S65,S67,S69)</f>
         <v>0</v>
       </c>
       <c r="T72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(T5,T7,T9,T11,T13,T15,T17,T19,T23,T25,T27,T29,T31,T33,T21,T35,T37,T39,T41,T43,T45,T47,T49,T51,T53,T55,T57,T59,T61,T63,T65,T67,T69)</f>
         <v>0</v>
       </c>
       <c r="U72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(U5,U7,U9,U11,U13,U15,U17,U19,U23,U25,U27,U29,U31,U33,U21,U35,U37,U39,U41,U43,U45,U47,U49,U51,U53,U55,U57,U59,U61,U63,U65,U67,U69)</f>
         <v>4</v>
       </c>
       <c r="V72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(V5,V7,V9,V11,V13,V15,V17,V19,V23,V25,V27,V29,V31,V33,V21,V35,V37,V39,V41,V43,V45,V47,V49,V51,V53,V55,V57,V59,V61,V63,V65,V67,V69)</f>
         <v>4</v>
       </c>
       <c r="W72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(W5,W7,W9,W11,W13,W15,W17,W19,W23,W25,W27,W29,W31,W33,W21,W35,W37,W39,W41,W43,W45,W47,W49,W51,W53,W55,W57,W59,W61,W63,W65,W67,W69)</f>
         <v>4</v>
       </c>
       <c r="X72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(X5,X7,X9,X11,X13,X15,X17,X19,X23,X25,X27,X29,X31,X33,X21,X35,X37,X39,X41,X43,X45,X47,X49,X51,X53,X55,X57,X59,X61,X63,X65,X67,X69)</f>
         <v>4</v>
       </c>
       <c r="Y72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19,Y23,Y25,Y27,Y29,Y31,Y33,Y21,Y35,Y37,Y39,Y41,Y43,Y45,Y47,Y49,Y51,Y53,Y55,Y57,Y59,Y61,Y63,Y65,Y67,Y69)</f>
         <v>16</v>
       </c>
       <c r="Z72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(Z5,Z7,Z9,Z11,Z13,Z15,Z17,Z19,Z23,Z25,Z27,Z29,Z31,Z33,Z21,Z35,Z37,Z39,Z41,Z43,Z45,Z47,Z49,Z51,Z53,Z55,Z57,Z59,Z61,Z63,Z65,Z67,Z69)</f>
         <v>0</v>
       </c>
       <c r="AA72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19,AA23,AA25,AA27,AA29,AA31,AA33,AA21,AA35,AA37,AA39,AA41,AA43,AA45,AA47,AA49,AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67,AA69)</f>
         <v>0</v>
       </c>
       <c r="AB72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB23,AB25,AB27,AB29,AB31,AB33,AB21,AB35,AB37,AB39,AB41,AB43,AB45,AB47,AB49,AB51,AB53,AB55,AB57,AB59,AB61,AB63,AB65,AB67,AB69)</f>
         <v>3</v>
       </c>
       <c r="AC72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AC5,AC7,AC9,AC11,AC13,AC15,AC17,AC19,AC23,AC25,AC27,AC29,AC31,AC33,AC21,AC35,AC37,AC39,AC41,AC43,AC45,AC47,AC49,AC51,AC53,AC55,AC57,AC59,AC61,AC63,AC65,AC67,AC69)</f>
         <v>3</v>
       </c>
       <c r="AD72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19,AD23,AD25,AD27,AD29,AD31,AD33,AD21,AD35,AD37,AD39,AD41,AD43,AD45,AD47,AD49,AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67,AD69)</f>
         <v>0</v>
       </c>
       <c r="AE72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19,AE23,AE25,AE27,AE29,AE31,AE33,AE21,AE35,AE37,AE39,AE41,AE43,AE45,AE47,AE49,AE51,AE53,AE55,AE57,AE59,AE61,AE63,AE65,AE67,AE69)</f>
         <v>0</v>
       </c>
       <c r="AF72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AF5,AF7,AF9,AF11,AF13,AF15,AF17,AF19,AF23,AF25,AF27,AF29,AF31,AF33,AF21,AF35,AF37,AF39,AF41,AF43,AF45,AF47,AF49,AF51,AF53,AF55,AF57,AF59,AF61,AF63,AF65,AF67,AF69)</f>
         <v>0</v>
       </c>
       <c r="AG72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19,AG23,AG25,AG27,AG29,AG31,AG33,AG21,AG35,AG37,AG39,AG41,AG43,AG45,AG47,AG49,AG51,AG53,AG55,AG57,AG59,AG61,AG63,AG65,AG67,AG69)</f>
         <v>0</v>
       </c>
       <c r="AH72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19,AH23,AH25,AH27,AH29,AH31,AH33,AH21,AH35,AH37,AH39,AH41,AH43,AH45,AH47,AH49,AH51,AH53,AH55,AH57,AH59,AH61,AH63,AH65,AH67,AH69)</f>
         <v>0</v>
       </c>
       <c r="AI72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AI5,AI7,AI9,AI11,AI13,AI15,AI17,AI19,AI23,AI25,AI27,AI29,AI31,AI33,AI21,AI35,AI37,AI39,AI41,AI43,AI45,AI47,AI49,AI51,AI53,AI55,AI57,AI59,AI61,AI63,AI65,AI67,AI69)</f>
         <v>3</v>
       </c>
       <c r="AJ72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19,AJ23,AJ25,AJ27,AJ29,AJ31,AJ33,AJ21,AJ35,AJ37,AJ39,AJ41,AJ43,AJ45,AJ47,AJ49,AJ51,AJ53,AJ55,AJ57,AJ59,AJ61,AJ63,AJ65,AJ67,AJ69)</f>
         <v>3</v>
       </c>
       <c r="AK72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19,AK23,AK25,AK27,AK29,AK31,AK33,AK21,AK35,AK37,AK39,AK41,AK43,AK45,AK47,AK49,AK51,AK53,AK55,AK57,AK59,AK61,AK63,AK65,AK67,AK69)</f>
         <v>3</v>
       </c>
       <c r="AL72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AL5,AL7,AL9,AL11,AL13,AL15,AL17,AL19,AL23,AL25,AL27,AL29,AL31,AL33,AL21,AL35,AL37,AL39,AL41,AL43,AL45,AL47,AL49,AL51,AL53,AL55,AL57,AL59,AL61,AL63,AL65,AL67,AL69)</f>
         <v>3</v>
       </c>
       <c r="AM72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19,AM23,AM25,AM27,AM29,AM31,AM33,AM21,AM35,AM37,AM39,AM41,AM43,AM45,AM47,AM49,AM51,AM53,AM55,AM57,AM59,AM61,AM63,AM65,AM67,AM69)</f>
         <v>7</v>
       </c>
       <c r="AN72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19,AN23,AN25,AN27,AN29,AN31,AN33,AN21,AN35,AN37,AN39,AN41,AN43,AN45,AN47,AN49,AN51,AN53,AN55,AN57,AN59,AN61,AN63,AN65,AN67,AN69)</f>
         <v>0</v>
       </c>
       <c r="AO72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AO5,AO7,AO9,AO11,AO13,AO15,AO17,AO19,AO23,AO25,AO27,AO29,AO31,AO33,AO21,AO35,AO37,AO39,AO41,AO43,AO45,AO47,AO49,AO51,AO53,AO55,AO57,AO59,AO61,AO63,AO65,AO67,AO69)</f>
         <v>0</v>
       </c>
       <c r="AP72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19,AP23,AP25,AP27,AP29,AP31,AP33,AP21,AP35,AP37,AP39,AP41,AP43,AP45,AP47,AP49,AP51,AP53,AP55,AP57,AP59,AP61,AP63,AP65,AP67,AP69)</f>
+        <v>3</v>
       </c>
       <c r="AQ72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19,AQ23,AQ25,AQ27,AQ29,AQ31,AQ33,AQ21,AQ35,AQ37,AQ39,AQ41,AQ43,AQ45,AQ47,AQ49,AQ51,AQ53,AQ55,AQ57,AQ59,AQ61,AQ63,AQ65,AQ67,AQ69)</f>
+        <v>3</v>
       </c>
       <c r="AR72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AR5,AR7,AR9,AR11,AR13,AR15,AR17,AR19,AR23,AR25,AR27,AR29,AR31,AR33,AR21,AR35,AR37,AR39,AR41,AR43,AR45,AR47,AR49,AR51,AR53,AR55,AR57,AR59,AR61,AR63,AR65,AR67,AR69)</f>
+        <v>3</v>
       </c>
       <c r="AS72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19,AS23,AS25,AS27,AS29,AS31,AS33,AS21,AS35,AS37,AS39,AS41,AS43,AS45,AS47,AS49,AS51,AS53,AS55,AS57,AS59,AS61,AS63,AS65,AS67,AS69)</f>
+        <v>3</v>
       </c>
       <c r="AT72" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19,AT23,AT25,AT27,AT29,AT31,AT33,AT21,AT35,AT37,AT39,AT41,AT43,AT45,AT47,AT49,AT51,AT53,AT55,AT57,AT59,AT61,AT63,AT65,AT67,AT69)</f>
+        <v>16</v>
       </c>
       <c r="AU72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AU5,AU7,AU9,AU11,AU13,AU15,AU17,AU19,AU23,AU25,AU27,AU29,AU31,AU33,AU21,AU35,AU37,AU39,AU41,AU43,AU45,AU47,AU49,AU51,AU53,AU55,AU57,AU59,AU61,AU63,AU65,AU67,AU69)</f>
         <v>0</v>
       </c>
       <c r="AV72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19,AV23,AV25,AV27,AV29,AV31,AV33,AV21,AV35,AV37,AV39,AV41,AV43,AV45,AV47,AV49,AV51,AV53,AV55,AV57,AV59,AV61,AV63,AV65,AV67,AV69)</f>
         <v>0</v>
       </c>
       <c r="AW72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19,AW23,AW25,AW27,AW29,AW31,AW33,AW21,AW35,AW37,AW39,AW41,AW43,AW45,AW47,AW49,AW51,AW53,AW55,AW57,AW59,AW61,AW63,AW65,AW67,AW69)</f>
+        <v>3</v>
       </c>
       <c r="AX72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AX5,AX7,AX9,AX11,AX13,AX15,AX17,AX19,AX23,AX25,AX27,AX29,AX31,AX33,AX21,AX35,AX37,AX39,AX41,AX43,AX45,AX47,AX49,AX51,AX53,AX55,AX57,AX59,AX61,AX63,AX65,AX67,AX69)</f>
+        <v>3</v>
       </c>
       <c r="AY72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AY5,AY7,AY9,AY11,AY13,AY15,AY17,AY19,AY23,AY25,AY27,AY29,AY31,AY33,AY21,AY35,AY37,AY39,AY41,AY43,AY45,AY47,AY49,AY51,AY53,AY55,AY57,AY59,AY61,AY63,AY65,AY67,AY69)</f>
+        <v>3</v>
       </c>
       <c r="AZ72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AZ5,AZ7,AZ9,AZ11,AZ13,AZ15,AZ17,AZ19,AZ23,AZ25,AZ27,AZ29,AZ31,AZ33,AZ21,AZ35,AZ37,AZ39,AZ41,AZ43,AZ45,AZ47,AZ49,AZ51,AZ53,AZ55,AZ57,AZ59,AZ61,AZ63,AZ65,AZ67,AZ69)</f>
+        <v>3</v>
       </c>
       <c r="BA72" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(BA5,BA7,BA9,BA11,BA13,BA15,BA17,BA19,BA23,BA25,BA27,BA29,BA31,BA33,BA21,BA35,BA37,BA39,BA41,BA43,BA45,BA47,BA49,BA51,BA53,BA55,BA57,BA59,BA61,BA63,BA65,BA67,BA69)</f>
+        <v>16</v>
       </c>
       <c r="BB72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BB5,BB7,BB9,BB11,BB13,BB15,BB17,BB19,BB23,BB25,BB27,BB29,BB31,BB33,BB21,BB35,BB37,BB39,BB41,BB43,BB45,BB47,BB49,BB51,BB53,BB55,BB57,BB59,BB61,BB63,BB65,BB67,BB69)</f>
         <v>0</v>
       </c>
       <c r="BC72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BC5,BC7,BC9,BC11,BC13,BC15,BC17,BC19,BC23,BC25,BC27,BC29,BC31,BC33,BC21,BC35,BC37,BC39,BC41,BC43,BC45,BC47,BC49,BC51,BC53,BC55,BC57,BC59,BC61,BC63,BC65,BC67,BC69)</f>
         <v>0</v>
       </c>
       <c r="BD72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BD5,BD7,BD9,BD11,BD13,BD15,BD17,BD19,BD23,BD25,BD27,BD29,BD31,BD33,BD21,BD35,BD37,BD39,BD41,BD43,BD45,BD47,BD49,BD51,BD53,BD55,BD57,BD59,BD61,BD63,BD65,BD67,BD69)</f>
+        <v>3</v>
       </c>
       <c r="BE72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19,BE23,BE25,BE27,BE29,BE31,BE33,BE21,BE35,BE37,BE39,BE41,BE43,BE45,BE47,BE49,BE51,BE53,BE55,BE57,BE59,BE61,BE63,BE65,BE67,BE69)</f>
+        <v>3</v>
       </c>
       <c r="BF72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19,BF23,BF25,BF27,BF29,BF31,BF33,BF21,BF35,BF37,BF39,BF41,BF43,BF45,BF47,BF49,BF51,BF53,BF55,BF57,BF59,BF61,BF63,BF65,BF67,BF69)</f>
+        <v>3</v>
       </c>
       <c r="BG72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BG5,BG7,BG9,BG11,BG13,BG15,BG17,BG19,BG23,BG25,BG27,BG29,BG31,BG33,BG21,BG35,BG37,BG39,BG41,BG43,BG45,BG47,BG49,BG51,BG53,BG55,BG57,BG59,BG61,BG63,BG65,BG67,BG69)</f>
+        <v>3</v>
       </c>
       <c r="BH72" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(BH5,BH7,BH9,BH11,BH13,BH15,BH17,BH19,BH23,BH25,BH27,BH29,BH31,BH33,BH21,BH35,BH37,BH39,BH41,BH43,BH45,BH47,BH49,BH51,BH53,BH55,BH57,BH59,BH61,BH63,BH65,BH67,BH69)</f>
+        <v>16</v>
       </c>
       <c r="BI72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BI5,BI7,BI9,BI11,BI13,BI15,BI17,BI19,BI23,BI25,BI27,BI29,BI31,BI33,BI21,BI35,BI37,BI39,BI41,BI43,BI45,BI47,BI49,BI51,BI53,BI55,BI57,BI59,BI61,BI63,BI65,BI67,BI69)</f>
         <v>0</v>
       </c>
       <c r="BJ72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19,BJ23,BJ25,BJ27,BJ29,BJ31,BJ33,BJ21,BJ35,BJ37,BJ39,BJ41,BJ43,BJ45,BJ47,BJ49,BJ51,BJ53,BJ55,BJ57,BJ59,BJ61,BJ63,BJ65,BJ67,BJ69)</f>
         <v>0</v>
       </c>
       <c r="BK72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19,BK23,BK25,BK27,BK29,BK31,BK33,BK21,BK35,BK37,BK39,BK41,BK43,BK45,BK47,BK49,BK51,BK53,BK55,BK57,BK59,BK61,BK63,BK65,BK67,BK69)</f>
+        <v>3</v>
       </c>
       <c r="BL72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BL5,BL7,BL9,BL11,BL13,BL15,BL17,BL19,BL23,BL25,BL27,BL29,BL31,BL33,BL21,BL35,BL37,BL39,BL41,BL43,BL45,BL47,BL49,BL51,BL53,BL55,BL57,BL59,BL61,BL63,BL65,BL67,BL69)</f>
+        <v>3</v>
       </c>
       <c r="BM72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19,BM23,BM25,BM27,BM29,BM31,BM33,BM21,BM35,BM37,BM39,BM41,BM43,BM45,BM47,BM49,BM51,BM53,BM55,BM57,BM59,BM61,BM63,BM65,BM67,BM69)</f>
+        <v>3</v>
       </c>
       <c r="BN72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19,BN23,BN25,BN27,BN29,BN31,BN33,BN21,BN35,BN37,BN39,BN41,BN43,BN45,BN47,BN49,BN51,BN53,BN55,BN57,BN59,BN61,BN63,BN65,BN67,BN69)</f>
+        <v>3</v>
       </c>
       <c r="BO72" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(BO5,BO7,BO9,BO11,BO13,BO15,BO17,BO19,BO23,BO25,BO27,BO29,BO31,BO33,BO21,BO35,BO37,BO39,BO41,BO43,BO45,BO47,BO49,BO51,BO53,BO55,BO57,BO59,BO61,BO63,BO65,BO67,BO69)</f>
+        <v>16</v>
       </c>
       <c r="BP72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19,BP23,BP25,BP27,BP29,BP31,BP33,BP21,BP35,BP37,BP39,BP41,BP43,BP45,BP47,BP49,BP51,BP53,BP55,BP57,BP59,BP61,BP63,BP65,BP67,BP69)</f>
         <v>0</v>
       </c>
       <c r="BQ72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19,BQ23,BQ25,BQ27,BQ29,BQ31,BQ33,BQ21,BQ35,BQ37,BQ39,BQ41,BQ43,BQ45,BQ47,BQ49,BQ51,BQ53,BQ55,BQ57,BQ59,BQ61,BQ63,BQ65,BQ67,BQ69)</f>
         <v>0</v>
       </c>
       <c r="BR72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BR5,BR7,BR9,BR11,BR13,BR15,BR17,BR19,BR23,BR25,BR27,BR29,BR31,BR33,BR21,BR35,BR37,BR39,BR41,BR43,BR45,BR47,BR49,BR51,BR53,BR55,BR57,BR59,BR61,BR63,BR65,BR67,BR69)</f>
+        <v>3</v>
       </c>
       <c r="BS72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19,BS23,BS25,BS27,BS29,BS31,BS33,BS21,BS35,BS37,BS39,BS41,BS43,BS45,BS47,BS49,BS51,BS53,BS55,BS57,BS59,BS61,BS63,BS65,BS67,BS69)</f>
+        <v>3</v>
       </c>
       <c r="BT72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19,BT23,BT25,BT27,BT29,BT31,BT33,BT21,BT35,BT37,BT39,BT41,BT43,BT45,BT47,BT49,BT51,BT53,BT55,BT57,BT59,BT61,BT63,BT65,BT67,BT69)</f>
+        <v>3</v>
       </c>
       <c r="BU72" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(BU5,BU7,BU9,BU11,BU13,BU15,BU17,BU19,BU23,BU25,BU27,BU29,BU31,BU33,BU21,BU35,BU37,BU39,BU41,BU43,BU45,BU47,BU49,BU51,BU53,BU55,BU57,BU59,BU61,BU63,BU65,BU67,BU69)</f>
+        <v>3</v>
       </c>
       <c r="BV72" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(BV5,BV7,BV9,BV11,BV13,BV15,BV17,BV19,BV23,BV25,BV27,BV29,BV31,BV33,BV21,BV35,BV37,BV39,BV41,BV43,BV45,BV47,BV49,BV51,BV53,BV55,BV57,BV59,BV61,BV63,BV65,BV67,BV69)</f>
+        <v>16</v>
       </c>
       <c r="BW72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19,BW23,BW25,BW27,BW29,BW31,BW33,BW21,BW35,BW37,BW39,BW41,BW43,BW45,BW47,BW49,BW51,BW53,BW55,BW57,BW59,BW61,BW63,BW65,BW67,BW69)</f>
         <v>0</v>
       </c>
       <c r="BX72" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(BX5,BX7,BX9,BX11,BX13,BX15,BX17,BX19,BX23,BX25,BX27,BX29,BX31,BX33,BX21,BX35,BX37,BX39,BX41,BX43,BX45,BX47,BX49,BX51,BX53,BX55,BX57,BX59,BX61,BX63,BX65,BX67,BX69)</f>
         <v>0</v>
       </c>
       <c r="BY72" s="29">
-        <f t="shared" ref="BY72:DR72" si="1">SUM(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19,BY23,BY25,BY27,BY29,BY31,BY33,BY21,BY35,BY37,BY39,BY41,BY43,BY45,BY47,BY49,BY51,BY53,BY55,BY57,BY59,BY61,BY63,BY65,BY67,BY69)</f>
-        <v>0</v>
+        <f>SUM(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19,BY23,BY25,BY27,BY29,BY31,BY33,BY21,BY35,BY37,BY39,BY41,BY43,BY45,BY47,BY49,BY51,BY53,BY55,BY57,BY59,BY61,BY63,BY65,BY67,BY69)</f>
+        <v>3</v>
       </c>
       <c r="BZ72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(BZ5,BZ7,BZ9,BZ11,BZ13,BZ15,BZ17,BZ19,BZ23,BZ25,BZ27,BZ29,BZ31,BZ33,BZ21,BZ35,BZ37,BZ39,BZ41,BZ43,BZ45,BZ47,BZ49,BZ51,BZ53,BZ55,BZ57,BZ59,BZ61,BZ63,BZ65,BZ67,BZ69)</f>
+        <v>3</v>
       </c>
       <c r="CA72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19,CA23,CA25,CA27,CA29,CA31,CA33,CA21,CA35,CA37,CA39,CA41,CA43,CA45,CA47,CA49,CA51,CA53,CA55,CA57,CA59,CA61,CA63,CA65,CA67,CA69)</f>
+        <v>3</v>
       </c>
       <c r="CB72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19,CB23,CB25,CB27,CB29,CB31,CB33,CB21,CB35,CB37,CB39,CB41,CB43,CB45,CB47,CB49,CB51,CB53,CB55,CB57,CB59,CB61,CB63,CB65,CB67,CB69)</f>
+        <v>3</v>
       </c>
       <c r="CC72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(CC5,CC7,CC9,CC11,CC13,CC15,CC17,CC19,CC23,CC25,CC27,CC29,CC31,CC33,CC21,CC35,CC37,CC39,CC41,CC43,CC45,CC47,CC49,CC51,CC53,CC55,CC57,CC59,CC61,CC63,CC65,CC67,CC69)</f>
+        <v>16</v>
       </c>
       <c r="CD72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19,CD23,CD25,CD27,CD29,CD31,CD33,CD21,CD35,CD37,CD39,CD41,CD43,CD45,CD47,CD49,CD51,CD53,CD55,CD57,CD59,CD61,CD63,CD65,CD67,CD69)</f>
         <v>0</v>
       </c>
       <c r="CE72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19,CE23,CE25,CE27,CE29,CE31,CE33,CE21,CE35,CE37,CE39,CE41,CE43,CE45,CE47,CE49,CE51,CE53,CE55,CE57,CE59,CE61,CE63,CE65,CE67,CE69)</f>
         <v>0</v>
       </c>
       <c r="CF72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CF5,CF7,CF9,CF11,CF13,CF15,CF17,CF19,CF23,CF25,CF27,CF29,CF31,CF33,CF21,CF35,CF37,CF39,CF41,CF43,CF45,CF47,CF49,CF51,CF53,CF55,CF57,CF59,CF61,CF63,CF65,CF67,CF69)</f>
+        <v>3</v>
       </c>
       <c r="CG72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19,CG23,CG25,CG27,CG29,CG31,CG33,CG21,CG35,CG37,CG39,CG41,CG43,CG45,CG47,CG49,CG51,CG53,CG55,CG57,CG59,CG61,CG63,CG65,CG67,CG69)</f>
+        <v>3</v>
       </c>
       <c r="CH72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19,CH23,CH25,CH27,CH29,CH31,CH33,CH21,CH35,CH37,CH39,CH41,CH43,CH45,CH47,CH49,CH51,CH53,CH55,CH57,CH59,CH61,CH63,CH65,CH67,CH69)</f>
+        <v>3</v>
       </c>
       <c r="CI72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CI5,CI7,CI9,CI11,CI13,CI15,CI17,CI19,CI23,CI25,CI27,CI29,CI31,CI33,CI21,CI35,CI37,CI39,CI41,CI43,CI45,CI47,CI49,CI51,CI53,CI55,CI57,CI59,CI61,CI63,CI65,CI67,CI69)</f>
+        <v>3</v>
       </c>
       <c r="CJ72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19,CJ23,CJ25,CJ27,CJ29,CJ31,CJ33,CJ21,CJ35,CJ37,CJ39,CJ41,CJ43,CJ45,CJ47,CJ49,CJ51,CJ53,CJ55,CJ57,CJ59,CJ61,CJ63,CJ65,CJ67,CJ69)</f>
+        <v>16</v>
       </c>
       <c r="CK72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19,CK23,CK25,CK27,CK29,CK31,CK33,CK21,CK35,CK37,CK39,CK41,CK43,CK45,CK47,CK49,CK51,CK53,CK55,CK57,CK59,CK61,CK63,CK65,CK67,CK69)</f>
         <v>0</v>
       </c>
       <c r="CL72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CL5,CL7,CL9,CL11,CL13,CL15,CL17,CL19,CL23,CL25,CL27,CL29,CL31,CL33,CL21,CL35,CL37,CL39,CL41,CL43,CL45,CL47,CL49,CL51,CL53,CL55,CL57,CL59,CL61,CL63,CL65,CL67,CL69)</f>
         <v>0</v>
       </c>
       <c r="CM72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19,CM23,CM25,CM27,CM29,CM31,CM33,CM21,CM35,CM37,CM39,CM41,CM43,CM45,CM47,CM49,CM51,CM53,CM55,CM57,CM59,CM61,CM63,CM65,CM67,CM69)</f>
+        <v>3</v>
       </c>
       <c r="CN72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19,CN23,CN25,CN27,CN29,CN31,CN33,CN21,CN35,CN37,CN39,CN41,CN43,CN45,CN47,CN49,CN51,CN53,CN55,CN57,CN59,CN61,CN63,CN65,CN67,CN69)</f>
+        <v>3</v>
       </c>
       <c r="CO72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CO5,CO7,CO9,CO11,CO13,CO15,CO17,CO19,CO23,CO25,CO27,CO29,CO31,CO33,CO21,CO35,CO37,CO39,CO41,CO43,CO45,CO47,CO49,CO51,CO53,CO55,CO57,CO59,CO61,CO63,CO65,CO67,CO69)</f>
+        <v>3</v>
       </c>
       <c r="CP72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19,CP23,CP25,CP27,CP29,CP31,CP33,CP21,CP35,CP37,CP39,CP41,CP43,CP45,CP47,CP49,CP51,CP53,CP55,CP57,CP59,CP61,CP63,CP65,CP67,CP69)</f>
+        <v>3</v>
       </c>
       <c r="CQ72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19,CQ23,CQ25,CQ27,CQ29,CQ31,CQ33,CQ21,CQ35,CQ37,CQ39,CQ41,CQ43,CQ45,CQ47,CQ49,CQ51,CQ53,CQ55,CQ57,CQ59,CQ61,CQ63,CQ65,CQ67,CQ69)</f>
+        <v>13</v>
       </c>
       <c r="CR72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CR5,CR7,CR9,CR11,CR13,CR15,CR17,CR19,CR23,CR25,CR27,CR29,CR31,CR33,CR21,CR35,CR37,CR39,CR41,CR43,CR45,CR47,CR49,CR51,CR53,CR55,CR57,CR59,CR61,CR63,CR65,CR67,CR69)</f>
         <v>0</v>
       </c>
       <c r="CS72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19,CS23,CS25,CS27,CS29,CS31,CS33,CS21,CS35,CS37,CS39,CS41,CS43,CS45,CS47,CS49,CS51,CS53,CS55,CS57,CS59,CS61,CS63,CS65,CS67,CS69)</f>
         <v>0</v>
       </c>
       <c r="CT72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19,CT23,CT25,CT27,CT29,CT31,CT33,CT21,CT35,CT37,CT39,CT41,CT43,CT45,CT47,CT49,CT51,CT53,CT55,CT57,CT59,CT61,CT63,CT65,CT67,CT69)</f>
+        <v>3</v>
       </c>
       <c r="CU72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CU5,CU7,CU9,CU11,CU13,CU15,CU17,CU19,CU23,CU25,CU27,CU29,CU31,CU33,CU21,CU35,CU37,CU39,CU41,CU43,CU45,CU47,CU49,CU51,CU53,CU55,CU57,CU59,CU61,CU63,CU65,CU67,CU69)</f>
+        <v>3</v>
       </c>
       <c r="CV72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19,CV23,CV25,CV27,CV29,CV31,CV33,CV21,CV35,CV37,CV39,CV41,CV43,CV45,CV47,CV49,CV51,CV53,CV55,CV57,CV59,CV61,CV63,CV65,CV67,CV69)</f>
+        <v>3</v>
       </c>
       <c r="CW72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19,CW23,CW25,CW27,CW29,CW31,CW33,CW21,CW35,CW37,CW39,CW41,CW43,CW45,CW47,CW49,CW51,CW53,CW55,CW57,CW59,CW61,CW63,CW65,CW67,CW69)</f>
+        <v>3</v>
       </c>
       <c r="CX72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(CX5,CX7,CX9,CX11,CX13,CX15,CX17,CX19,CX23,CX25,CX27,CX29,CX31,CX33,CX21,CX35,CX37,CX39,CX41,CX43,CX45,CX47,CX49,CX51,CX53,CX55,CX57,CX59,CX61,CX63,CX65,CX67,CX69)</f>
+        <v>19</v>
       </c>
       <c r="CY72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CY5,CY7,CY9,CY11,CY13,CY15,CY17,CY19,CY23,CY25,CY27,CY29,CY31,CY33,CY21,CY35,CY37,CY39,CY41,CY43,CY45,CY47,CY49,CY51,CY53,CY55,CY57,CY59,CY61,CY63,CY65,CY67,CY69)</f>
         <v>0</v>
       </c>
       <c r="CZ72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(CZ5,CZ7,CZ9,CZ11,CZ13,CZ15,CZ17,CZ19,CZ23,CZ25,CZ27,CZ29,CZ31,CZ33,CZ21,CZ35,CZ37,CZ39,CZ41,CZ43,CZ45,CZ47,CZ49,CZ51,CZ53,CZ55,CZ57,CZ59,CZ61,CZ63,CZ65,CZ67,CZ69)</f>
         <v>0</v>
       </c>
       <c r="DA72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DA5,DA7,DA9,DA11,DA13,DA15,DA17,DA19,DA23,DA25,DA27,DA29,DA31,DA33,DA21,DA35,DA37,DA39,DA41,DA43,DA45,DA47,DA49,DA51,DA53,DA55,DA57,DA59,DA61,DA63,DA65,DA67,DA69)</f>
+        <v>3</v>
       </c>
       <c r="DB72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DB5,DB7,DB9,DB11,DB13,DB15,DB17,DB19,DB23,DB25,DB27,DB29,DB31,DB33,DB21,DB35,DB37,DB39,DB41,DB43,DB45,DB47,DB49,DB51,DB53,DB55,DB57,DB59,DB61,DB63,DB65,DB67,DB69)</f>
+        <v>3</v>
       </c>
       <c r="DC72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19,DC23,DC25,DC27,DC29,DC31,DC33,DC21,DC35,DC37,DC39,DC41,DC43,DC45,DC47,DC49,DC51,DC53,DC55,DC57,DC59,DC61,DC63,DC65,DC67,DC69)</f>
+        <v>3</v>
       </c>
       <c r="DD72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DD5,DD7,DD9,DD11,DD13,DD15,DD17,DD19,DD23,DD25,DD27,DD29,DD31,DD33,DD21,DD35,DD37,DD39,DD41,DD43,DD45,DD47,DD49,DD51,DD53,DD55,DD57,DD59,DD61,DD63,DD65,DD67,DD69)</f>
+        <v>3</v>
       </c>
       <c r="DE72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(DE5,DE7,DE9,DE11,DE13,DE15,DE17,DE19,DE23,DE25,DE27,DE29,DE31,DE33,DE21,DE35,DE37,DE39,DE41,DE43,DE45,DE47,DE49,DE51,DE53,DE55,DE57,DE59,DE61,DE63,DE65,DE67,DE69)</f>
+        <v>16</v>
       </c>
       <c r="DF72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DF5,DF7,DF9,DF11,DF13,DF15,DF17,DF19,DF23,DF25,DF27,DF29,DF31,DF33,DF21,DF35,DF37,DF39,DF41,DF43,DF45,DF47,DF49,DF51,DF53,DF55,DF57,DF59,DF61,DF63,DF65,DF67,DF69)</f>
         <v>0</v>
       </c>
       <c r="DG72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DG5,DG7,DG9,DG11,DG13,DG15,DG17,DG19,DG23,DG25,DG27,DG29,DG31,DG33,DG21,DG35,DG37,DG39,DG41,DG43,DG45,DG47,DG49,DG51,DG53,DG55,DG57,DG59,DG61,DG63,DG65,DG67,DG69)</f>
         <v>0</v>
       </c>
       <c r="DH72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DH5,DH7,DH9,DH11,DH13,DH15,DH17,DH19,DH23,DH25,DH27,DH29,DH31,DH33,DH21,DH35,DH37,DH39,DH41,DH43,DH45,DH47,DH49,DH51,DH53,DH55,DH57,DH59,DH61,DH63,DH65,DH67,DH69)</f>
+        <v>3</v>
       </c>
       <c r="DI72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DI5,DI7,DI9,DI11,DI13,DI15,DI17,DI19,DI23,DI25,DI27,DI29,DI31,DI33,DI21,DI35,DI37,DI39,DI41,DI43,DI45,DI47,DI49,DI51,DI53,DI55,DI57,DI59,DI61,DI63,DI65,DI67,DI69)</f>
+        <v>3</v>
       </c>
       <c r="DJ72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DJ5,DJ7,DJ9,DJ11,DJ13,DJ15,DJ17,DJ19,DJ23,DJ25,DJ27,DJ29,DJ31,DJ33,DJ21,DJ35,DJ37,DJ39,DJ41,DJ43,DJ45,DJ47,DJ49,DJ51,DJ53,DJ55,DJ57,DJ59,DJ61,DJ63,DJ65,DJ67,DJ69)</f>
+        <v>3</v>
       </c>
       <c r="DK72" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(DK5,DK7,DK9,DK11,DK13,DK15,DK17,DK19,DK23,DK25,DK27,DK29,DK31,DK33,DK21,DK35,DK37,DK39,DK41,DK43,DK45,DK47,DK49,DK51,DK53,DK55,DK57,DK59,DK61,DK63,DK65,DK67,DK69)</f>
+        <v>3</v>
       </c>
       <c r="DL72" s="29">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(DL5,DL7,DL9,DL11,DL13,DL15,DL17,DL19,DL23,DL25,DL27,DL29,DL31,DL33,DL21,DL35,DL37,DL39,DL41,DL43,DL45,DL47,DL49,DL51,DL53,DL55,DL57,DL59,DL61,DL63,DL65,DL67,DL69)</f>
+        <v>16</v>
       </c>
       <c r="DM72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DM5,DM7,DM9,DM11,DM13,DM15,DM17,DM19,DM23,DM25,DM27,DM29,DM31,DM33,DM21,DM35,DM37,DM39,DM41,DM43,DM45,DM47,DM49,DM51,DM53,DM55,DM57,DM59,DM61,DM63,DM65,DM67,DM69)</f>
         <v>0</v>
       </c>
       <c r="DN72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DN5,DN7,DN9,DN11,DN13,DN15,DN17,DN19,DN23,DN25,DN27,DN29,DN31,DN33,DN21,DN35,DN37,DN39,DN41,DN43,DN45,DN47,DN49,DN51,DN53,DN55,DN57,DN59,DN61,DN63,DN65,DN67,DN69)</f>
         <v>0</v>
       </c>
       <c r="DO72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DO5,DO7,DO9,DO11,DO13,DO15,DO17,DO19,DO23,DO25,DO27,DO29,DO31,DO33,DO21,DO35,DO37,DO39,DO41,DO43,DO45,DO47,DO49,DO51,DO53,DO55,DO57,DO59,DO61,DO63,DO65,DO67,DO69)</f>
         <v>0</v>
       </c>
       <c r="DP72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DP5,DP7,DP9,DP11,DP13,DP15,DP17,DP19,DP23,DP25,DP27,DP29,DP31,DP33,DP21,DP35,DP37,DP39,DP41,DP43,DP45,DP47,DP49,DP51,DP53,DP55,DP57,DP59,DP61,DP63,DP65,DP67,DP69)</f>
         <v>0</v>
       </c>
       <c r="DQ72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DQ5,DQ7,DQ9,DQ11,DQ13,DQ15,DQ17,DQ19,DQ23,DQ25,DQ27,DQ29,DQ31,DQ33,DQ21,DQ35,DQ37,DQ39,DQ41,DQ43,DQ45,DQ47,DQ49,DQ51,DQ53,DQ55,DQ57,DQ59,DQ61,DQ63,DQ65,DQ67,DQ69)</f>
         <v>0</v>
       </c>
       <c r="DR72" s="29">
-        <f t="shared" si="1"/>
+        <f>SUM(DR5,DR7,DR9,DR11,DR13,DR15,DR17,DR19,DR23,DR25,DR27,DR29,DR31,DR33,DR21,DR35,DR37,DR39,DR41,DR43,DR45,DR47,DR49,DR51,DR53,DR55,DR57,DR59,DR61,DR63,DR65,DR67,DR69)</f>
         <v>0</v>
       </c>
     </row>
@@ -13444,443 +14087,443 @@
         <v>0</v>
       </c>
       <c r="M73" s="29">
-        <f t="shared" ref="M73:AR73" si="2">SUM(M6,M8,M10,M12,M14,M16,M18,M20,M24,M26,M28,M30,M32,M34,M22,M36,M38,M40,M42,M44,M46,M48,M50,M52,M54,M56,M58,M60,M62,M64,M66,M68,M70)</f>
+        <f>SUM(M6,M8,M10,M12,M14,M16,M18,M20,M24,M26,M28,M30,M32,M34,M22,M36,M38,M40,M42,M44,M46,M48,M50,M52,M54,M56,M58,M60,M62,M64,M66,M68,M70)</f>
         <v>0</v>
       </c>
       <c r="N73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(N6,N8,N10,N12,N14,N16,N18,N20,N24,N26,N28,N30,N32,N34,N22,N36,N38,N40,N42,N44,N46,N48,N50,N52,N54,N56,N58,N60,N62,N64,N66,N68,N70)</f>
         <v>0</v>
       </c>
       <c r="O73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(O6,O8,O10,O12,O14,O16,O18,O20,O24,O26,O28,O30,O32,O34,O22,O36,O38,O40,O42,O44,O46,O48,O50,O52,O54,O56,O58,O60,O62,O64,O66,O68,O70)</f>
         <v>0</v>
       </c>
       <c r="P73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(P6,P8,P10,P12,P14,P16,P18,P20,P24,P26,P28,P30,P32,P34,P22,P36,P38,P40,P42,P44,P46,P48,P50,P52,P54,P56,P58,P60,P62,P64,P66,P68,P70)</f>
         <v>0</v>
       </c>
       <c r="Q73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q24,Q26,Q28,Q30,Q32,Q34,Q22,Q36,Q38,Q40,Q42,Q44,Q46,Q48,Q50,Q52,Q54,Q56,Q58,Q60,Q62,Q64,Q66,Q68,Q70)</f>
         <v>0</v>
       </c>
       <c r="R73" s="29">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>SUM(R6,R8,R10,R12,R14,R16,R18,R20,R24,R26,R28,R30,R32,R34,R22,R36,R38,R40,R42,R44,R46,R48,R50,R52,R54,R56,R58,R60,R62,R64,R66,R68,R70)</f>
+        <v>12</v>
       </c>
       <c r="S73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(S6,S8,S10,S12,S14,S16,S18,S20,S24,S26,S28,S30,S32,S34,S22,S36,S38,S40,S42,S44,S46,S48,S50,S52,S54,S56,S58,S60,S62,S64,S66,S68,S70)</f>
         <v>0</v>
       </c>
       <c r="T73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(T6,T8,T10,T12,T14,T16,T18,T20,T24,T26,T28,T30,T32,T34,T22,T36,T38,T40,T42,T44,T46,T48,T50,T52,T54,T56,T58,T60,T62,T64,T66,T68,T70)</f>
         <v>0</v>
       </c>
       <c r="U73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(U6,U8,U10,U12,U14,U16,U18,U20,U24,U26,U28,U30,U32,U34,U22,U36,U38,U40,U42,U44,U46,U48,U50,U52,U54,U56,U58,U60,U62,U64,U66,U68,U70)</f>
         <v>0</v>
       </c>
       <c r="V73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(V6,V8,V10,V12,V14,V16,V18,V20,V24,V26,V28,V30,V32,V34,V22,V36,V38,V40,V42,V44,V46,V48,V50,V52,V54,V56,V58,V60,V62,V64,V66,V68,V70)</f>
         <v>0</v>
       </c>
       <c r="W73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(W6,W8,W10,W12,W14,W16,W18,W20,W24,W26,W28,W30,W32,W34,W22,W36,W38,W40,W42,W44,W46,W48,W50,W52,W54,W56,W58,W60,W62,W64,W66,W68,W70)</f>
         <v>0</v>
       </c>
       <c r="X73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(X6,X8,X10,X12,X14,X16,X18,X20,X24,X26,X28,X30,X32,X34,X22,X36,X38,X40,X42,X44,X46,X48,X50,X52,X54,X56,X58,X60,X62,X64,X66,X68,X70)</f>
         <v>0</v>
       </c>
       <c r="Y73" s="29">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>SUM(Y6,Y8,Y10,Y12,Y14,Y16,Y18,Y20,Y24,Y26,Y28,Y30,Y32,Y34,Y22,Y36,Y38,Y40,Y42,Y44,Y46,Y48,Y50,Y52,Y54,Y56,Y58,Y60,Y62,Y64,Y66,Y68,Y70)</f>
+        <v>16</v>
       </c>
       <c r="Z73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(Z6,Z8,Z10,Z12,Z14,Z16,Z18,Z20,Z24,Z26,Z28,Z30,Z32,Z34,Z22,Z36,Z38,Z40,Z42,Z44,Z46,Z48,Z50,Z52,Z54,Z56,Z58,Z60,Z62,Z64,Z66,Z68,Z70)</f>
         <v>0</v>
       </c>
       <c r="AA73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(AA6,AA8,AA10,AA12,AA14,AA16,AA18,AA20,AA24,AA26,AA28,AA30,AA32,AA34,AA22,AA36,AA38,AA40,AA42,AA44,AA46,AA48,AA50,AA52,AA54,AA56,AA58,AA60,AA62,AA64,AA66,AA68,AA70)</f>
         <v>0</v>
       </c>
       <c r="AB73" s="29">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>SUM(AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20,AB24,AB26,AB28,AB30,AB32,AB34,AB22,AB36,AB38,AB40,AB42,AB44,AB46,AB48,AB50,AB52,AB54,AB56,AB58,AB60,AB62,AB64,AB66,AB68,AB70)</f>
+        <v>9</v>
       </c>
       <c r="AC73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AC6,AC8,AC10,AC12,AC14,AC16,AC18,AC20,AC24,AC26,AC28,AC30,AC32,AC34,AC22,AC36,AC38,AC40,AC42,AC44,AC46,AC48,AC50,AC52,AC54,AC56,AC58,AC60,AC62,AC64,AC66,AC68,AC70)</f>
+        <v>3</v>
       </c>
       <c r="AD73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AD6,AD8,AD10,AD12,AD14,AD16,AD18,AD20,AD24,AD26,AD28,AD30,AD32,AD34,AD22,AD36,AD38,AD40,AD42,AD44,AD46,AD48,AD50,AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68,AD70)</f>
+        <v>3</v>
       </c>
       <c r="AE73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AE6,AE8,AE10,AE12,AE14,AE16,AE18,AE20,AE24,AE26,AE28,AE30,AE32,AE34,AE22,AE36,AE38,AE40,AE42,AE44,AE46,AE48,AE50,AE52,AE54,AE56,AE58,AE60,AE62,AE64,AE66,AE68,AE70)</f>
+        <v>3</v>
       </c>
       <c r="AF73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AF6,AF8,AF10,AF12,AF14,AF16,AF18,AF20,AF24,AF26,AF28,AF30,AF32,AF34,AF22,AF36,AF38,AF40,AF42,AF44,AF46,AF48,AF50,AF52,AF54,AF56,AF58,AF60,AF62,AF64,AF66,AF68,AF70)</f>
+        <v>3</v>
       </c>
       <c r="AG73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(AG6,AG8,AG10,AG12,AG14,AG16,AG18,AG20,AG24,AG26,AG28,AG30,AG32,AG34,AG22,AG36,AG38,AG40,AG42,AG44,AG46,AG48,AG50,AG52,AG54,AG56,AG58,AG60,AG62,AG64,AG66,AG68,AG70)</f>
         <v>0</v>
       </c>
       <c r="AH73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(AH6,AH8,AH10,AH12,AH14,AH16,AH18,AH20,AH24,AH26,AH28,AH30,AH32,AH34,AH22,AH36,AH38,AH40,AH42,AH44,AH46,AH48,AH50,AH52,AH54,AH56,AH58,AH60,AH62,AH64,AH66,AH68,AH70)</f>
         <v>0</v>
       </c>
       <c r="AI73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(AI6,AI8,AI10,AI12,AI14,AI16,AI18,AI20,AI24,AI26,AI28,AI30,AI32,AI34,AI22,AI36,AI38,AI40,AI42,AI44,AI46,AI48,AI50,AI52,AI54,AI56,AI58,AI60,AI62,AI64,AI66,AI68,AI70)</f>
         <v>0</v>
       </c>
       <c r="AJ73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18,AJ20,AJ24,AJ26,AJ28,AJ30,AJ32,AJ34,AJ22,AJ36,AJ38,AJ40,AJ42,AJ44,AJ46,AJ48,AJ50,AJ52,AJ54,AJ56,AJ58,AJ60,AJ62,AJ64,AJ66,AJ68,AJ70)</f>
+        <v>3</v>
       </c>
       <c r="AK73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AK6,AK8,AK10,AK12,AK14,AK16,AK18,AK20,AK24,AK26,AK28,AK30,AK32,AK34,AK22,AK36,AK38,AK40,AK42,AK44,AK46,AK48,AK50,AK52,AK54,AK56,AK58,AK60,AK62,AK64,AK66,AK68,AK70)</f>
+        <v>3</v>
       </c>
       <c r="AL73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(AL6,AL8,AL10,AL12,AL14,AL16,AL18,AL20,AL24,AL26,AL28,AL30,AL32,AL34,AL22,AL36,AL38,AL40,AL42,AL44,AL46,AL48,AL50,AL52,AL54,AL56,AL58,AL60,AL62,AL64,AL66,AL68,AL70)</f>
+        <v>3</v>
       </c>
       <c r="AM73" s="29">
-        <f t="shared" si="2"/>
+        <f>SUM(AM6,AM8,AM10,AM12,AM14,AM16,AM18,AM20,AM24,AM26,AM28,AM30,AM32,AM34,AM22,AM36,AM38,AM40,AM42,AM44,AM46,AM48,AM50,AM52,AM54,AM56,AM58,AM60,AM62,AM64,AM66,AM68,AM70)</f>
+        <v>15</v>
+      </c>
+      <c r="AN73" s="29">
+        <f>SUM(AN6,AN8,AN10,AN12,AN14,AN16,AN18,AN20,AN24,AN26,AN28,AN30,AN32,AN34,AN22,AN36,AN38,AN40,AN42,AN44,AN46,AN48,AN50,AN52,AN54,AN56,AN58,AN60,AN62,AN64,AN66,AN68,AN70)</f>
+        <v>0</v>
+      </c>
+      <c r="AO73" s="29">
+        <f>SUM(AO6,AO8,AO10,AO12,AO14,AO16,AO18,AO20,AO24,AO26,AO28,AO30,AO32,AO34,AO22,AO36,AO38,AO40,AO42,AO44,AO46,AO48,AO50,AO52,AO54,AO56,AO58,AO60,AO62,AO64,AO66,AO68,AO70)</f>
+        <v>0</v>
+      </c>
+      <c r="AP73" s="29">
+        <f>SUM(AP6,AP8,AP10,AP12,AP14,AP16,AP18,AP20,AP24,AP26,AP28,AP30,AP32,AP34,AP22,AP36,AP38,AP40,AP42,AP44,AP46,AP48,AP50,AP52,AP54,AP56,AP58,AP60,AP62,AP64,AP66,AP68,AP70)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="29">
+        <f>SUM(AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18,AQ20,AQ24,AQ26,AQ28,AQ30,AQ32,AQ34,AQ22,AQ36,AQ38,AQ40,AQ42,AQ44,AQ46,AQ48,AQ50,AQ52,AQ54,AQ56,AQ58,AQ60,AQ62,AQ64,AQ66,AQ68,AQ70)</f>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="29">
+        <f>SUM(AR6,AR8,AR10,AR12,AR14,AR16,AR18,AR20,AR24,AR26,AR28,AR30,AR32,AR34,AR22,AR36,AR38,AR40,AR42,AR44,AR46,AR48,AR50,AR52,AR54,AR56,AR58,AR60,AR62,AR64,AR66,AR68,AR70)</f>
+        <v>0</v>
+      </c>
+      <c r="AS73" s="29">
+        <f>SUM(AS6,AS8,AS10,AS12,AS14,AS16,AS18,AS20,AS24,AS26,AS28,AS30,AS32,AS34,AS22,AS36,AS38,AS40,AS42,AS44,AS46,AS48,AS50,AS52,AS54,AS56,AS58,AS60,AS62,AS64,AS66,AS68,AS70)</f>
+        <v>0</v>
+      </c>
+      <c r="AT73" s="29">
+        <f>SUM(AT6,AT8,AT10,AT12,AT14,AT16,AT18,AT20,AT24,AT26,AT28,AT30,AT32,AT34,AT22,AT36,AT38,AT40,AT42,AT44,AT46,AT48,AT50,AT52,AT54,AT56,AT58,AT60,AT62,AT64,AT66,AT68,AT70)</f>
         <v>4</v>
       </c>
-      <c r="AN73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS73" s="29">
-        <f t="shared" ref="AS73:BX73" si="3">SUM(AS6,AS8,AS10,AS12,AS14,AS16,AS18,AS20,AS24,AS26,AS28,AS30,AS32,AS34,AS22,AS36,AS38,AS40,AS42,AS44,AS46,AS48,AS50,AS52,AS54,AS56,AS58,AS60,AS62,AS64,AS66,AS68,AS70)</f>
-        <v>0</v>
-      </c>
-      <c r="AT73" s="29">
-        <f t="shared" si="3"/>
+      <c r="AU73" s="29">
+        <f>SUM(AU6,AU8,AU10,AU12,AU14,AU16,AU18,AU20,AU24,AU26,AU28,AU30,AU32,AU34,AU22,AU36,AU38,AU40,AU42,AU44,AU46,AU48,AU50,AU52,AU54,AU56,AU58,AU60,AU62,AU64,AU66,AU68,AU70)</f>
+        <v>0</v>
+      </c>
+      <c r="AV73" s="29">
+        <f>SUM(AV6,AV8,AV10,AV12,AV14,AV16,AV18,AV20,AV24,AV26,AV28,AV30,AV32,AV34,AV22,AV36,AV38,AV40,AV42,AV44,AV46,AV48,AV50,AV52,AV54,AV56,AV58,AV60,AV62,AV64,AV66,AV68,AV70)</f>
+        <v>0</v>
+      </c>
+      <c r="AW73" s="29">
+        <f>SUM(AW6,AW8,AW10,AW12,AW14,AW16,AW18,AW20,AW24,AW26,AW28,AW30,AW32,AW34,AW22,AW36,AW38,AW40,AW42,AW44,AW46,AW48,AW50,AW52,AW54,AW56,AW58,AW60,AW62,AW64,AW66,AW68,AW70)</f>
+        <v>0</v>
+      </c>
+      <c r="AX73" s="29">
+        <f>SUM(AX6,AX8,AX10,AX12,AX14,AX16,AX18,AX20,AX24,AX26,AX28,AX30,AX32,AX34,AX22,AX36,AX38,AX40,AX42,AX44,AX46,AX48,AX50,AX52,AX54,AX56,AX58,AX60,AX62,AX64,AX66,AX68,AX70)</f>
+        <v>0</v>
+      </c>
+      <c r="AY73" s="29">
+        <f>SUM(AY6,AY8,AY10,AY12,AY14,AY16,AY18,AY20,AY24,AY26,AY28,AY30,AY32,AY34,AY22,AY36,AY38,AY40,AY42,AY44,AY46,AY48,AY50,AY52,AY54,AY56,AY58,AY60,AY62,AY64,AY66,AY68,AY70)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="29">
+        <f>SUM(AZ6,AZ8,AZ10,AZ12,AZ14,AZ16,AZ18,AZ20,AZ24,AZ26,AZ28,AZ30,AZ32,AZ34,AZ22,AZ36,AZ38,AZ40,AZ42,AZ44,AZ46,AZ48,AZ50,AZ52,AZ54,AZ56,AZ58,AZ60,AZ62,AZ64,AZ66,AZ68,AZ70)</f>
+        <v>0</v>
+      </c>
+      <c r="BA73" s="29">
+        <f>SUM(BA6,BA8,BA10,BA12,BA14,BA16,BA18,BA20,BA24,BA26,BA28,BA30,BA32,BA34,BA22,BA36,BA38,BA40,BA42,BA44,BA46,BA48,BA50,BA52,BA54,BA56,BA58,BA60,BA62,BA64,BA66,BA68,BA70)</f>
         <v>4</v>
       </c>
-      <c r="AU73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AW73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AZ73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BA73" s="29">
-        <f t="shared" si="3"/>
+      <c r="BB73" s="29">
+        <f>SUM(BB6,BB8,BB10,BB12,BB14,BB16,BB18,BB20,BB24,BB26,BB28,BB30,BB32,BB34,BB22,BB36,BB38,BB40,BB42,BB44,BB46,BB48,BB50,BB52,BB54,BB56,BB58,BB60,BB62,BB64,BB66,BB68,BB70)</f>
+        <v>0</v>
+      </c>
+      <c r="BC73" s="29">
+        <f>SUM(BC6,BC8,BC10,BC12,BC14,BC16,BC18,BC20,BC24,BC26,BC28,BC30,BC32,BC34,BC22,BC36,BC38,BC40,BC42,BC44,BC46,BC48,BC50,BC52,BC54,BC56,BC58,BC60,BC62,BC64,BC66,BC68,BC70)</f>
+        <v>0</v>
+      </c>
+      <c r="BD73" s="29">
+        <f>SUM(BD6,BD8,BD10,BD12,BD14,BD16,BD18,BD20,BD24,BD26,BD28,BD30,BD32,BD34,BD22,BD36,BD38,BD40,BD42,BD44,BD46,BD48,BD50,BD52,BD54,BD56,BD58,BD60,BD62,BD64,BD66,BD68,BD70)</f>
+        <v>0</v>
+      </c>
+      <c r="BE73" s="29">
+        <f>SUM(BE6,BE8,BE10,BE12,BE14,BE16,BE18,BE20,BE24,BE26,BE28,BE30,BE32,BE34,BE22,BE36,BE38,BE40,BE42,BE44,BE46,BE48,BE50,BE52,BE54,BE56,BE58,BE60,BE62,BE64,BE66,BE68,BE70)</f>
+        <v>0</v>
+      </c>
+      <c r="BF73" s="29">
+        <f>SUM(BF6,BF8,BF10,BF12,BF14,BF16,BF18,BF20,BF24,BF26,BF28,BF30,BF32,BF34,BF22,BF36,BF38,BF40,BF42,BF44,BF46,BF48,BF50,BF52,BF54,BF56,BF58,BF60,BF62,BF64,BF66,BF68,BF70)</f>
+        <v>0</v>
+      </c>
+      <c r="BG73" s="29">
+        <f>SUM(BG6,BG8,BG10,BG12,BG14,BG16,BG18,BG20,BG24,BG26,BG28,BG30,BG32,BG34,BG22,BG36,BG38,BG40,BG42,BG44,BG46,BG48,BG50,BG52,BG54,BG56,BG58,BG60,BG62,BG64,BG66,BG68,BG70)</f>
+        <v>0</v>
+      </c>
+      <c r="BH73" s="29">
+        <f>SUM(BH6,BH8,BH10,BH12,BH14,BH16,BH18,BH20,BH24,BH26,BH28,BH30,BH32,BH34,BH22,BH36,BH38,BH40,BH42,BH44,BH46,BH48,BH50,BH52,BH54,BH56,BH58,BH60,BH62,BH64,BH66,BH68,BH70)</f>
         <v>4</v>
       </c>
-      <c r="BB73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BE73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BF73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BG73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BH73" s="29">
-        <f t="shared" si="3"/>
+      <c r="BI73" s="29">
+        <f>SUM(BI6,BI8,BI10,BI12,BI14,BI16,BI18,BI20,BI24,BI26,BI28,BI30,BI32,BI34,BI22,BI36,BI38,BI40,BI42,BI44,BI46,BI48,BI50,BI52,BI54,BI56,BI58,BI60,BI62,BI64,BI66,BI68,BI70)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ73" s="29">
+        <f>SUM(BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18,BJ20,BJ24,BJ26,BJ28,BJ30,BJ32,BJ34,BJ22,BJ36,BJ38,BJ40,BJ42,BJ44,BJ46,BJ48,BJ50,BJ52,BJ54,BJ56,BJ58,BJ60,BJ62,BJ64,BJ66,BJ68,BJ70)</f>
+        <v>0</v>
+      </c>
+      <c r="BK73" s="29">
+        <f>SUM(BK6,BK8,BK10,BK12,BK14,BK16,BK18,BK20,BK24,BK26,BK28,BK30,BK32,BK34,BK22,BK36,BK38,BK40,BK42,BK44,BK46,BK48,BK50,BK52,BK54,BK56,BK58,BK60,BK62,BK64,BK66,BK68,BK70)</f>
+        <v>0</v>
+      </c>
+      <c r="BL73" s="29">
+        <f>SUM(BL6,BL8,BL10,BL12,BL14,BL16,BL18,BL20,BL24,BL26,BL28,BL30,BL32,BL34,BL22,BL36,BL38,BL40,BL42,BL44,BL46,BL48,BL50,BL52,BL54,BL56,BL58,BL60,BL62,BL64,BL66,BL68,BL70)</f>
+        <v>0</v>
+      </c>
+      <c r="BM73" s="29">
+        <f>SUM(BM6,BM8,BM10,BM12,BM14,BM16,BM18,BM20,BM24,BM26,BM28,BM30,BM32,BM34,BM22,BM36,BM38,BM40,BM42,BM44,BM46,BM48,BM50,BM52,BM54,BM56,BM58,BM60,BM62,BM64,BM66,BM68,BM70)</f>
+        <v>0</v>
+      </c>
+      <c r="BN73" s="29">
+        <f>SUM(BN6,BN8,BN10,BN12,BN14,BN16,BN18,BN20,BN24,BN26,BN28,BN30,BN32,BN34,BN22,BN36,BN38,BN40,BN42,BN44,BN46,BN48,BN50,BN52,BN54,BN56,BN58,BN60,BN62,BN64,BN66,BN68,BN70)</f>
+        <v>0</v>
+      </c>
+      <c r="BO73" s="29">
+        <f>SUM(BO6,BO8,BO10,BO12,BO14,BO16,BO18,BO20,BO24,BO26,BO28,BO30,BO32,BO34,BO22,BO36,BO38,BO40,BO42,BO44,BO46,BO48,BO50,BO52,BO54,BO56,BO58,BO60,BO62,BO64,BO66,BO68,BO70)</f>
         <v>4</v>
       </c>
-      <c r="BI73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BL73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BN73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BO73" s="29">
-        <f t="shared" si="3"/>
+      <c r="BP73" s="29">
+        <f>SUM(BP6,BP8,BP10,BP12,BP14,BP16,BP18,BP20,BP24,BP26,BP28,BP30,BP32,BP34,BP22,BP36,BP38,BP40,BP42,BP44,BP46,BP48,BP50,BP52,BP54,BP56,BP58,BP60,BP62,BP64,BP66,BP68,BP70)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="29">
+        <f>SUM(BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18,BQ20,BQ24,BQ26,BQ28,BQ30,BQ32,BQ34,BQ22,BQ36,BQ38,BQ40,BQ42,BQ44,BQ46,BQ48,BQ50,BQ52,BQ54,BQ56,BQ58,BQ60,BQ62,BQ64,BQ66,BQ68,BQ70)</f>
+        <v>0</v>
+      </c>
+      <c r="BR73" s="29">
+        <f>SUM(BR6,BR8,BR10,BR12,BR14,BR16,BR18,BR20,BR24,BR26,BR28,BR30,BR32,BR34,BR22,BR36,BR38,BR40,BR42,BR44,BR46,BR48,BR50,BR52,BR54,BR56,BR58,BR60,BR62,BR64,BR66,BR68,BR70)</f>
+        <v>0</v>
+      </c>
+      <c r="BS73" s="29">
+        <f>SUM(BS6,BS8,BS10,BS12,BS14,BS16,BS18,BS20,BS24,BS26,BS28,BS30,BS32,BS34,BS22,BS36,BS38,BS40,BS42,BS44,BS46,BS48,BS50,BS52,BS54,BS56,BS58,BS60,BS62,BS64,BS66,BS68,BS70)</f>
+        <v>0</v>
+      </c>
+      <c r="BT73" s="29">
+        <f>SUM(BT6,BT8,BT10,BT12,BT14,BT16,BT18,BT20,BT24,BT26,BT28,BT30,BT32,BT34,BT22,BT36,BT38,BT40,BT42,BT44,BT46,BT48,BT50,BT52,BT54,BT56,BT58,BT60,BT62,BT64,BT66,BT68,BT70)</f>
+        <v>0</v>
+      </c>
+      <c r="BU73" s="29">
+        <f>SUM(BU6,BU8,BU10,BU12,BU14,BU16,BU18,BU20,BU24,BU26,BU28,BU30,BU32,BU34,BU22,BU36,BU38,BU40,BU42,BU44,BU46,BU48,BU50,BU52,BU54,BU56,BU58,BU60,BU62,BU64,BU66,BU68,BU70)</f>
+        <v>0</v>
+      </c>
+      <c r="BV73" s="29">
+        <f>SUM(BV6,BV8,BV10,BV12,BV14,BV16,BV18,BV20,BV24,BV26,BV28,BV30,BV32,BV34,BV22,BV36,BV38,BV40,BV42,BV44,BV46,BV48,BV50,BV52,BV54,BV56,BV58,BV60,BV62,BV64,BV66,BV68,BV70)</f>
         <v>4</v>
       </c>
-      <c r="BP73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BQ73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BR73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BS73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BT73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BU73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BV73" s="29">
-        <f t="shared" si="3"/>
+      <c r="BW73" s="29">
+        <f>SUM(BW6,BW8,BW10,BW12,BW14,BW16,BW18,BW20,BW24,BW26,BW28,BW30,BW32,BW34,BW22,BW36,BW38,BW40,BW42,BW44,BW46,BW48,BW50,BW52,BW54,BW56,BW58,BW60,BW62,BW64,BW66,BW68,BW70)</f>
+        <v>0</v>
+      </c>
+      <c r="BX73" s="29">
+        <f>SUM(BX6,BX8,BX10,BX12,BX14,BX16,BX18,BX20,BX24,BX26,BX28,BX30,BX32,BX34,BX22,BX36,BX38,BX40,BX42,BX44,BX46,BX48,BX50,BX52,BX54,BX56,BX58,BX60,BX62,BX64,BX66,BX68,BX70)</f>
+        <v>0</v>
+      </c>
+      <c r="BY73" s="29">
+        <f>SUM(BY6,BY8,BY10,BY12,BY14,BY16,BY18,BY20,BY24,BY26,BY28,BY30,BY32,BY34,BY22,BY36,BY38,BY40,BY42,BY44,BY46,BY48,BY50,BY52,BY54,BY56,BY58,BY60,BY62,BY64,BY66,BY68,BY70)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="29">
+        <f>SUM(BZ6,BZ8,BZ10,BZ12,BZ14,BZ16,BZ18,BZ20,BZ24,BZ26,BZ28,BZ30,BZ32,BZ34,BZ22,BZ36,BZ38,BZ40,BZ42,BZ44,BZ46,BZ48,BZ50,BZ52,BZ54,BZ56,BZ58,BZ60,BZ62,BZ64,BZ66,BZ68,BZ70)</f>
+        <v>0</v>
+      </c>
+      <c r="CA73" s="29">
+        <f>SUM(CA6,CA8,CA10,CA12,CA14,CA16,CA18,CA20,CA24,CA26,CA28,CA30,CA32,CA34,CA22,CA36,CA38,CA40,CA42,CA44,CA46,CA48,CA50,CA52,CA54,CA56,CA58,CA60,CA62,CA64,CA66,CA68,CA70)</f>
+        <v>0</v>
+      </c>
+      <c r="CB73" s="29">
+        <f>SUM(CB6,CB8,CB10,CB12,CB14,CB16,CB18,CB20,CB24,CB26,CB28,CB30,CB32,CB34,CB22,CB36,CB38,CB40,CB42,CB44,CB46,CB48,CB50,CB52,CB54,CB56,CB58,CB60,CB62,CB64,CB66,CB68,CB70)</f>
+        <v>0</v>
+      </c>
+      <c r="CC73" s="29">
+        <f>SUM(CC6,CC8,CC10,CC12,CC14,CC16,CC18,CC20,CC24,CC26,CC28,CC30,CC32,CC34,CC22,CC36,CC38,CC40,CC42,CC44,CC46,CC48,CC50,CC52,CC54,CC56,CC58,CC60,CC62,CC64,CC66,CC68,CC70)</f>
         <v>4</v>
       </c>
-      <c r="BW73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BX73" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BY73" s="29">
-        <f t="shared" ref="BY73:DD73" si="4">SUM(BY6,BY8,BY10,BY12,BY14,BY16,BY18,BY20,BY24,BY26,BY28,BY30,BY32,BY34,BY22,BY36,BY38,BY40,BY42,BY44,BY46,BY48,BY50,BY52,BY54,BY56,BY58,BY60,BY62,BY64,BY66,BY68,BY70)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CB73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC73" s="29">
-        <f t="shared" si="4"/>
+      <c r="CD73" s="29">
+        <f>SUM(CD6,CD8,CD10,CD12,CD14,CD16,CD18,CD20,CD24,CD26,CD28,CD30,CD32,CD34,CD22,CD36,CD38,CD40,CD42,CD44,CD46,CD48,CD50,CD52,CD54,CD56,CD58,CD60,CD62,CD64,CD66,CD68,CD70)</f>
+        <v>0</v>
+      </c>
+      <c r="CE73" s="29">
+        <f>SUM(CE6,CE8,CE10,CE12,CE14,CE16,CE18,CE20,CE24,CE26,CE28,CE30,CE32,CE34,CE22,CE36,CE38,CE40,CE42,CE44,CE46,CE48,CE50,CE52,CE54,CE56,CE58,CE60,CE62,CE64,CE66,CE68,CE70)</f>
+        <v>0</v>
+      </c>
+      <c r="CF73" s="29">
+        <f>SUM(CF6,CF8,CF10,CF12,CF14,CF16,CF18,CF20,CF24,CF26,CF28,CF30,CF32,CF34,CF22,CF36,CF38,CF40,CF42,CF44,CF46,CF48,CF50,CF52,CF54,CF56,CF58,CF60,CF62,CF64,CF66,CF68,CF70)</f>
+        <v>0</v>
+      </c>
+      <c r="CG73" s="29">
+        <f>SUM(CG6,CG8,CG10,CG12,CG14,CG16,CG18,CG20,CG24,CG26,CG28,CG30,CG32,CG34,CG22,CG36,CG38,CG40,CG42,CG44,CG46,CG48,CG50,CG52,CG54,CG56,CG58,CG60,CG62,CG64,CG66,CG68,CG70)</f>
+        <v>0</v>
+      </c>
+      <c r="CH73" s="29">
+        <f>SUM(CH6,CH8,CH10,CH12,CH14,CH16,CH18,CH20,CH24,CH26,CH28,CH30,CH32,CH34,CH22,CH36,CH38,CH40,CH42,CH44,CH46,CH48,CH50,CH52,CH54,CH56,CH58,CH60,CH62,CH64,CH66,CH68,CH70)</f>
+        <v>0</v>
+      </c>
+      <c r="CI73" s="29">
+        <f>SUM(CI6,CI8,CI10,CI12,CI14,CI16,CI18,CI20,CI24,CI26,CI28,CI30,CI32,CI34,CI22,CI36,CI38,CI40,CI42,CI44,CI46,CI48,CI50,CI52,CI54,CI56,CI58,CI60,CI62,CI64,CI66,CI68,CI70)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ73" s="29">
+        <f>SUM(CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18,CJ20,CJ24,CJ26,CJ28,CJ30,CJ32,CJ34,CJ22,CJ36,CJ38,CJ40,CJ42,CJ44,CJ46,CJ48,CJ50,CJ52,CJ54,CJ56,CJ58,CJ60,CJ62,CJ64,CJ66,CJ68,CJ70)</f>
         <v>4</v>
       </c>
-      <c r="CD73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CE73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CF73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CG73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CH73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CI73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CJ73" s="29">
-        <f t="shared" si="4"/>
+      <c r="CK73" s="29">
+        <f>SUM(CK6,CK8,CK10,CK12,CK14,CK16,CK18,CK20,CK24,CK26,CK28,CK30,CK32,CK34,CK22,CK36,CK38,CK40,CK42,CK44,CK46,CK48,CK50,CK52,CK54,CK56,CK58,CK60,CK62,CK64,CK66,CK68,CK70)</f>
+        <v>0</v>
+      </c>
+      <c r="CL73" s="29">
+        <f>SUM(CL6,CL8,CL10,CL12,CL14,CL16,CL18,CL20,CL24,CL26,CL28,CL30,CL32,CL34,CL22,CL36,CL38,CL40,CL42,CL44,CL46,CL48,CL50,CL52,CL54,CL56,CL58,CL60,CL62,CL64,CL66,CL68,CL70)</f>
+        <v>0</v>
+      </c>
+      <c r="CM73" s="29">
+        <f>SUM(CM6,CM8,CM10,CM12,CM14,CM16,CM18,CM20,CM24,CM26,CM28,CM30,CM32,CM34,CM22,CM36,CM38,CM40,CM42,CM44,CM46,CM48,CM50,CM52,CM54,CM56,CM58,CM60,CM62,CM64,CM66,CM68,CM70)</f>
+        <v>0</v>
+      </c>
+      <c r="CN73" s="29">
+        <f>SUM(CN6,CN8,CN10,CN12,CN14,CN16,CN18,CN20,CN24,CN26,CN28,CN30,CN32,CN34,CN22,CN36,CN38,CN40,CN42,CN44,CN46,CN48,CN50,CN52,CN54,CN56,CN58,CN60,CN62,CN64,CN66,CN68,CN70)</f>
+        <v>0</v>
+      </c>
+      <c r="CO73" s="29">
+        <f>SUM(CO6,CO8,CO10,CO12,CO14,CO16,CO18,CO20,CO24,CO26,CO28,CO30,CO32,CO34,CO22,CO36,CO38,CO40,CO42,CO44,CO46,CO48,CO50,CO52,CO54,CO56,CO58,CO60,CO62,CO64,CO66,CO68,CO70)</f>
+        <v>0</v>
+      </c>
+      <c r="CP73" s="29">
+        <f>SUM(CP6,CP8,CP10,CP12,CP14,CP16,CP18,CP20,CP24,CP26,CP28,CP30,CP32,CP34,CP22,CP36,CP38,CP40,CP42,CP44,CP46,CP48,CP50,CP52,CP54,CP56,CP58,CP60,CP62,CP64,CP66,CP68,CP70)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="29">
+        <f>SUM(CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18,CQ20,CQ24,CQ26,CQ28,CQ30,CQ32,CQ34,CQ22,CQ36,CQ38,CQ40,CQ42,CQ44,CQ46,CQ48,CQ50,CQ52,CQ54,CQ56,CQ58,CQ60,CQ62,CQ64,CQ66,CQ68,CQ70)</f>
         <v>4</v>
       </c>
-      <c r="CK73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CL73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CM73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CN73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CO73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CP73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CQ73" s="29">
-        <f t="shared" si="4"/>
+      <c r="CR73" s="29">
+        <f>SUM(CR6,CR8,CR10,CR12,CR14,CR16,CR18,CR20,CR24,CR26,CR28,CR30,CR32,CR34,CR22,CR36,CR38,CR40,CR42,CR44,CR46,CR48,CR50,CR52,CR54,CR56,CR58,CR60,CR62,CR64,CR66,CR68,CR70)</f>
+        <v>0</v>
+      </c>
+      <c r="CS73" s="29">
+        <f>SUM(CS6,CS8,CS10,CS12,CS14,CS16,CS18,CS20,CS24,CS26,CS28,CS30,CS32,CS34,CS22,CS36,CS38,CS40,CS42,CS44,CS46,CS48,CS50,CS52,CS54,CS56,CS58,CS60,CS62,CS64,CS66,CS68,CS70)</f>
+        <v>0</v>
+      </c>
+      <c r="CT73" s="29">
+        <f>SUM(CT6,CT8,CT10,CT12,CT14,CT16,CT18,CT20,CT24,CT26,CT28,CT30,CT32,CT34,CT22,CT36,CT38,CT40,CT42,CT44,CT46,CT48,CT50,CT52,CT54,CT56,CT58,CT60,CT62,CT64,CT66,CT68,CT70)</f>
+        <v>0</v>
+      </c>
+      <c r="CU73" s="29">
+        <f>SUM(CU6,CU8,CU10,CU12,CU14,CU16,CU18,CU20,CU24,CU26,CU28,CU30,CU32,CU34,CU22,CU36,CU38,CU40,CU42,CU44,CU46,CU48,CU50,CU52,CU54,CU56,CU58,CU60,CU62,CU64,CU66,CU68,CU70)</f>
+        <v>0</v>
+      </c>
+      <c r="CV73" s="29">
+        <f>SUM(CV6,CV8,CV10,CV12,CV14,CV16,CV18,CV20,CV24,CV26,CV28,CV30,CV32,CV34,CV22,CV36,CV38,CV40,CV42,CV44,CV46,CV48,CV50,CV52,CV54,CV56,CV58,CV60,CV62,CV64,CV66,CV68,CV70)</f>
+        <v>0</v>
+      </c>
+      <c r="CW73" s="29">
+        <f>SUM(CW6,CW8,CW10,CW12,CW14,CW16,CW18,CW20,CW24,CW26,CW28,CW30,CW32,CW34,CW22,CW36,CW38,CW40,CW42,CW44,CW46,CW48,CW50,CW52,CW54,CW56,CW58,CW60,CW62,CW64,CW66,CW68,CW70)</f>
+        <v>0</v>
+      </c>
+      <c r="CX73" s="29">
+        <f>SUM(CX6,CX8,CX10,CX12,CX14,CX16,CX18,CX20,CX24,CX26,CX28,CX30,CX32,CX34,CX22,CX36,CX38,CX40,CX42,CX44,CX46,CX48,CX50,CX52,CX54,CX56,CX58,CX60,CX62,CX64,CX66,CX68,CX70)</f>
         <v>4</v>
       </c>
-      <c r="CR73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CS73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CT73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CU73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CV73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CW73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CX73" s="29">
-        <f t="shared" si="4"/>
+      <c r="CY73" s="29">
+        <f>SUM(CY6,CY8,CY10,CY12,CY14,CY16,CY18,CY20,CY24,CY26,CY28,CY30,CY32,CY34,CY22,CY36,CY38,CY40,CY42,CY44,CY46,CY48,CY50,CY52,CY54,CY56,CY58,CY60,CY62,CY64,CY66,CY68,CY70)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ73" s="29">
+        <f>SUM(CZ6,CZ8,CZ10,CZ12,CZ14,CZ16,CZ18,CZ20,CZ24,CZ26,CZ28,CZ30,CZ32,CZ34,CZ22,CZ36,CZ38,CZ40,CZ42,CZ44,CZ46,CZ48,CZ50,CZ52,CZ54,CZ56,CZ58,CZ60,CZ62,CZ64,CZ66,CZ68,CZ70)</f>
+        <v>0</v>
+      </c>
+      <c r="DA73" s="29">
+        <f>SUM(DA6,DA8,DA10,DA12,DA14,DA16,DA18,DA20,DA24,DA26,DA28,DA30,DA32,DA34,DA22,DA36,DA38,DA40,DA42,DA44,DA46,DA48,DA50,DA52,DA54,DA56,DA58,DA60,DA62,DA64,DA66,DA68,DA70)</f>
+        <v>0</v>
+      </c>
+      <c r="DB73" s="29">
+        <f>SUM(DB6,DB8,DB10,DB12,DB14,DB16,DB18,DB20,DB24,DB26,DB28,DB30,DB32,DB34,DB22,DB36,DB38,DB40,DB42,DB44,DB46,DB48,DB50,DB52,DB54,DB56,DB58,DB60,DB62,DB64,DB66,DB68,DB70)</f>
+        <v>0</v>
+      </c>
+      <c r="DC73" s="29">
+        <f>SUM(DC6,DC8,DC10,DC12,DC14,DC16,DC18,DC20,DC24,DC26,DC28,DC30,DC32,DC34,DC22,DC36,DC38,DC40,DC42,DC44,DC46,DC48,DC50,DC52,DC54,DC56,DC58,DC60,DC62,DC64,DC66,DC68,DC70)</f>
+        <v>0</v>
+      </c>
+      <c r="DD73" s="29">
+        <f>SUM(DD6,DD8,DD10,DD12,DD14,DD16,DD18,DD20,DD24,DD26,DD28,DD30,DD32,DD34,DD22,DD36,DD38,DD40,DD42,DD44,DD46,DD48,DD50,DD52,DD54,DD56,DD58,DD60,DD62,DD64,DD66,DD68,DD70)</f>
+        <v>0</v>
+      </c>
+      <c r="DE73" s="29">
+        <f>SUM(DE6,DE8,DE10,DE12,DE14,DE16,DE18,DE20,DE24,DE26,DE28,DE30,DE32,DE34,DE22,DE36,DE38,DE40,DE42,DE44,DE46,DE48,DE50,DE52,DE54,DE56,DE58,DE60,DE62,DE64,DE66,DE68,DE70)</f>
         <v>4</v>
       </c>
-      <c r="CY73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CZ73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="DA73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="DB73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="DC73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="DD73" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="DE73" s="29">
-        <f t="shared" ref="DE73:DR73" si="5">SUM(DE6,DE8,DE10,DE12,DE14,DE16,DE18,DE20,DE24,DE26,DE28,DE30,DE32,DE34,DE22,DE36,DE38,DE40,DE42,DE44,DE46,DE48,DE50,DE52,DE54,DE56,DE58,DE60,DE62,DE64,DE66,DE68,DE70)</f>
+      <c r="DF73" s="29">
+        <f>SUM(DF6,DF8,DF10,DF12,DF14,DF16,DF18,DF20,DF24,DF26,DF28,DF30,DF32,DF34,DF22,DF36,DF38,DF40,DF42,DF44,DF46,DF48,DF50,DF52,DF54,DF56,DF58,DF60,DF62,DF64,DF66,DF68,DF70)</f>
+        <v>0</v>
+      </c>
+      <c r="DG73" s="29">
+        <f>SUM(DG6,DG8,DG10,DG12,DG14,DG16,DG18,DG20,DG24,DG26,DG28,DG30,DG32,DG34,DG22,DG36,DG38,DG40,DG42,DG44,DG46,DG48,DG50,DG52,DG54,DG56,DG58,DG60,DG62,DG64,DG66,DG68,DG70)</f>
+        <v>0</v>
+      </c>
+      <c r="DH73" s="29">
+        <f>SUM(DH6,DH8,DH10,DH12,DH14,DH16,DH18,DH20,DH24,DH26,DH28,DH30,DH32,DH34,DH22,DH36,DH38,DH40,DH42,DH44,DH46,DH48,DH50,DH52,DH54,DH56,DH58,DH60,DH62,DH64,DH66,DH68,DH70)</f>
+        <v>0</v>
+      </c>
+      <c r="DI73" s="29">
+        <f>SUM(DI6,DI8,DI10,DI12,DI14,DI16,DI18,DI20,DI24,DI26,DI28,DI30,DI32,DI34,DI22,DI36,DI38,DI40,DI42,DI44,DI46,DI48,DI50,DI52,DI54,DI56,DI58,DI60,DI62,DI64,DI66,DI68,DI70)</f>
+        <v>0</v>
+      </c>
+      <c r="DJ73" s="29">
+        <f>SUM(DJ6,DJ8,DJ10,DJ12,DJ14,DJ16,DJ18,DJ20,DJ24,DJ26,DJ28,DJ30,DJ32,DJ34,DJ22,DJ36,DJ38,DJ40,DJ42,DJ44,DJ46,DJ48,DJ50,DJ52,DJ54,DJ56,DJ58,DJ60,DJ62,DJ64,DJ66,DJ68,DJ70)</f>
+        <v>0</v>
+      </c>
+      <c r="DK73" s="29">
+        <f>SUM(DK6,DK8,DK10,DK12,DK14,DK16,DK18,DK20,DK24,DK26,DK28,DK30,DK32,DK34,DK22,DK36,DK38,DK40,DK42,DK44,DK46,DK48,DK50,DK52,DK54,DK56,DK58,DK60,DK62,DK64,DK66,DK68,DK70)</f>
+        <v>0</v>
+      </c>
+      <c r="DL73" s="29">
+        <f>SUM(DL6,DL8,DL10,DL12,DL14,DL16,DL18,DL20,DL24,DL26,DL28,DL30,DL32,DL34,DL22,DL36,DL38,DL40,DL42,DL44,DL46,DL48,DL50,DL52,DL54,DL56,DL58,DL60,DL62,DL64,DL66,DL68,DL70)</f>
         <v>4</v>
       </c>
-      <c r="DF73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DG73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DH73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DI73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DJ73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DK73" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="DL73" s="29">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="DM73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DM6,DM8,DM10,DM12,DM14,DM16,DM18,DM20,DM24,DM26,DM28,DM30,DM32,DM34,DM22,DM36,DM38,DM40,DM42,DM44,DM46,DM48,DM50,DM52,DM54,DM56,DM58,DM60,DM62,DM64,DM66,DM68,DM70)</f>
         <v>0</v>
       </c>
       <c r="DN73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DN6,DN8,DN10,DN12,DN14,DN16,DN18,DN20,DN24,DN26,DN28,DN30,DN32,DN34,DN22,DN36,DN38,DN40,DN42,DN44,DN46,DN48,DN50,DN52,DN54,DN56,DN58,DN60,DN62,DN64,DN66,DN68,DN70)</f>
         <v>0</v>
       </c>
       <c r="DO73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DO6,DO8,DO10,DO12,DO14,DO16,DO18,DO20,DO24,DO26,DO28,DO30,DO32,DO34,DO22,DO36,DO38,DO40,DO42,DO44,DO46,DO48,DO50,DO52,DO54,DO56,DO58,DO60,DO62,DO64,DO66,DO68,DO70)</f>
         <v>0</v>
       </c>
       <c r="DP73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DP6,DP8,DP10,DP12,DP14,DP16,DP18,DP20,DP24,DP26,DP28,DP30,DP32,DP34,DP22,DP36,DP38,DP40,DP42,DP44,DP46,DP48,DP50,DP52,DP54,DP56,DP58,DP60,DP62,DP64,DP66,DP68,DP70)</f>
         <v>0</v>
       </c>
       <c r="DQ73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DQ6,DQ8,DQ10,DQ12,DQ14,DQ16,DQ18,DQ20,DQ24,DQ26,DQ28,DQ30,DQ32,DQ34,DQ22,DQ36,DQ38,DQ40,DQ42,DQ44,DQ46,DQ48,DQ50,DQ52,DQ54,DQ56,DQ58,DQ60,DQ62,DQ64,DQ66,DQ68,DQ70)</f>
         <v>0</v>
       </c>
       <c r="DR73" s="29">
-        <f t="shared" si="5"/>
+        <f>SUM(DR6,DR8,DR10,DR12,DR14,DR16,DR18,DR20,DR24,DR26,DR28,DR30,DR32,DR34,DR22,DR36,DR38,DR40,DR42,DR44,DR46,DR48,DR50,DR52,DR54,DR56,DR58,DR60,DR62,DR64,DR66,DR68,DR70)</f>
         <v>0</v>
       </c>
     </row>
@@ -13947,7 +14590,7 @@
       </c>
       <c r="Y74" s="29">
         <f>SUM(Y81:Y113)*データ!$D$2</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z74" s="29">
         <f>SUM(Z81:Z113)*データ!$D$2</f>
@@ -13959,7 +14602,7 @@
       </c>
       <c r="AB74" s="29">
         <f>SUM(AB81:AB113)*データ!$D$2</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="29">
         <f>SUM(AC81:AC113)*データ!$D$2</f>
@@ -14003,7 +14646,7 @@
       </c>
       <c r="AM74" s="29">
         <f>SUM(AM81:AM113)*データ!$D$2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN74" s="29">
         <f>SUM(AN81:AN113)*データ!$D$2</f>
@@ -14696,11 +15339,11 @@
         <v>8</v>
       </c>
       <c r="M76" s="31">
-        <f t="shared" ref="M76:BX76" si="6">M72+L76</f>
+        <f t="shared" ref="M76:BX76" si="0">M72+L76</f>
         <v>8</v>
       </c>
       <c r="N76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O76" s="31">
@@ -14708,11 +15351,11 @@
         <v>16</v>
       </c>
       <c r="P76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="R76" s="31">
@@ -14720,420 +15363,420 @@
         <v>36</v>
       </c>
       <c r="S76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="T76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="U76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="V76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="W76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="X76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="Y76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="Z76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="AA76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="AB76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="AC76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AD76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AE76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AF76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AG76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AH76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="AI76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="AJ76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="AK76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="AL76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="AM76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="AN76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="AO76" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="AP76" s="31">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="AQ76" s="31">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="AR76" s="31">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="AS76" s="31">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AT76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="AU76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="AV76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="AW76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="AX76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>127</v>
       </c>
       <c r="AY76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="AZ76" s="31">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
       <c r="BA76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="BB76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="BC76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="BD76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
       <c r="BE76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>155</v>
       </c>
       <c r="BF76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>158</v>
       </c>
       <c r="BG76" s="31">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>161</v>
       </c>
       <c r="BH76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="BI76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="BJ76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="BK76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="BL76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>183</v>
       </c>
       <c r="BM76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>186</v>
       </c>
       <c r="BN76" s="31">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>189</v>
       </c>
       <c r="BO76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>205</v>
       </c>
       <c r="BP76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>205</v>
       </c>
       <c r="BQ76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>205</v>
       </c>
       <c r="BR76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>208</v>
       </c>
       <c r="BS76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="BT76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>214</v>
       </c>
       <c r="BU76" s="31">
-        <f t="shared" si="6"/>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>217</v>
       </c>
       <c r="BV76" s="31">
-        <f t="shared" si="6"/>
-        <v>113</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
       <c r="BW76" s="31">
-        <f t="shared" si="6"/>
-        <v>113</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
       <c r="BX76" s="31">
-        <f t="shared" si="6"/>
-        <v>113</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
       <c r="BY76" s="31">
-        <f t="shared" ref="BY76:DR76" si="7">BY72+BX76</f>
-        <v>113</v>
+        <f t="shared" ref="BY76:DR76" si="1">BY72+BX76</f>
+        <v>236</v>
       </c>
       <c r="BZ76" s="31">
-        <f t="shared" si="7"/>
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>239</v>
       </c>
       <c r="CA76" s="31">
-        <f t="shared" si="7"/>
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>242</v>
       </c>
       <c r="CB76" s="31">
-        <f t="shared" si="7"/>
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>245</v>
       </c>
       <c r="CC76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>261</v>
       </c>
       <c r="CD76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>261</v>
       </c>
       <c r="CE76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>261</v>
       </c>
       <c r="CF76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>264</v>
       </c>
       <c r="CG76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>267</v>
       </c>
       <c r="CH76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>270</v>
       </c>
       <c r="CI76" s="31">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>273</v>
       </c>
       <c r="CJ76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>289</v>
       </c>
       <c r="CK76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>289</v>
       </c>
       <c r="CL76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>289</v>
       </c>
       <c r="CM76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>292</v>
       </c>
       <c r="CN76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>295</v>
       </c>
       <c r="CO76" s="31">
         <f>CO72+CN76</f>
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="CP76" s="31">
-        <f t="shared" si="7"/>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>301</v>
       </c>
       <c r="CQ76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>314</v>
       </c>
       <c r="CR76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>314</v>
       </c>
       <c r="CS76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>314</v>
       </c>
       <c r="CT76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>317</v>
       </c>
       <c r="CU76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
       <c r="CV76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>323</v>
       </c>
       <c r="CW76" s="31">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>326</v>
       </c>
       <c r="CX76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>345</v>
       </c>
       <c r="CY76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>345</v>
       </c>
       <c r="CZ76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>345</v>
       </c>
       <c r="DA76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>348</v>
       </c>
       <c r="DB76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>351</v>
       </c>
       <c r="DC76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>354</v>
       </c>
       <c r="DD76" s="31">
-        <f t="shared" si="7"/>
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>357</v>
       </c>
       <c r="DE76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>373</v>
       </c>
       <c r="DF76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>373</v>
       </c>
       <c r="DG76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>373</v>
       </c>
       <c r="DH76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>376</v>
       </c>
       <c r="DI76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>379</v>
       </c>
       <c r="DJ76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>382</v>
       </c>
       <c r="DK76" s="31">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>385</v>
       </c>
       <c r="DL76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DM76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DN76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DO76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DP76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DQ76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="DR76" s="31">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:123" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15150,11 +15793,11 @@
         <v>4</v>
       </c>
       <c r="M77" s="31">
-        <f t="shared" ref="M77:BX77" si="8">M73+L77</f>
+        <f t="shared" ref="M77:BX77" si="2">M73+L77</f>
         <v>4</v>
       </c>
       <c r="N77" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O77" s="31">
@@ -15162,432 +15805,432 @@
         <v>4</v>
       </c>
       <c r="P77" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q77" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="S77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="T77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="U77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="V77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="W77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="X77" s="31">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="Y77" s="31">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="Z77" s="31">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="AA77" s="31">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="AB77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="AC77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="AD77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="AE77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="AF77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="AG77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="AH77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="AI77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="AJ77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="AK77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="AL77" s="31">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="AM77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AN77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AO77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AP77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AQ77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AR77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AS77" s="31">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="AT77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AU77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AV77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AW77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AX77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AY77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="AZ77" s="31">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="BA77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BB77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BC77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BD77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BE77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BF77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BG77" s="31">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="BH77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BI77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BJ77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BK77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BL77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BM77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BN77" s="31">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="BO77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BP77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BQ77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BR77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BS77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BT77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BU77" s="31">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="BV77" s="31">
-        <f t="shared" si="8"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="BW77" s="31">
-        <f t="shared" si="8"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="BX77" s="31">
-        <f t="shared" si="8"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="BY77" s="31">
-        <f t="shared" ref="BY77:DR77" si="9">BY73+BX77</f>
-        <v>55</v>
+        <f t="shared" ref="BY77:DR77" si="3">BY73+BX77</f>
+        <v>97</v>
       </c>
       <c r="BZ77" s="31">
-        <f t="shared" si="9"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="CA77" s="31">
-        <f t="shared" si="9"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="CB77" s="31">
-        <f t="shared" si="9"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="CC77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CD77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CE77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CF77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CG77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CH77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CI77" s="31">
-        <f t="shared" si="9"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="CJ77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CK77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CL77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CM77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CN77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CO77" s="31">
         <f>CO73+CN77</f>
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="CP77" s="31">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="CQ77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CR77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CS77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CT77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CU77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CV77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CW77" s="31">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="CX77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="CY77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="CZ77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="DA77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="DB77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="DC77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="DD77" s="31">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="DE77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DF77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DG77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DH77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DI77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DJ77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DK77" s="31">
-        <f t="shared" si="9"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="DL77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DM77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DN77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DO77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DP77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DQ77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="DR77" s="31">
-        <f t="shared" si="9"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:123" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15604,11 +16247,11 @@
         <v>0</v>
       </c>
       <c r="M78" s="31">
-        <f t="shared" ref="M78:AR78" si="10">M74+L78</f>
+        <f t="shared" ref="M78:AR78" si="4">M74+L78</f>
         <v>0</v>
       </c>
       <c r="N78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O78" s="31">
@@ -15616,432 +16259,432 @@
         <v>0</v>
       </c>
       <c r="P78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="S78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="T78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="U78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="V78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="W78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="X78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="Y78" s="31">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="Z78" s="31">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="AA78" s="31">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="AB78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AC78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AD78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AE78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AF78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AG78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AH78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AI78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AJ78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AK78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AL78" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AM78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AN78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AO78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AP78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AQ78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AR78" s="31">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="AS78" s="31">
-        <f t="shared" ref="AS78:BX78" si="11">AS74+AR78</f>
-        <v>44</v>
+        <f t="shared" ref="AS78:BX78" si="5">AS74+AR78</f>
+        <v>49</v>
       </c>
       <c r="AT78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AU78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AV78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AW78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AX78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AY78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="AZ78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BA78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BB78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BC78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BD78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BE78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BF78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BG78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BH78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BI78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BJ78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BK78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BL78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BM78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BN78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BO78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BP78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BQ78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BR78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BS78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BT78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BU78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BV78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BW78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BX78" s="31">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="BY78" s="31">
-        <f t="shared" ref="BY78:DR78" si="12">BY74+BX78</f>
-        <v>44</v>
+        <f t="shared" ref="BY78:DR78" si="6">BY74+BX78</f>
+        <v>49</v>
       </c>
       <c r="BZ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CA78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CB78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CC78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CD78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CE78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CF78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CG78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CH78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CI78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CJ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CK78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CL78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CM78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CN78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CO78" s="31">
         <f>CO74+CN78</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CP78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CQ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CR78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CS78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CT78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CU78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CV78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CW78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CX78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CY78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="CZ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DA78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DB78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DC78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DD78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DE78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DF78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DG78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DH78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DI78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DJ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DK78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DL78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DM78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DN78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DO78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DP78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DQ78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="DR78" s="31">
-        <f t="shared" si="12"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:123" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -17479,7 +18122,7 @@
       </c>
       <c r="Y84" s="30">
         <f>IF(SUM($K84:X84)=0,IF($I11="完了",IF(COUNTA(Z12:$DR12)=0,$J11,0),0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z84" s="30">
         <f>IF(SUM($K84:Y84)=0,IF($I11="完了",IF(COUNTA(AA12:$DR12)=0,$J11,0),0),0)</f>
@@ -17491,7 +18134,7 @@
       </c>
       <c r="AB84" s="30">
         <f>IF(SUM($K84:AA84)=0,IF($I11="完了",IF(COUNTA(AC12:$DR12)=0,$J11,0),0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="30">
         <f>IF(SUM($K84:AB84)=0,IF($I11="完了",IF(COUNTA(AD12:$DR12)=0,$J11,0),0),0)</f>
@@ -20241,7 +20884,7 @@
       </c>
       <c r="AM90" s="30">
         <f>IF(SUM($K90:AL90)=0,IF($I23="完了",IF(COUNTA(AN24:$DR24)=0,$J23,0),0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AN90" s="30">
         <f>IF(SUM($K90:AM90)=0,IF($I23="完了",IF(COUNTA(AO24:$DR24)=0,$J23,0),0),0)</f>
@@ -30978,24 +31621,275 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="311">
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -31020,275 +31914,24 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K75:DR75 K4:DR70">
@@ -32147,327 +32790,327 @@
       </c>
       <c r="AG28" s="52">
         <f>ガント!AP76</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AH28" s="52">
         <f>ガント!AQ76</f>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AI28" s="52">
         <f>ガント!AR76</f>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AJ28" s="52">
         <f>ガント!AS76</f>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AK28" s="52">
         <f>ガント!AT76</f>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AL28" s="52">
         <f>ガント!AU76</f>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AM28" s="52">
         <f>ガント!AV76</f>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AN28" s="52">
         <f>ガント!AW76</f>
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AO28" s="52">
         <f>ガント!AX76</f>
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AP28" s="52">
         <f>ガント!AY76</f>
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="AQ28" s="52">
         <f>ガント!AZ76</f>
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="AR28" s="52">
         <f>ガント!BA76</f>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="AS28" s="52">
         <f>ガント!BB76</f>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="AT28" s="52">
         <f>ガント!BC76</f>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="AU28" s="52">
         <f>ガント!BD76</f>
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="AV28" s="52">
         <f>ガント!BE76</f>
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="AW28" s="52">
         <f>ガント!BF76</f>
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AX28" s="52">
         <f>ガント!BG76</f>
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="AY28" s="52">
         <f>ガント!BH76</f>
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="AZ28" s="52">
         <f>ガント!BI76</f>
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="BA28" s="52">
         <f>ガント!BJ76</f>
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="BB28" s="52">
         <f>ガント!BK76</f>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="BC28" s="52">
         <f>ガント!BL76</f>
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="BD28" s="52">
         <f>ガント!BM76</f>
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="BE28" s="52">
         <f>ガント!BN76</f>
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="BF28" s="52">
         <f>ガント!BO76</f>
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="BG28" s="52">
         <f>ガント!BP76</f>
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="BH28" s="52">
         <f>ガント!BQ76</f>
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="BI28" s="52">
         <f>ガント!BR76</f>
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="BJ28" s="52">
         <f>ガント!BS76</f>
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="BK28" s="52">
         <f>ガント!BT76</f>
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="BL28" s="52">
         <f>ガント!BU76</f>
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="BM28" s="52">
         <f>ガント!BV76</f>
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="BN28" s="52">
         <f>ガント!BW76</f>
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="BO28" s="52">
         <f>ガント!BX76</f>
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="BP28" s="52">
         <f>ガント!BY76</f>
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="BQ28" s="52">
         <f>ガント!BZ76</f>
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="BR28" s="52">
         <f>ガント!CA76</f>
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="BS28" s="52">
         <f>ガント!CB76</f>
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="BT28" s="52">
         <f>ガント!CC76</f>
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="BU28" s="52">
         <f>ガント!CD76</f>
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="BV28" s="52">
         <f>ガント!CE76</f>
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="BW28" s="52">
         <f>ガント!CF76</f>
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="BX28" s="52">
         <f>ガント!CG76</f>
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="BY28" s="52">
         <f>ガント!CH76</f>
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="BZ28" s="52">
         <f>ガント!CI76</f>
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="CA28" s="52">
         <f>ガント!CJ76</f>
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="CB28" s="52">
         <f>ガント!CK76</f>
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="CC28" s="52">
         <f>ガント!CL76</f>
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="CD28" s="52">
         <f>ガント!CM76</f>
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="CE28" s="52">
         <f>ガント!CN76</f>
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="CF28" s="52">
         <f>ガント!CO76</f>
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="CG28" s="52">
         <f>ガント!CP76</f>
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="CH28" s="52">
         <f>ガント!CQ76</f>
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="CI28" s="52">
         <f>ガント!CR76</f>
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="CJ28" s="52">
         <f>ガント!CS76</f>
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="CK28" s="52">
         <f>ガント!CT76</f>
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="CL28" s="52">
         <f>ガント!CU76</f>
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="CM28" s="52">
         <f>ガント!CV76</f>
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="CN28" s="52">
         <f>ガント!CW76</f>
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="CO28" s="52">
         <f>ガント!CX76</f>
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="CP28" s="52">
         <f>ガント!CY76</f>
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="CQ28" s="52">
         <f>ガント!CZ76</f>
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="CR28" s="52">
         <f>ガント!DA76</f>
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="CS28" s="52">
         <f>ガント!DB76</f>
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="CT28" s="52">
         <f>ガント!DC76</f>
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="CU28" s="52">
         <f>ガント!DD76</f>
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="CV28" s="52">
         <f>ガント!DE76</f>
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="CW28" s="52">
         <f>ガント!DF76</f>
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="CX28" s="52">
         <f>ガント!DG76</f>
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="CY28" s="52">
         <f>ガント!DH76</f>
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="CZ28" s="52">
         <f>ガント!DI76</f>
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="DA28" s="52">
         <f>ガント!DJ76</f>
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="DB28" s="52">
         <f>ガント!DK76</f>
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="DC28" s="52">
         <f>ガント!DL76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DD28" s="52">
         <f>ガント!DM76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DE28" s="52">
         <f>ガント!DN76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DF28" s="52">
         <f>ガント!DO76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DG28" s="52">
         <f>ガント!DP76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DH28" s="52">
         <f>ガント!DQ76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="DI28" s="52">
         <f>ガント!DR76</f>
-        <v>137</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.15">
@@ -32505,91 +33148,91 @@
       </c>
       <c r="I29" s="52">
         <f ca="1">IF(TODAY()&gt;=I$27,ガント!R77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J29" s="52">
         <f ca="1">IF(TODAY()&gt;=J$27,ガント!S77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K29" s="52">
         <f ca="1">IF(TODAY()&gt;=K$27,ガント!T77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L29" s="52">
         <f ca="1">IF(TODAY()&gt;=L$27,ガント!U77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M29" s="52">
         <f ca="1">IF(TODAY()&gt;=M$27,ガント!V77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N29" s="52">
         <f ca="1">IF(TODAY()&gt;=N$27,ガント!W77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O29" s="52">
         <f ca="1">IF(TODAY()&gt;=O$27,ガント!X77,NA())</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P29" s="52">
         <f ca="1">IF(TODAY()&gt;=P$27,ガント!Y77,NA())</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="52">
         <f ca="1">IF(TODAY()&gt;=Q$27,ガント!Z77,NA())</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R29" s="52">
         <f ca="1">IF(TODAY()&gt;=R$27,ガント!AA77,NA())</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="S29" s="52">
         <f ca="1">IF(TODAY()&gt;=S$27,ガント!AB77,NA())</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T29" s="52">
         <f ca="1">IF(TODAY()&gt;=T$27,ガント!AC77,NA())</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U29" s="52">
         <f ca="1">IF(TODAY()&gt;=U$27,ガント!AD77,NA())</f>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="V29" s="52">
         <f ca="1">IF(TODAY()&gt;=V$27,ガント!AE77,NA())</f>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="W29" s="52">
         <f ca="1">IF(TODAY()&gt;=W$27,ガント!AF77,NA())</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="X29" s="52">
         <f ca="1">IF(TODAY()&gt;=X$27,ガント!AG77,NA())</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Y29" s="52">
         <f ca="1">IF(TODAY()&gt;=Y$27,ガント!AH77,NA())</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Z29" s="52">
         <f ca="1">IF(TODAY()&gt;=Z$27,ガント!AI77,NA())</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AA29" s="52">
         <f ca="1">IF(TODAY()&gt;=AA$27,ガント!AJ77,NA())</f>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AB29" s="52">
         <f ca="1">IF(TODAY()&gt;=AB$27,ガント!AK77,NA())</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AC29" s="52">
         <f ca="1">IF(TODAY()&gt;=AC$27,ガント!AL77,NA())</f>
-        <v>31</v>
-      </c>
-      <c r="AD29" s="52" t="e">
+        <v>62</v>
+      </c>
+      <c r="AD29" s="52">
         <f ca="1">IF(TODAY()&gt;=AD$27,ガント!AM77,NA())</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="AE29" s="52" t="e">
         <f ca="1">IF(TODAY()&gt;=AE$27,ガント!AN77,NA())</f>
@@ -32987,15 +33630,15 @@
       </c>
       <c r="P30" s="49">
         <f ca="1">IF(TODAY()&gt;=P$27,ガント!Y78,NA())</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="49">
         <f ca="1">IF(TODAY()&gt;=Q$27,ガント!Z78,NA())</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R30" s="49">
         <f ca="1">IF(TODAY()&gt;=R$27,ガント!AA78,NA())</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="S30" s="49">
         <f ca="1">IF(TODAY()&gt;=S$27,ガント!AB78,NA())</f>
@@ -33041,9 +33684,9 @@
         <f ca="1">IF(TODAY()&gt;=AC$27,ガント!AL78,NA())</f>
         <v>44</v>
       </c>
-      <c r="AD30" s="49" t="e">
+      <c r="AD30" s="49">
         <f ca="1">IF(TODAY()&gt;=AD$27,ガント!AM78,NA())</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="AE30" s="49" t="e">
         <f ca="1">IF(TODAY()&gt;=AE$27,ガント!AN78,NA())</f>
@@ -33440,15 +34083,15 @@
       </c>
       <c r="P31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="Q31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="R31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="S31" s="47">
         <f t="shared" ca="1" si="0"/>
@@ -33494,9 +34137,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>-42</v>
       </c>
-      <c r="AD31" s="47" t="e">
+      <c r="AD31" s="47">
         <f ca="1">IF(ISERR(AD30-AD28),NA(),AD30-AD28)</f>
-        <v>#N/A</v>
+        <v>-44</v>
       </c>
       <c r="AE31" s="47" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -33865,91 +34508,91 @@
       </c>
       <c r="I32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="V32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="W32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="X32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="Y32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="Z32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="AA32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-12</v>
       </c>
       <c r="AB32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>-15</v>
       </c>
       <c r="AC32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="AD32" s="45" t="e">
+        <v>-18</v>
+      </c>
+      <c r="AD32" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
+        <v>-28</v>
       </c>
       <c r="AE32" s="45" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -34346,15 +34989,15 @@
       </c>
       <c r="P33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41176470588235292</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41176470588235292</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41176470588235292</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="S33" s="50">
         <f t="shared" ca="1" si="8"/>
@@ -34400,9 +35043,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>0.51162790697674421</v>
       </c>
-      <c r="AD33" s="50" t="e">
+      <c r="AD33" s="50">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="AE33" s="50" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -34771,91 +35414,91 @@
       </c>
       <c r="I34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="J34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="K34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="L34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="M34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="N34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="O34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="P34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4736842105263157</v>
+        <v>1.375</v>
       </c>
       <c r="Q34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4736842105263157</v>
+        <v>1.375</v>
       </c>
       <c r="R34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4736842105263157</v>
+        <v>1.375</v>
       </c>
       <c r="S34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>1.0731707317073171</v>
       </c>
       <c r="T34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>1</v>
       </c>
       <c r="U34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="V34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.88</v>
       </c>
       <c r="W34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="X34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="Y34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="Z34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="AA34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AB34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
+        <v>0.74576271186440679</v>
       </c>
       <c r="AC34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4193548387096775</v>
-      </c>
-      <c r="AD34" s="50" t="e">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="AD34" s="50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AE34" s="50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -35675,8 +36318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36104,6 +36747,9 @@
       <c r="A19" t="s">
         <v>124</v>
       </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
       <c r="F19" s="78" t="s">
         <v>188</v>
       </c>
@@ -36242,7 +36888,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36653,7 +37299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -2576,16 +2576,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2596,26 +2619,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2638,25 +2643,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,11 +3481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="267992960"/>
-        <c:axId val="267993520"/>
+        <c:axId val="183291056"/>
+        <c:axId val="183291616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="267992960"/>
+        <c:axId val="183291056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,14 +3495,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267993520"/>
+        <c:crossAx val="183291616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="267993520"/>
+        <c:axId val="183291616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3523,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267992960"/>
+        <c:crossAx val="183291056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4017,10 +4017,10 @@
   <dimension ref="A1:DS115"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR24" sqref="AR24"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4040,26 +4040,26 @@
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="105"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="108"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
       <c r="P1" s="98" t="s">
         <v>0</v>
       </c>
@@ -4085,16 +4085,16 @@
       <c r="AF1" s="102"/>
       <c r="AG1" s="102"/>
       <c r="AH1" s="103"/>
-      <c r="AI1" s="96" t="s">
+      <c r="AI1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="93"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="106"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4123,25 +4123,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4269,10 +4269,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4289,7 +4289,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="97"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="A5" s="85">
         <v>0</v>
       </c>
-      <c r="B5" s="87" t="str">
+      <c r="B5" s="86" t="str">
         <f>B1</f>
         <v>管理システム開発</v>
       </c>
@@ -4644,19 +4644,19 @@
       <c r="D5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="88" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="12">
@@ -4808,14 +4808,14 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A6" s="85"/>
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4970,13 +4970,13 @@
       <c r="B7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5097,13 +5097,13 @@
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5226,25 +5226,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="95" t="s">
         <v>194</v>
       </c>
       <c r="J9" s="12">
@@ -5379,13 +5379,13 @@
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5518,25 +5518,25 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="85"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="95" t="s">
         <v>194</v>
       </c>
       <c r="J11" s="12">
@@ -5667,13 +5667,13 @@
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5806,25 +5806,25 @@
         <v>1.3</v>
       </c>
       <c r="B13" s="85"/>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="12">
@@ -5949,13 +5949,13 @@
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -6088,19 +6088,19 @@
       <c r="DR14" s="42"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="87">
+      <c r="A15" s="86">
         <v>2</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6219,15 +6219,15 @@
       <c r="DR15" s="39"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6346,27 +6346,27 @@
       <c r="DR16" s="42"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="87">
+      <c r="A17" s="86">
         <v>2.1</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89" t="s">
+      <c r="H17" s="95"/>
+      <c r="I17" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="12">
@@ -6491,15 +6491,15 @@
       <c r="DR17" s="39"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>1.25</v>
@@ -6626,23 +6626,23 @@
       <c r="DR18" s="42"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="87">
+      <c r="A19" s="86">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89" t="s">
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J19" s="12">
@@ -6773,15 +6773,15 @@
       <c r="DR19" s="39"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -6902,23 +6902,23 @@
       <c r="DR20" s="42"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="87">
+      <c r="A21" s="86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89" t="s">
+      <c r="H21" s="95"/>
+      <c r="I21" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="12">
@@ -7049,15 +7049,15 @@
       <c r="DR21" s="39"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7178,23 +7178,23 @@
       <c r="DR22" s="42"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="87">
+      <c r="A23" s="86">
         <v>2.4</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89" t="s">
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95" t="s">
         <v>194</v>
       </c>
       <c r="J23" s="12">
@@ -7325,15 +7325,15 @@
       <c r="DR23" s="39"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7462,23 +7462,23 @@
       <c r="DR24" s="42"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="87">
+      <c r="A25" s="86">
         <v>2.5</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89" t="s">
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95" t="s">
         <v>48</v>
       </c>
       <c r="J25" s="12">
@@ -7601,15 +7601,15 @@
       <c r="DR25" s="39"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7728,19 +7728,19 @@
       <c r="DR26" s="42"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="87">
+      <c r="A27" s="86">
         <v>3</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -7859,15 +7859,15 @@
       <c r="DR27" s="39"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -7986,27 +7986,27 @@
       <c r="DR28" s="42"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="87">
+      <c r="A29" s="86">
         <v>3.1</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87" t="s">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="89" t="s">
+      <c r="F29" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="89" t="s">
+      <c r="G29" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="12">
         <f>IF(C29&lt;&gt;"",SUM(K29:DR29)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -8129,15 +8129,15 @@
       <c r="DR29" s="39"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8256,19 +8256,19 @@
       <c r="DR30" s="42"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="87">
+      <c r="A31" s="86">
         <v>4</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -8387,15 +8387,15 @@
       <c r="DR31" s="39"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -8514,27 +8514,27 @@
       <c r="DR32" s="42"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="87">
+      <c r="A33" s="86">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
       <c r="J33" s="12">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
         <v>2.25</v>
@@ -8663,15 +8663,15 @@
       <c r="DR33" s="39"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8790,19 +8790,19 @@
       <c r="DR34" s="42"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="87">
+      <c r="A35" s="86">
         <v>5</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8921,15 +8921,15 @@
       <c r="DR35" s="39"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -9048,27 +9048,27 @@
       <c r="DR36" s="42"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="87">
+      <c r="A37" s="86">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="89" t="s">
+      <c r="F37" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G37" s="89" t="s">
+      <c r="G37" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
       <c r="J37" s="12">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
         <v>2.25</v>
@@ -9193,15 +9193,15 @@
       <c r="DR37" s="39"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9320,19 +9320,19 @@
       <c r="DR38" s="42"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="87">
+      <c r="A39" s="86">
         <v>6</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="12" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
         <v/>
@@ -9451,15 +9451,15 @@
       <c r="DR39" s="39"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
       <c r="J40" s="13" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v/>
@@ -9578,27 +9578,27 @@
       <c r="DR40" s="42"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="87">
+      <c r="A41" s="86">
         <v>6.1</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="F41" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="89" t="s">
+      <c r="G41" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="12">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v>3</v>
@@ -9727,15 +9727,15 @@
       <c r="DR41" s="39"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="13">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9862,11 +9862,11 @@
       </c>
       <c r="C43" s="85"/>
       <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="89"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="95"/>
       <c r="J43" s="12" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K43:DR43)/データ!$D$2,"")</f>
         <v/>
@@ -9989,11 +9989,11 @@
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="90"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="96"/>
       <c r="J44" s="13" t="str">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v/>
@@ -10122,17 +10122,17 @@
       <c r="D45" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="86" t="s">
+      <c r="F45" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="86" t="s">
+      <c r="G45" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H45" s="86"/>
-      <c r="I45" s="89"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="95"/>
       <c r="J45" s="12">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -10263,11 +10263,11 @@
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
       <c r="D46" s="85"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="90"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10396,17 +10396,17 @@
       <c r="D47" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="E47" s="86" t="s">
+      <c r="E47" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F47" s="86" t="s">
+      <c r="F47" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="86" t="s">
+      <c r="G47" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="89"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="95"/>
       <c r="J47" s="12">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -10531,11 +10531,11 @@
       <c r="B48" s="85"/>
       <c r="C48" s="85"/>
       <c r="D48" s="85"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="90"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="96"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10662,11 +10662,11 @@
       </c>
       <c r="C49" s="85"/>
       <c r="D49" s="85"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -10789,11 +10789,11 @@
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
       <c r="D50" s="85"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -10922,17 +10922,17 @@
       <c r="D51" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="86" t="s">
+      <c r="E51" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="86" t="s">
+      <c r="G51" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="86"/>
-      <c r="I51" s="89"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="95"/>
       <c r="J51" s="12">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -11063,11 +11063,11 @@
       <c r="B52" s="85"/>
       <c r="C52" s="85"/>
       <c r="D52" s="85"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="90"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="96"/>
       <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11196,17 +11196,17 @@
       <c r="D53" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="86" t="s">
+      <c r="F53" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H53" s="86"/>
-      <c r="I53" s="89"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="95"/>
       <c r="J53" s="12">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -11331,11 +11331,11 @@
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
       <c r="D54" s="85"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="90"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="96"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11462,11 +11462,11 @@
       </c>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="89"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="95"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11589,11 +11589,11 @@
       <c r="B56" s="85"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="90"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="96"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11722,15 +11722,15 @@
       <c r="D57" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86" t="s">
+      <c r="E57" s="88"/>
+      <c r="F57" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G57" s="86" t="s">
+      <c r="G57" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
       <c r="J57" s="12">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -11863,11 +11863,11 @@
       <c r="B58" s="85"/>
       <c r="C58" s="85"/>
       <c r="D58" s="85"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
       <c r="J58" s="13">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11996,13 +11996,13 @@
       <c r="D59" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
       <c r="J59" s="12">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v>0.875</v>
@@ -12135,11 +12135,11 @@
       <c r="B60" s="85"/>
       <c r="C60" s="85"/>
       <c r="D60" s="85"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
       <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12266,11 +12266,11 @@
       </c>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12393,11 +12393,11 @@
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12526,17 +12526,17 @@
       <c r="D63" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="86" t="s">
+      <c r="F63" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G63" s="86" t="s">
+      <c r="G63" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
       <c r="J63" s="12">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v>6.375</v>
@@ -12679,11 +12679,11 @@
       <c r="B64" s="85"/>
       <c r="C64" s="85"/>
       <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
       <c r="J64" s="13">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12802,27 +12802,27 @@
       <c r="DR64" s="42"/>
     </row>
     <row r="65" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A65" s="87">
+      <c r="A65" s="86">
         <v>10.199999999999999</v>
       </c>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87" t="s">
+      <c r="B65" s="86"/>
+      <c r="C65" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="87" t="s">
+      <c r="D65" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="E65" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="89" t="s">
+      <c r="F65" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G65" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
       <c r="J65" s="12">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -12965,15 +12965,15 @@
       <c r="DR65" s="39"/>
     </row>
     <row r="66" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
       <c r="J66" s="13">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13102,13 +13102,13 @@
       <c r="D67" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
       <c r="J67" s="12">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -13233,11 +13233,11 @@
       <c r="B68" s="85"/>
       <c r="C68" s="85"/>
       <c r="D68" s="85"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
       <c r="J68" s="13">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13364,13 +13364,13 @@
       <c r="D69" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
       <c r="J69" s="12">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v>3</v>
@@ -13497,11 +13497,11 @@
       <c r="B70" s="85"/>
       <c r="C70" s="85"/>
       <c r="D70" s="85"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
       <c r="J70" s="13">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13625,451 +13625,451 @@
         <v>10</v>
       </c>
       <c r="K72" s="29">
-        <f>SUM(K5,K7,K9,K11,K13,K15,K17,K19,K23,K25,K27,K29,K31,K33,K21,K35,K37,K39,K41,K43,K45,K47,K49,K51,K53,K55,K57,K59,K61,K63,K65,K67,K69)</f>
+        <f t="shared" ref="K72:AP72" si="0">SUM(K5,K7,K9,K11,K13,K15,K17,K19,K23,K25,K27,K29,K31,K33,K21,K35,K37,K39,K41,K43,K45,K47,K49,K51,K53,K55,K57,K59,K61,K63,K65,K67,K69)</f>
         <v>8</v>
       </c>
       <c r="L72" s="29">
-        <f>SUM(L5,L7,L9,L11,L13,L15,L17,L19,L23,L25,L27,L29,L31,L33,L21,L35,L37,L39,L41,L43,L45,L47,L49,L51,L53,L55,L57,L59,L61,L63,L65,L67,L69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M72" s="29">
-        <f>SUM(M5,M7,M9,M11,M13,M15,M17,M19,M23,M25,M27,M29,M31,M33,M21,M35,M37,M39,M41,M43,M45,M47,M49,M51,M53,M55,M57,M59,M61,M63,M65,M67,M69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N72" s="29">
-        <f>SUM(N5,N7,N9,N11,N13,N15,N17,N19,N23,N25,N27,N29,N31,N33,N21,N35,N37,N39,N41,N43,N45,N47,N49,N51,N53,N55,N57,N59,N61,N63,N65,N67,N69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O72" s="29">
-        <f>SUM(O5,O7,O9,O11,O13,O15,O17,O19,O23,O25,O27,O29,O31,O33,O21,O35,O37,O39,O41,O43,O45,O47,O49,O51,O53,O55,O57,O59,O61,O63,O65,O67,O69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P72" s="29">
-        <f>SUM(P5,P7,P9,P11,P13,P15,P17,P19,P23,P25,P27,P29,P31,P33,P21,P35,P37,P39,P41,P43,P45,P47,P49,P51,P53,P55,P57,P59,P61,P63,P65,P67,P69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q72" s="29">
-        <f>SUM(Q5,Q7,Q9,Q11,Q13,Q15,Q17,Q19,Q23,Q25,Q27,Q29,Q31,Q33,Q21,Q35,Q37,Q39,Q41,Q43,Q45,Q47,Q49,Q51,Q53,Q55,Q57,Q59,Q61,Q63,Q65,Q67,Q69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R72" s="29">
-        <f>SUM(R5,R7,R9,R11,R13,R15,R17,R19,R23,R25,R27,R29,R31,R33,R21,R35,R37,R39,R41,R43,R45,R47,R49,R51,R53,R55,R57,R59,R61,R63,R65,R67,R69)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S72" s="29">
-        <f>SUM(S5,S7,S9,S11,S13,S15,S17,S19,S23,S25,S27,S29,S31,S33,S21,S35,S37,S39,S41,S43,S45,S47,S49,S51,S53,S55,S57,S59,S61,S63,S65,S67,S69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T72" s="29">
-        <f>SUM(T5,T7,T9,T11,T13,T15,T17,T19,T23,T25,T27,T29,T31,T33,T21,T35,T37,T39,T41,T43,T45,T47,T49,T51,T53,T55,T57,T59,T61,T63,T65,T67,T69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U72" s="29">
-        <f>SUM(U5,U7,U9,U11,U13,U15,U17,U19,U23,U25,U27,U29,U31,U33,U21,U35,U37,U39,U41,U43,U45,U47,U49,U51,U53,U55,U57,U59,U61,U63,U65,U67,U69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V72" s="29">
-        <f>SUM(V5,V7,V9,V11,V13,V15,V17,V19,V23,V25,V27,V29,V31,V33,V21,V35,V37,V39,V41,V43,V45,V47,V49,V51,V53,V55,V57,V59,V61,V63,V65,V67,V69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W72" s="29">
-        <f>SUM(W5,W7,W9,W11,W13,W15,W17,W19,W23,W25,W27,W29,W31,W33,W21,W35,W37,W39,W41,W43,W45,W47,W49,W51,W53,W55,W57,W59,W61,W63,W65,W67,W69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="X72" s="29">
-        <f>SUM(X5,X7,X9,X11,X13,X15,X17,X19,X23,X25,X27,X29,X31,X33,X21,X35,X37,X39,X41,X43,X45,X47,X49,X51,X53,X55,X57,X59,X61,X63,X65,X67,X69)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y72" s="29">
-        <f>SUM(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19,Y23,Y25,Y27,Y29,Y31,Y33,Y21,Y35,Y37,Y39,Y41,Y43,Y45,Y47,Y49,Y51,Y53,Y55,Y57,Y59,Y61,Y63,Y65,Y67,Y69)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="Z72" s="29">
-        <f>SUM(Z5,Z7,Z9,Z11,Z13,Z15,Z17,Z19,Z23,Z25,Z27,Z29,Z31,Z33,Z21,Z35,Z37,Z39,Z41,Z43,Z45,Z47,Z49,Z51,Z53,Z55,Z57,Z59,Z61,Z63,Z65,Z67,Z69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA72" s="29">
-        <f>SUM(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19,AA23,AA25,AA27,AA29,AA31,AA33,AA21,AA35,AA37,AA39,AA41,AA43,AA45,AA47,AA49,AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67,AA69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB72" s="29">
-        <f>SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB23,AB25,AB27,AB29,AB31,AB33,AB21,AB35,AB37,AB39,AB41,AB43,AB45,AB47,AB49,AB51,AB53,AB55,AB57,AB59,AB61,AB63,AB65,AB67,AB69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC72" s="29">
-        <f>SUM(AC5,AC7,AC9,AC11,AC13,AC15,AC17,AC19,AC23,AC25,AC27,AC29,AC31,AC33,AC21,AC35,AC37,AC39,AC41,AC43,AC45,AC47,AC49,AC51,AC53,AC55,AC57,AC59,AC61,AC63,AC65,AC67,AC69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AD72" s="29">
-        <f>SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19,AD23,AD25,AD27,AD29,AD31,AD33,AD21,AD35,AD37,AD39,AD41,AD43,AD45,AD47,AD49,AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67,AD69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE72" s="29">
-        <f>SUM(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19,AE23,AE25,AE27,AE29,AE31,AE33,AE21,AE35,AE37,AE39,AE41,AE43,AE45,AE47,AE49,AE51,AE53,AE55,AE57,AE59,AE61,AE63,AE65,AE67,AE69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF72" s="29">
-        <f>SUM(AF5,AF7,AF9,AF11,AF13,AF15,AF17,AF19,AF23,AF25,AF27,AF29,AF31,AF33,AF21,AF35,AF37,AF39,AF41,AF43,AF45,AF47,AF49,AF51,AF53,AF55,AF57,AF59,AF61,AF63,AF65,AF67,AF69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG72" s="29">
-        <f>SUM(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19,AG23,AG25,AG27,AG29,AG31,AG33,AG21,AG35,AG37,AG39,AG41,AG43,AG45,AG47,AG49,AG51,AG53,AG55,AG57,AG59,AG61,AG63,AG65,AG67,AG69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH72" s="29">
-        <f>SUM(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19,AH23,AH25,AH27,AH29,AH31,AH33,AH21,AH35,AH37,AH39,AH41,AH43,AH45,AH47,AH49,AH51,AH53,AH55,AH57,AH59,AH61,AH63,AH65,AH67,AH69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI72" s="29">
-        <f>SUM(AI5,AI7,AI9,AI11,AI13,AI15,AI17,AI19,AI23,AI25,AI27,AI29,AI31,AI33,AI21,AI35,AI37,AI39,AI41,AI43,AI45,AI47,AI49,AI51,AI53,AI55,AI57,AI59,AI61,AI63,AI65,AI67,AI69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AJ72" s="29">
-        <f>SUM(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19,AJ23,AJ25,AJ27,AJ29,AJ31,AJ33,AJ21,AJ35,AJ37,AJ39,AJ41,AJ43,AJ45,AJ47,AJ49,AJ51,AJ53,AJ55,AJ57,AJ59,AJ61,AJ63,AJ65,AJ67,AJ69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AK72" s="29">
-        <f>SUM(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19,AK23,AK25,AK27,AK29,AK31,AK33,AK21,AK35,AK37,AK39,AK41,AK43,AK45,AK47,AK49,AK51,AK53,AK55,AK57,AK59,AK61,AK63,AK65,AK67,AK69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AL72" s="29">
-        <f>SUM(AL5,AL7,AL9,AL11,AL13,AL15,AL17,AL19,AL23,AL25,AL27,AL29,AL31,AL33,AL21,AL35,AL37,AL39,AL41,AL43,AL45,AL47,AL49,AL51,AL53,AL55,AL57,AL59,AL61,AL63,AL65,AL67,AL69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AM72" s="29">
-        <f>SUM(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19,AM23,AM25,AM27,AM29,AM31,AM33,AM21,AM35,AM37,AM39,AM41,AM43,AM45,AM47,AM49,AM51,AM53,AM55,AM57,AM59,AM61,AM63,AM65,AM67,AM69)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AN72" s="29">
-        <f>SUM(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19,AN23,AN25,AN27,AN29,AN31,AN33,AN21,AN35,AN37,AN39,AN41,AN43,AN45,AN47,AN49,AN51,AN53,AN55,AN57,AN59,AN61,AN63,AN65,AN67,AN69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO72" s="29">
-        <f>SUM(AO5,AO7,AO9,AO11,AO13,AO15,AO17,AO19,AO23,AO25,AO27,AO29,AO31,AO33,AO21,AO35,AO37,AO39,AO41,AO43,AO45,AO47,AO49,AO51,AO53,AO55,AO57,AO59,AO61,AO63,AO65,AO67,AO69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP72" s="29">
-        <f>SUM(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19,AP23,AP25,AP27,AP29,AP31,AP33,AP21,AP35,AP37,AP39,AP41,AP43,AP45,AP47,AP49,AP51,AP53,AP55,AP57,AP59,AP61,AP63,AP65,AP67,AP69)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AQ72" s="29">
-        <f>SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19,AQ23,AQ25,AQ27,AQ29,AQ31,AQ33,AQ21,AQ35,AQ37,AQ39,AQ41,AQ43,AQ45,AQ47,AQ49,AQ51,AQ53,AQ55,AQ57,AQ59,AQ61,AQ63,AQ65,AQ67,AQ69)</f>
+        <f t="shared" ref="AQ72:BV72" si="1">SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19,AQ23,AQ25,AQ27,AQ29,AQ31,AQ33,AQ21,AQ35,AQ37,AQ39,AQ41,AQ43,AQ45,AQ47,AQ49,AQ51,AQ53,AQ55,AQ57,AQ59,AQ61,AQ63,AQ65,AQ67,AQ69)</f>
         <v>3</v>
       </c>
       <c r="AR72" s="29">
-        <f>SUM(AR5,AR7,AR9,AR11,AR13,AR15,AR17,AR19,AR23,AR25,AR27,AR29,AR31,AR33,AR21,AR35,AR37,AR39,AR41,AR43,AR45,AR47,AR49,AR51,AR53,AR55,AR57,AR59,AR61,AR63,AR65,AR67,AR69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS72" s="29">
-        <f>SUM(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19,AS23,AS25,AS27,AS29,AS31,AS33,AS21,AS35,AS37,AS39,AS41,AS43,AS45,AS47,AS49,AS51,AS53,AS55,AS57,AS59,AS61,AS63,AS65,AS67,AS69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AT72" s="29">
-        <f>SUM(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19,AT23,AT25,AT27,AT29,AT31,AT33,AT21,AT35,AT37,AT39,AT41,AT43,AT45,AT47,AT49,AT51,AT53,AT55,AT57,AT59,AT61,AT63,AT65,AT67,AT69)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AU72" s="29">
-        <f>SUM(AU5,AU7,AU9,AU11,AU13,AU15,AU17,AU19,AU23,AU25,AU27,AU29,AU31,AU33,AU21,AU35,AU37,AU39,AU41,AU43,AU45,AU47,AU49,AU51,AU53,AU55,AU57,AU59,AU61,AU63,AU65,AU67,AU69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV72" s="29">
-        <f>SUM(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19,AV23,AV25,AV27,AV29,AV31,AV33,AV21,AV35,AV37,AV39,AV41,AV43,AV45,AV47,AV49,AV51,AV53,AV55,AV57,AV59,AV61,AV63,AV65,AV67,AV69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW72" s="29">
-        <f>SUM(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19,AW23,AW25,AW27,AW29,AW31,AW33,AW21,AW35,AW37,AW39,AW41,AW43,AW45,AW47,AW49,AW51,AW53,AW55,AW57,AW59,AW61,AW63,AW65,AW67,AW69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AX72" s="29">
-        <f>SUM(AX5,AX7,AX9,AX11,AX13,AX15,AX17,AX19,AX23,AX25,AX27,AX29,AX31,AX33,AX21,AX35,AX37,AX39,AX41,AX43,AX45,AX47,AX49,AX51,AX53,AX55,AX57,AX59,AX61,AX63,AX65,AX67,AX69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AY72" s="29">
-        <f>SUM(AY5,AY7,AY9,AY11,AY13,AY15,AY17,AY19,AY23,AY25,AY27,AY29,AY31,AY33,AY21,AY35,AY37,AY39,AY41,AY43,AY45,AY47,AY49,AY51,AY53,AY55,AY57,AY59,AY61,AY63,AY65,AY67,AY69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AZ72" s="29">
-        <f>SUM(AZ5,AZ7,AZ9,AZ11,AZ13,AZ15,AZ17,AZ19,AZ23,AZ25,AZ27,AZ29,AZ31,AZ33,AZ21,AZ35,AZ37,AZ39,AZ41,AZ43,AZ45,AZ47,AZ49,AZ51,AZ53,AZ55,AZ57,AZ59,AZ61,AZ63,AZ65,AZ67,AZ69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BA72" s="29">
-        <f>SUM(BA5,BA7,BA9,BA11,BA13,BA15,BA17,BA19,BA23,BA25,BA27,BA29,BA31,BA33,BA21,BA35,BA37,BA39,BA41,BA43,BA45,BA47,BA49,BA51,BA53,BA55,BA57,BA59,BA61,BA63,BA65,BA67,BA69)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BB72" s="29">
-        <f>SUM(BB5,BB7,BB9,BB11,BB13,BB15,BB17,BB19,BB23,BB25,BB27,BB29,BB31,BB33,BB21,BB35,BB37,BB39,BB41,BB43,BB45,BB47,BB49,BB51,BB53,BB55,BB57,BB59,BB61,BB63,BB65,BB67,BB69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC72" s="29">
-        <f>SUM(BC5,BC7,BC9,BC11,BC13,BC15,BC17,BC19,BC23,BC25,BC27,BC29,BC31,BC33,BC21,BC35,BC37,BC39,BC41,BC43,BC45,BC47,BC49,BC51,BC53,BC55,BC57,BC59,BC61,BC63,BC65,BC67,BC69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BD72" s="29">
-        <f>SUM(BD5,BD7,BD9,BD11,BD13,BD15,BD17,BD19,BD23,BD25,BD27,BD29,BD31,BD33,BD21,BD35,BD37,BD39,BD41,BD43,BD45,BD47,BD49,BD51,BD53,BD55,BD57,BD59,BD61,BD63,BD65,BD67,BD69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE72" s="29">
-        <f>SUM(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19,BE23,BE25,BE27,BE29,BE31,BE33,BE21,BE35,BE37,BE39,BE41,BE43,BE45,BE47,BE49,BE51,BE53,BE55,BE57,BE59,BE61,BE63,BE65,BE67,BE69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BF72" s="29">
-        <f>SUM(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19,BF23,BF25,BF27,BF29,BF31,BF33,BF21,BF35,BF37,BF39,BF41,BF43,BF45,BF47,BF49,BF51,BF53,BF55,BF57,BF59,BF61,BF63,BF65,BF67,BF69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BG72" s="29">
-        <f>SUM(BG5,BG7,BG9,BG11,BG13,BG15,BG17,BG19,BG23,BG25,BG27,BG29,BG31,BG33,BG21,BG35,BG37,BG39,BG41,BG43,BG45,BG47,BG49,BG51,BG53,BG55,BG57,BG59,BG61,BG63,BG65,BG67,BG69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BH72" s="29">
-        <f>SUM(BH5,BH7,BH9,BH11,BH13,BH15,BH17,BH19,BH23,BH25,BH27,BH29,BH31,BH33,BH21,BH35,BH37,BH39,BH41,BH43,BH45,BH47,BH49,BH51,BH53,BH55,BH57,BH59,BH61,BH63,BH65,BH67,BH69)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BI72" s="29">
-        <f>SUM(BI5,BI7,BI9,BI11,BI13,BI15,BI17,BI19,BI23,BI25,BI27,BI29,BI31,BI33,BI21,BI35,BI37,BI39,BI41,BI43,BI45,BI47,BI49,BI51,BI53,BI55,BI57,BI59,BI61,BI63,BI65,BI67,BI69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BJ72" s="29">
-        <f>SUM(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19,BJ23,BJ25,BJ27,BJ29,BJ31,BJ33,BJ21,BJ35,BJ37,BJ39,BJ41,BJ43,BJ45,BJ47,BJ49,BJ51,BJ53,BJ55,BJ57,BJ59,BJ61,BJ63,BJ65,BJ67,BJ69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BK72" s="29">
-        <f>SUM(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19,BK23,BK25,BK27,BK29,BK31,BK33,BK21,BK35,BK37,BK39,BK41,BK43,BK45,BK47,BK49,BK51,BK53,BK55,BK57,BK59,BK61,BK63,BK65,BK67,BK69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BL72" s="29">
-        <f>SUM(BL5,BL7,BL9,BL11,BL13,BL15,BL17,BL19,BL23,BL25,BL27,BL29,BL31,BL33,BL21,BL35,BL37,BL39,BL41,BL43,BL45,BL47,BL49,BL51,BL53,BL55,BL57,BL59,BL61,BL63,BL65,BL67,BL69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BM72" s="29">
-        <f>SUM(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19,BM23,BM25,BM27,BM29,BM31,BM33,BM21,BM35,BM37,BM39,BM41,BM43,BM45,BM47,BM49,BM51,BM53,BM55,BM57,BM59,BM61,BM63,BM65,BM67,BM69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BN72" s="29">
-        <f>SUM(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19,BN23,BN25,BN27,BN29,BN31,BN33,BN21,BN35,BN37,BN39,BN41,BN43,BN45,BN47,BN49,BN51,BN53,BN55,BN57,BN59,BN61,BN63,BN65,BN67,BN69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BO72" s="29">
-        <f>SUM(BO5,BO7,BO9,BO11,BO13,BO15,BO17,BO19,BO23,BO25,BO27,BO29,BO31,BO33,BO21,BO35,BO37,BO39,BO41,BO43,BO45,BO47,BO49,BO51,BO53,BO55,BO57,BO59,BO61,BO63,BO65,BO67,BO69)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BP72" s="29">
-        <f>SUM(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19,BP23,BP25,BP27,BP29,BP31,BP33,BP21,BP35,BP37,BP39,BP41,BP43,BP45,BP47,BP49,BP51,BP53,BP55,BP57,BP59,BP61,BP63,BP65,BP67,BP69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BQ72" s="29">
-        <f>SUM(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19,BQ23,BQ25,BQ27,BQ29,BQ31,BQ33,BQ21,BQ35,BQ37,BQ39,BQ41,BQ43,BQ45,BQ47,BQ49,BQ51,BQ53,BQ55,BQ57,BQ59,BQ61,BQ63,BQ65,BQ67,BQ69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BR72" s="29">
-        <f>SUM(BR5,BR7,BR9,BR11,BR13,BR15,BR17,BR19,BR23,BR25,BR27,BR29,BR31,BR33,BR21,BR35,BR37,BR39,BR41,BR43,BR45,BR47,BR49,BR51,BR53,BR55,BR57,BR59,BR61,BR63,BR65,BR67,BR69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BS72" s="29">
-        <f>SUM(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19,BS23,BS25,BS27,BS29,BS31,BS33,BS21,BS35,BS37,BS39,BS41,BS43,BS45,BS47,BS49,BS51,BS53,BS55,BS57,BS59,BS61,BS63,BS65,BS67,BS69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BT72" s="29">
-        <f>SUM(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19,BT23,BT25,BT27,BT29,BT31,BT33,BT21,BT35,BT37,BT39,BT41,BT43,BT45,BT47,BT49,BT51,BT53,BT55,BT57,BT59,BT61,BT63,BT65,BT67,BT69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BU72" s="29">
-        <f>SUM(BU5,BU7,BU9,BU11,BU13,BU15,BU17,BU19,BU23,BU25,BU27,BU29,BU31,BU33,BU21,BU35,BU37,BU39,BU41,BU43,BU45,BU47,BU49,BU51,BU53,BU55,BU57,BU59,BU61,BU63,BU65,BU67,BU69)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BV72" s="29">
-        <f>SUM(BV5,BV7,BV9,BV11,BV13,BV15,BV17,BV19,BV23,BV25,BV27,BV29,BV31,BV33,BV21,BV35,BV37,BV39,BV41,BV43,BV45,BV47,BV49,BV51,BV53,BV55,BV57,BV59,BV61,BV63,BV65,BV67,BV69)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BW72" s="29">
-        <f>SUM(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19,BW23,BW25,BW27,BW29,BW31,BW33,BW21,BW35,BW37,BW39,BW41,BW43,BW45,BW47,BW49,BW51,BW53,BW55,BW57,BW59,BW61,BW63,BW65,BW67,BW69)</f>
+        <f t="shared" ref="BW72:DB72" si="2">SUM(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19,BW23,BW25,BW27,BW29,BW31,BW33,BW21,BW35,BW37,BW39,BW41,BW43,BW45,BW47,BW49,BW51,BW53,BW55,BW57,BW59,BW61,BW63,BW65,BW67,BW69)</f>
         <v>0</v>
       </c>
       <c r="BX72" s="29">
-        <f>SUM(BX5,BX7,BX9,BX11,BX13,BX15,BX17,BX19,BX23,BX25,BX27,BX29,BX31,BX33,BX21,BX35,BX37,BX39,BX41,BX43,BX45,BX47,BX49,BX51,BX53,BX55,BX57,BX59,BX61,BX63,BX65,BX67,BX69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY72" s="29">
-        <f>SUM(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19,BY23,BY25,BY27,BY29,BY31,BY33,BY21,BY35,BY37,BY39,BY41,BY43,BY45,BY47,BY49,BY51,BY53,BY55,BY57,BY59,BY61,BY63,BY65,BY67,BY69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BZ72" s="29">
-        <f>SUM(BZ5,BZ7,BZ9,BZ11,BZ13,BZ15,BZ17,BZ19,BZ23,BZ25,BZ27,BZ29,BZ31,BZ33,BZ21,BZ35,BZ37,BZ39,BZ41,BZ43,BZ45,BZ47,BZ49,BZ51,BZ53,BZ55,BZ57,BZ59,BZ61,BZ63,BZ65,BZ67,BZ69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CA72" s="29">
-        <f>SUM(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19,CA23,CA25,CA27,CA29,CA31,CA33,CA21,CA35,CA37,CA39,CA41,CA43,CA45,CA47,CA49,CA51,CA53,CA55,CA57,CA59,CA61,CA63,CA65,CA67,CA69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CB72" s="29">
-        <f>SUM(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19,CB23,CB25,CB27,CB29,CB31,CB33,CB21,CB35,CB37,CB39,CB41,CB43,CB45,CB47,CB49,CB51,CB53,CB55,CB57,CB59,CB61,CB63,CB65,CB67,CB69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CC72" s="29">
-        <f>SUM(CC5,CC7,CC9,CC11,CC13,CC15,CC17,CC19,CC23,CC25,CC27,CC29,CC31,CC33,CC21,CC35,CC37,CC39,CC41,CC43,CC45,CC47,CC49,CC51,CC53,CC55,CC57,CC59,CC61,CC63,CC65,CC67,CC69)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="CD72" s="29">
-        <f>SUM(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19,CD23,CD25,CD27,CD29,CD31,CD33,CD21,CD35,CD37,CD39,CD41,CD43,CD45,CD47,CD49,CD51,CD53,CD55,CD57,CD59,CD61,CD63,CD65,CD67,CD69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CE72" s="29">
-        <f>SUM(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19,CE23,CE25,CE27,CE29,CE31,CE33,CE21,CE35,CE37,CE39,CE41,CE43,CE45,CE47,CE49,CE51,CE53,CE55,CE57,CE59,CE61,CE63,CE65,CE67,CE69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CF72" s="29">
-        <f>SUM(CF5,CF7,CF9,CF11,CF13,CF15,CF17,CF19,CF23,CF25,CF27,CF29,CF31,CF33,CF21,CF35,CF37,CF39,CF41,CF43,CF45,CF47,CF49,CF51,CF53,CF55,CF57,CF59,CF61,CF63,CF65,CF67,CF69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CG72" s="29">
-        <f>SUM(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19,CG23,CG25,CG27,CG29,CG31,CG33,CG21,CG35,CG37,CG39,CG41,CG43,CG45,CG47,CG49,CG51,CG53,CG55,CG57,CG59,CG61,CG63,CG65,CG67,CG69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CH72" s="29">
-        <f>SUM(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19,CH23,CH25,CH27,CH29,CH31,CH33,CH21,CH35,CH37,CH39,CH41,CH43,CH45,CH47,CH49,CH51,CH53,CH55,CH57,CH59,CH61,CH63,CH65,CH67,CH69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CI72" s="29">
-        <f>SUM(CI5,CI7,CI9,CI11,CI13,CI15,CI17,CI19,CI23,CI25,CI27,CI29,CI31,CI33,CI21,CI35,CI37,CI39,CI41,CI43,CI45,CI47,CI49,CI51,CI53,CI55,CI57,CI59,CI61,CI63,CI65,CI67,CI69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CJ72" s="29">
-        <f>SUM(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19,CJ23,CJ25,CJ27,CJ29,CJ31,CJ33,CJ21,CJ35,CJ37,CJ39,CJ41,CJ43,CJ45,CJ47,CJ49,CJ51,CJ53,CJ55,CJ57,CJ59,CJ61,CJ63,CJ65,CJ67,CJ69)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="CK72" s="29">
-        <f>SUM(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19,CK23,CK25,CK27,CK29,CK31,CK33,CK21,CK35,CK37,CK39,CK41,CK43,CK45,CK47,CK49,CK51,CK53,CK55,CK57,CK59,CK61,CK63,CK65,CK67,CK69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CL72" s="29">
-        <f>SUM(CL5,CL7,CL9,CL11,CL13,CL15,CL17,CL19,CL23,CL25,CL27,CL29,CL31,CL33,CL21,CL35,CL37,CL39,CL41,CL43,CL45,CL47,CL49,CL51,CL53,CL55,CL57,CL59,CL61,CL63,CL65,CL67,CL69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CM72" s="29">
-        <f>SUM(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19,CM23,CM25,CM27,CM29,CM31,CM33,CM21,CM35,CM37,CM39,CM41,CM43,CM45,CM47,CM49,CM51,CM53,CM55,CM57,CM59,CM61,CM63,CM65,CM67,CM69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CN72" s="29">
-        <f>SUM(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19,CN23,CN25,CN27,CN29,CN31,CN33,CN21,CN35,CN37,CN39,CN41,CN43,CN45,CN47,CN49,CN51,CN53,CN55,CN57,CN59,CN61,CN63,CN65,CN67,CN69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CO72" s="29">
-        <f>SUM(CO5,CO7,CO9,CO11,CO13,CO15,CO17,CO19,CO23,CO25,CO27,CO29,CO31,CO33,CO21,CO35,CO37,CO39,CO41,CO43,CO45,CO47,CO49,CO51,CO53,CO55,CO57,CO59,CO61,CO63,CO65,CO67,CO69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CP72" s="29">
-        <f>SUM(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19,CP23,CP25,CP27,CP29,CP31,CP33,CP21,CP35,CP37,CP39,CP41,CP43,CP45,CP47,CP49,CP51,CP53,CP55,CP57,CP59,CP61,CP63,CP65,CP67,CP69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CQ72" s="29">
-        <f>SUM(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19,CQ23,CQ25,CQ27,CQ29,CQ31,CQ33,CQ21,CQ35,CQ37,CQ39,CQ41,CQ43,CQ45,CQ47,CQ49,CQ51,CQ53,CQ55,CQ57,CQ59,CQ61,CQ63,CQ65,CQ67,CQ69)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="CR72" s="29">
-        <f>SUM(CR5,CR7,CR9,CR11,CR13,CR15,CR17,CR19,CR23,CR25,CR27,CR29,CR31,CR33,CR21,CR35,CR37,CR39,CR41,CR43,CR45,CR47,CR49,CR51,CR53,CR55,CR57,CR59,CR61,CR63,CR65,CR67,CR69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CS72" s="29">
-        <f>SUM(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19,CS23,CS25,CS27,CS29,CS31,CS33,CS21,CS35,CS37,CS39,CS41,CS43,CS45,CS47,CS49,CS51,CS53,CS55,CS57,CS59,CS61,CS63,CS65,CS67,CS69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CT72" s="29">
-        <f>SUM(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19,CT23,CT25,CT27,CT29,CT31,CT33,CT21,CT35,CT37,CT39,CT41,CT43,CT45,CT47,CT49,CT51,CT53,CT55,CT57,CT59,CT61,CT63,CT65,CT67,CT69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CU72" s="29">
-        <f>SUM(CU5,CU7,CU9,CU11,CU13,CU15,CU17,CU19,CU23,CU25,CU27,CU29,CU31,CU33,CU21,CU35,CU37,CU39,CU41,CU43,CU45,CU47,CU49,CU51,CU53,CU55,CU57,CU59,CU61,CU63,CU65,CU67,CU69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CV72" s="29">
-        <f>SUM(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19,CV23,CV25,CV27,CV29,CV31,CV33,CV21,CV35,CV37,CV39,CV41,CV43,CV45,CV47,CV49,CV51,CV53,CV55,CV57,CV59,CV61,CV63,CV65,CV67,CV69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CW72" s="29">
-        <f>SUM(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19,CW23,CW25,CW27,CW29,CW31,CW33,CW21,CW35,CW37,CW39,CW41,CW43,CW45,CW47,CW49,CW51,CW53,CW55,CW57,CW59,CW61,CW63,CW65,CW67,CW69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CX72" s="29">
-        <f>SUM(CX5,CX7,CX9,CX11,CX13,CX15,CX17,CX19,CX23,CX25,CX27,CX29,CX31,CX33,CX21,CX35,CX37,CX39,CX41,CX43,CX45,CX47,CX49,CX51,CX53,CX55,CX57,CX59,CX61,CX63,CX65,CX67,CX69)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="CY72" s="29">
-        <f>SUM(CY5,CY7,CY9,CY11,CY13,CY15,CY17,CY19,CY23,CY25,CY27,CY29,CY31,CY33,CY21,CY35,CY37,CY39,CY41,CY43,CY45,CY47,CY49,CY51,CY53,CY55,CY57,CY59,CY61,CY63,CY65,CY67,CY69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CZ72" s="29">
-        <f>SUM(CZ5,CZ7,CZ9,CZ11,CZ13,CZ15,CZ17,CZ19,CZ23,CZ25,CZ27,CZ29,CZ31,CZ33,CZ21,CZ35,CZ37,CZ39,CZ41,CZ43,CZ45,CZ47,CZ49,CZ51,CZ53,CZ55,CZ57,CZ59,CZ61,CZ63,CZ65,CZ67,CZ69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="DA72" s="29">
-        <f>SUM(DA5,DA7,DA9,DA11,DA13,DA15,DA17,DA19,DA23,DA25,DA27,DA29,DA31,DA33,DA21,DA35,DA37,DA39,DA41,DA43,DA45,DA47,DA49,DA51,DA53,DA55,DA57,DA59,DA61,DA63,DA65,DA67,DA69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="DB72" s="29">
-        <f>SUM(DB5,DB7,DB9,DB11,DB13,DB15,DB17,DB19,DB23,DB25,DB27,DB29,DB31,DB33,DB21,DB35,DB37,DB39,DB41,DB43,DB45,DB47,DB49,DB51,DB53,DB55,DB57,DB59,DB61,DB63,DB65,DB67,DB69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="DC72" s="29">
-        <f>SUM(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19,DC23,DC25,DC27,DC29,DC31,DC33,DC21,DC35,DC37,DC39,DC41,DC43,DC45,DC47,DC49,DC51,DC53,DC55,DC57,DC59,DC61,DC63,DC65,DC67,DC69)</f>
+        <f t="shared" ref="DC72:DR72" si="3">SUM(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19,DC23,DC25,DC27,DC29,DC31,DC33,DC21,DC35,DC37,DC39,DC41,DC43,DC45,DC47,DC49,DC51,DC53,DC55,DC57,DC59,DC61,DC63,DC65,DC67,DC69)</f>
         <v>3</v>
       </c>
       <c r="DD72" s="29">
-        <f>SUM(DD5,DD7,DD9,DD11,DD13,DD15,DD17,DD19,DD23,DD25,DD27,DD29,DD31,DD33,DD21,DD35,DD37,DD39,DD41,DD43,DD45,DD47,DD49,DD51,DD53,DD55,DD57,DD59,DD61,DD63,DD65,DD67,DD69)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DE72" s="29">
-        <f>SUM(DE5,DE7,DE9,DE11,DE13,DE15,DE17,DE19,DE23,DE25,DE27,DE29,DE31,DE33,DE21,DE35,DE37,DE39,DE41,DE43,DE45,DE47,DE49,DE51,DE53,DE55,DE57,DE59,DE61,DE63,DE65,DE67,DE69)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="DF72" s="29">
-        <f>SUM(DF5,DF7,DF9,DF11,DF13,DF15,DF17,DF19,DF23,DF25,DF27,DF29,DF31,DF33,DF21,DF35,DF37,DF39,DF41,DF43,DF45,DF47,DF49,DF51,DF53,DF55,DF57,DF59,DF61,DF63,DF65,DF67,DF69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DG72" s="29">
-        <f>SUM(DG5,DG7,DG9,DG11,DG13,DG15,DG17,DG19,DG23,DG25,DG27,DG29,DG31,DG33,DG21,DG35,DG37,DG39,DG41,DG43,DG45,DG47,DG49,DG51,DG53,DG55,DG57,DG59,DG61,DG63,DG65,DG67,DG69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DH72" s="29">
-        <f>SUM(DH5,DH7,DH9,DH11,DH13,DH15,DH17,DH19,DH23,DH25,DH27,DH29,DH31,DH33,DH21,DH35,DH37,DH39,DH41,DH43,DH45,DH47,DH49,DH51,DH53,DH55,DH57,DH59,DH61,DH63,DH65,DH67,DH69)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DI72" s="29">
-        <f>SUM(DI5,DI7,DI9,DI11,DI13,DI15,DI17,DI19,DI23,DI25,DI27,DI29,DI31,DI33,DI21,DI35,DI37,DI39,DI41,DI43,DI45,DI47,DI49,DI51,DI53,DI55,DI57,DI59,DI61,DI63,DI65,DI67,DI69)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DJ72" s="29">
-        <f>SUM(DJ5,DJ7,DJ9,DJ11,DJ13,DJ15,DJ17,DJ19,DJ23,DJ25,DJ27,DJ29,DJ31,DJ33,DJ21,DJ35,DJ37,DJ39,DJ41,DJ43,DJ45,DJ47,DJ49,DJ51,DJ53,DJ55,DJ57,DJ59,DJ61,DJ63,DJ65,DJ67,DJ69)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DK72" s="29">
-        <f>SUM(DK5,DK7,DK9,DK11,DK13,DK15,DK17,DK19,DK23,DK25,DK27,DK29,DK31,DK33,DK21,DK35,DK37,DK39,DK41,DK43,DK45,DK47,DK49,DK51,DK53,DK55,DK57,DK59,DK61,DK63,DK65,DK67,DK69)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DL72" s="29">
-        <f>SUM(DL5,DL7,DL9,DL11,DL13,DL15,DL17,DL19,DL23,DL25,DL27,DL29,DL31,DL33,DL21,DL35,DL37,DL39,DL41,DL43,DL45,DL47,DL49,DL51,DL53,DL55,DL57,DL59,DL61,DL63,DL65,DL67,DL69)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="DM72" s="29">
-        <f>SUM(DM5,DM7,DM9,DM11,DM13,DM15,DM17,DM19,DM23,DM25,DM27,DM29,DM31,DM33,DM21,DM35,DM37,DM39,DM41,DM43,DM45,DM47,DM49,DM51,DM53,DM55,DM57,DM59,DM61,DM63,DM65,DM67,DM69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DN72" s="29">
-        <f>SUM(DN5,DN7,DN9,DN11,DN13,DN15,DN17,DN19,DN23,DN25,DN27,DN29,DN31,DN33,DN21,DN35,DN37,DN39,DN41,DN43,DN45,DN47,DN49,DN51,DN53,DN55,DN57,DN59,DN61,DN63,DN65,DN67,DN69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DO72" s="29">
-        <f>SUM(DO5,DO7,DO9,DO11,DO13,DO15,DO17,DO19,DO23,DO25,DO27,DO29,DO31,DO33,DO21,DO35,DO37,DO39,DO41,DO43,DO45,DO47,DO49,DO51,DO53,DO55,DO57,DO59,DO61,DO63,DO65,DO67,DO69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DP72" s="29">
-        <f>SUM(DP5,DP7,DP9,DP11,DP13,DP15,DP17,DP19,DP23,DP25,DP27,DP29,DP31,DP33,DP21,DP35,DP37,DP39,DP41,DP43,DP45,DP47,DP49,DP51,DP53,DP55,DP57,DP59,DP61,DP63,DP65,DP67,DP69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DQ72" s="29">
-        <f>SUM(DQ5,DQ7,DQ9,DQ11,DQ13,DQ15,DQ17,DQ19,DQ23,DQ25,DQ27,DQ29,DQ31,DQ33,DQ21,DQ35,DQ37,DQ39,DQ41,DQ43,DQ45,DQ47,DQ49,DQ51,DQ53,DQ55,DQ57,DQ59,DQ61,DQ63,DQ65,DQ67,DQ69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DR72" s="29">
-        <f>SUM(DR5,DR7,DR9,DR11,DR13,DR15,DR17,DR19,DR23,DR25,DR27,DR29,DR31,DR33,DR21,DR35,DR37,DR39,DR41,DR43,DR45,DR47,DR49,DR51,DR53,DR55,DR57,DR59,DR61,DR63,DR65,DR67,DR69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14079,451 +14079,451 @@
         <v>11</v>
       </c>
       <c r="K73" s="29">
-        <f>SUM(K6,K8,K10,K12,K14,K16,K18,K20,K24,K26,K28,K30,K32,K34,K22,K36,K38,K40,K42,K44,K46,K48,K50,K52,K54,K56,K58,K60,K62,K64,K66,K68,K70)</f>
+        <f t="shared" ref="K73:AP73" si="4">SUM(K6,K8,K10,K12,K14,K16,K18,K20,K24,K26,K28,K30,K32,K34,K22,K36,K38,K40,K42,K44,K46,K48,K50,K52,K54,K56,K58,K60,K62,K64,K66,K68,K70)</f>
         <v>4</v>
       </c>
       <c r="L73" s="29">
-        <f>SUM(L6,L8,L10,L12,L14,L16,L18,L20,L24,L26,L28,L30,L32,L34,L22,L36,L38,L40,L42,L44,L46,L48,L50,L52,L54,L56,L58,L60,L62,L64,L66,L68,L70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M73" s="29">
-        <f>SUM(M6,M8,M10,M12,M14,M16,M18,M20,M24,M26,M28,M30,M32,M34,M22,M36,M38,M40,M42,M44,M46,M48,M50,M52,M54,M56,M58,M60,M62,M64,M66,M68,M70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N73" s="29">
-        <f>SUM(N6,N8,N10,N12,N14,N16,N18,N20,N24,N26,N28,N30,N32,N34,N22,N36,N38,N40,N42,N44,N46,N48,N50,N52,N54,N56,N58,N60,N62,N64,N66,N68,N70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O73" s="29">
-        <f>SUM(O6,O8,O10,O12,O14,O16,O18,O20,O24,O26,O28,O30,O32,O34,O22,O36,O38,O40,O42,O44,O46,O48,O50,O52,O54,O56,O58,O60,O62,O64,O66,O68,O70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P73" s="29">
-        <f>SUM(P6,P8,P10,P12,P14,P16,P18,P20,P24,P26,P28,P30,P32,P34,P22,P36,P38,P40,P42,P44,P46,P48,P50,P52,P54,P56,P58,P60,P62,P64,P66,P68,P70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q73" s="29">
-        <f>SUM(Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q24,Q26,Q28,Q30,Q32,Q34,Q22,Q36,Q38,Q40,Q42,Q44,Q46,Q48,Q50,Q52,Q54,Q56,Q58,Q60,Q62,Q64,Q66,Q68,Q70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R73" s="29">
-        <f>SUM(R6,R8,R10,R12,R14,R16,R18,R20,R24,R26,R28,R30,R32,R34,R22,R36,R38,R40,R42,R44,R46,R48,R50,R52,R54,R56,R58,R60,R62,R64,R66,R68,R70)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S73" s="29">
-        <f>SUM(S6,S8,S10,S12,S14,S16,S18,S20,S24,S26,S28,S30,S32,S34,S22,S36,S38,S40,S42,S44,S46,S48,S50,S52,S54,S56,S58,S60,S62,S64,S66,S68,S70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T73" s="29">
-        <f>SUM(T6,T8,T10,T12,T14,T16,T18,T20,T24,T26,T28,T30,T32,T34,T22,T36,T38,T40,T42,T44,T46,T48,T50,T52,T54,T56,T58,T60,T62,T64,T66,T68,T70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U73" s="29">
-        <f>SUM(U6,U8,U10,U12,U14,U16,U18,U20,U24,U26,U28,U30,U32,U34,U22,U36,U38,U40,U42,U44,U46,U48,U50,U52,U54,U56,U58,U60,U62,U64,U66,U68,U70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V73" s="29">
-        <f>SUM(V6,V8,V10,V12,V14,V16,V18,V20,V24,V26,V28,V30,V32,V34,V22,V36,V38,V40,V42,V44,V46,V48,V50,V52,V54,V56,V58,V60,V62,V64,V66,V68,V70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W73" s="29">
-        <f>SUM(W6,W8,W10,W12,W14,W16,W18,W20,W24,W26,W28,W30,W32,W34,W22,W36,W38,W40,W42,W44,W46,W48,W50,W52,W54,W56,W58,W60,W62,W64,W66,W68,W70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X73" s="29">
-        <f>SUM(X6,X8,X10,X12,X14,X16,X18,X20,X24,X26,X28,X30,X32,X34,X22,X36,X38,X40,X42,X44,X46,X48,X50,X52,X54,X56,X58,X60,X62,X64,X66,X68,X70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y73" s="29">
-        <f>SUM(Y6,Y8,Y10,Y12,Y14,Y16,Y18,Y20,Y24,Y26,Y28,Y30,Y32,Y34,Y22,Y36,Y38,Y40,Y42,Y44,Y46,Y48,Y50,Y52,Y54,Y56,Y58,Y60,Y62,Y64,Y66,Y68,Y70)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="Z73" s="29">
-        <f>SUM(Z6,Z8,Z10,Z12,Z14,Z16,Z18,Z20,Z24,Z26,Z28,Z30,Z32,Z34,Z22,Z36,Z38,Z40,Z42,Z44,Z46,Z48,Z50,Z52,Z54,Z56,Z58,Z60,Z62,Z64,Z66,Z68,Z70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA73" s="29">
-        <f>SUM(AA6,AA8,AA10,AA12,AA14,AA16,AA18,AA20,AA24,AA26,AA28,AA30,AA32,AA34,AA22,AA36,AA38,AA40,AA42,AA44,AA46,AA48,AA50,AA52,AA54,AA56,AA58,AA60,AA62,AA64,AA66,AA68,AA70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB73" s="29">
-        <f>SUM(AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20,AB24,AB26,AB28,AB30,AB32,AB34,AB22,AB36,AB38,AB40,AB42,AB44,AB46,AB48,AB50,AB52,AB54,AB56,AB58,AB60,AB62,AB64,AB66,AB68,AB70)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AC73" s="29">
-        <f>SUM(AC6,AC8,AC10,AC12,AC14,AC16,AC18,AC20,AC24,AC26,AC28,AC30,AC32,AC34,AC22,AC36,AC38,AC40,AC42,AC44,AC46,AC48,AC50,AC52,AC54,AC56,AC58,AC60,AC62,AC64,AC66,AC68,AC70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD73" s="29">
-        <f>SUM(AD6,AD8,AD10,AD12,AD14,AD16,AD18,AD20,AD24,AD26,AD28,AD30,AD32,AD34,AD22,AD36,AD38,AD40,AD42,AD44,AD46,AD48,AD50,AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68,AD70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AE73" s="29">
-        <f>SUM(AE6,AE8,AE10,AE12,AE14,AE16,AE18,AE20,AE24,AE26,AE28,AE30,AE32,AE34,AE22,AE36,AE38,AE40,AE42,AE44,AE46,AE48,AE50,AE52,AE54,AE56,AE58,AE60,AE62,AE64,AE66,AE68,AE70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AF73" s="29">
-        <f>SUM(AF6,AF8,AF10,AF12,AF14,AF16,AF18,AF20,AF24,AF26,AF28,AF30,AF32,AF34,AF22,AF36,AF38,AF40,AF42,AF44,AF46,AF48,AF50,AF52,AF54,AF56,AF58,AF60,AF62,AF64,AF66,AF68,AF70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AG73" s="29">
-        <f>SUM(AG6,AG8,AG10,AG12,AG14,AG16,AG18,AG20,AG24,AG26,AG28,AG30,AG32,AG34,AG22,AG36,AG38,AG40,AG42,AG44,AG46,AG48,AG50,AG52,AG54,AG56,AG58,AG60,AG62,AG64,AG66,AG68,AG70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH73" s="29">
-        <f>SUM(AH6,AH8,AH10,AH12,AH14,AH16,AH18,AH20,AH24,AH26,AH28,AH30,AH32,AH34,AH22,AH36,AH38,AH40,AH42,AH44,AH46,AH48,AH50,AH52,AH54,AH56,AH58,AH60,AH62,AH64,AH66,AH68,AH70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI73" s="29">
-        <f>SUM(AI6,AI8,AI10,AI12,AI14,AI16,AI18,AI20,AI24,AI26,AI28,AI30,AI32,AI34,AI22,AI36,AI38,AI40,AI42,AI44,AI46,AI48,AI50,AI52,AI54,AI56,AI58,AI60,AI62,AI64,AI66,AI68,AI70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ73" s="29">
-        <f>SUM(AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18,AJ20,AJ24,AJ26,AJ28,AJ30,AJ32,AJ34,AJ22,AJ36,AJ38,AJ40,AJ42,AJ44,AJ46,AJ48,AJ50,AJ52,AJ54,AJ56,AJ58,AJ60,AJ62,AJ64,AJ66,AJ68,AJ70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AK73" s="29">
-        <f>SUM(AK6,AK8,AK10,AK12,AK14,AK16,AK18,AK20,AK24,AK26,AK28,AK30,AK32,AK34,AK22,AK36,AK38,AK40,AK42,AK44,AK46,AK48,AK50,AK52,AK54,AK56,AK58,AK60,AK62,AK64,AK66,AK68,AK70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AL73" s="29">
-        <f>SUM(AL6,AL8,AL10,AL12,AL14,AL16,AL18,AL20,AL24,AL26,AL28,AL30,AL32,AL34,AL22,AL36,AL38,AL40,AL42,AL44,AL46,AL48,AL50,AL52,AL54,AL56,AL58,AL60,AL62,AL64,AL66,AL68,AL70)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AM73" s="29">
-        <f>SUM(AM6,AM8,AM10,AM12,AM14,AM16,AM18,AM20,AM24,AM26,AM28,AM30,AM32,AM34,AM22,AM36,AM38,AM40,AM42,AM44,AM46,AM48,AM50,AM52,AM54,AM56,AM58,AM60,AM62,AM64,AM66,AM68,AM70)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AN73" s="29">
-        <f>SUM(AN6,AN8,AN10,AN12,AN14,AN16,AN18,AN20,AN24,AN26,AN28,AN30,AN32,AN34,AN22,AN36,AN38,AN40,AN42,AN44,AN46,AN48,AN50,AN52,AN54,AN56,AN58,AN60,AN62,AN64,AN66,AN68,AN70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO73" s="29">
-        <f>SUM(AO6,AO8,AO10,AO12,AO14,AO16,AO18,AO20,AO24,AO26,AO28,AO30,AO32,AO34,AO22,AO36,AO38,AO40,AO42,AO44,AO46,AO48,AO50,AO52,AO54,AO56,AO58,AO60,AO62,AO64,AO66,AO68,AO70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP73" s="29">
-        <f>SUM(AP6,AP8,AP10,AP12,AP14,AP16,AP18,AP20,AP24,AP26,AP28,AP30,AP32,AP34,AP22,AP36,AP38,AP40,AP42,AP44,AP46,AP48,AP50,AP52,AP54,AP56,AP58,AP60,AP62,AP64,AP66,AP68,AP70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ73" s="29">
-        <f>SUM(AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18,AQ20,AQ24,AQ26,AQ28,AQ30,AQ32,AQ34,AQ22,AQ36,AQ38,AQ40,AQ42,AQ44,AQ46,AQ48,AQ50,AQ52,AQ54,AQ56,AQ58,AQ60,AQ62,AQ64,AQ66,AQ68,AQ70)</f>
+        <f t="shared" ref="AQ73:BV73" si="5">SUM(AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18,AQ20,AQ24,AQ26,AQ28,AQ30,AQ32,AQ34,AQ22,AQ36,AQ38,AQ40,AQ42,AQ44,AQ46,AQ48,AQ50,AQ52,AQ54,AQ56,AQ58,AQ60,AQ62,AQ64,AQ66,AQ68,AQ70)</f>
         <v>0</v>
       </c>
       <c r="AR73" s="29">
-        <f>SUM(AR6,AR8,AR10,AR12,AR14,AR16,AR18,AR20,AR24,AR26,AR28,AR30,AR32,AR34,AR22,AR36,AR38,AR40,AR42,AR44,AR46,AR48,AR50,AR52,AR54,AR56,AR58,AR60,AR62,AR64,AR66,AR68,AR70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS73" s="29">
-        <f>SUM(AS6,AS8,AS10,AS12,AS14,AS16,AS18,AS20,AS24,AS26,AS28,AS30,AS32,AS34,AS22,AS36,AS38,AS40,AS42,AS44,AS46,AS48,AS50,AS52,AS54,AS56,AS58,AS60,AS62,AS64,AS66,AS68,AS70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT73" s="29">
-        <f>SUM(AT6,AT8,AT10,AT12,AT14,AT16,AT18,AT20,AT24,AT26,AT28,AT30,AT32,AT34,AT22,AT36,AT38,AT40,AT42,AT44,AT46,AT48,AT50,AT52,AT54,AT56,AT58,AT60,AT62,AT64,AT66,AT68,AT70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AU73" s="29">
-        <f>SUM(AU6,AU8,AU10,AU12,AU14,AU16,AU18,AU20,AU24,AU26,AU28,AU30,AU32,AU34,AU22,AU36,AU38,AU40,AU42,AU44,AU46,AU48,AU50,AU52,AU54,AU56,AU58,AU60,AU62,AU64,AU66,AU68,AU70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV73" s="29">
-        <f>SUM(AV6,AV8,AV10,AV12,AV14,AV16,AV18,AV20,AV24,AV26,AV28,AV30,AV32,AV34,AV22,AV36,AV38,AV40,AV42,AV44,AV46,AV48,AV50,AV52,AV54,AV56,AV58,AV60,AV62,AV64,AV66,AV68,AV70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW73" s="29">
-        <f>SUM(AW6,AW8,AW10,AW12,AW14,AW16,AW18,AW20,AW24,AW26,AW28,AW30,AW32,AW34,AW22,AW36,AW38,AW40,AW42,AW44,AW46,AW48,AW50,AW52,AW54,AW56,AW58,AW60,AW62,AW64,AW66,AW68,AW70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX73" s="29">
-        <f>SUM(AX6,AX8,AX10,AX12,AX14,AX16,AX18,AX20,AX24,AX26,AX28,AX30,AX32,AX34,AX22,AX36,AX38,AX40,AX42,AX44,AX46,AX48,AX50,AX52,AX54,AX56,AX58,AX60,AX62,AX64,AX66,AX68,AX70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY73" s="29">
-        <f>SUM(AY6,AY8,AY10,AY12,AY14,AY16,AY18,AY20,AY24,AY26,AY28,AY30,AY32,AY34,AY22,AY36,AY38,AY40,AY42,AY44,AY46,AY48,AY50,AY52,AY54,AY56,AY58,AY60,AY62,AY64,AY66,AY68,AY70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ73" s="29">
-        <f>SUM(AZ6,AZ8,AZ10,AZ12,AZ14,AZ16,AZ18,AZ20,AZ24,AZ26,AZ28,AZ30,AZ32,AZ34,AZ22,AZ36,AZ38,AZ40,AZ42,AZ44,AZ46,AZ48,AZ50,AZ52,AZ54,AZ56,AZ58,AZ60,AZ62,AZ64,AZ66,AZ68,AZ70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA73" s="29">
-        <f>SUM(BA6,BA8,BA10,BA12,BA14,BA16,BA18,BA20,BA24,BA26,BA28,BA30,BA32,BA34,BA22,BA36,BA38,BA40,BA42,BA44,BA46,BA48,BA50,BA52,BA54,BA56,BA58,BA60,BA62,BA64,BA66,BA68,BA70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BB73" s="29">
-        <f>SUM(BB6,BB8,BB10,BB12,BB14,BB16,BB18,BB20,BB24,BB26,BB28,BB30,BB32,BB34,BB22,BB36,BB38,BB40,BB42,BB44,BB46,BB48,BB50,BB52,BB54,BB56,BB58,BB60,BB62,BB64,BB66,BB68,BB70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC73" s="29">
-        <f>SUM(BC6,BC8,BC10,BC12,BC14,BC16,BC18,BC20,BC24,BC26,BC28,BC30,BC32,BC34,BC22,BC36,BC38,BC40,BC42,BC44,BC46,BC48,BC50,BC52,BC54,BC56,BC58,BC60,BC62,BC64,BC66,BC68,BC70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD73" s="29">
-        <f>SUM(BD6,BD8,BD10,BD12,BD14,BD16,BD18,BD20,BD24,BD26,BD28,BD30,BD32,BD34,BD22,BD36,BD38,BD40,BD42,BD44,BD46,BD48,BD50,BD52,BD54,BD56,BD58,BD60,BD62,BD64,BD66,BD68,BD70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE73" s="29">
-        <f>SUM(BE6,BE8,BE10,BE12,BE14,BE16,BE18,BE20,BE24,BE26,BE28,BE30,BE32,BE34,BE22,BE36,BE38,BE40,BE42,BE44,BE46,BE48,BE50,BE52,BE54,BE56,BE58,BE60,BE62,BE64,BE66,BE68,BE70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF73" s="29">
-        <f>SUM(BF6,BF8,BF10,BF12,BF14,BF16,BF18,BF20,BF24,BF26,BF28,BF30,BF32,BF34,BF22,BF36,BF38,BF40,BF42,BF44,BF46,BF48,BF50,BF52,BF54,BF56,BF58,BF60,BF62,BF64,BF66,BF68,BF70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG73" s="29">
-        <f>SUM(BG6,BG8,BG10,BG12,BG14,BG16,BG18,BG20,BG24,BG26,BG28,BG30,BG32,BG34,BG22,BG36,BG38,BG40,BG42,BG44,BG46,BG48,BG50,BG52,BG54,BG56,BG58,BG60,BG62,BG64,BG66,BG68,BG70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH73" s="29">
-        <f>SUM(BH6,BH8,BH10,BH12,BH14,BH16,BH18,BH20,BH24,BH26,BH28,BH30,BH32,BH34,BH22,BH36,BH38,BH40,BH42,BH44,BH46,BH48,BH50,BH52,BH54,BH56,BH58,BH60,BH62,BH64,BH66,BH68,BH70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BI73" s="29">
-        <f>SUM(BI6,BI8,BI10,BI12,BI14,BI16,BI18,BI20,BI24,BI26,BI28,BI30,BI32,BI34,BI22,BI36,BI38,BI40,BI42,BI44,BI46,BI48,BI50,BI52,BI54,BI56,BI58,BI60,BI62,BI64,BI66,BI68,BI70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ73" s="29">
-        <f>SUM(BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18,BJ20,BJ24,BJ26,BJ28,BJ30,BJ32,BJ34,BJ22,BJ36,BJ38,BJ40,BJ42,BJ44,BJ46,BJ48,BJ50,BJ52,BJ54,BJ56,BJ58,BJ60,BJ62,BJ64,BJ66,BJ68,BJ70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK73" s="29">
-        <f>SUM(BK6,BK8,BK10,BK12,BK14,BK16,BK18,BK20,BK24,BK26,BK28,BK30,BK32,BK34,BK22,BK36,BK38,BK40,BK42,BK44,BK46,BK48,BK50,BK52,BK54,BK56,BK58,BK60,BK62,BK64,BK66,BK68,BK70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL73" s="29">
-        <f>SUM(BL6,BL8,BL10,BL12,BL14,BL16,BL18,BL20,BL24,BL26,BL28,BL30,BL32,BL34,BL22,BL36,BL38,BL40,BL42,BL44,BL46,BL48,BL50,BL52,BL54,BL56,BL58,BL60,BL62,BL64,BL66,BL68,BL70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM73" s="29">
-        <f>SUM(BM6,BM8,BM10,BM12,BM14,BM16,BM18,BM20,BM24,BM26,BM28,BM30,BM32,BM34,BM22,BM36,BM38,BM40,BM42,BM44,BM46,BM48,BM50,BM52,BM54,BM56,BM58,BM60,BM62,BM64,BM66,BM68,BM70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN73" s="29">
-        <f>SUM(BN6,BN8,BN10,BN12,BN14,BN16,BN18,BN20,BN24,BN26,BN28,BN30,BN32,BN34,BN22,BN36,BN38,BN40,BN42,BN44,BN46,BN48,BN50,BN52,BN54,BN56,BN58,BN60,BN62,BN64,BN66,BN68,BN70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO73" s="29">
-        <f>SUM(BO6,BO8,BO10,BO12,BO14,BO16,BO18,BO20,BO24,BO26,BO28,BO30,BO32,BO34,BO22,BO36,BO38,BO40,BO42,BO44,BO46,BO48,BO50,BO52,BO54,BO56,BO58,BO60,BO62,BO64,BO66,BO68,BO70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BP73" s="29">
-        <f>SUM(BP6,BP8,BP10,BP12,BP14,BP16,BP18,BP20,BP24,BP26,BP28,BP30,BP32,BP34,BP22,BP36,BP38,BP40,BP42,BP44,BP46,BP48,BP50,BP52,BP54,BP56,BP58,BP60,BP62,BP64,BP66,BP68,BP70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BQ73" s="29">
-        <f>SUM(BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18,BQ20,BQ24,BQ26,BQ28,BQ30,BQ32,BQ34,BQ22,BQ36,BQ38,BQ40,BQ42,BQ44,BQ46,BQ48,BQ50,BQ52,BQ54,BQ56,BQ58,BQ60,BQ62,BQ64,BQ66,BQ68,BQ70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BR73" s="29">
-        <f>SUM(BR6,BR8,BR10,BR12,BR14,BR16,BR18,BR20,BR24,BR26,BR28,BR30,BR32,BR34,BR22,BR36,BR38,BR40,BR42,BR44,BR46,BR48,BR50,BR52,BR54,BR56,BR58,BR60,BR62,BR64,BR66,BR68,BR70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BS73" s="29">
-        <f>SUM(BS6,BS8,BS10,BS12,BS14,BS16,BS18,BS20,BS24,BS26,BS28,BS30,BS32,BS34,BS22,BS36,BS38,BS40,BS42,BS44,BS46,BS48,BS50,BS52,BS54,BS56,BS58,BS60,BS62,BS64,BS66,BS68,BS70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BT73" s="29">
-        <f>SUM(BT6,BT8,BT10,BT12,BT14,BT16,BT18,BT20,BT24,BT26,BT28,BT30,BT32,BT34,BT22,BT36,BT38,BT40,BT42,BT44,BT46,BT48,BT50,BT52,BT54,BT56,BT58,BT60,BT62,BT64,BT66,BT68,BT70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BU73" s="29">
-        <f>SUM(BU6,BU8,BU10,BU12,BU14,BU16,BU18,BU20,BU24,BU26,BU28,BU30,BU32,BU34,BU22,BU36,BU38,BU40,BU42,BU44,BU46,BU48,BU50,BU52,BU54,BU56,BU58,BU60,BU62,BU64,BU66,BU68,BU70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BV73" s="29">
-        <f>SUM(BV6,BV8,BV10,BV12,BV14,BV16,BV18,BV20,BV24,BV26,BV28,BV30,BV32,BV34,BV22,BV36,BV38,BV40,BV42,BV44,BV46,BV48,BV50,BV52,BV54,BV56,BV58,BV60,BV62,BV64,BV66,BV68,BV70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BW73" s="29">
-        <f>SUM(BW6,BW8,BW10,BW12,BW14,BW16,BW18,BW20,BW24,BW26,BW28,BW30,BW32,BW34,BW22,BW36,BW38,BW40,BW42,BW44,BW46,BW48,BW50,BW52,BW54,BW56,BW58,BW60,BW62,BW64,BW66,BW68,BW70)</f>
+        <f t="shared" ref="BW73:DB73" si="6">SUM(BW6,BW8,BW10,BW12,BW14,BW16,BW18,BW20,BW24,BW26,BW28,BW30,BW32,BW34,BW22,BW36,BW38,BW40,BW42,BW44,BW46,BW48,BW50,BW52,BW54,BW56,BW58,BW60,BW62,BW64,BW66,BW68,BW70)</f>
         <v>0</v>
       </c>
       <c r="BX73" s="29">
-        <f>SUM(BX6,BX8,BX10,BX12,BX14,BX16,BX18,BX20,BX24,BX26,BX28,BX30,BX32,BX34,BX22,BX36,BX38,BX40,BX42,BX44,BX46,BX48,BX50,BX52,BX54,BX56,BX58,BX60,BX62,BX64,BX66,BX68,BX70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY73" s="29">
-        <f>SUM(BY6,BY8,BY10,BY12,BY14,BY16,BY18,BY20,BY24,BY26,BY28,BY30,BY32,BY34,BY22,BY36,BY38,BY40,BY42,BY44,BY46,BY48,BY50,BY52,BY54,BY56,BY58,BY60,BY62,BY64,BY66,BY68,BY70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ73" s="29">
-        <f>SUM(BZ6,BZ8,BZ10,BZ12,BZ14,BZ16,BZ18,BZ20,BZ24,BZ26,BZ28,BZ30,BZ32,BZ34,BZ22,BZ36,BZ38,BZ40,BZ42,BZ44,BZ46,BZ48,BZ50,BZ52,BZ54,BZ56,BZ58,BZ60,BZ62,BZ64,BZ66,BZ68,BZ70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA73" s="29">
-        <f>SUM(CA6,CA8,CA10,CA12,CA14,CA16,CA18,CA20,CA24,CA26,CA28,CA30,CA32,CA34,CA22,CA36,CA38,CA40,CA42,CA44,CA46,CA48,CA50,CA52,CA54,CA56,CA58,CA60,CA62,CA64,CA66,CA68,CA70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CB73" s="29">
-        <f>SUM(CB6,CB8,CB10,CB12,CB14,CB16,CB18,CB20,CB24,CB26,CB28,CB30,CB32,CB34,CB22,CB36,CB38,CB40,CB42,CB44,CB46,CB48,CB50,CB52,CB54,CB56,CB58,CB60,CB62,CB64,CB66,CB68,CB70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CC73" s="29">
-        <f>SUM(CC6,CC8,CC10,CC12,CC14,CC16,CC18,CC20,CC24,CC26,CC28,CC30,CC32,CC34,CC22,CC36,CC38,CC40,CC42,CC44,CC46,CC48,CC50,CC52,CC54,CC56,CC58,CC60,CC62,CC64,CC66,CC68,CC70)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="CD73" s="29">
-        <f>SUM(CD6,CD8,CD10,CD12,CD14,CD16,CD18,CD20,CD24,CD26,CD28,CD30,CD32,CD34,CD22,CD36,CD38,CD40,CD42,CD44,CD46,CD48,CD50,CD52,CD54,CD56,CD58,CD60,CD62,CD64,CD66,CD68,CD70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CE73" s="29">
-        <f>SUM(CE6,CE8,CE10,CE12,CE14,CE16,CE18,CE20,CE24,CE26,CE28,CE30,CE32,CE34,CE22,CE36,CE38,CE40,CE42,CE44,CE46,CE48,CE50,CE52,CE54,CE56,CE58,CE60,CE62,CE64,CE66,CE68,CE70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CF73" s="29">
-        <f>SUM(CF6,CF8,CF10,CF12,CF14,CF16,CF18,CF20,CF24,CF26,CF28,CF30,CF32,CF34,CF22,CF36,CF38,CF40,CF42,CF44,CF46,CF48,CF50,CF52,CF54,CF56,CF58,CF60,CF62,CF64,CF66,CF68,CF70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CG73" s="29">
-        <f>SUM(CG6,CG8,CG10,CG12,CG14,CG16,CG18,CG20,CG24,CG26,CG28,CG30,CG32,CG34,CG22,CG36,CG38,CG40,CG42,CG44,CG46,CG48,CG50,CG52,CG54,CG56,CG58,CG60,CG62,CG64,CG66,CG68,CG70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CH73" s="29">
-        <f>SUM(CH6,CH8,CH10,CH12,CH14,CH16,CH18,CH20,CH24,CH26,CH28,CH30,CH32,CH34,CH22,CH36,CH38,CH40,CH42,CH44,CH46,CH48,CH50,CH52,CH54,CH56,CH58,CH60,CH62,CH64,CH66,CH68,CH70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CI73" s="29">
-        <f>SUM(CI6,CI8,CI10,CI12,CI14,CI16,CI18,CI20,CI24,CI26,CI28,CI30,CI32,CI34,CI22,CI36,CI38,CI40,CI42,CI44,CI46,CI48,CI50,CI52,CI54,CI56,CI58,CI60,CI62,CI64,CI66,CI68,CI70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CJ73" s="29">
-        <f>SUM(CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18,CJ20,CJ24,CJ26,CJ28,CJ30,CJ32,CJ34,CJ22,CJ36,CJ38,CJ40,CJ42,CJ44,CJ46,CJ48,CJ50,CJ52,CJ54,CJ56,CJ58,CJ60,CJ62,CJ64,CJ66,CJ68,CJ70)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="CK73" s="29">
-        <f>SUM(CK6,CK8,CK10,CK12,CK14,CK16,CK18,CK20,CK24,CK26,CK28,CK30,CK32,CK34,CK22,CK36,CK38,CK40,CK42,CK44,CK46,CK48,CK50,CK52,CK54,CK56,CK58,CK60,CK62,CK64,CK66,CK68,CK70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CL73" s="29">
-        <f>SUM(CL6,CL8,CL10,CL12,CL14,CL16,CL18,CL20,CL24,CL26,CL28,CL30,CL32,CL34,CL22,CL36,CL38,CL40,CL42,CL44,CL46,CL48,CL50,CL52,CL54,CL56,CL58,CL60,CL62,CL64,CL66,CL68,CL70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CM73" s="29">
-        <f>SUM(CM6,CM8,CM10,CM12,CM14,CM16,CM18,CM20,CM24,CM26,CM28,CM30,CM32,CM34,CM22,CM36,CM38,CM40,CM42,CM44,CM46,CM48,CM50,CM52,CM54,CM56,CM58,CM60,CM62,CM64,CM66,CM68,CM70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CN73" s="29">
-        <f>SUM(CN6,CN8,CN10,CN12,CN14,CN16,CN18,CN20,CN24,CN26,CN28,CN30,CN32,CN34,CN22,CN36,CN38,CN40,CN42,CN44,CN46,CN48,CN50,CN52,CN54,CN56,CN58,CN60,CN62,CN64,CN66,CN68,CN70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CO73" s="29">
-        <f>SUM(CO6,CO8,CO10,CO12,CO14,CO16,CO18,CO20,CO24,CO26,CO28,CO30,CO32,CO34,CO22,CO36,CO38,CO40,CO42,CO44,CO46,CO48,CO50,CO52,CO54,CO56,CO58,CO60,CO62,CO64,CO66,CO68,CO70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CP73" s="29">
-        <f>SUM(CP6,CP8,CP10,CP12,CP14,CP16,CP18,CP20,CP24,CP26,CP28,CP30,CP32,CP34,CP22,CP36,CP38,CP40,CP42,CP44,CP46,CP48,CP50,CP52,CP54,CP56,CP58,CP60,CP62,CP64,CP66,CP68,CP70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CQ73" s="29">
-        <f>SUM(CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18,CQ20,CQ24,CQ26,CQ28,CQ30,CQ32,CQ34,CQ22,CQ36,CQ38,CQ40,CQ42,CQ44,CQ46,CQ48,CQ50,CQ52,CQ54,CQ56,CQ58,CQ60,CQ62,CQ64,CQ66,CQ68,CQ70)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="CR73" s="29">
-        <f>SUM(CR6,CR8,CR10,CR12,CR14,CR16,CR18,CR20,CR24,CR26,CR28,CR30,CR32,CR34,CR22,CR36,CR38,CR40,CR42,CR44,CR46,CR48,CR50,CR52,CR54,CR56,CR58,CR60,CR62,CR64,CR66,CR68,CR70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CS73" s="29">
-        <f>SUM(CS6,CS8,CS10,CS12,CS14,CS16,CS18,CS20,CS24,CS26,CS28,CS30,CS32,CS34,CS22,CS36,CS38,CS40,CS42,CS44,CS46,CS48,CS50,CS52,CS54,CS56,CS58,CS60,CS62,CS64,CS66,CS68,CS70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CT73" s="29">
-        <f>SUM(CT6,CT8,CT10,CT12,CT14,CT16,CT18,CT20,CT24,CT26,CT28,CT30,CT32,CT34,CT22,CT36,CT38,CT40,CT42,CT44,CT46,CT48,CT50,CT52,CT54,CT56,CT58,CT60,CT62,CT64,CT66,CT68,CT70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CU73" s="29">
-        <f>SUM(CU6,CU8,CU10,CU12,CU14,CU16,CU18,CU20,CU24,CU26,CU28,CU30,CU32,CU34,CU22,CU36,CU38,CU40,CU42,CU44,CU46,CU48,CU50,CU52,CU54,CU56,CU58,CU60,CU62,CU64,CU66,CU68,CU70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CV73" s="29">
-        <f>SUM(CV6,CV8,CV10,CV12,CV14,CV16,CV18,CV20,CV24,CV26,CV28,CV30,CV32,CV34,CV22,CV36,CV38,CV40,CV42,CV44,CV46,CV48,CV50,CV52,CV54,CV56,CV58,CV60,CV62,CV64,CV66,CV68,CV70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CW73" s="29">
-        <f>SUM(CW6,CW8,CW10,CW12,CW14,CW16,CW18,CW20,CW24,CW26,CW28,CW30,CW32,CW34,CW22,CW36,CW38,CW40,CW42,CW44,CW46,CW48,CW50,CW52,CW54,CW56,CW58,CW60,CW62,CW64,CW66,CW68,CW70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CX73" s="29">
-        <f>SUM(CX6,CX8,CX10,CX12,CX14,CX16,CX18,CX20,CX24,CX26,CX28,CX30,CX32,CX34,CX22,CX36,CX38,CX40,CX42,CX44,CX46,CX48,CX50,CX52,CX54,CX56,CX58,CX60,CX62,CX64,CX66,CX68,CX70)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="CY73" s="29">
-        <f>SUM(CY6,CY8,CY10,CY12,CY14,CY16,CY18,CY20,CY24,CY26,CY28,CY30,CY32,CY34,CY22,CY36,CY38,CY40,CY42,CY44,CY46,CY48,CY50,CY52,CY54,CY56,CY58,CY60,CY62,CY64,CY66,CY68,CY70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CZ73" s="29">
-        <f>SUM(CZ6,CZ8,CZ10,CZ12,CZ14,CZ16,CZ18,CZ20,CZ24,CZ26,CZ28,CZ30,CZ32,CZ34,CZ22,CZ36,CZ38,CZ40,CZ42,CZ44,CZ46,CZ48,CZ50,CZ52,CZ54,CZ56,CZ58,CZ60,CZ62,CZ64,CZ66,CZ68,CZ70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DA73" s="29">
-        <f>SUM(DA6,DA8,DA10,DA12,DA14,DA16,DA18,DA20,DA24,DA26,DA28,DA30,DA32,DA34,DA22,DA36,DA38,DA40,DA42,DA44,DA46,DA48,DA50,DA52,DA54,DA56,DA58,DA60,DA62,DA64,DA66,DA68,DA70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DB73" s="29">
-        <f>SUM(DB6,DB8,DB10,DB12,DB14,DB16,DB18,DB20,DB24,DB26,DB28,DB30,DB32,DB34,DB22,DB36,DB38,DB40,DB42,DB44,DB46,DB48,DB50,DB52,DB54,DB56,DB58,DB60,DB62,DB64,DB66,DB68,DB70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DC73" s="29">
-        <f>SUM(DC6,DC8,DC10,DC12,DC14,DC16,DC18,DC20,DC24,DC26,DC28,DC30,DC32,DC34,DC22,DC36,DC38,DC40,DC42,DC44,DC46,DC48,DC50,DC52,DC54,DC56,DC58,DC60,DC62,DC64,DC66,DC68,DC70)</f>
+        <f t="shared" ref="DC73:DR73" si="7">SUM(DC6,DC8,DC10,DC12,DC14,DC16,DC18,DC20,DC24,DC26,DC28,DC30,DC32,DC34,DC22,DC36,DC38,DC40,DC42,DC44,DC46,DC48,DC50,DC52,DC54,DC56,DC58,DC60,DC62,DC64,DC66,DC68,DC70)</f>
         <v>0</v>
       </c>
       <c r="DD73" s="29">
-        <f>SUM(DD6,DD8,DD10,DD12,DD14,DD16,DD18,DD20,DD24,DD26,DD28,DD30,DD32,DD34,DD22,DD36,DD38,DD40,DD42,DD44,DD46,DD48,DD50,DD52,DD54,DD56,DD58,DD60,DD62,DD64,DD66,DD68,DD70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DE73" s="29">
-        <f>SUM(DE6,DE8,DE10,DE12,DE14,DE16,DE18,DE20,DE24,DE26,DE28,DE30,DE32,DE34,DE22,DE36,DE38,DE40,DE42,DE44,DE46,DE48,DE50,DE52,DE54,DE56,DE58,DE60,DE62,DE64,DE66,DE68,DE70)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="DF73" s="29">
-        <f>SUM(DF6,DF8,DF10,DF12,DF14,DF16,DF18,DF20,DF24,DF26,DF28,DF30,DF32,DF34,DF22,DF36,DF38,DF40,DF42,DF44,DF46,DF48,DF50,DF52,DF54,DF56,DF58,DF60,DF62,DF64,DF66,DF68,DF70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DG73" s="29">
-        <f>SUM(DG6,DG8,DG10,DG12,DG14,DG16,DG18,DG20,DG24,DG26,DG28,DG30,DG32,DG34,DG22,DG36,DG38,DG40,DG42,DG44,DG46,DG48,DG50,DG52,DG54,DG56,DG58,DG60,DG62,DG64,DG66,DG68,DG70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DH73" s="29">
-        <f>SUM(DH6,DH8,DH10,DH12,DH14,DH16,DH18,DH20,DH24,DH26,DH28,DH30,DH32,DH34,DH22,DH36,DH38,DH40,DH42,DH44,DH46,DH48,DH50,DH52,DH54,DH56,DH58,DH60,DH62,DH64,DH66,DH68,DH70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DI73" s="29">
-        <f>SUM(DI6,DI8,DI10,DI12,DI14,DI16,DI18,DI20,DI24,DI26,DI28,DI30,DI32,DI34,DI22,DI36,DI38,DI40,DI42,DI44,DI46,DI48,DI50,DI52,DI54,DI56,DI58,DI60,DI62,DI64,DI66,DI68,DI70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DJ73" s="29">
-        <f>SUM(DJ6,DJ8,DJ10,DJ12,DJ14,DJ16,DJ18,DJ20,DJ24,DJ26,DJ28,DJ30,DJ32,DJ34,DJ22,DJ36,DJ38,DJ40,DJ42,DJ44,DJ46,DJ48,DJ50,DJ52,DJ54,DJ56,DJ58,DJ60,DJ62,DJ64,DJ66,DJ68,DJ70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DK73" s="29">
-        <f>SUM(DK6,DK8,DK10,DK12,DK14,DK16,DK18,DK20,DK24,DK26,DK28,DK30,DK32,DK34,DK22,DK36,DK38,DK40,DK42,DK44,DK46,DK48,DK50,DK52,DK54,DK56,DK58,DK60,DK62,DK64,DK66,DK68,DK70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DL73" s="29">
-        <f>SUM(DL6,DL8,DL10,DL12,DL14,DL16,DL18,DL20,DL24,DL26,DL28,DL30,DL32,DL34,DL22,DL36,DL38,DL40,DL42,DL44,DL46,DL48,DL50,DL52,DL54,DL56,DL58,DL60,DL62,DL64,DL66,DL68,DL70)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="DM73" s="29">
-        <f>SUM(DM6,DM8,DM10,DM12,DM14,DM16,DM18,DM20,DM24,DM26,DM28,DM30,DM32,DM34,DM22,DM36,DM38,DM40,DM42,DM44,DM46,DM48,DM50,DM52,DM54,DM56,DM58,DM60,DM62,DM64,DM66,DM68,DM70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DN73" s="29">
-        <f>SUM(DN6,DN8,DN10,DN12,DN14,DN16,DN18,DN20,DN24,DN26,DN28,DN30,DN32,DN34,DN22,DN36,DN38,DN40,DN42,DN44,DN46,DN48,DN50,DN52,DN54,DN56,DN58,DN60,DN62,DN64,DN66,DN68,DN70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DO73" s="29">
-        <f>SUM(DO6,DO8,DO10,DO12,DO14,DO16,DO18,DO20,DO24,DO26,DO28,DO30,DO32,DO34,DO22,DO36,DO38,DO40,DO42,DO44,DO46,DO48,DO50,DO52,DO54,DO56,DO58,DO60,DO62,DO64,DO66,DO68,DO70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DP73" s="29">
-        <f>SUM(DP6,DP8,DP10,DP12,DP14,DP16,DP18,DP20,DP24,DP26,DP28,DP30,DP32,DP34,DP22,DP36,DP38,DP40,DP42,DP44,DP46,DP48,DP50,DP52,DP54,DP56,DP58,DP60,DP62,DP64,DP66,DP68,DP70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DQ73" s="29">
-        <f>SUM(DQ6,DQ8,DQ10,DQ12,DQ14,DQ16,DQ18,DQ20,DQ24,DQ26,DQ28,DQ30,DQ32,DQ34,DQ22,DQ36,DQ38,DQ40,DQ42,DQ44,DQ46,DQ48,DQ50,DQ52,DQ54,DQ56,DQ58,DQ60,DQ62,DQ64,DQ66,DQ68,DQ70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DR73" s="29">
-        <f>SUM(DR6,DR8,DR10,DR12,DR14,DR16,DR18,DR20,DR24,DR26,DR28,DR30,DR32,DR34,DR22,DR36,DR38,DR40,DR42,DR44,DR46,DR48,DR50,DR52,DR54,DR56,DR58,DR60,DR62,DR64,DR66,DR68,DR70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15339,11 +15339,11 @@
         <v>8</v>
       </c>
       <c r="M76" s="31">
-        <f t="shared" ref="M76:BX76" si="0">M72+L76</f>
+        <f t="shared" ref="M76:BX76" si="8">M72+L76</f>
         <v>8</v>
       </c>
       <c r="N76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="O76" s="31">
@@ -15351,11 +15351,11 @@
         <v>16</v>
       </c>
       <c r="P76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="Q76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="R76" s="31">
@@ -15363,299 +15363,299 @@
         <v>36</v>
       </c>
       <c r="S76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="T76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="U76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="V76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="W76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="X76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="Y76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="Z76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="AA76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="AB76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="AC76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AD76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AE76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AF76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AG76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AH76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AI76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="AJ76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AK76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="AL76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="AM76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="AN76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="AO76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="AP76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="AQ76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="AR76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="AS76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="AT76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="AU76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="AV76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="AW76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="AX76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="AY76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="AZ76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="BA76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="BB76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="BC76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="BD76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="BE76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="BF76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="BG76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="BH76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="BI76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="BJ76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="BK76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="BL76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="BM76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="BN76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="BO76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="BP76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="BQ76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="BR76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
       <c r="BS76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="BT76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>214</v>
       </c>
       <c r="BU76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="BV76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="BW76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="BX76" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="BY76" s="31">
-        <f t="shared" ref="BY76:DR76" si="1">BY72+BX76</f>
+        <f t="shared" ref="BY76:DR76" si="9">BY72+BX76</f>
         <v>236</v>
       </c>
       <c r="BZ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>239</v>
       </c>
       <c r="CA76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>242</v>
       </c>
       <c r="CB76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
       <c r="CC76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="CD76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="CE76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="CF76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="CG76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="CH76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="CI76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="CJ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="CK76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="CL76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="CM76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="CN76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="CO76" s="31">
@@ -15663,119 +15663,119 @@
         <v>298</v>
       </c>
       <c r="CP76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="CQ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="CR76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="CS76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="CT76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>317</v>
       </c>
       <c r="CU76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="CV76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>323</v>
       </c>
       <c r="CW76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="CX76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="CY76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="CZ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="DA76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="DB76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>351</v>
       </c>
       <c r="DC76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>354</v>
       </c>
       <c r="DD76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>357</v>
       </c>
       <c r="DE76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>373</v>
       </c>
       <c r="DF76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>373</v>
       </c>
       <c r="DG76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>373</v>
       </c>
       <c r="DH76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>376</v>
       </c>
       <c r="DI76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>379</v>
       </c>
       <c r="DJ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>382</v>
       </c>
       <c r="DK76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>385</v>
       </c>
       <c r="DL76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DM76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DN76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DO76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DP76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DQ76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="DR76" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
     </row>
@@ -15793,11 +15793,11 @@
         <v>4</v>
       </c>
       <c r="M77" s="31">
-        <f t="shared" ref="M77:BX77" si="2">M73+L77</f>
+        <f t="shared" ref="M77:BX77" si="10">M73+L77</f>
         <v>4</v>
       </c>
       <c r="N77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O77" s="31">
@@ -15805,311 +15805,311 @@
         <v>4</v>
       </c>
       <c r="P77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="Q77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="R77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="S77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="T77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="U77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="V77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="W77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="X77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="Y77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="Z77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="AA77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="AB77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="AC77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="AD77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="AE77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="AF77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="AG77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="AH77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="AI77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="AJ77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="AK77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="AL77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="AM77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AN77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AO77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AP77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AQ77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AR77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AS77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="AT77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AU77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AV77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AW77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AX77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AY77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="AZ77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="BA77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BB77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BC77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BD77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BE77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BF77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BG77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="BH77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BI77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BJ77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BK77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BL77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BM77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BN77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="BO77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BP77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BQ77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BR77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BS77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BT77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BU77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="BV77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="BW77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="BX77" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="BY77" s="31">
-        <f t="shared" ref="BY77:DR77" si="3">BY73+BX77</f>
+        <f t="shared" ref="BY77:DR77" si="11">BY73+BX77</f>
         <v>97</v>
       </c>
       <c r="BZ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="CA77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="CB77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="CC77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CD77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CE77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CF77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CG77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CH77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CI77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="CJ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CK77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CL77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CM77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CN77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CO77" s="31">
@@ -16117,119 +16117,119 @@
         <v>105</v>
       </c>
       <c r="CP77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="CQ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CR77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CS77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CT77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CU77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CV77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CW77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="CX77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="CY77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="CZ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="DA77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="DB77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="DC77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="DD77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="DE77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DF77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DG77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DH77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DI77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DJ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DK77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="DL77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DM77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DN77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DO77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DP77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DQ77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="DR77" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
@@ -16247,11 +16247,11 @@
         <v>0</v>
       </c>
       <c r="M78" s="31">
-        <f t="shared" ref="M78:AR78" si="4">M74+L78</f>
+        <f t="shared" ref="M78:AR78" si="12">M74+L78</f>
         <v>0</v>
       </c>
       <c r="N78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O78" s="31">
@@ -16259,311 +16259,311 @@
         <v>0</v>
       </c>
       <c r="P78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="U78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="V78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="W78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="X78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="Y78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="Z78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AA78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AB78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AC78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AD78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AE78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AF78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AG78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AH78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AI78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AJ78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AK78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AL78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AM78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AN78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AO78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AP78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AQ78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AR78" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AS78" s="31">
-        <f t="shared" ref="AS78:BX78" si="5">AS74+AR78</f>
+        <f t="shared" ref="AS78:BX78" si="13">AS74+AR78</f>
         <v>49</v>
       </c>
       <c r="AT78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AU78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AV78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AW78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AX78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AY78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AZ78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BA78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BB78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BC78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BD78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BE78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BF78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BG78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BH78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BI78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BJ78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BK78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BL78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BM78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BN78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BO78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BP78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BQ78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BR78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BS78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BT78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BU78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BV78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BW78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BX78" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="BY78" s="31">
-        <f t="shared" ref="BY78:DR78" si="6">BY74+BX78</f>
+        <f t="shared" ref="BY78:DR78" si="14">BY74+BX78</f>
         <v>49</v>
       </c>
       <c r="BZ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CA78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CB78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CC78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CD78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CE78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CF78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CG78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CH78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CI78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CJ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CK78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CL78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CM78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CN78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CO78" s="31">
@@ -16571,119 +16571,119 @@
         <v>49</v>
       </c>
       <c r="CP78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CQ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CR78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CS78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CT78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CU78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CV78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CW78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CX78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CY78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="CZ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DA78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DB78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DC78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DD78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DE78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DF78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DG78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DH78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DI78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DJ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DK78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DL78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DM78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DN78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DO78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DP78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DQ78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="DR78" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
     </row>
@@ -31621,120 +31621,179 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="311">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -31759,179 +31818,120 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K75:DR75 K4:DR70">

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1546,6 +1546,23 @@
     <t>ガントチャート，EVM</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>記入欄</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認しました。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1658,7 +1675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1912,13 +1929,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,19 +2171,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2183,6 +2204,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2231,6 +2260,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,6 +2285,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3167,11 +3218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="264771984"/>
-        <c:axId val="264772544"/>
+        <c:axId val="182112592"/>
+        <c:axId val="182113152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="264771984"/>
+        <c:axId val="182112592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,14 +3232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264772544"/>
+        <c:crossAx val="182113152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264772544"/>
+        <c:axId val="182113152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3260,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264771984"/>
+        <c:crossAx val="182112592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3703,85 +3754,85 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13:I14"/>
+      <selection pane="bottomRight" activeCell="BH5" sqref="BH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="4.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
-    <col min="11" max="122" width="2.375" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="2.625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="4.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="2" customWidth="1"/>
+    <col min="11" max="122" width="2.33203125" style="2" customWidth="1"/>
+    <col min="123" max="16384" width="2.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="88"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="75"/>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="D2" s="10" t="s">
         <v>30</v>
@@ -3807,26 +3858,26 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -3953,11 +4004,11 @@
       <c r="DQ3" s="6"/>
       <c r="DR3" s="7"/>
     </row>
-    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -3974,7 +4025,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
@@ -4315,18 +4366,18 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="68">
-        <v>0</v>
-      </c>
-      <c r="B5" s="70" t="str">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="78" t="str">
         <f>B1</f>
         <v>○○システム開発</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="70" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="69"/>
@@ -4485,11 +4536,11 @@
       <c r="DQ5" s="37"/>
       <c r="DR5" s="38"/>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A6" s="70"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
@@ -4642,15 +4693,15 @@
       <c r="DQ6" s="40"/>
       <c r="DR6" s="41"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
@@ -4773,11 +4824,11 @@
       <c r="DQ7" s="37"/>
       <c r="DR7" s="38"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
@@ -4900,28 +4951,28 @@
       <c r="DQ8" s="40"/>
       <c r="DR8" s="41"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="68">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="12">
@@ -5053,16 +5104,16 @@
       <c r="DQ9" s="37"/>
       <c r="DR9" s="38"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5190,28 +5241,28 @@
       <c r="DQ10" s="40"/>
       <c r="DR10" s="41"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="68">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J11" s="12">
@@ -5339,16 +5390,16 @@
       <c r="DQ11" s="37"/>
       <c r="DR11" s="38"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5476,28 +5527,28 @@
       <c r="DQ12" s="40"/>
       <c r="DR12" s="41"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="68">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="12">
@@ -5619,16 +5670,16 @@
       <c r="DQ13" s="37"/>
       <c r="DR13" s="38"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -5760,18 +5811,18 @@
       <c r="DQ14" s="40"/>
       <c r="DR14" s="41"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70" t="s">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -5889,16 +5940,16 @@
       <c r="DQ15" s="37"/>
       <c r="DR15" s="38"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6016,26 +6067,26 @@
       <c r="DQ16" s="40"/>
       <c r="DR16" s="41"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="12">
@@ -6159,16 +6210,16 @@
       <c r="DQ17" s="37"/>
       <c r="DR17" s="38"/>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -6300,22 +6351,22 @@
       <c r="DQ18" s="40"/>
       <c r="DR18" s="41"/>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70" t="s">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J19" s="12">
@@ -6445,16 +6496,16 @@
       <c r="DQ19" s="37"/>
       <c r="DR19" s="38"/>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -6584,22 +6635,22 @@
       <c r="DQ20" s="40"/>
       <c r="DR20" s="41"/>
     </row>
-    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70" t="s">
+    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="71"/>
+      <c r="F21" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72" t="s">
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J21" s="12">
@@ -6729,16 +6780,16 @@
       <c r="DQ21" s="37"/>
       <c r="DR21" s="38"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>1.125</v>
@@ -6868,18 +6919,18 @@
       <c r="DQ22" s="40"/>
       <c r="DR22" s="41"/>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70" t="s">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="12" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v/>
@@ -6997,16 +7048,16 @@
       <c r="DQ23" s="37"/>
       <c r="DR23" s="38"/>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="13" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v/>
@@ -7124,22 +7175,22 @@
       <c r="DQ24" s="40"/>
       <c r="DR24" s="41"/>
     </row>
-    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
+    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71" t="s">
         <v>155</v>
       </c>
       <c r="J25" s="12">
@@ -7263,16 +7314,16 @@
       <c r="DQ25" s="37"/>
       <c r="DR25" s="38"/>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7394,18 +7445,18 @@
       <c r="DQ26" s="40"/>
       <c r="DR26" s="41"/>
     </row>
-    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -7523,16 +7574,16 @@
       <c r="DQ27" s="37"/>
       <c r="DR27" s="38"/>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -7650,24 +7701,24 @@
       <c r="DQ28" s="40"/>
       <c r="DR28" s="41"/>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70" t="s">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71" t="s">
         <v>161</v>
       </c>
       <c r="J29" s="12">
@@ -7803,16 +7854,16 @@
       <c r="DQ29" s="37"/>
       <c r="DR29" s="38"/>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -7936,18 +7987,18 @@
       <c r="DQ30" s="40"/>
       <c r="DR30" s="41"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70" t="s">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -8065,16 +8116,16 @@
       <c r="DQ31" s="37"/>
       <c r="DR31" s="38"/>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -8192,22 +8243,22 @@
       <c r="DQ32" s="40"/>
       <c r="DR32" s="41"/>
     </row>
-    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70" t="s">
+    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72" t="s">
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="71"/>
+      <c r="I33" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="12">
@@ -8347,16 +8398,16 @@
       <c r="DQ33" s="37"/>
       <c r="DR33" s="38"/>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+    <row r="34" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8474,18 +8525,18 @@
       <c r="DQ34" s="40"/>
       <c r="DR34" s="41"/>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70" t="s">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8603,16 +8654,16 @@
       <c r="DQ35" s="37"/>
       <c r="DR35" s="38"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
+    <row r="36" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -8730,22 +8781,22 @@
       <c r="DQ36" s="40"/>
       <c r="DR36" s="41"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70" t="s">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="12">
@@ -8885,16 +8936,16 @@
       <c r="DQ37" s="37"/>
       <c r="DR37" s="38"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+    <row r="38" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9012,22 +9063,22 @@
       <c r="DQ38" s="40"/>
       <c r="DR38" s="41"/>
     </row>
-    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70" t="s">
+    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="12">
@@ -9157,16 +9208,16 @@
       <c r="DQ39" s="37"/>
       <c r="DR39" s="38"/>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+    <row r="40" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9284,22 +9335,22 @@
       <c r="DQ40" s="40"/>
       <c r="DR40" s="41"/>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70" t="s">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="12">
@@ -9429,16 +9480,16 @@
       <c r="DQ41" s="37"/>
       <c r="DR41" s="38"/>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+    <row r="42" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="13">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9556,13 +9607,13 @@
       <c r="DQ42" s="40"/>
       <c r="DR42" s="41"/>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="70" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="69" t="s">
@@ -9571,7 +9622,7 @@
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="12">
@@ -9701,16 +9752,16 @@
       <c r="DQ43" s="37"/>
       <c r="DR43" s="38"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+    <row r="44" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
-      <c r="I44" s="73"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9828,13 +9879,13 @@
       <c r="DQ44" s="40"/>
       <c r="DR44" s="41"/>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68" t="s">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="70" t="s">
         <v>141</v>
       </c>
       <c r="E45" s="69" t="s">
@@ -9843,7 +9894,7 @@
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="12">
@@ -9973,16 +10024,16 @@
       <c r="DQ45" s="37"/>
       <c r="DR45" s="38"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
+    <row r="46" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="69"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
-      <c r="I46" s="73"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10100,18 +10151,18 @@
       <c r="DQ46" s="40"/>
       <c r="DR46" s="41"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68" t="s">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="69"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
-      <c r="I47" s="72"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="12" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
         <v/>
@@ -10229,16 +10280,16 @@
       <c r="DQ47" s="37"/>
       <c r="DR47" s="38"/>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
+    <row r="48" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="69"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
-      <c r="I48" s="73"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="13" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v/>
@@ -10356,13 +10407,13 @@
       <c r="DQ48" s="40"/>
       <c r="DR48" s="41"/>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="70" t="s">
         <v>138</v>
       </c>
       <c r="E49" s="69" t="s">
@@ -10493,11 +10544,11 @@
       <c r="DQ49" s="37"/>
       <c r="DR49" s="38"/>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
+    <row r="50" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
@@ -10620,18 +10671,18 @@
       <c r="DQ50" s="40"/>
       <c r="DR50" s="41"/>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68" t="s">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
-      <c r="I51" s="72"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v/>
@@ -10749,16 +10800,16 @@
       <c r="DQ51" s="37"/>
       <c r="DR51" s="38"/>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+    <row r="52" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="73"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v/>
@@ -10876,13 +10927,13 @@
       <c r="DQ52" s="40"/>
       <c r="DR52" s="41"/>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68" t="s">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="70" t="s">
         <v>167</v>
       </c>
       <c r="E53" s="69" t="s">
@@ -10891,7 +10942,7 @@
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="71" t="s">
         <v>161</v>
       </c>
       <c r="J53" s="12">
@@ -11033,16 +11084,16 @@
       <c r="DQ53" s="37"/>
       <c r="DR53" s="38"/>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
+    <row r="54" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="69"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
-      <c r="I54" s="73"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -11162,13 +11213,13 @@
       <c r="DQ54" s="40"/>
       <c r="DR54" s="41"/>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68" t="s">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="69"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
@@ -11291,11 +11342,11 @@
       <c r="DQ55" s="37"/>
       <c r="DR55" s="38"/>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
+    <row r="56" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="69"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
@@ -11418,13 +11469,13 @@
       <c r="DQ56" s="40"/>
       <c r="DR56" s="41"/>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68" t="s">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E57" s="69" t="s">
@@ -11563,11 +11614,11 @@
       <c r="DQ57" s="37"/>
       <c r="DR57" s="38"/>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
+    <row r="58" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="69"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
@@ -11690,13 +11741,13 @@
       <c r="DQ58" s="40"/>
       <c r="DR58" s="41"/>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68" t="s">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="70" t="s">
         <v>148</v>
       </c>
       <c r="E59" s="69" t="s">
@@ -11835,11 +11886,11 @@
       <c r="DQ59" s="37"/>
       <c r="DR59" s="38"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
+    <row r="60" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="69"/>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
@@ -11962,13 +12013,13 @@
       <c r="DQ60" s="40"/>
       <c r="DR60" s="41"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68" t="s">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="69"/>
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
@@ -12091,11 +12142,11 @@
       <c r="DQ61" s="37"/>
       <c r="DR61" s="38"/>
     </row>
-    <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
+    <row r="62" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="69"/>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
@@ -12218,22 +12269,22 @@
       <c r="DQ62" s="40"/>
       <c r="DR62" s="41"/>
     </row>
-    <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70" t="s">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72" t="s">
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71" t="s">
         <v>49</v>
       </c>
       <c r="J63" s="12">
@@ -12363,16 +12414,16 @@
       <c r="DQ63" s="37"/>
       <c r="DR63" s="38"/>
     </row>
-    <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+    <row r="64" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="13">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12490,13 +12541,13 @@
       <c r="DQ64" s="40"/>
       <c r="DR64" s="41"/>
     </row>
-    <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68" t="s">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="70" t="s">
         <v>165</v>
       </c>
       <c r="E65" s="69" t="s">
@@ -12635,11 +12686,11 @@
       <c r="DQ65" s="37"/>
       <c r="DR65" s="38"/>
     </row>
-    <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
+    <row r="66" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="69"/>
       <c r="F66" s="69"/>
       <c r="G66" s="69"/>
@@ -12762,11 +12813,11 @@
       <c r="DQ66" s="40"/>
       <c r="DR66" s="41"/>
     </row>
-    <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
+    <row r="67" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
       <c r="E67" s="69"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
@@ -12889,11 +12940,11 @@
       <c r="DQ67" s="37"/>
       <c r="DR67" s="38"/>
     </row>
-    <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
+    <row r="68" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="69"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
@@ -13016,16 +13067,16 @@
       <c r="DQ68" s="40"/>
       <c r="DR68" s="41"/>
     </row>
-    <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
+    <row r="69" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13143,16 +13194,16 @@
       <c r="DQ69" s="37"/>
       <c r="DR69" s="38"/>
     </row>
-    <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
+    <row r="70" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13270,16 +13321,16 @@
       <c r="DQ70" s="40"/>
       <c r="DR70" s="41"/>
     </row>
-    <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+    <row r="71" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13397,16 +13448,16 @@
       <c r="DQ71" s="37"/>
       <c r="DR71" s="38"/>
     </row>
-    <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+    <row r="72" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A72" s="79"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13524,16 +13575,16 @@
       <c r="DQ72" s="40"/>
       <c r="DR72" s="41"/>
     </row>
-    <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
+    <row r="73" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A73" s="78"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13651,16 +13702,16 @@
       <c r="DQ73" s="37"/>
       <c r="DR73" s="38"/>
     </row>
-    <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+    <row r="74" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -13778,16 +13829,16 @@
       <c r="DQ74" s="40"/>
       <c r="DR74" s="41"/>
     </row>
-    <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
+    <row r="75" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -13905,16 +13956,16 @@
       <c r="DQ75" s="37"/>
       <c r="DR75" s="38"/>
     </row>
-    <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
+    <row r="76" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A76" s="79"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -14032,16 +14083,16 @@
       <c r="DQ76" s="40"/>
       <c r="DR76" s="41"/>
     </row>
-    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
+    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14159,16 +14210,16 @@
       <c r="DQ77" s="37"/>
       <c r="DR77" s="38"/>
     </row>
-    <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
+    <row r="78" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14286,16 +14337,16 @@
       <c r="DQ78" s="40"/>
       <c r="DR78" s="41"/>
     </row>
-    <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
+    <row r="79" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14413,16 +14464,16 @@
       <c r="DQ79" s="37"/>
       <c r="DR79" s="38"/>
     </row>
-    <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
+    <row r="80" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14540,16 +14591,16 @@
       <c r="DQ80" s="40"/>
       <c r="DR80" s="41"/>
     </row>
-    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
+    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14667,16 +14718,16 @@
       <c r="DQ81" s="37"/>
       <c r="DR81" s="38"/>
     </row>
-    <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
+    <row r="82" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -14794,16 +14845,16 @@
       <c r="DQ82" s="40"/>
       <c r="DR82" s="41"/>
     </row>
-    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="78"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -14921,16 +14972,16 @@
       <c r="DQ83" s="37"/>
       <c r="DR83" s="38"/>
     </row>
-    <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
+    <row r="84" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A84" s="79"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -15048,16 +15099,16 @@
       <c r="DQ84" s="40"/>
       <c r="DR84" s="41"/>
     </row>
-    <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
+    <row r="85" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15175,16 +15226,16 @@
       <c r="DQ85" s="37"/>
       <c r="DR85" s="38"/>
     </row>
-    <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
+    <row r="86" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15302,16 +15353,16 @@
       <c r="DQ86" s="40"/>
       <c r="DR86" s="41"/>
     </row>
-    <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
+    <row r="87" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A87" s="78"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15429,16 +15480,16 @@
       <c r="DQ87" s="37"/>
       <c r="DR87" s="38"/>
     </row>
-    <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
+    <row r="88" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15556,16 +15607,16 @@
       <c r="DQ88" s="40"/>
       <c r="DR88" s="41"/>
     </row>
-    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
+    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="78"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15683,16 +15734,16 @@
       <c r="DQ89" s="37"/>
       <c r="DR89" s="38"/>
     </row>
-    <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
+    <row r="90" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -15810,16 +15861,16 @@
       <c r="DQ90" s="40"/>
       <c r="DR90" s="41"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
+    <row r="91" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -15937,16 +15988,16 @@
       <c r="DQ91" s="37"/>
       <c r="DR91" s="38"/>
     </row>
-    <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
+    <row r="92" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16064,16 +16115,16 @@
       <c r="DQ92" s="40"/>
       <c r="DR92" s="41"/>
     </row>
-    <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
+    <row r="93" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16191,16 +16242,16 @@
       <c r="DQ93" s="37"/>
       <c r="DR93" s="38"/>
     </row>
-    <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
+    <row r="94" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16318,16 +16369,16 @@
       <c r="DQ94" s="40"/>
       <c r="DR94" s="41"/>
     </row>
-    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
+    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="78"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16445,16 +16496,16 @@
       <c r="DQ95" s="37"/>
       <c r="DR95" s="38"/>
     </row>
-    <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
+    <row r="96" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16572,16 +16623,16 @@
       <c r="DQ96" s="40"/>
       <c r="DR96" s="41"/>
     </row>
-    <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
+    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
       <c r="E97" s="69"/>
       <c r="F97" s="69"/>
       <c r="G97" s="69"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="72"/>
+      <c r="I97" s="71"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16699,16 +16750,16 @@
       <c r="DQ97" s="37"/>
       <c r="DR97" s="38"/>
     </row>
-    <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
+    <row r="98" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
       <c r="G98" s="69"/>
       <c r="H98" s="69"/>
-      <c r="I98" s="73"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -16826,16 +16877,16 @@
       <c r="DQ98" s="40"/>
       <c r="DR98" s="41"/>
     </row>
-    <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
+    <row r="99" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="69"/>
       <c r="F99" s="69"/>
       <c r="G99" s="69"/>
       <c r="H99" s="69"/>
-      <c r="I99" s="72"/>
+      <c r="I99" s="71"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -16953,16 +17004,16 @@
       <c r="DQ99" s="37"/>
       <c r="DR99" s="38"/>
     </row>
-    <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="68"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
+    <row r="100" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
       <c r="E100" s="69"/>
       <c r="F100" s="69"/>
       <c r="G100" s="69"/>
       <c r="H100" s="69"/>
-      <c r="I100" s="73"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17080,16 +17131,16 @@
       <c r="DQ100" s="40"/>
       <c r="DR100" s="41"/>
     </row>
-    <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
+    <row r="101" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="69"/>
       <c r="F101" s="69"/>
       <c r="G101" s="69"/>
       <c r="H101" s="69"/>
-      <c r="I101" s="72"/>
+      <c r="I101" s="71"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17207,16 +17258,16 @@
       <c r="DQ101" s="37"/>
       <c r="DR101" s="38"/>
     </row>
-    <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
+    <row r="102" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
       <c r="E102" s="69"/>
       <c r="F102" s="69"/>
       <c r="G102" s="69"/>
       <c r="H102" s="69"/>
-      <c r="I102" s="73"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17334,11 +17385,11 @@
       <c r="DQ102" s="40"/>
       <c r="DR102" s="41"/>
     </row>
-    <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
+    <row r="103" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
       <c r="G103" s="69"/>
@@ -17461,11 +17512,11 @@
       <c r="DQ103" s="37"/>
       <c r="DR103" s="38"/>
     </row>
-    <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
+    <row r="104" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
@@ -17588,16 +17639,16 @@
       <c r="DQ104" s="40"/>
       <c r="DR104" s="41"/>
     </row>
-    <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
+    <row r="105" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
       <c r="H105" s="69"/>
-      <c r="I105" s="72"/>
+      <c r="I105" s="71"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -17715,16 +17766,16 @@
       <c r="DQ105" s="37"/>
       <c r="DR105" s="38"/>
     </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
+    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
       <c r="E106" s="69"/>
       <c r="F106" s="69"/>
       <c r="G106" s="69"/>
       <c r="H106" s="69"/>
-      <c r="I106" s="73"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -17842,16 +17893,16 @@
       <c r="DQ106" s="40"/>
       <c r="DR106" s="41"/>
     </row>
-    <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
+    <row r="107" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
       <c r="E107" s="69"/>
       <c r="F107" s="69"/>
       <c r="G107" s="69"/>
       <c r="H107" s="69"/>
-      <c r="I107" s="72"/>
+      <c r="I107" s="71"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -17969,16 +18020,16 @@
       <c r="DQ107" s="37"/>
       <c r="DR107" s="38"/>
     </row>
-    <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
+    <row r="108" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
       <c r="E108" s="69"/>
       <c r="F108" s="69"/>
       <c r="G108" s="69"/>
       <c r="H108" s="69"/>
-      <c r="I108" s="73"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18096,16 +18147,16 @@
       <c r="DQ108" s="40"/>
       <c r="DR108" s="41"/>
     </row>
-    <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
+    <row r="109" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
       <c r="E109" s="69"/>
       <c r="F109" s="69"/>
       <c r="G109" s="69"/>
       <c r="H109" s="69"/>
-      <c r="I109" s="72"/>
+      <c r="I109" s="71"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -18223,16 +18274,16 @@
       <c r="DQ109" s="37"/>
       <c r="DR109" s="38"/>
     </row>
-    <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
+    <row r="110" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
       <c r="E110" s="69"/>
       <c r="F110" s="69"/>
       <c r="G110" s="69"/>
       <c r="H110" s="69"/>
-      <c r="I110" s="73"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -18350,11 +18401,11 @@
       <c r="DQ110" s="40"/>
       <c r="DR110" s="41"/>
     </row>
-    <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
+    <row r="111" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
       <c r="E111" s="69"/>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
@@ -18477,11 +18528,11 @@
       <c r="DQ111" s="37"/>
       <c r="DR111" s="38"/>
     </row>
-    <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
+    <row r="112" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
       <c r="E112" s="69"/>
       <c r="F112" s="69"/>
       <c r="G112" s="69"/>
@@ -18604,11 +18655,11 @@
       <c r="DQ112" s="40"/>
       <c r="DR112" s="41"/>
     </row>
-    <row r="113" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
+    <row r="113" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
       <c r="E113" s="69"/>
       <c r="F113" s="69"/>
       <c r="G113" s="69"/>
@@ -18731,11 +18782,11 @@
       <c r="DQ113" s="37"/>
       <c r="DR113" s="38"/>
     </row>
-    <row r="114" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A114" s="68"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
+    <row r="114" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
       <c r="E114" s="69"/>
       <c r="F114" s="69"/>
       <c r="G114" s="69"/>
@@ -18858,11 +18909,11 @@
       <c r="DQ114" s="40"/>
       <c r="DR114" s="41"/>
     </row>
-    <row r="115" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A115" s="68"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="68"/>
+    <row r="115" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
       <c r="E115" s="69"/>
       <c r="F115" s="69"/>
       <c r="G115" s="69"/>
@@ -18985,11 +19036,11 @@
       <c r="DQ115" s="37"/>
       <c r="DR115" s="38"/>
     </row>
-    <row r="116" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
+    <row r="116" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
       <c r="G116" s="69"/>
@@ -19112,11 +19163,11 @@
       <c r="DQ116" s="40"/>
       <c r="DR116" s="41"/>
     </row>
-    <row r="117" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A117" s="68"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
+    <row r="117" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
       <c r="E117" s="69"/>
       <c r="F117" s="69"/>
       <c r="G117" s="69"/>
@@ -19239,11 +19290,11 @@
       <c r="DQ117" s="37"/>
       <c r="DR117" s="38"/>
     </row>
-    <row r="118" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A118" s="68"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
+    <row r="118" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
       <c r="E118" s="69"/>
       <c r="F118" s="69"/>
       <c r="G118" s="69"/>
@@ -19366,16 +19417,16 @@
       <c r="DQ118" s="40"/>
       <c r="DR118" s="41"/>
     </row>
-    <row r="119" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
+    <row r="119" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -19493,16 +19544,16 @@
       <c r="DQ119" s="37"/>
       <c r="DR119" s="38"/>
     </row>
-    <row r="120" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A120" s="71"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
+    <row r="120" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -19620,11 +19671,11 @@
       <c r="DQ120" s="40"/>
       <c r="DR120" s="41"/>
     </row>
-    <row r="121" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A121" s="68"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
+    <row r="121" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
       <c r="E121" s="69"/>
       <c r="F121" s="69"/>
       <c r="G121" s="69"/>
@@ -19747,11 +19798,11 @@
       <c r="DQ121" s="37"/>
       <c r="DR121" s="38"/>
     </row>
-    <row r="122" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A122" s="68"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="68"/>
+    <row r="122" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
       <c r="E122" s="69"/>
       <c r="F122" s="69"/>
       <c r="G122" s="69"/>
@@ -19874,11 +19925,11 @@
       <c r="DQ122" s="40"/>
       <c r="DR122" s="41"/>
     </row>
-    <row r="123" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A123" s="68"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
+    <row r="123" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
       <c r="E123" s="69"/>
       <c r="F123" s="69"/>
       <c r="G123" s="69"/>
@@ -20001,11 +20052,11 @@
       <c r="DQ123" s="37"/>
       <c r="DR123" s="38"/>
     </row>
-    <row r="124" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A124" s="68"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
+    <row r="124" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
       <c r="E124" s="69"/>
       <c r="F124" s="69"/>
       <c r="G124" s="69"/>
@@ -20128,7 +20179,7 @@
       <c r="DQ124" s="40"/>
       <c r="DR124" s="41"/>
     </row>
-    <row r="126" spans="1:123" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -20591,7 +20642,7 @@
       </c>
       <c r="DS126" s="26"/>
     </row>
-    <row r="127" spans="1:123" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -21054,7 +21105,7 @@
       </c>
       <c r="DS127" s="26"/>
     </row>
-    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
       <c r="J128" s="27" t="s">
         <v>35</v>
@@ -21509,7 +21560,7 @@
       </c>
       <c r="DS128" s="29"/>
     </row>
-    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
       <c r="J129" s="27" t="s">
         <v>40</v>
@@ -21852,7 +21903,7 @@
       </c>
       <c r="DS129" s="29"/>
     </row>
-    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
       <c r="J130" s="27" t="s">
         <v>37</v>
@@ -22306,7 +22357,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
       <c r="J131" s="27" t="s">
         <v>38</v>
@@ -22760,7 +22811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
       <c r="J132" s="27" t="s">
         <v>39</v>
@@ -23214,10 +23265,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
     </row>
-    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
       <c r="K134" s="28" t="str">
         <f>IF($I5="完了",IF(COUNTA(K6:$DS6)=0,$J5,""),"")</f>
@@ -23233,7 +23284,7 @@
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
     </row>
-    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
       <c r="J135" s="27" t="s">
         <v>36</v>
@@ -23687,7 +23738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
       <c r="K136" s="29">
         <f>IF($I7="完了",IF(COUNTA(K8:$DR8)=0,$J7,0),0)</f>
@@ -24138,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
       <c r="K137" s="29">
         <f>IF($I9="完了",IF(COUNTA(K10:$DR10)=0,$J9,0),0)</f>
@@ -24589,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
       <c r="K138" s="29">
         <f>IF($I11="完了",IF(COUNTA(K12:$DR12)=0,$J11,0),0)</f>
@@ -25040,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
       <c r="K139" s="29">
         <f>IF($I13="完了",IF(COUNTA(K14:$DR14)=0,$J13,0),0)</f>
@@ -25491,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
       <c r="K140" s="29">
         <f>IF($I15="完了",IF(COUNTA(K16:$DR16)=0,$J15,0),0)</f>
@@ -25942,7 +25993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
       <c r="K141" s="29">
         <f>IF($I17="完了",IF(COUNTA(K18:$DR18)=0,$J17,0),0)</f>
@@ -26393,7 +26444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
       <c r="K142" s="29">
         <f>IF($I19="完了",IF(COUNTA(K20:$DR20)=0,$J19,0),0)</f>
@@ -26844,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
       <c r="K143" s="29">
         <f>IF($I21="完了",IF(COUNTA(K22:$DR22)=0,$J21,0),0)</f>
@@ -27295,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="K144" s="29">
         <f>IF($I23="完了",IF(COUNTA(K24:$DR24)=0,$J23,0),0)</f>
@@ -27746,7 +27797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
       <c r="K145" s="29">
         <f>IF($I25="完了",IF(COUNTA(K26:$DR26)=0,$J25,0),0)</f>
@@ -28197,7 +28248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="K146" s="29">
         <f>IF($I27="完了",IF(COUNTA(K28:$DR28)=0,$J27,0),0)</f>
@@ -28648,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="K147" s="29">
         <f>IF($I29="完了",IF(COUNTA(K30:$DR30)=0,$J29,0),0)</f>
@@ -29099,7 +29150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="K148" s="29">
         <f>IF($I31="完了",IF(COUNTA(K32:$DR32)=0,$J31,0),0)</f>
@@ -29550,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="K149" s="29">
         <f>IF($I33="完了",IF(COUNTA(K34:$DR34)=0,$J33,0),0)</f>
@@ -30001,7 +30052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="K150" s="29">
         <f>IF($I35="完了",IF(COUNTA(K36:$DR36)=0,$J35,0),0)</f>
@@ -30452,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="K151" s="29">
         <f>IF($I37="完了",IF(COUNTA(K38:$DR38)=0,$J37,0),0)</f>
@@ -30903,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="K152" s="29">
         <f>IF($I39="完了",IF(COUNTA(K40:$DR40)=0,$J39,0),0)</f>
@@ -31354,7 +31405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="K153" s="29">
         <f>IF($I41="完了",IF(COUNTA(K42:$DR42)=0,$J41,0),0)</f>
@@ -31805,7 +31856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="K154" s="29">
         <f>IF($I43="完了",IF(COUNTA(K44:$DR44)=0,$J43,0),0)</f>
@@ -32256,7 +32307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="K155" s="29">
         <f>IF($I45="完了",IF(COUNTA(K46:$DR46)=0,$J45,0),0)</f>
@@ -32707,7 +32758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="K156" s="29">
         <f>IF($I47="完了",IF(COUNTA(K48:$DR48)=0,$J47,0),0)</f>
@@ -33158,7 +33209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="K157" s="29">
         <f>IF($I49="完了",IF(COUNTA(K50:$DR50)=0,$J49,0),0)</f>
@@ -33609,7 +33660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="K158" s="29">
         <f>IF($I51="完了",IF(COUNTA(K52:$DR52)=0,$J51,0),0)</f>
@@ -34060,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="K159" s="29">
         <f>IF($I53="完了",IF(COUNTA(K54:$DR54)=0,$J53,0),0)</f>
@@ -34511,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="K160" s="29" t="e">
         <f>IF(#REF!="完了",IF(COUNTA(#REF!)=0,#REF!,0),0)</f>
@@ -34962,7 +35013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="K161" s="29">
         <f>IF($I55="完了",IF(COUNTA(K56:$DR56)=0,$J55,0),0)</f>
@@ -35413,7 +35464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="K162" s="29">
         <f>IF($I57="完了",IF(COUNTA(K58:$DR58)=0,$J57,0),0)</f>
@@ -35864,7 +35915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="K163" s="29">
         <f>IF($I59="完了",IF(COUNTA(K60:$DR60)=0,$J59,0),0)</f>
@@ -36315,7 +36366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="K164" s="29">
         <f>IF($I61="完了",IF(COUNTA(K62:$DR62)=0,$J61,0),0)</f>
@@ -36766,7 +36817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="K165" s="29">
         <f>IF($I63="完了",IF(COUNTA(K64:$DR64)=0,$J63,0),0)</f>
@@ -37217,7 +37268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="K166" s="29">
         <f>IF($I65="完了",IF(COUNTA(K66:$DR66)=0,$J65,0),0)</f>
@@ -37668,7 +37719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="K167" s="29">
         <f>IF($I67="完了",IF(COUNTA(K68:$DR68)=0,$J67,0),0)</f>
@@ -38119,7 +38170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="K168" s="29">
         <f>IF($I69="完了",IF(COUNTA(K70:$DR70)=0,$J69,0),0)</f>
@@ -38570,7 +38621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="K169" s="29">
         <f>IF($I71="完了",IF(COUNTA(K72:$DR72)=0,$J71,0),0)</f>
@@ -39021,7 +39072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="K170" s="29">
         <f>IF($I73="完了",IF(COUNTA(K74:$DR74)=0,$J73,0),0)</f>
@@ -39472,7 +39523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="K171" s="29">
         <f>IF($I75="完了",IF(COUNTA(K76:$DR76)=0,$J75,0),0)</f>
@@ -39923,7 +39974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="K172" s="29">
         <f>IF($I77="完了",IF(COUNTA(K78:$DR78)=0,$J77,0),0)</f>
@@ -40374,7 +40425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="K173" s="29">
         <f>IF($I79="完了",IF(COUNTA(K80:$DR80)=0,$J79,0),0)</f>
@@ -40825,7 +40876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="K174" s="29">
         <f>IF($I81="完了",IF(COUNTA(K82:$DR82)=0,$J81,0),0)</f>
@@ -41276,7 +41327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="K175" s="29">
         <f>IF($I83="完了",IF(COUNTA(K84:$DR84)=0,$J83,0),0)</f>
@@ -41727,7 +41778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="K176" s="29">
         <f>IF($I85="完了",IF(COUNTA(K86:$DR86)=0,$J85,0),0)</f>
@@ -42178,7 +42229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="K177" s="29">
         <f>IF($I87="完了",IF(COUNTA(K88:$DR88)=0,$J87,0),0)</f>
@@ -42629,7 +42680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="K178" s="29">
         <f>IF($I89="完了",IF(COUNTA(K90:$DR90)=0,$J89,0),0)</f>
@@ -43080,7 +43131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="K179" s="29">
         <f>IF($I91="完了",IF(COUNTA(K92:$DR92)=0,$J91,0),0)</f>
@@ -43531,7 +43582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="K180" s="29">
         <f>IF($I93="完了",IF(COUNTA(K94:$DR94)=0,$J93,0),0)</f>
@@ -43982,7 +44033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="K181" s="29">
         <f>IF($I95="完了",IF(COUNTA(K96:$DR96)=0,$J95,0),0)</f>
@@ -44433,7 +44484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="K182" s="29">
         <f>IF($I97="完了",IF(COUNTA(K98:$DR98)=0,$J97,0),0)</f>
@@ -44884,7 +44935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="K183" s="29">
         <f>IF($I99="完了",IF(COUNTA(K100:$DR100)=0,$J99,0),0)</f>
@@ -45335,7 +45386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="K184" s="29">
         <f>IF($I101="完了",IF(COUNTA(K102:$DR102)=0,$J101,0),0)</f>
@@ -45786,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="K185" s="29">
         <f>IF($I103="完了",IF(COUNTA(K104:$DR104)=0,$J103,0),0)</f>
@@ -46237,7 +46288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="25"/>
       <c r="K186" s="29">
         <f>IF($I105="完了",IF(COUNTA(K106:$DR106)=0,$J105,0),0)</f>
@@ -46688,7 +46739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="25"/>
       <c r="K187" s="29">
         <f>IF($I107="完了",IF(COUNTA(K108:$DR108)=0,$J107,0),0)</f>
@@ -47139,7 +47190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="25"/>
       <c r="K188" s="29">
         <f>IF($I109="完了",IF(COUNTA(K110:$DR110)=0,$J109,0),0)</f>
@@ -47590,7 +47641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="25"/>
       <c r="K189" s="29">
         <f>IF($I111="完了",IF(COUNTA(K112:$DR112)=0,$J111,0),0)</f>
@@ -48041,7 +48092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="25"/>
       <c r="K190" s="29">
         <f>IF($I113="完了",IF(COUNTA(K114:$DR114)=0,$J113,0),0)</f>
@@ -48492,7 +48543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="25"/>
       <c r="K191" s="29">
         <f>IF($I115="完了",IF(COUNTA(K116:$DR116)=0,$J115,0),0)</f>
@@ -48943,7 +48994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
       <c r="K192" s="29">
         <f>IF($I117="完了",IF(COUNTA(K118:$DR118)=0,$J117,0),0)</f>
@@ -49394,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
       <c r="K193" s="29">
         <f>IF($I119="完了",IF(COUNTA(K120:$DR120)=0,$J119,0),0)</f>
@@ -49845,7 +49896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
       <c r="K194" s="29">
         <f>IF($I121="完了",IF(COUNTA(K122:$DR122)=0,$J121,0),0)</f>
@@ -50296,7 +50347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
       <c r="K195" s="29">
         <f>IF($I123="完了",IF(COUNTA(K124:$DR124)=0,$J123,0),0)</f>
@@ -50747,7 +50798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="24"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -50872,7 +50923,7 @@
       <c r="DR196" s="2"/>
       <c r="DS196" s="2"/>
     </row>
-    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -51474,6 +51525,12 @@
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="F57:F58"/>
@@ -51483,6 +51540,12 @@
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="G57:G58"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="B67:B68"/>
@@ -51501,23 +51564,6 @@
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -51556,6 +51602,11 @@
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K129:DR129 K4:DR68">
@@ -51869,47 +51920,47 @@
       <selection activeCell="DI28" sqref="DI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="8" width="7.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="15" width="7.625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" customWidth="1"/>
-    <col min="17" max="18" width="7.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="8" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="15" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="23" max="23" width="6.44140625" customWidth="1"/>
     <col min="24" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5" customWidth="1"/>
+    <col min="30" max="30" width="6.44140625" customWidth="1"/>
     <col min="31" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.5" customWidth="1"/>
+    <col min="37" max="37" width="6.44140625" customWidth="1"/>
     <col min="38" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5" customWidth="1"/>
+    <col min="44" max="44" width="6.44140625" customWidth="1"/>
     <col min="45" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="6.5" customWidth="1"/>
+    <col min="51" max="51" width="6.44140625" customWidth="1"/>
     <col min="52" max="57" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="6.5" customWidth="1"/>
+    <col min="58" max="58" width="6.44140625" customWidth="1"/>
     <col min="59" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="6.5" customWidth="1"/>
+    <col min="65" max="65" width="6.44140625" customWidth="1"/>
     <col min="66" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="6.5" customWidth="1"/>
+    <col min="72" max="72" width="6.44140625" customWidth="1"/>
     <col min="73" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="6.5" customWidth="1"/>
+    <col min="79" max="79" width="6.44140625" customWidth="1"/>
     <col min="80" max="85" width="0" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="6.5" customWidth="1"/>
+    <col min="86" max="86" width="6.44140625" customWidth="1"/>
     <col min="87" max="92" width="0" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="6.5" customWidth="1"/>
+    <col min="93" max="93" width="6.44140625" customWidth="1"/>
     <col min="94" max="99" width="0" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="6.5" customWidth="1"/>
+    <col min="100" max="100" width="6.44140625" customWidth="1"/>
     <col min="101" max="106" width="0" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="6.5" customWidth="1"/>
+    <col min="107" max="107" width="6.44140625" customWidth="1"/>
     <col min="108" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="6.5" customWidth="1"/>
+    <col min="113" max="113" width="6.44140625" customWidth="1"/>
     <col min="114" max="114" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="str">
         <f>ガント!J129</f>
         <v>日付</v>
@@ -52363,7 +52414,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="str">
         <f>ガント!J130</f>
         <v>PV</v>
@@ -52817,7 +52868,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="str">
         <f>ガント!J131</f>
         <v>AC</v>
@@ -52966,25 +53017,25 @@
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT131,NA())</f>
         <v>102</v>
       </c>
-      <c r="AL29" s="51" t="e">
+      <c r="AL29" s="51">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AM29" s="51">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AN29" s="51">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AO29" s="51">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AP29" s="51">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY131,NA())</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="AQ29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ131,NA())</f>
@@ -53271,7 +53322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="str">
         <f>ガント!J132</f>
         <v>EV</v>
@@ -53422,23 +53473,23 @@
       </c>
       <c r="AL30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AM30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AN30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AO30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AP30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AQ30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ132,NA())</f>
@@ -53725,7 +53776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>45</v>
       </c>
@@ -54178,7 +54229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>46</v>
       </c>
@@ -54631,7 +54682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>47</v>
       </c>
@@ -55084,7 +55135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>48</v>
       </c>
@@ -55569,24 +55620,24 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
     <col min="2" max="3" width="13" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="60" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="60"/>
-    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>98</v>
       </c>
@@ -55612,7 +55663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>108</v>
       </c>
@@ -55636,7 +55687,7 @@
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" s="63">
         <f>ROW()-4</f>
         <v>1</v>
@@ -55659,7 +55710,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f t="shared" ref="A6:A29" si="0">ROW()-4</f>
         <v>2</v>
@@ -55682,7 +55733,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -55695,7 +55746,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -55708,7 +55759,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -55721,7 +55772,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -55734,7 +55785,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -55747,7 +55798,7 @@
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -55760,7 +55811,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -55773,7 +55824,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -55786,7 +55837,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -55799,7 +55850,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -55812,7 +55863,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -55825,7 +55876,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -55838,7 +55889,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -55851,7 +55902,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -55864,7 +55915,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -55877,7 +55928,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -55890,7 +55941,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -55903,7 +55954,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -55916,7 +55967,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -55929,7 +55980,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -55942,7 +55993,7 @@
       <c r="G26" s="64"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -55955,7 +56006,7 @@
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -55968,7 +56019,7 @@
       <c r="G28" s="64"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -56012,14 +56063,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56033,31 +56170,31 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="35" t="s">
         <v>53</v>
       </c>
@@ -56071,7 +56208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="53">
         <v>1</v>
       </c>
@@ -56095,7 +56232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -56122,7 +56259,7 @@
       </c>
       <c r="I3" s="58"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="53">
         <v>3</v>
       </c>
@@ -56148,7 +56285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="53">
         <v>4</v>
       </c>
@@ -56172,7 +56309,7 @@
       </c>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -56195,7 +56332,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <v>6</v>
       </c>
@@ -56215,7 +56352,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="57"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <v>7</v>
       </c>
@@ -56239,7 +56376,7 @@
       </c>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <v>8</v>
       </c>
@@ -56263,7 +56400,7 @@
       </c>
       <c r="I9" s="57"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -56288,7 +56425,7 @@
       </c>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <v>10</v>
       </c>
@@ -56308,7 +56445,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="57"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <v>11</v>
       </c>
@@ -56328,7 +56465,7 @@
       <c r="H12" s="53"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <v>12</v>
       </c>
@@ -56352,7 +56489,7 @@
       </c>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <v>13</v>
       </c>
@@ -56376,7 +56513,7 @@
       </c>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -56403,7 +56540,7 @@
       </c>
       <c r="I15" s="57"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <v>15</v>
       </c>
@@ -56442,28 +56579,28 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>149</v>
       </c>
@@ -56477,7 +56614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>150</v>
       </c>
@@ -56488,7 +56625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
@@ -56499,77 +56636,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
     </row>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -2175,11 +2175,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2188,6 +2188,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2204,14 +2212,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2260,6 +2260,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2268,11 +2274,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2285,14 +2293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,16 +2910,16 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>305</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>331</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>357</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3033,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3172,7 +3172,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3218,11 +3218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="182112592"/>
-        <c:axId val="182113152"/>
+        <c:axId val="266116960"/>
+        <c:axId val="266117520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="182112592"/>
+        <c:axId val="266116960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,14 +3232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182113152"/>
+        <c:crossAx val="266117520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182113152"/>
+        <c:axId val="266117520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3260,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182112592"/>
+        <c:crossAx val="266116960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,25 +3754,25 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="BH59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BH5" sqref="BH5"/>
+      <selection pane="bottomRight" activeCell="DK66" sqref="DK66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="4.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="2" customWidth="1"/>
-    <col min="11" max="122" width="2.33203125" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="2.6640625" style="2"/>
+    <col min="1" max="1" width="5.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="4.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
+    <col min="11" max="122" width="2.375" style="2" customWidth="1"/>
+    <col min="123" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -3826,13 +3826,13 @@
       </c>
       <c r="AJ1" s="80"/>
       <c r="AK1" s="80"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="D2" s="10" t="s">
         <v>30</v>
@@ -3858,8 +3858,8 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -4004,8 +4004,8 @@
       <c r="DQ3" s="6"/>
       <c r="DR3" s="7"/>
     </row>
-    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
+    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -4366,27 +4366,27 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="78" t="str">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A5" s="69">
+        <v>0</v>
+      </c>
+      <c r="B5" s="73" t="str">
         <f>B1</f>
         <v>○○システム開発</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70" t="s">
         <v>161</v>
       </c>
       <c r="J5" s="12">
@@ -4536,16 +4536,16 @@
       <c r="DQ5" s="37"/>
       <c r="DR5" s="38"/>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A6" s="69"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4693,20 +4693,20 @@
       <c r="DQ6" s="40"/>
       <c r="DR6" s="41"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4824,16 +4824,16 @@
       <c r="DQ7" s="37"/>
       <c r="DR7" s="38"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4951,15 +4951,15 @@
       <c r="DQ8" s="40"/>
       <c r="DR8" s="41"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A9" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="78" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="73" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="71" t="s">
@@ -5104,11 +5104,11 @@
       <c r="DQ9" s="37"/>
       <c r="DR9" s="38"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
@@ -5241,15 +5241,15 @@
       <c r="DQ10" s="40"/>
       <c r="DR10" s="41"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A11" s="69">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="73" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="71" t="s">
@@ -5390,11 +5390,11 @@
       <c r="DQ11" s="37"/>
       <c r="DR11" s="38"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
@@ -5527,15 +5527,15 @@
       <c r="DQ12" s="40"/>
       <c r="DR12" s="41"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A13" s="69">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="73" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -5670,11 +5670,11 @@
       <c r="DQ13" s="37"/>
       <c r="DR13" s="38"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
@@ -5811,13 +5811,13 @@
       <c r="DQ14" s="40"/>
       <c r="DR14" s="41"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78" t="s">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -5940,11 +5940,11 @@
       <c r="DQ15" s="37"/>
       <c r="DR15" s="38"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -6067,13 +6067,13 @@
       <c r="DQ16" s="40"/>
       <c r="DR16" s="41"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78" t="s">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="73" t="s">
         <v>115</v>
       </c>
       <c r="E17" s="71" t="s">
@@ -6210,11 +6210,11 @@
       <c r="DQ17" s="37"/>
       <c r="DR17" s="38"/>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+    <row r="18" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -6351,13 +6351,13 @@
       <c r="DQ18" s="40"/>
       <c r="DR18" s="41"/>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78" t="s">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="73" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="71"/>
@@ -6496,11 +6496,11 @@
       <c r="DQ19" s="37"/>
       <c r="DR19" s="38"/>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+    <row r="20" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="72"/>
       <c r="F20" s="72"/>
       <c r="G20" s="72"/>
@@ -6635,13 +6635,13 @@
       <c r="DQ20" s="40"/>
       <c r="DR20" s="41"/>
     </row>
-    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78" t="s">
+    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="73" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="71"/>
@@ -6780,11 +6780,11 @@
       <c r="DQ21" s="37"/>
       <c r="DR21" s="38"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+    <row r="22" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
@@ -6919,13 +6919,13 @@
       <c r="DQ22" s="40"/>
       <c r="DR22" s="41"/>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78" t="s">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -7048,11 +7048,11 @@
       <c r="DQ23" s="37"/>
       <c r="DR23" s="38"/>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+    <row r="24" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -7175,13 +7175,13 @@
       <c r="DQ24" s="40"/>
       <c r="DR24" s="41"/>
     </row>
-    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78" t="s">
+    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="73" t="s">
         <v>122</v>
       </c>
       <c r="E25" s="71" t="s">
@@ -7314,11 +7314,11 @@
       <c r="DQ25" s="37"/>
       <c r="DR25" s="38"/>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+    <row r="26" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
@@ -7445,13 +7445,13 @@
       <c r="DQ26" s="40"/>
       <c r="DR26" s="41"/>
     </row>
-    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
@@ -7574,11 +7574,11 @@
       <c r="DQ27" s="37"/>
       <c r="DR27" s="38"/>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+    <row r="28" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
@@ -7701,13 +7701,13 @@
       <c r="DQ28" s="40"/>
       <c r="DR28" s="41"/>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78" t="s">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="73" t="s">
         <v>125</v>
       </c>
       <c r="E29" s="71"/>
@@ -7854,11 +7854,11 @@
       <c r="DQ29" s="37"/>
       <c r="DR29" s="38"/>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+    <row r="30" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="72"/>
       <c r="F30" s="72"/>
       <c r="G30" s="72"/>
@@ -7866,7 +7866,7 @@
       <c r="I30" s="72"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
@@ -7912,10 +7912,18 @@
       </c>
       <c r="AU30" s="40"/>
       <c r="AV30" s="40"/>
-      <c r="AW30" s="40"/>
-      <c r="AX30" s="40"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="40"/>
+      <c r="AW30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="40">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="40">
+        <v>1</v>
+      </c>
       <c r="BA30" s="40"/>
       <c r="BB30" s="40"/>
       <c r="BC30" s="40"/>
@@ -7987,13 +7995,13 @@
       <c r="DQ30" s="40"/>
       <c r="DR30" s="41"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78" t="s">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="71"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -8116,11 +8124,11 @@
       <c r="DQ31" s="37"/>
       <c r="DR31" s="38"/>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="72"/>
       <c r="F32" s="72"/>
       <c r="G32" s="72"/>
@@ -8243,13 +8251,13 @@
       <c r="DQ32" s="40"/>
       <c r="DR32" s="41"/>
     </row>
-    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78" t="s">
+    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="73" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="71"/>
@@ -8398,11 +8406,11 @@
       <c r="DQ33" s="37"/>
       <c r="DR33" s="38"/>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+    <row r="34" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
       <c r="G34" s="72"/>
@@ -8525,13 +8533,13 @@
       <c r="DQ34" s="40"/>
       <c r="DR34" s="41"/>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78" t="s">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
@@ -8654,11 +8662,11 @@
       <c r="DQ35" s="37"/>
       <c r="DR35" s="38"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+    <row r="36" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
       <c r="G36" s="72"/>
@@ -8781,13 +8789,13 @@
       <c r="DQ36" s="40"/>
       <c r="DR36" s="41"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78" t="s">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="73" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="71" t="s">
@@ -8936,11 +8944,11 @@
       <c r="DQ37" s="37"/>
       <c r="DR37" s="38"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+    <row r="38" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
       <c r="G38" s="72"/>
@@ -9063,13 +9071,13 @@
       <c r="DQ38" s="40"/>
       <c r="DR38" s="41"/>
     </row>
-    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78" t="s">
+    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="73" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="71" t="s">
@@ -9208,11 +9216,11 @@
       <c r="DQ39" s="37"/>
       <c r="DR39" s="38"/>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
+    <row r="40" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
       <c r="G40" s="72"/>
@@ -9335,13 +9343,13 @@
       <c r="DQ40" s="40"/>
       <c r="DR40" s="41"/>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78" t="s">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="73" t="s">
         <v>132</v>
       </c>
       <c r="E41" s="71" t="s">
@@ -9480,11 +9488,11 @@
       <c r="DQ41" s="37"/>
       <c r="DR41" s="38"/>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+    <row r="42" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -9607,21 +9615,21 @@
       <c r="DQ42" s="40"/>
       <c r="DR42" s="41"/>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70" t="s">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
       <c r="I43" s="71" t="s">
         <v>49</v>
       </c>
@@ -9752,15 +9760,15 @@
       <c r="DQ43" s="37"/>
       <c r="DR43" s="38"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
+    <row r="44" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
       <c r="I44" s="72"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
@@ -9879,21 +9887,21 @@
       <c r="DQ44" s="40"/>
       <c r="DR44" s="41"/>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70" t="s">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
       <c r="I45" s="71" t="s">
         <v>49</v>
       </c>
@@ -10024,15 +10032,15 @@
       <c r="DQ45" s="37"/>
       <c r="DR45" s="38"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
+    <row r="46" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
       <c r="I46" s="72"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
@@ -10151,17 +10159,17 @@
       <c r="DQ46" s="40"/>
       <c r="DR46" s="41"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70" t="s">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
       <c r="I47" s="71"/>
       <c r="J47" s="12" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
@@ -10280,15 +10288,15 @@
       <c r="DQ47" s="37"/>
       <c r="DR47" s="38"/>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
+    <row r="48" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="72"/>
       <c r="J48" s="13" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
@@ -10407,22 +10415,22 @@
       <c r="DQ48" s="40"/>
       <c r="DR48" s="41"/>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69" t="s">
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="12">
@@ -10544,16 +10552,16 @@
       <c r="DQ49" s="37"/>
       <c r="DR49" s="38"/>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
+    <row r="50" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10671,17 +10679,17 @@
       <c r="DQ50" s="40"/>
       <c r="DR50" s="41"/>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70" t="s">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
       <c r="I51" s="71"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
@@ -10800,15 +10808,15 @@
       <c r="DQ51" s="37"/>
       <c r="DR51" s="38"/>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
+    <row r="52" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
       <c r="I52" s="72"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
@@ -10927,21 +10935,21 @@
       <c r="DQ52" s="40"/>
       <c r="DR52" s="41"/>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
       <c r="I53" s="71" t="s">
         <v>161</v>
       </c>
@@ -11084,15 +11092,15 @@
       <c r="DQ53" s="37"/>
       <c r="DR53" s="38"/>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
+    <row r="54" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
       <c r="I54" s="72"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
@@ -11213,18 +11221,18 @@
       <c r="DQ54" s="40"/>
       <c r="DR54" s="41"/>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70" t="s">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A55" s="69"/>
+      <c r="B55" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11342,16 +11350,16 @@
       <c r="DQ55" s="37"/>
       <c r="DR55" s="38"/>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
+    <row r="56" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11469,27 +11477,27 @@
       <c r="DQ56" s="40"/>
       <c r="DR56" s="41"/>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69" t="s">
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="12">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
@@ -11588,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="CW57" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX57" s="37">
         <v>4</v>
@@ -11614,16 +11622,16 @@
       <c r="DQ57" s="37"/>
       <c r="DR57" s="38"/>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
+    <row r="58" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
       <c r="J58" s="13">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11741,27 +11749,27 @@
       <c r="DQ58" s="40"/>
       <c r="DR58" s="41"/>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69" t="s">
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="12">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -11860,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="CW59" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX59" s="37">
         <v>4</v>
@@ -11886,16 +11894,16 @@
       <c r="DQ59" s="37"/>
       <c r="DR59" s="38"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+    <row r="60" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12013,18 +12021,18 @@
       <c r="DQ60" s="40"/>
       <c r="DR60" s="41"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70" t="s">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12142,16 +12150,16 @@
       <c r="DQ61" s="37"/>
       <c r="DR61" s="38"/>
     </row>
-    <row r="62" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
+    <row r="62" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12269,13 +12277,13 @@
       <c r="DQ62" s="40"/>
       <c r="DR62" s="41"/>
     </row>
-    <row r="63" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78" t="s">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="73" t="s">
         <v>164</v>
       </c>
       <c r="E63" s="71" t="s">
@@ -12414,11 +12422,11 @@
       <c r="DQ63" s="37"/>
       <c r="DR63" s="38"/>
     </row>
-    <row r="64" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A64" s="79"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
+    <row r="64" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
@@ -12541,27 +12549,27 @@
       <c r="DQ64" s="40"/>
       <c r="DR64" s="41"/>
     </row>
-    <row r="65" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70" t="s">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="69" t="s">
+      <c r="E65" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69" t="s">
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J65" s="12">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
@@ -12674,7 +12682,7 @@
         <v>3</v>
       </c>
       <c r="DK65" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DL65" s="37">
         <v>9</v>
@@ -12686,16 +12694,16 @@
       <c r="DQ65" s="37"/>
       <c r="DR65" s="38"/>
     </row>
-    <row r="66" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
+    <row r="66" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="13">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12813,16 +12821,16 @@
       <c r="DQ66" s="40"/>
       <c r="DR66" s="41"/>
     </row>
-    <row r="67" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
+    <row r="67" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12940,16 +12948,16 @@
       <c r="DQ67" s="37"/>
       <c r="DR67" s="38"/>
     </row>
-    <row r="68" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
+    <row r="68" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13067,11 +13075,11 @@
       <c r="DQ68" s="40"/>
       <c r="DR68" s="41"/>
     </row>
-    <row r="69" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
+    <row r="69" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="71"/>
       <c r="F69" s="71"/>
       <c r="G69" s="71"/>
@@ -13194,11 +13202,11 @@
       <c r="DQ69" s="37"/>
       <c r="DR69" s="38"/>
     </row>
-    <row r="70" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A70" s="79"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
+    <row r="70" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="72"/>
       <c r="F70" s="72"/>
       <c r="G70" s="72"/>
@@ -13321,11 +13329,11 @@
       <c r="DQ70" s="40"/>
       <c r="DR70" s="41"/>
     </row>
-    <row r="71" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
+    <row r="71" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="71"/>
@@ -13448,11 +13456,11 @@
       <c r="DQ71" s="37"/>
       <c r="DR71" s="38"/>
     </row>
-    <row r="72" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A72" s="79"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
+    <row r="72" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="72"/>
       <c r="F72" s="72"/>
       <c r="G72" s="72"/>
@@ -13575,11 +13583,11 @@
       <c r="DQ72" s="40"/>
       <c r="DR72" s="41"/>
     </row>
-    <row r="73" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A73" s="78"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
+    <row r="73" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
       <c r="G73" s="71"/>
@@ -13702,11 +13710,11 @@
       <c r="DQ73" s="37"/>
       <c r="DR73" s="38"/>
     </row>
-    <row r="74" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A74" s="79"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
+    <row r="74" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="72"/>
       <c r="F74" s="72"/>
       <c r="G74" s="72"/>
@@ -13829,11 +13837,11 @@
       <c r="DQ74" s="40"/>
       <c r="DR74" s="41"/>
     </row>
-    <row r="75" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
+    <row r="75" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A75" s="73"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
       <c r="G75" s="71"/>
@@ -13956,11 +13964,11 @@
       <c r="DQ75" s="37"/>
       <c r="DR75" s="38"/>
     </row>
-    <row r="76" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A76" s="79"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
+    <row r="76" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="72"/>
       <c r="F76" s="72"/>
       <c r="G76" s="72"/>
@@ -14083,11 +14091,11 @@
       <c r="DQ76" s="40"/>
       <c r="DR76" s="41"/>
     </row>
-    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
+    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="73"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
       <c r="G77" s="71"/>
@@ -14210,11 +14218,11 @@
       <c r="DQ77" s="37"/>
       <c r="DR77" s="38"/>
     </row>
-    <row r="78" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A78" s="79"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
+    <row r="78" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A78" s="74"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="72"/>
       <c r="F78" s="72"/>
       <c r="G78" s="72"/>
@@ -14337,11 +14345,11 @@
       <c r="DQ78" s="40"/>
       <c r="DR78" s="41"/>
     </row>
-    <row r="79" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A79" s="78"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
+    <row r="79" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
       <c r="G79" s="71"/>
@@ -14464,11 +14472,11 @@
       <c r="DQ79" s="37"/>
       <c r="DR79" s="38"/>
     </row>
-    <row r="80" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A80" s="79"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
+    <row r="80" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A80" s="74"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="72"/>
       <c r="F80" s="72"/>
       <c r="G80" s="72"/>
@@ -14591,11 +14599,11 @@
       <c r="DQ80" s="40"/>
       <c r="DR80" s="41"/>
     </row>
-    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
+    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
       <c r="E81" s="71"/>
       <c r="F81" s="71"/>
       <c r="G81" s="71"/>
@@ -14718,11 +14726,11 @@
       <c r="DQ81" s="37"/>
       <c r="DR81" s="38"/>
     </row>
-    <row r="82" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A82" s="79"/>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
+    <row r="82" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="72"/>
       <c r="F82" s="72"/>
       <c r="G82" s="72"/>
@@ -14845,11 +14853,11 @@
       <c r="DQ82" s="40"/>
       <c r="DR82" s="41"/>
     </row>
-    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="78"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
+    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
       <c r="E83" s="71"/>
       <c r="F83" s="71"/>
       <c r="G83" s="71"/>
@@ -14972,11 +14980,11 @@
       <c r="DQ83" s="37"/>
       <c r="DR83" s="38"/>
     </row>
-    <row r="84" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A84" s="79"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
+    <row r="84" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="72"/>
       <c r="F84" s="72"/>
       <c r="G84" s="72"/>
@@ -15099,11 +15107,11 @@
       <c r="DQ84" s="40"/>
       <c r="DR84" s="41"/>
     </row>
-    <row r="85" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
+    <row r="85" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="71"/>
       <c r="F85" s="71"/>
       <c r="G85" s="71"/>
@@ -15226,11 +15234,11 @@
       <c r="DQ85" s="37"/>
       <c r="DR85" s="38"/>
     </row>
-    <row r="86" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A86" s="79"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="79"/>
+    <row r="86" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A86" s="74"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="72"/>
       <c r="F86" s="72"/>
       <c r="G86" s="72"/>
@@ -15353,11 +15361,11 @@
       <c r="DQ86" s="40"/>
       <c r="DR86" s="41"/>
     </row>
-    <row r="87" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A87" s="78"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
+    <row r="87" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A87" s="73"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="71"/>
       <c r="F87" s="71"/>
       <c r="G87" s="71"/>
@@ -15480,11 +15488,11 @@
       <c r="DQ87" s="37"/>
       <c r="DR87" s="38"/>
     </row>
-    <row r="88" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
+    <row r="88" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A88" s="74"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="72"/>
       <c r="F88" s="72"/>
       <c r="G88" s="72"/>
@@ -15607,11 +15615,11 @@
       <c r="DQ88" s="40"/>
       <c r="DR88" s="41"/>
     </row>
-    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
+    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
       <c r="E89" s="71"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
@@ -15734,11 +15742,11 @@
       <c r="DQ89" s="37"/>
       <c r="DR89" s="38"/>
     </row>
-    <row r="90" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
+    <row r="90" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A90" s="74"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="72"/>
       <c r="F90" s="72"/>
       <c r="G90" s="72"/>
@@ -15861,11 +15869,11 @@
       <c r="DQ90" s="40"/>
       <c r="DR90" s="41"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A91" s="78"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
+    <row r="91" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
       <c r="E91" s="71"/>
       <c r="F91" s="71"/>
       <c r="G91" s="71"/>
@@ -15988,11 +15996,11 @@
       <c r="DQ91" s="37"/>
       <c r="DR91" s="38"/>
     </row>
-    <row r="92" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79"/>
+    <row r="92" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A92" s="74"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
       <c r="E92" s="72"/>
       <c r="F92" s="72"/>
       <c r="G92" s="72"/>
@@ -16115,11 +16123,11 @@
       <c r="DQ92" s="40"/>
       <c r="DR92" s="41"/>
     </row>
-    <row r="93" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A93" s="78"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
+    <row r="93" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
       <c r="E93" s="71"/>
       <c r="F93" s="71"/>
       <c r="G93" s="71"/>
@@ -16242,11 +16250,11 @@
       <c r="DQ93" s="37"/>
       <c r="DR93" s="38"/>
     </row>
-    <row r="94" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="79"/>
+    <row r="94" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
       <c r="E94" s="72"/>
       <c r="F94" s="72"/>
       <c r="G94" s="72"/>
@@ -16369,11 +16377,11 @@
       <c r="DQ94" s="40"/>
       <c r="DR94" s="41"/>
     </row>
-    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="78"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
+    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="73"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="71"/>
       <c r="F95" s="71"/>
       <c r="G95" s="71"/>
@@ -16496,11 +16504,11 @@
       <c r="DQ95" s="37"/>
       <c r="DR95" s="38"/>
     </row>
-    <row r="96" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="79"/>
+    <row r="96" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
       <c r="E96" s="72"/>
       <c r="F96" s="72"/>
       <c r="G96" s="72"/>
@@ -16623,15 +16631,15 @@
       <c r="DQ96" s="40"/>
       <c r="DR96" s="41"/>
     </row>
-    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
+    <row r="97" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
       <c r="I97" s="71"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
@@ -16750,15 +16758,15 @@
       <c r="DQ97" s="37"/>
       <c r="DR97" s="38"/>
     </row>
-    <row r="98" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
+    <row r="98" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
       <c r="I98" s="72"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
@@ -16877,15 +16885,15 @@
       <c r="DQ98" s="40"/>
       <c r="DR98" s="41"/>
     </row>
-    <row r="99" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A99" s="70"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
+    <row r="99" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
       <c r="I99" s="71"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
@@ -17004,15 +17012,15 @@
       <c r="DQ99" s="37"/>
       <c r="DR99" s="38"/>
     </row>
-    <row r="100" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
+    <row r="100" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
       <c r="I100" s="72"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
@@ -17131,15 +17139,15 @@
       <c r="DQ100" s="40"/>
       <c r="DR100" s="41"/>
     </row>
-    <row r="101" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A101" s="70"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
+    <row r="101" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A101" s="69"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
       <c r="I101" s="71"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
@@ -17258,15 +17266,15 @@
       <c r="DQ101" s="37"/>
       <c r="DR101" s="38"/>
     </row>
-    <row r="102" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
+    <row r="102" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
       <c r="I102" s="72"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
@@ -17385,16 +17393,16 @@
       <c r="DQ102" s="40"/>
       <c r="DR102" s="41"/>
     </row>
-    <row r="103" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A103" s="70"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
+    <row r="103" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A103" s="69"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17512,16 +17520,16 @@
       <c r="DQ103" s="37"/>
       <c r="DR103" s="38"/>
     </row>
-    <row r="104" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A104" s="70"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
+    <row r="104" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17639,15 +17647,15 @@
       <c r="DQ104" s="40"/>
       <c r="DR104" s="41"/>
     </row>
-    <row r="105" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
+    <row r="105" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
       <c r="I105" s="71"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
@@ -17766,15 +17774,15 @@
       <c r="DQ105" s="37"/>
       <c r="DR105" s="38"/>
     </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
+    <row r="106" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A106" s="69"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
       <c r="I106" s="72"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
@@ -17893,15 +17901,15 @@
       <c r="DQ106" s="40"/>
       <c r="DR106" s="41"/>
     </row>
-    <row r="107" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
+    <row r="107" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A107" s="69"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
       <c r="I107" s="71"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
@@ -18020,15 +18028,15 @@
       <c r="DQ107" s="37"/>
       <c r="DR107" s="38"/>
     </row>
-    <row r="108" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
+    <row r="108" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A108" s="69"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
       <c r="I108" s="72"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
@@ -18147,15 +18155,15 @@
       <c r="DQ108" s="40"/>
       <c r="DR108" s="41"/>
     </row>
-    <row r="109" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
+    <row r="109" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A109" s="69"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
       <c r="I109" s="71"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
@@ -18274,15 +18282,15 @@
       <c r="DQ109" s="37"/>
       <c r="DR109" s="38"/>
     </row>
-    <row r="110" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="69"/>
+    <row r="110" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A110" s="69"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
       <c r="I110" s="72"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
@@ -18401,16 +18409,16 @@
       <c r="DQ110" s="40"/>
       <c r="DR110" s="41"/>
     </row>
-    <row r="111" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
+    <row r="111" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A111" s="69"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18528,16 +18536,16 @@
       <c r="DQ111" s="37"/>
       <c r="DR111" s="38"/>
     </row>
-    <row r="112" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
+    <row r="112" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A112" s="69"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18655,16 +18663,16 @@
       <c r="DQ112" s="40"/>
       <c r="DR112" s="41"/>
     </row>
-    <row r="113" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
+    <row r="113" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A113" s="69"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -18782,16 +18790,16 @@
       <c r="DQ113" s="37"/>
       <c r="DR113" s="38"/>
     </row>
-    <row r="114" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
+    <row r="114" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A114" s="69"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -18909,16 +18917,16 @@
       <c r="DQ114" s="40"/>
       <c r="DR114" s="41"/>
     </row>
-    <row r="115" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+    <row r="115" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A115" s="69"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -19036,16 +19044,16 @@
       <c r="DQ115" s="37"/>
       <c r="DR115" s="38"/>
     </row>
-    <row r="116" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
+    <row r="116" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A116" s="69"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19163,16 +19171,16 @@
       <c r="DQ116" s="40"/>
       <c r="DR116" s="41"/>
     </row>
-    <row r="117" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
+    <row r="117" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A117" s="69"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19290,16 +19298,16 @@
       <c r="DQ117" s="37"/>
       <c r="DR117" s="38"/>
     </row>
-    <row r="118" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
+    <row r="118" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A118" s="69"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19417,11 +19425,11 @@
       <c r="DQ118" s="40"/>
       <c r="DR118" s="41"/>
     </row>
-    <row r="119" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A119" s="78"/>
-      <c r="B119" s="78"/>
-      <c r="C119" s="78"/>
-      <c r="D119" s="78"/>
+    <row r="119" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A119" s="73"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
       <c r="E119" s="71"/>
       <c r="F119" s="71"/>
       <c r="G119" s="71"/>
@@ -19544,11 +19552,11 @@
       <c r="DQ119" s="37"/>
       <c r="DR119" s="38"/>
     </row>
-    <row r="120" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A120" s="79"/>
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
-      <c r="D120" s="79"/>
+    <row r="120" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A120" s="74"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
       <c r="E120" s="72"/>
       <c r="F120" s="72"/>
       <c r="G120" s="72"/>
@@ -19671,16 +19679,16 @@
       <c r="DQ120" s="40"/>
       <c r="DR120" s="41"/>
     </row>
-    <row r="121" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
+    <row r="121" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A121" s="69"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -19798,16 +19806,16 @@
       <c r="DQ121" s="37"/>
       <c r="DR121" s="38"/>
     </row>
-    <row r="122" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="69"/>
+    <row r="122" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A122" s="69"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -19925,16 +19933,16 @@
       <c r="DQ122" s="40"/>
       <c r="DR122" s="41"/>
     </row>
-    <row r="123" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="69"/>
+    <row r="123" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A123" s="69"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20052,16 +20060,16 @@
       <c r="DQ123" s="37"/>
       <c r="DR123" s="38"/>
     </row>
-    <row r="124" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
+    <row r="124" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="A124" s="69"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20179,7 +20187,7 @@
       <c r="DQ124" s="40"/>
       <c r="DR124" s="41"/>
     </row>
-    <row r="126" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -20554,7 +20562,7 @@
       </c>
       <c r="CW126" s="28">
         <f t="array" ref="CW126">SUM(IF(MOD(ROW(CW$5:CW$124),2)=1,CW$5:CW$124,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CX126" s="28">
         <f t="array" ref="CX126">SUM(IF(MOD(ROW(CX$5:CX$124),2)=1,CX$5:CX$124,0))</f>
@@ -20610,7 +20618,7 @@
       </c>
       <c r="DK126" s="28">
         <f t="array" ref="DK126">SUM(IF(MOD(ROW(DK$5:DK$124),2)=1,DK$5:DK$124,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DL126" s="28">
         <f t="array" ref="DL126">SUM(IF(MOD(ROW(DL$5:DL$124),2)=1,DL$5:DL$124,0))</f>
@@ -20642,7 +20650,7 @@
       </c>
       <c r="DS126" s="26"/>
     </row>
-    <row r="127" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A127" s="25"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -20813,15 +20821,15 @@
       </c>
       <c r="AX127" s="28">
         <f t="array" ref="AX127">SUM(IF(MOD(ROW(AX$5:AX$124),2)=0,AX$5:AX$124,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY127" s="28">
         <f t="array" ref="AY127">SUM(IF(MOD(ROW(AY$5:AY$124),2)=0,AY$5:AY$124,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ127" s="28">
         <f t="array" ref="AZ127">SUM(IF(MOD(ROW(AZ$5:AZ$124),2)=0,AZ$5:AZ$124,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA127" s="28">
         <f t="array" ref="BA127">SUM(IF(MOD(ROW(BA$5:BA$124),2)=0,BA$5:BA$124,0))</f>
@@ -21105,7 +21113,7 @@
       </c>
       <c r="DS127" s="26"/>
     </row>
-    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="25"/>
       <c r="J128" s="27" t="s">
         <v>35</v>
@@ -21560,7 +21568,7 @@
       </c>
       <c r="DS128" s="29"/>
     </row>
-    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="25"/>
       <c r="J129" s="27" t="s">
         <v>40</v>
@@ -21903,7 +21911,7 @@
       </c>
       <c r="DS129" s="29"/>
     </row>
-    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="25"/>
       <c r="J130" s="27" t="s">
         <v>37</v>
@@ -22270,94 +22278,94 @@
       </c>
       <c r="CW130" s="30">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="CX130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CY130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CZ130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="DA130" s="30">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="DB130" s="30">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="DC130" s="30">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="DD130" s="30">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="DE130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DF130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DG130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DH130" s="30">
         <f t="shared" si="1"/>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="DI130" s="30">
         <f t="shared" si="1"/>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="DJ130" s="30">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DK130" s="30">
         <f t="shared" si="1"/>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DL130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DM130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DN130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DO130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DP130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DQ130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DR130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="25"/>
       <c r="J131" s="27" t="s">
         <v>38</v>
@@ -22520,298 +22528,298 @@
       </c>
       <c r="AX131" s="30">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AY131" s="30">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AZ131" s="30">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BA131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BB131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BC131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BD131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BE131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BF131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BG131" s="30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BH131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BI131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BJ131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BK131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BL131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BM131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BN131" s="30">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BO131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BP131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BQ131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BR131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BS131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BT131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BU131" s="30">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BV131" s="30">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BW131" s="30">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BX131" s="30">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BY131" s="30">
         <f t="shared" ref="BY131:DR131" si="3">BY127+BX131</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BZ131" s="30">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CA131" s="30">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CB131" s="30">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CC131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CD131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CE131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CF131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CG131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CH131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CI131" s="30">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CJ131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CK131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CL131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CM131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CN131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CO131" s="30">
         <f>CO127+CN131</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CP131" s="30">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CQ131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CR131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CS131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CT131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CU131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CV131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CW131" s="30">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="CX131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="CY131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="CZ131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="DA131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="DB131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="DC131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="DD131" s="30">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="DE131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DF131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DG131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DH131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DI131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DJ131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DK131" s="30">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DL131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DM131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DN131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DO131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DP131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DQ131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DR131" s="30">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="25"/>
       <c r="J132" s="27" t="s">
         <v>39</v>
@@ -23265,10 +23273,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="25"/>
     </row>
-    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="25"/>
       <c r="K134" s="28" t="str">
         <f>IF($I5="完了",IF(COUNTA(K6:$DS6)=0,$J5,""),"")</f>
@@ -23284,7 +23292,7 @@
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
     </row>
-    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="25"/>
       <c r="J135" s="27" t="s">
         <v>36</v>
@@ -23738,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="25"/>
       <c r="K136" s="29">
         <f>IF($I7="完了",IF(COUNTA(K8:$DR8)=0,$J7,0),0)</f>
@@ -24189,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="25"/>
       <c r="K137" s="29">
         <f>IF($I9="完了",IF(COUNTA(K10:$DR10)=0,$J9,0),0)</f>
@@ -24640,7 +24648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="25"/>
       <c r="K138" s="29">
         <f>IF($I11="完了",IF(COUNTA(K12:$DR12)=0,$J11,0),0)</f>
@@ -25091,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="25"/>
       <c r="K139" s="29">
         <f>IF($I13="完了",IF(COUNTA(K14:$DR14)=0,$J13,0),0)</f>
@@ -25542,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="25"/>
       <c r="K140" s="29">
         <f>IF($I15="完了",IF(COUNTA(K16:$DR16)=0,$J15,0),0)</f>
@@ -25993,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="25"/>
       <c r="K141" s="29">
         <f>IF($I17="完了",IF(COUNTA(K18:$DR18)=0,$J17,0),0)</f>
@@ -26444,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="25"/>
       <c r="K142" s="29">
         <f>IF($I19="完了",IF(COUNTA(K20:$DR20)=0,$J19,0),0)</f>
@@ -26895,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="25"/>
       <c r="K143" s="29">
         <f>IF($I21="完了",IF(COUNTA(K22:$DR22)=0,$J21,0),0)</f>
@@ -27346,7 +27354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="25"/>
       <c r="K144" s="29">
         <f>IF($I23="完了",IF(COUNTA(K24:$DR24)=0,$J23,0),0)</f>
@@ -27797,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="25"/>
       <c r="K145" s="29">
         <f>IF($I25="完了",IF(COUNTA(K26:$DR26)=0,$J25,0),0)</f>
@@ -28248,7 +28256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="25"/>
       <c r="K146" s="29">
         <f>IF($I27="完了",IF(COUNTA(K28:$DR28)=0,$J27,0),0)</f>
@@ -28699,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="25"/>
       <c r="K147" s="29">
         <f>IF($I29="完了",IF(COUNTA(K30:$DR30)=0,$J29,0),0)</f>
@@ -29150,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="25"/>
       <c r="K148" s="29">
         <f>IF($I31="完了",IF(COUNTA(K32:$DR32)=0,$J31,0),0)</f>
@@ -29601,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="25"/>
       <c r="K149" s="29">
         <f>IF($I33="完了",IF(COUNTA(K34:$DR34)=0,$J33,0),0)</f>
@@ -30052,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="25"/>
       <c r="K150" s="29">
         <f>IF($I35="完了",IF(COUNTA(K36:$DR36)=0,$J35,0),0)</f>
@@ -30503,7 +30511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="25"/>
       <c r="K151" s="29">
         <f>IF($I37="完了",IF(COUNTA(K38:$DR38)=0,$J37,0),0)</f>
@@ -30954,7 +30962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="25"/>
       <c r="K152" s="29">
         <f>IF($I39="完了",IF(COUNTA(K40:$DR40)=0,$J39,0),0)</f>
@@ -31405,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="25"/>
       <c r="K153" s="29">
         <f>IF($I41="完了",IF(COUNTA(K42:$DR42)=0,$J41,0),0)</f>
@@ -31856,7 +31864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="25"/>
       <c r="K154" s="29">
         <f>IF($I43="完了",IF(COUNTA(K44:$DR44)=0,$J43,0),0)</f>
@@ -32307,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="25"/>
       <c r="K155" s="29">
         <f>IF($I45="完了",IF(COUNTA(K46:$DR46)=0,$J45,0),0)</f>
@@ -32758,7 +32766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="25"/>
       <c r="K156" s="29">
         <f>IF($I47="完了",IF(COUNTA(K48:$DR48)=0,$J47,0),0)</f>
@@ -33209,7 +33217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="25"/>
       <c r="K157" s="29">
         <f>IF($I49="完了",IF(COUNTA(K50:$DR50)=0,$J49,0),0)</f>
@@ -33660,7 +33668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="25"/>
       <c r="K158" s="29">
         <f>IF($I51="完了",IF(COUNTA(K52:$DR52)=0,$J51,0),0)</f>
@@ -34111,7 +34119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="25"/>
       <c r="K159" s="29">
         <f>IF($I53="完了",IF(COUNTA(K54:$DR54)=0,$J53,0),0)</f>
@@ -34562,7 +34570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="25"/>
       <c r="K160" s="29" t="e">
         <f>IF(#REF!="完了",IF(COUNTA(#REF!)=0,#REF!,0),0)</f>
@@ -35013,7 +35021,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="25"/>
       <c r="K161" s="29">
         <f>IF($I55="完了",IF(COUNTA(K56:$DR56)=0,$J55,0),0)</f>
@@ -35464,7 +35472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="25"/>
       <c r="K162" s="29">
         <f>IF($I57="完了",IF(COUNTA(K58:$DR58)=0,$J57,0),0)</f>
@@ -35915,7 +35923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="25"/>
       <c r="K163" s="29">
         <f>IF($I59="完了",IF(COUNTA(K60:$DR60)=0,$J59,0),0)</f>
@@ -36366,7 +36374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="25"/>
       <c r="K164" s="29">
         <f>IF($I61="完了",IF(COUNTA(K62:$DR62)=0,$J61,0),0)</f>
@@ -36817,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="25"/>
       <c r="K165" s="29">
         <f>IF($I63="完了",IF(COUNTA(K64:$DR64)=0,$J63,0),0)</f>
@@ -37268,7 +37276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="25"/>
       <c r="K166" s="29">
         <f>IF($I65="完了",IF(COUNTA(K66:$DR66)=0,$J65,0),0)</f>
@@ -37719,7 +37727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="25"/>
       <c r="K167" s="29">
         <f>IF($I67="完了",IF(COUNTA(K68:$DR68)=0,$J67,0),0)</f>
@@ -38170,7 +38178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="25"/>
       <c r="K168" s="29">
         <f>IF($I69="完了",IF(COUNTA(K70:$DR70)=0,$J69,0),0)</f>
@@ -38621,7 +38629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="25"/>
       <c r="K169" s="29">
         <f>IF($I71="完了",IF(COUNTA(K72:$DR72)=0,$J71,0),0)</f>
@@ -39072,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="25"/>
       <c r="K170" s="29">
         <f>IF($I73="完了",IF(COUNTA(K74:$DR74)=0,$J73,0),0)</f>
@@ -39523,7 +39531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="25"/>
       <c r="K171" s="29">
         <f>IF($I75="完了",IF(COUNTA(K76:$DR76)=0,$J75,0),0)</f>
@@ -39974,7 +39982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="25"/>
       <c r="K172" s="29">
         <f>IF($I77="完了",IF(COUNTA(K78:$DR78)=0,$J77,0),0)</f>
@@ -40425,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="25"/>
       <c r="K173" s="29">
         <f>IF($I79="完了",IF(COUNTA(K80:$DR80)=0,$J79,0),0)</f>
@@ -40876,7 +40884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="25"/>
       <c r="K174" s="29">
         <f>IF($I81="完了",IF(COUNTA(K82:$DR82)=0,$J81,0),0)</f>
@@ -41327,7 +41335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="25"/>
       <c r="K175" s="29">
         <f>IF($I83="完了",IF(COUNTA(K84:$DR84)=0,$J83,0),0)</f>
@@ -41778,7 +41786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="25"/>
       <c r="K176" s="29">
         <f>IF($I85="完了",IF(COUNTA(K86:$DR86)=0,$J85,0),0)</f>
@@ -42229,7 +42237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="25"/>
       <c r="K177" s="29">
         <f>IF($I87="完了",IF(COUNTA(K88:$DR88)=0,$J87,0),0)</f>
@@ -42680,7 +42688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="25"/>
       <c r="K178" s="29">
         <f>IF($I89="完了",IF(COUNTA(K90:$DR90)=0,$J89,0),0)</f>
@@ -43131,7 +43139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="25"/>
       <c r="K179" s="29">
         <f>IF($I91="完了",IF(COUNTA(K92:$DR92)=0,$J91,0),0)</f>
@@ -43582,7 +43590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="25"/>
       <c r="K180" s="29">
         <f>IF($I93="完了",IF(COUNTA(K94:$DR94)=0,$J93,0),0)</f>
@@ -44033,7 +44041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="25"/>
       <c r="K181" s="29">
         <f>IF($I95="完了",IF(COUNTA(K96:$DR96)=0,$J95,0),0)</f>
@@ -44484,7 +44492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="25"/>
       <c r="K182" s="29">
         <f>IF($I97="完了",IF(COUNTA(K98:$DR98)=0,$J97,0),0)</f>
@@ -44935,7 +44943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="25"/>
       <c r="K183" s="29">
         <f>IF($I99="完了",IF(COUNTA(K100:$DR100)=0,$J99,0),0)</f>
@@ -45386,7 +45394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="25"/>
       <c r="K184" s="29">
         <f>IF($I101="完了",IF(COUNTA(K102:$DR102)=0,$J101,0),0)</f>
@@ -45837,7 +45845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="25"/>
       <c r="K185" s="29">
         <f>IF($I103="完了",IF(COUNTA(K104:$DR104)=0,$J103,0),0)</f>
@@ -46288,7 +46296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="25"/>
       <c r="K186" s="29">
         <f>IF($I105="完了",IF(COUNTA(K106:$DR106)=0,$J105,0),0)</f>
@@ -46739,7 +46747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="25"/>
       <c r="K187" s="29">
         <f>IF($I107="完了",IF(COUNTA(K108:$DR108)=0,$J107,0),0)</f>
@@ -47190,7 +47198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="25"/>
       <c r="K188" s="29">
         <f>IF($I109="完了",IF(COUNTA(K110:$DR110)=0,$J109,0),0)</f>
@@ -47641,7 +47649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="25"/>
       <c r="K189" s="29">
         <f>IF($I111="完了",IF(COUNTA(K112:$DR112)=0,$J111,0),0)</f>
@@ -48092,7 +48100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="25"/>
       <c r="K190" s="29">
         <f>IF($I113="完了",IF(COUNTA(K114:$DR114)=0,$J113,0),0)</f>
@@ -48543,7 +48551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="25"/>
       <c r="K191" s="29">
         <f>IF($I115="完了",IF(COUNTA(K116:$DR116)=0,$J115,0),0)</f>
@@ -48994,7 +49002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="25"/>
       <c r="K192" s="29">
         <f>IF($I117="完了",IF(COUNTA(K118:$DR118)=0,$J117,0),0)</f>
@@ -49445,7 +49453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="25"/>
       <c r="K193" s="29">
         <f>IF($I119="完了",IF(COUNTA(K120:$DR120)=0,$J119,0),0)</f>
@@ -49896,7 +49904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="25"/>
       <c r="K194" s="29">
         <f>IF($I121="完了",IF(COUNTA(K122:$DR122)=0,$J121,0),0)</f>
@@ -50347,7 +50355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="25"/>
       <c r="K195" s="29">
         <f>IF($I123="完了",IF(COUNTA(K124:$DR124)=0,$J123,0),0)</f>
@@ -50798,7 +50806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="24"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -50923,7 +50931,7 @@
       <c r="DR196" s="2"/>
       <c r="DS196" s="2"/>
     </row>
-    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="24"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -51324,6 +51332,8 @@
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -51340,6 +51350,8 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -51356,6 +51368,8 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -51525,11 +51539,6 @@
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="F55:F56"/>
@@ -51540,12 +51549,7 @@
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="G57:G58"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="B67:B68"/>
@@ -51564,6 +51568,12 @@
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -51588,8 +51598,6 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="A63:A64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A53:A54"/>
@@ -51920,47 +51928,47 @@
       <selection activeCell="DI28" sqref="DI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="8" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" customWidth="1"/>
-    <col min="10" max="15" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="8" width="7.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="18" width="7.625" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
     <col min="24" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.44140625" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
     <col min="31" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.44140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5" customWidth="1"/>
     <col min="38" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.44140625" customWidth="1"/>
+    <col min="44" max="44" width="6.5" customWidth="1"/>
     <col min="45" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="6.5" customWidth="1"/>
     <col min="52" max="57" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="6.44140625" customWidth="1"/>
+    <col min="58" max="58" width="6.5" customWidth="1"/>
     <col min="59" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="6.44140625" customWidth="1"/>
+    <col min="65" max="65" width="6.5" customWidth="1"/>
     <col min="66" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="6.44140625" customWidth="1"/>
+    <col min="72" max="72" width="6.5" customWidth="1"/>
     <col min="73" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="6.44140625" customWidth="1"/>
+    <col min="79" max="79" width="6.5" customWidth="1"/>
     <col min="80" max="85" width="0" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="6.44140625" customWidth="1"/>
+    <col min="86" max="86" width="6.5" customWidth="1"/>
     <col min="87" max="92" width="0" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="6.44140625" customWidth="1"/>
+    <col min="93" max="93" width="6.5" customWidth="1"/>
     <col min="94" max="99" width="0" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="6.44140625" customWidth="1"/>
+    <col min="100" max="100" width="6.5" customWidth="1"/>
     <col min="101" max="106" width="0" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="6.44140625" customWidth="1"/>
+    <col min="107" max="107" width="6.5" customWidth="1"/>
     <col min="108" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="6.44140625" customWidth="1"/>
+    <col min="113" max="113" width="6.5" customWidth="1"/>
     <col min="114" max="114" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="str">
         <f>ガント!J129</f>
         <v>日付</v>
@@ -52414,7 +52422,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="str">
         <f>ガント!J130</f>
         <v>PV</v>
@@ -52781,94 +52789,94 @@
       </c>
       <c r="CN28" s="51">
         <f>ガント!CW130</f>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="CO28" s="51">
         <f>ガント!CX130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CP28" s="51">
         <f>ガント!CY130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CQ28" s="51">
         <f>ガント!CZ130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CR28" s="51">
         <f>ガント!DA130</f>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="CS28" s="51">
         <f>ガント!DB130</f>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CT28" s="51">
         <f>ガント!DC130</f>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="CU28" s="51">
         <f>ガント!DD130</f>
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CV28" s="51">
         <f>ガント!DE130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CW28" s="51">
         <f>ガント!DF130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CX28" s="51">
         <f>ガント!DG130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CY28" s="51">
         <f>ガント!DH130</f>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CZ28" s="51">
         <f>ガント!DI130</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="DA28" s="51">
         <f>ガント!DJ130</f>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DB28" s="51">
         <f>ガント!DK130</f>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DC28" s="51">
         <f>ガント!DL130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DD28" s="51">
         <f>ガント!DM130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DE28" s="51">
         <f>ガント!DN130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DF28" s="51">
         <f>ガント!DO130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DG28" s="51">
         <f>ガント!DP130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DH28" s="51">
         <f>ガント!DQ130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DI28" s="51">
         <f>ガント!DR130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="str">
         <f>ガント!J131</f>
         <v>AC</v>
@@ -53031,19 +53039,19 @@
       </c>
       <c r="AO29" s="51">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX131,NA())</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP29" s="51">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY131,NA())</f>
-        <v>102</v>
-      </c>
-      <c r="AQ29" s="51" t="e">
+        <v>104</v>
+      </c>
+      <c r="AQ29" s="51">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR29" s="51" t="e">
+        <v>105</v>
+      </c>
+      <c r="AR29" s="51">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA131,NA())</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="AS29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB131,NA())</f>
@@ -53322,7 +53330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="str">
         <f>ガント!J132</f>
         <v>EV</v>
@@ -53493,11 +53501,11 @@
       </c>
       <c r="AQ30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AR30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AS30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB132,NA())</f>
@@ -53776,7 +53784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
         <v>45</v>
       </c>
@@ -54229,7 +54237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A32" s="43" t="s">
         <v>46</v>
       </c>
@@ -54682,7 +54690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A33" s="43" t="s">
         <v>47</v>
       </c>
@@ -55135,7 +55143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A34" s="43" t="s">
         <v>48</v>
       </c>
@@ -55620,24 +55628,24 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="13" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="60" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="60"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
         <v>98</v>
       </c>
@@ -55663,7 +55671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>108</v>
       </c>
@@ -55687,7 +55695,7 @@
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="63">
         <f>ROW()-4</f>
         <v>1</v>
@@ -55710,7 +55718,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="63">
         <f t="shared" ref="A6:A29" si="0">ROW()-4</f>
         <v>2</v>
@@ -55733,7 +55741,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -55746,7 +55754,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -55759,7 +55767,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -55772,7 +55780,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -55785,7 +55793,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -55798,7 +55806,7 @@
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -55811,7 +55819,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -55824,7 +55832,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -55837,7 +55845,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -55850,7 +55858,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -55863,7 +55871,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -55876,7 +55884,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -55889,7 +55897,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -55902,7 +55910,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -55915,7 +55923,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -55928,7 +55936,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -55941,7 +55949,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -55954,7 +55962,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -55967,7 +55975,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -55980,7 +55988,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -55993,7 +56001,7 @@
       <c r="G26" s="64"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -56006,7 +56014,7 @@
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -56019,7 +56027,7 @@
       <c r="G28" s="64"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -56069,83 +56077,86 @@
       <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
     </row>
-    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
     </row>
-    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="98"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -56153,9 +56164,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56170,31 +56178,31 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
       <c r="F1" s="35" t="s">
         <v>53</v>
       </c>
@@ -56208,7 +56216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="53">
         <v>1</v>
       </c>
@@ -56232,7 +56240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -56259,7 +56267,7 @@
       </c>
       <c r="I3" s="58"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="53">
         <v>3</v>
       </c>
@@ -56285,7 +56293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="53">
         <v>4</v>
       </c>
@@ -56309,7 +56317,7 @@
       </c>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -56332,7 +56340,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="53">
         <v>6</v>
       </c>
@@ -56352,7 +56360,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="57"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="53">
         <v>7</v>
       </c>
@@ -56376,7 +56384,7 @@
       </c>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="53">
         <v>8</v>
       </c>
@@ -56400,7 +56408,7 @@
       </c>
       <c r="I9" s="57"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -56425,7 +56433,7 @@
       </c>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="53">
         <v>10</v>
       </c>
@@ -56445,7 +56453,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="57"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="53">
         <v>11</v>
       </c>
@@ -56465,7 +56473,7 @@
       <c r="H12" s="53"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="53">
         <v>12</v>
       </c>
@@ -56489,7 +56497,7 @@
       </c>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="53">
         <v>13</v>
       </c>
@@ -56513,7 +56521,7 @@
       </c>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -56540,7 +56548,7 @@
       </c>
       <c r="I15" s="57"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="53">
         <v>15</v>
       </c>
@@ -56582,25 +56590,25 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>149</v>
       </c>
@@ -56614,7 +56622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>150</v>
       </c>
@@ -56625,7 +56633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
@@ -56636,77 +56644,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
     </row>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -2175,11 +2175,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2188,14 +2188,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2212,6 +2204,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2260,12 +2260,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2274,13 +2268,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2293,6 +2285,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,16 +2910,16 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>333</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>360</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>360</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3033,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3172,7 +3172,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3218,11 +3218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266116960"/>
-        <c:axId val="266117520"/>
+        <c:axId val="182112592"/>
+        <c:axId val="182113152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="266116960"/>
+        <c:axId val="182112592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,14 +3232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266117520"/>
+        <c:crossAx val="182113152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="266117520"/>
+        <c:axId val="182113152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3260,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266116960"/>
+        <c:crossAx val="182112592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,25 +3754,25 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="BH59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DK66" sqref="DK66"/>
+      <selection pane="bottomRight" activeCell="BH5" sqref="BH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="4.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
-    <col min="11" max="122" width="2.375" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="2.625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="4.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="2" customWidth="1"/>
+    <col min="11" max="122" width="2.33203125" style="2" customWidth="1"/>
+    <col min="123" max="16384" width="2.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -3826,13 +3826,13 @@
       </c>
       <c r="AJ1" s="80"/>
       <c r="AK1" s="80"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="77"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="75"/>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="D2" s="10" t="s">
         <v>30</v>
@@ -3858,8 +3858,8 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -4004,8 +4004,8 @@
       <c r="DQ3" s="6"/>
       <c r="DR3" s="7"/>
     </row>
-    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
+    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -4366,27 +4366,27 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="69">
-        <v>0</v>
-      </c>
-      <c r="B5" s="73" t="str">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="78" t="str">
         <f>B1</f>
         <v>○○システム開発</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69" t="s">
         <v>161</v>
       </c>
       <c r="J5" s="12">
@@ -4536,16 +4536,16 @@
       <c r="DQ5" s="37"/>
       <c r="DR5" s="38"/>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A6" s="70"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4693,20 +4693,20 @@
       <c r="DQ6" s="40"/>
       <c r="DR6" s="41"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="69">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4824,16 +4824,16 @@
       <c r="DQ7" s="37"/>
       <c r="DR7" s="38"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4951,15 +4951,15 @@
       <c r="DQ8" s="40"/>
       <c r="DR8" s="41"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="69">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="78" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="71" t="s">
@@ -5104,11 +5104,11 @@
       <c r="DQ9" s="37"/>
       <c r="DR9" s="38"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
@@ -5241,15 +5241,15 @@
       <c r="DQ10" s="40"/>
       <c r="DR10" s="41"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="69">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="78" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="71" t="s">
@@ -5390,11 +5390,11 @@
       <c r="DQ11" s="37"/>
       <c r="DR11" s="38"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
@@ -5527,15 +5527,15 @@
       <c r="DQ12" s="40"/>
       <c r="DR12" s="41"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="69">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="78" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -5670,11 +5670,11 @@
       <c r="DQ13" s="37"/>
       <c r="DR13" s="38"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
@@ -5811,13 +5811,13 @@
       <c r="DQ14" s="40"/>
       <c r="DR14" s="41"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73" t="s">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -5940,11 +5940,11 @@
       <c r="DQ15" s="37"/>
       <c r="DR15" s="38"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -6067,13 +6067,13 @@
       <c r="DQ16" s="40"/>
       <c r="DR16" s="41"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73" t="s">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="78" t="s">
         <v>115</v>
       </c>
       <c r="E17" s="71" t="s">
@@ -6210,11 +6210,11 @@
       <c r="DQ17" s="37"/>
       <c r="DR17" s="38"/>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -6351,13 +6351,13 @@
       <c r="DQ18" s="40"/>
       <c r="DR18" s="41"/>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73" t="s">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="78" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="71"/>
@@ -6496,11 +6496,11 @@
       <c r="DQ19" s="37"/>
       <c r="DR19" s="38"/>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="72"/>
       <c r="F20" s="72"/>
       <c r="G20" s="72"/>
@@ -6635,13 +6635,13 @@
       <c r="DQ20" s="40"/>
       <c r="DR20" s="41"/>
     </row>
-    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73" t="s">
+    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="78" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="71"/>
@@ -6780,11 +6780,11 @@
       <c r="DQ21" s="37"/>
       <c r="DR21" s="38"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
@@ -6919,13 +6919,13 @@
       <c r="DQ22" s="40"/>
       <c r="DR22" s="41"/>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73" t="s">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -7048,11 +7048,11 @@
       <c r="DQ23" s="37"/>
       <c r="DR23" s="38"/>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -7175,13 +7175,13 @@
       <c r="DQ24" s="40"/>
       <c r="DR24" s="41"/>
     </row>
-    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73" t="s">
+    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="78" t="s">
         <v>122</v>
       </c>
       <c r="E25" s="71" t="s">
@@ -7314,11 +7314,11 @@
       <c r="DQ25" s="37"/>
       <c r="DR25" s="38"/>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
@@ -7445,13 +7445,13 @@
       <c r="DQ26" s="40"/>
       <c r="DR26" s="41"/>
     </row>
-    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73" t="s">
+    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
@@ -7574,11 +7574,11 @@
       <c r="DQ27" s="37"/>
       <c r="DR27" s="38"/>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
+    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
@@ -7701,13 +7701,13 @@
       <c r="DQ28" s="40"/>
       <c r="DR28" s="41"/>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73" t="s">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="78" t="s">
         <v>125</v>
       </c>
       <c r="E29" s="71"/>
@@ -7854,11 +7854,11 @@
       <c r="DQ29" s="37"/>
       <c r="DR29" s="38"/>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="72"/>
       <c r="F30" s="72"/>
       <c r="G30" s="72"/>
@@ -7866,7 +7866,7 @@
       <c r="I30" s="72"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
@@ -7912,18 +7912,10 @@
       </c>
       <c r="AU30" s="40"/>
       <c r="AV30" s="40"/>
-      <c r="AW30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="40">
-        <v>1</v>
-      </c>
+      <c r="AW30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
       <c r="BA30" s="40"/>
       <c r="BB30" s="40"/>
       <c r="BC30" s="40"/>
@@ -7995,13 +7987,13 @@
       <c r="DQ30" s="40"/>
       <c r="DR30" s="41"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73" t="s">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="71"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -8124,11 +8116,11 @@
       <c r="DQ31" s="37"/>
       <c r="DR31" s="38"/>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="72"/>
       <c r="F32" s="72"/>
       <c r="G32" s="72"/>
@@ -8251,13 +8243,13 @@
       <c r="DQ32" s="40"/>
       <c r="DR32" s="41"/>
     </row>
-    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73" t="s">
+    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="78" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="71"/>
@@ -8406,11 +8398,11 @@
       <c r="DQ33" s="37"/>
       <c r="DR33" s="38"/>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+    <row r="34" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
       <c r="G34" s="72"/>
@@ -8533,13 +8525,13 @@
       <c r="DQ34" s="40"/>
       <c r="DR34" s="41"/>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73" t="s">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
@@ -8662,11 +8654,11 @@
       <c r="DQ35" s="37"/>
       <c r="DR35" s="38"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
+    <row r="36" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
       <c r="G36" s="72"/>
@@ -8789,13 +8781,13 @@
       <c r="DQ36" s="40"/>
       <c r="DR36" s="41"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73" t="s">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="78" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="71" t="s">
@@ -8944,11 +8936,11 @@
       <c r="DQ37" s="37"/>
       <c r="DR37" s="38"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+    <row r="38" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
       <c r="G38" s="72"/>
@@ -9071,13 +9063,13 @@
       <c r="DQ38" s="40"/>
       <c r="DR38" s="41"/>
     </row>
-    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="78" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="71" t="s">
@@ -9216,11 +9208,11 @@
       <c r="DQ39" s="37"/>
       <c r="DR39" s="38"/>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
+    <row r="40" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
       <c r="G40" s="72"/>
@@ -9343,13 +9335,13 @@
       <c r="DQ40" s="40"/>
       <c r="DR40" s="41"/>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73" t="s">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="78" t="s">
         <v>132</v>
       </c>
       <c r="E41" s="71" t="s">
@@ -9488,11 +9480,11 @@
       <c r="DQ41" s="37"/>
       <c r="DR41" s="38"/>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+    <row r="42" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -9615,21 +9607,21 @@
       <c r="DQ42" s="40"/>
       <c r="DR42" s="41"/>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69" t="s">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
       <c r="I43" s="71" t="s">
         <v>49</v>
       </c>
@@ -9760,15 +9752,15 @@
       <c r="DQ43" s="37"/>
       <c r="DR43" s="38"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
+    <row r="44" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="72"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
@@ -9887,21 +9879,21 @@
       <c r="DQ44" s="40"/>
       <c r="DR44" s="41"/>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69" t="s">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
       <c r="I45" s="71" t="s">
         <v>49</v>
       </c>
@@ -10032,15 +10024,15 @@
       <c r="DQ45" s="37"/>
       <c r="DR45" s="38"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
+    <row r="46" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="72"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
@@ -10159,17 +10151,17 @@
       <c r="DQ46" s="40"/>
       <c r="DR46" s="41"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="69"/>
-      <c r="B47" s="69" t="s">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="71"/>
       <c r="J47" s="12" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
@@ -10288,15 +10280,15 @@
       <c r="DQ47" s="37"/>
       <c r="DR47" s="38"/>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
+    <row r="48" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
       <c r="I48" s="72"/>
       <c r="J48" s="13" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
@@ -10415,22 +10407,22 @@
       <c r="DQ48" s="40"/>
       <c r="DR48" s="41"/>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69" t="s">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70" t="s">
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="12">
@@ -10552,16 +10544,16 @@
       <c r="DQ49" s="37"/>
       <c r="DR49" s="38"/>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
+    <row r="50" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10679,17 +10671,17 @@
       <c r="DQ50" s="40"/>
       <c r="DR50" s="41"/>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69" t="s">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="71"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
@@ -10808,15 +10800,15 @@
       <c r="DQ51" s="37"/>
       <c r="DR51" s="38"/>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
+    <row r="52" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="72"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
@@ -10935,21 +10927,21 @@
       <c r="DQ52" s="40"/>
       <c r="DR52" s="41"/>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69" t="s">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
       <c r="I53" s="71" t="s">
         <v>161</v>
       </c>
@@ -11092,15 +11084,15 @@
       <c r="DQ53" s="37"/>
       <c r="DR53" s="38"/>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
+    <row r="54" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
       <c r="I54" s="72"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
@@ -11221,18 +11213,18 @@
       <c r="DQ54" s="40"/>
       <c r="DR54" s="41"/>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69" t="s">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11350,16 +11342,16 @@
       <c r="DQ55" s="37"/>
       <c r="DR55" s="38"/>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
+    <row r="56" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11477,27 +11469,27 @@
       <c r="DQ56" s="40"/>
       <c r="DR56" s="41"/>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69" t="s">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="D57" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70" t="s">
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="12">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
@@ -11596,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="CW57" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX57" s="37">
         <v>4</v>
@@ -11622,16 +11614,16 @@
       <c r="DQ57" s="37"/>
       <c r="DR57" s="38"/>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
+    <row r="58" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="13">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11749,27 +11741,27 @@
       <c r="DQ58" s="40"/>
       <c r="DR58" s="41"/>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69" t="s">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="E59" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70" t="s">
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="12">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -11868,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="CW59" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX59" s="37">
         <v>4</v>
@@ -11894,16 +11886,16 @@
       <c r="DQ59" s="37"/>
       <c r="DR59" s="38"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
+    <row r="60" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12021,18 +12013,18 @@
       <c r="DQ60" s="40"/>
       <c r="DR60" s="41"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="69"/>
-      <c r="B61" s="69" t="s">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12150,16 +12142,16 @@
       <c r="DQ61" s="37"/>
       <c r="DR61" s="38"/>
     </row>
-    <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
+    <row r="62" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12277,13 +12269,13 @@
       <c r="DQ62" s="40"/>
       <c r="DR62" s="41"/>
     </row>
-    <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73" t="s">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="78" t="s">
         <v>164</v>
       </c>
       <c r="E63" s="71" t="s">
@@ -12422,11 +12414,11 @@
       <c r="DQ63" s="37"/>
       <c r="DR63" s="38"/>
     </row>
-    <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
+    <row r="64" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
@@ -12549,27 +12541,27 @@
       <c r="DQ64" s="40"/>
       <c r="DR64" s="41"/>
     </row>
-    <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69" t="s">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="D65" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70" t="s">
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J65" s="12">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
@@ -12682,7 +12674,7 @@
         <v>3</v>
       </c>
       <c r="DK65" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL65" s="37">
         <v>9</v>
@@ -12694,16 +12686,16 @@
       <c r="DQ65" s="37"/>
       <c r="DR65" s="38"/>
     </row>
-    <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
+    <row r="66" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="13">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12821,16 +12813,16 @@
       <c r="DQ66" s="40"/>
       <c r="DR66" s="41"/>
     </row>
-    <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+    <row r="67" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12948,16 +12940,16 @@
       <c r="DQ67" s="37"/>
       <c r="DR67" s="38"/>
     </row>
-    <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
+    <row r="68" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13075,11 +13067,11 @@
       <c r="DQ68" s="40"/>
       <c r="DR68" s="41"/>
     </row>
-    <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
+    <row r="69" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
       <c r="E69" s="71"/>
       <c r="F69" s="71"/>
       <c r="G69" s="71"/>
@@ -13202,11 +13194,11 @@
       <c r="DQ69" s="37"/>
       <c r="DR69" s="38"/>
     </row>
-    <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
+    <row r="70" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
       <c r="E70" s="72"/>
       <c r="F70" s="72"/>
       <c r="G70" s="72"/>
@@ -13329,11 +13321,11 @@
       <c r="DQ70" s="40"/>
       <c r="DR70" s="41"/>
     </row>
-    <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
+    <row r="71" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="71"/>
@@ -13456,11 +13448,11 @@
       <c r="DQ71" s="37"/>
       <c r="DR71" s="38"/>
     </row>
-    <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
+    <row r="72" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A72" s="79"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="72"/>
       <c r="F72" s="72"/>
       <c r="G72" s="72"/>
@@ -13583,11 +13575,11 @@
       <c r="DQ72" s="40"/>
       <c r="DR72" s="41"/>
     </row>
-    <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
+    <row r="73" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A73" s="78"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
       <c r="G73" s="71"/>
@@ -13710,11 +13702,11 @@
       <c r="DQ73" s="37"/>
       <c r="DR73" s="38"/>
     </row>
-    <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
+    <row r="74" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="72"/>
       <c r="F74" s="72"/>
       <c r="G74" s="72"/>
@@ -13837,11 +13829,11 @@
       <c r="DQ74" s="40"/>
       <c r="DR74" s="41"/>
     </row>
-    <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
+    <row r="75" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
       <c r="G75" s="71"/>
@@ -13964,11 +13956,11 @@
       <c r="DQ75" s="37"/>
       <c r="DR75" s="38"/>
     </row>
-    <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
+    <row r="76" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A76" s="79"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="72"/>
       <c r="F76" s="72"/>
       <c r="G76" s="72"/>
@@ -14091,11 +14083,11 @@
       <c r="DQ76" s="40"/>
       <c r="DR76" s="41"/>
     </row>
-    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
+    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
       <c r="G77" s="71"/>
@@ -14218,11 +14210,11 @@
       <c r="DQ77" s="37"/>
       <c r="DR77" s="38"/>
     </row>
-    <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
+    <row r="78" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
       <c r="E78" s="72"/>
       <c r="F78" s="72"/>
       <c r="G78" s="72"/>
@@ -14345,11 +14337,11 @@
       <c r="DQ78" s="40"/>
       <c r="DR78" s="41"/>
     </row>
-    <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
+    <row r="79" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
       <c r="G79" s="71"/>
@@ -14472,11 +14464,11 @@
       <c r="DQ79" s="37"/>
       <c r="DR79" s="38"/>
     </row>
-    <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
+    <row r="80" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="72"/>
       <c r="F80" s="72"/>
       <c r="G80" s="72"/>
@@ -14599,11 +14591,11 @@
       <c r="DQ80" s="40"/>
       <c r="DR80" s="41"/>
     </row>
-    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
+    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
       <c r="E81" s="71"/>
       <c r="F81" s="71"/>
       <c r="G81" s="71"/>
@@ -14726,11 +14718,11 @@
       <c r="DQ81" s="37"/>
       <c r="DR81" s="38"/>
     </row>
-    <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
+    <row r="82" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="72"/>
       <c r="F82" s="72"/>
       <c r="G82" s="72"/>
@@ -14853,11 +14845,11 @@
       <c r="DQ82" s="40"/>
       <c r="DR82" s="41"/>
     </row>
-    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
+    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="78"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
       <c r="E83" s="71"/>
       <c r="F83" s="71"/>
       <c r="G83" s="71"/>
@@ -14980,11 +14972,11 @@
       <c r="DQ83" s="37"/>
       <c r="DR83" s="38"/>
     </row>
-    <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
+    <row r="84" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A84" s="79"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
       <c r="E84" s="72"/>
       <c r="F84" s="72"/>
       <c r="G84" s="72"/>
@@ -15107,11 +15099,11 @@
       <c r="DQ84" s="40"/>
       <c r="DR84" s="41"/>
     </row>
-    <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="73"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
+    <row r="85" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
       <c r="E85" s="71"/>
       <c r="F85" s="71"/>
       <c r="G85" s="71"/>
@@ -15234,11 +15226,11 @@
       <c r="DQ85" s="37"/>
       <c r="DR85" s="38"/>
     </row>
-    <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
+    <row r="86" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
       <c r="E86" s="72"/>
       <c r="F86" s="72"/>
       <c r="G86" s="72"/>
@@ -15361,11 +15353,11 @@
       <c r="DQ86" s="40"/>
       <c r="DR86" s="41"/>
     </row>
-    <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
+    <row r="87" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A87" s="78"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
       <c r="E87" s="71"/>
       <c r="F87" s="71"/>
       <c r="G87" s="71"/>
@@ -15488,11 +15480,11 @@
       <c r="DQ87" s="37"/>
       <c r="DR87" s="38"/>
     </row>
-    <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
+    <row r="88" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
       <c r="E88" s="72"/>
       <c r="F88" s="72"/>
       <c r="G88" s="72"/>
@@ -15615,11 +15607,11 @@
       <c r="DQ88" s="40"/>
       <c r="DR88" s="41"/>
     </row>
-    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="73"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
+    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="78"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
       <c r="E89" s="71"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
@@ -15742,11 +15734,11 @@
       <c r="DQ89" s="37"/>
       <c r="DR89" s="38"/>
     </row>
-    <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
+    <row r="90" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
       <c r="E90" s="72"/>
       <c r="F90" s="72"/>
       <c r="G90" s="72"/>
@@ -15869,11 +15861,11 @@
       <c r="DQ90" s="40"/>
       <c r="DR90" s="41"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
+    <row r="91" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="71"/>
       <c r="F91" s="71"/>
       <c r="G91" s="71"/>
@@ -15996,11 +15988,11 @@
       <c r="DQ91" s="37"/>
       <c r="DR91" s="38"/>
     </row>
-    <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
+    <row r="92" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="72"/>
       <c r="F92" s="72"/>
       <c r="G92" s="72"/>
@@ -16123,11 +16115,11 @@
       <c r="DQ92" s="40"/>
       <c r="DR92" s="41"/>
     </row>
-    <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
+    <row r="93" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
       <c r="E93" s="71"/>
       <c r="F93" s="71"/>
       <c r="G93" s="71"/>
@@ -16250,11 +16242,11 @@
       <c r="DQ93" s="37"/>
       <c r="DR93" s="38"/>
     </row>
-    <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
+    <row r="94" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="72"/>
       <c r="F94" s="72"/>
       <c r="G94" s="72"/>
@@ -16377,11 +16369,11 @@
       <c r="DQ94" s="40"/>
       <c r="DR94" s="41"/>
     </row>
-    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="73"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
+    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="78"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
       <c r="E95" s="71"/>
       <c r="F95" s="71"/>
       <c r="G95" s="71"/>
@@ -16504,11 +16496,11 @@
       <c r="DQ95" s="37"/>
       <c r="DR95" s="38"/>
     </row>
-    <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
+    <row r="96" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
       <c r="E96" s="72"/>
       <c r="F96" s="72"/>
       <c r="G96" s="72"/>
@@ -16631,15 +16623,15 @@
       <c r="DQ96" s="40"/>
       <c r="DR96" s="41"/>
     </row>
-    <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
+    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
       <c r="I97" s="71"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
@@ -16758,15 +16750,15 @@
       <c r="DQ97" s="37"/>
       <c r="DR97" s="38"/>
     </row>
-    <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
+    <row r="98" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
       <c r="I98" s="72"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
@@ -16885,15 +16877,15 @@
       <c r="DQ98" s="40"/>
       <c r="DR98" s="41"/>
     </row>
-    <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
+    <row r="99" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
       <c r="I99" s="71"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
@@ -17012,15 +17004,15 @@
       <c r="DQ99" s="37"/>
       <c r="DR99" s="38"/>
     </row>
-    <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
+    <row r="100" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
       <c r="I100" s="72"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
@@ -17139,15 +17131,15 @@
       <c r="DQ100" s="40"/>
       <c r="DR100" s="41"/>
     </row>
-    <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="69"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
+    <row r="101" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
       <c r="I101" s="71"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
@@ -17266,15 +17258,15 @@
       <c r="DQ101" s="37"/>
       <c r="DR101" s="38"/>
     </row>
-    <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
+    <row r="102" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
       <c r="I102" s="72"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
@@ -17393,16 +17385,16 @@
       <c r="DQ102" s="40"/>
       <c r="DR102" s="41"/>
     </row>
-    <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="69"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
+    <row r="103" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17520,16 +17512,16 @@
       <c r="DQ103" s="37"/>
       <c r="DR103" s="38"/>
     </row>
-    <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
+    <row r="104" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17647,15 +17639,15 @@
       <c r="DQ104" s="40"/>
       <c r="DR104" s="41"/>
     </row>
-    <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
+    <row r="105" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
       <c r="I105" s="71"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
@@ -17774,15 +17766,15 @@
       <c r="DQ105" s="37"/>
       <c r="DR105" s="38"/>
     </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
+    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
       <c r="I106" s="72"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
@@ -17901,15 +17893,15 @@
       <c r="DQ106" s="40"/>
       <c r="DR106" s="41"/>
     </row>
-    <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="69"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
+    <row r="107" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="69"/>
       <c r="I107" s="71"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
@@ -18028,15 +18020,15 @@
       <c r="DQ107" s="37"/>
       <c r="DR107" s="38"/>
     </row>
-    <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="69"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
+    <row r="108" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
       <c r="I108" s="72"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
@@ -18155,15 +18147,15 @@
       <c r="DQ108" s="40"/>
       <c r="DR108" s="41"/>
     </row>
-    <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="69"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
+    <row r="109" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
       <c r="I109" s="71"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
@@ -18282,15 +18274,15 @@
       <c r="DQ109" s="37"/>
       <c r="DR109" s="38"/>
     </row>
-    <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
+    <row r="110" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
       <c r="I110" s="72"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
@@ -18409,16 +18401,16 @@
       <c r="DQ110" s="40"/>
       <c r="DR110" s="41"/>
     </row>
-    <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="69"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
+    <row r="111" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18536,16 +18528,16 @@
       <c r="DQ111" s="37"/>
       <c r="DR111" s="38"/>
     </row>
-    <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="70"/>
+    <row r="112" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="69"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18663,16 +18655,16 @@
       <c r="DQ112" s="40"/>
       <c r="DR112" s="41"/>
     </row>
-    <row r="113" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A113" s="69"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
+    <row r="113" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -18790,16 +18782,16 @@
       <c r="DQ113" s="37"/>
       <c r="DR113" s="38"/>
     </row>
-    <row r="114" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A114" s="69"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="70"/>
+    <row r="114" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -18917,16 +18909,16 @@
       <c r="DQ114" s="40"/>
       <c r="DR114" s="41"/>
     </row>
-    <row r="115" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A115" s="69"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
+    <row r="115" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -19044,16 +19036,16 @@
       <c r="DQ115" s="37"/>
       <c r="DR115" s="38"/>
     </row>
-    <row r="116" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A116" s="69"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="70"/>
+    <row r="116" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19171,16 +19163,16 @@
       <c r="DQ116" s="40"/>
       <c r="DR116" s="41"/>
     </row>
-    <row r="117" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A117" s="69"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
+    <row r="117" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19298,16 +19290,16 @@
       <c r="DQ117" s="37"/>
       <c r="DR117" s="38"/>
     </row>
-    <row r="118" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+    <row r="118" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19425,11 +19417,11 @@
       <c r="DQ118" s="40"/>
       <c r="DR118" s="41"/>
     </row>
-    <row r="119" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A119" s="73"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
+    <row r="119" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
       <c r="E119" s="71"/>
       <c r="F119" s="71"/>
       <c r="G119" s="71"/>
@@ -19552,11 +19544,11 @@
       <c r="DQ119" s="37"/>
       <c r="DR119" s="38"/>
     </row>
-    <row r="120" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A120" s="74"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
+    <row r="120" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
       <c r="E120" s="72"/>
       <c r="F120" s="72"/>
       <c r="G120" s="72"/>
@@ -19679,16 +19671,16 @@
       <c r="DQ120" s="40"/>
       <c r="DR120" s="41"/>
     </row>
-    <row r="121" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A121" s="69"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
+    <row r="121" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="69"/>
+      <c r="I121" s="69"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -19806,16 +19798,16 @@
       <c r="DQ121" s="37"/>
       <c r="DR121" s="38"/>
     </row>
-    <row r="122" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
-      <c r="I122" s="70"/>
+    <row r="122" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -19933,16 +19925,16 @@
       <c r="DQ122" s="40"/>
       <c r="DR122" s="41"/>
     </row>
-    <row r="123" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A123" s="69"/>
-      <c r="B123" s="69"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
+    <row r="123" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20060,16 +20052,16 @@
       <c r="DQ123" s="37"/>
       <c r="DR123" s="38"/>
     </row>
-    <row r="124" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A124" s="69"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
+    <row r="124" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20187,7 +20179,7 @@
       <c r="DQ124" s="40"/>
       <c r="DR124" s="41"/>
     </row>
-    <row r="126" spans="1:123" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -20562,7 +20554,7 @@
       </c>
       <c r="CW126" s="28">
         <f t="array" ref="CW126">SUM(IF(MOD(ROW(CW$5:CW$124),2)=1,CW$5:CW$124,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CX126" s="28">
         <f t="array" ref="CX126">SUM(IF(MOD(ROW(CX$5:CX$124),2)=1,CX$5:CX$124,0))</f>
@@ -20618,7 +20610,7 @@
       </c>
       <c r="DK126" s="28">
         <f t="array" ref="DK126">SUM(IF(MOD(ROW(DK$5:DK$124),2)=1,DK$5:DK$124,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL126" s="28">
         <f t="array" ref="DL126">SUM(IF(MOD(ROW(DL$5:DL$124),2)=1,DL$5:DL$124,0))</f>
@@ -20650,7 +20642,7 @@
       </c>
       <c r="DS126" s="26"/>
     </row>
-    <row r="127" spans="1:123" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -20821,15 +20813,15 @@
       </c>
       <c r="AX127" s="28">
         <f t="array" ref="AX127">SUM(IF(MOD(ROW(AX$5:AX$124),2)=0,AX$5:AX$124,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY127" s="28">
         <f t="array" ref="AY127">SUM(IF(MOD(ROW(AY$5:AY$124),2)=0,AY$5:AY$124,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ127" s="28">
         <f t="array" ref="AZ127">SUM(IF(MOD(ROW(AZ$5:AZ$124),2)=0,AZ$5:AZ$124,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA127" s="28">
         <f t="array" ref="BA127">SUM(IF(MOD(ROW(BA$5:BA$124),2)=0,BA$5:BA$124,0))</f>
@@ -21113,7 +21105,7 @@
       </c>
       <c r="DS127" s="26"/>
     </row>
-    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
       <c r="J128" s="27" t="s">
         <v>35</v>
@@ -21568,7 +21560,7 @@
       </c>
       <c r="DS128" s="29"/>
     </row>
-    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
       <c r="J129" s="27" t="s">
         <v>40</v>
@@ -21911,7 +21903,7 @@
       </c>
       <c r="DS129" s="29"/>
     </row>
-    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
       <c r="J130" s="27" t="s">
         <v>37</v>
@@ -22278,94 +22270,94 @@
       </c>
       <c r="CW130" s="30">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="CX130" s="30">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CY130" s="30">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CZ130" s="30">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="DA130" s="30">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="DB130" s="30">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="DC130" s="30">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="DD130" s="30">
         <f t="shared" si="1"/>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="DE130" s="30">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DF130" s="30">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DG130" s="30">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DH130" s="30">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="DI130" s="30">
         <f t="shared" si="1"/>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DJ130" s="30">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DK130" s="30">
         <f t="shared" si="1"/>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="DL130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DM130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DN130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DO130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DP130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DQ130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DR130" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
       <c r="J131" s="27" t="s">
         <v>38</v>
@@ -22528,298 +22520,298 @@
       </c>
       <c r="AX131" s="30">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY131" s="30">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AZ131" s="30">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="BA131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BB131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BC131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BD131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BE131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BF131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BG131" s="30">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BH131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BI131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BJ131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BK131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BL131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BM131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BN131" s="30">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BO131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BP131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BQ131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BR131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BS131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BT131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BU131" s="30">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BV131" s="30">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BW131" s="30">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BX131" s="30">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BY131" s="30">
         <f t="shared" ref="BY131:DR131" si="3">BY127+BX131</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BZ131" s="30">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="CA131" s="30">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="CB131" s="30">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="CC131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CE131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CF131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CG131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CH131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CI131" s="30">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CJ131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CK131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CL131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CM131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CN131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CO131" s="30">
         <f>CO127+CN131</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CP131" s="30">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CQ131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CR131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CS131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CT131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CU131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CV131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CW131" s="30">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="CX131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CY131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CZ131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="DA131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="DB131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="DC131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="DD131" s="30">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="DE131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DF131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DG131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DH131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DI131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DJ131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DK131" s="30">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="DL131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DM131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DN131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DO131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DP131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DQ131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DR131" s="30">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
       <c r="J132" s="27" t="s">
         <v>39</v>
@@ -23273,10 +23265,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
     </row>
-    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
       <c r="K134" s="28" t="str">
         <f>IF($I5="完了",IF(COUNTA(K6:$DS6)=0,$J5,""),"")</f>
@@ -23292,7 +23284,7 @@
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
     </row>
-    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
       <c r="J135" s="27" t="s">
         <v>36</v>
@@ -23746,7 +23738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
       <c r="K136" s="29">
         <f>IF($I7="完了",IF(COUNTA(K8:$DR8)=0,$J7,0),0)</f>
@@ -24197,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
       <c r="K137" s="29">
         <f>IF($I9="完了",IF(COUNTA(K10:$DR10)=0,$J9,0),0)</f>
@@ -24648,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
       <c r="K138" s="29">
         <f>IF($I11="完了",IF(COUNTA(K12:$DR12)=0,$J11,0),0)</f>
@@ -25099,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
       <c r="K139" s="29">
         <f>IF($I13="完了",IF(COUNTA(K14:$DR14)=0,$J13,0),0)</f>
@@ -25550,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
       <c r="K140" s="29">
         <f>IF($I15="完了",IF(COUNTA(K16:$DR16)=0,$J15,0),0)</f>
@@ -26001,7 +25993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
       <c r="K141" s="29">
         <f>IF($I17="完了",IF(COUNTA(K18:$DR18)=0,$J17,0),0)</f>
@@ -26452,7 +26444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
       <c r="K142" s="29">
         <f>IF($I19="完了",IF(COUNTA(K20:$DR20)=0,$J19,0),0)</f>
@@ -26903,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
       <c r="K143" s="29">
         <f>IF($I21="完了",IF(COUNTA(K22:$DR22)=0,$J21,0),0)</f>
@@ -27354,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="K144" s="29">
         <f>IF($I23="完了",IF(COUNTA(K24:$DR24)=0,$J23,0),0)</f>
@@ -27805,7 +27797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
       <c r="K145" s="29">
         <f>IF($I25="完了",IF(COUNTA(K26:$DR26)=0,$J25,0),0)</f>
@@ -28256,7 +28248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="K146" s="29">
         <f>IF($I27="完了",IF(COUNTA(K28:$DR28)=0,$J27,0),0)</f>
@@ -28707,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="K147" s="29">
         <f>IF($I29="完了",IF(COUNTA(K30:$DR30)=0,$J29,0),0)</f>
@@ -29158,7 +29150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="K148" s="29">
         <f>IF($I31="完了",IF(COUNTA(K32:$DR32)=0,$J31,0),0)</f>
@@ -29609,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="K149" s="29">
         <f>IF($I33="完了",IF(COUNTA(K34:$DR34)=0,$J33,0),0)</f>
@@ -30060,7 +30052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="K150" s="29">
         <f>IF($I35="完了",IF(COUNTA(K36:$DR36)=0,$J35,0),0)</f>
@@ -30511,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="K151" s="29">
         <f>IF($I37="完了",IF(COUNTA(K38:$DR38)=0,$J37,0),0)</f>
@@ -30962,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="K152" s="29">
         <f>IF($I39="完了",IF(COUNTA(K40:$DR40)=0,$J39,0),0)</f>
@@ -31413,7 +31405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="K153" s="29">
         <f>IF($I41="完了",IF(COUNTA(K42:$DR42)=0,$J41,0),0)</f>
@@ -31864,7 +31856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="K154" s="29">
         <f>IF($I43="完了",IF(COUNTA(K44:$DR44)=0,$J43,0),0)</f>
@@ -32315,7 +32307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="K155" s="29">
         <f>IF($I45="完了",IF(COUNTA(K46:$DR46)=0,$J45,0),0)</f>
@@ -32766,7 +32758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="K156" s="29">
         <f>IF($I47="完了",IF(COUNTA(K48:$DR48)=0,$J47,0),0)</f>
@@ -33217,7 +33209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="K157" s="29">
         <f>IF($I49="完了",IF(COUNTA(K50:$DR50)=0,$J49,0),0)</f>
@@ -33668,7 +33660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="K158" s="29">
         <f>IF($I51="完了",IF(COUNTA(K52:$DR52)=0,$J51,0),0)</f>
@@ -34119,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="K159" s="29">
         <f>IF($I53="完了",IF(COUNTA(K54:$DR54)=0,$J53,0),0)</f>
@@ -34570,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="K160" s="29" t="e">
         <f>IF(#REF!="完了",IF(COUNTA(#REF!)=0,#REF!,0),0)</f>
@@ -35021,7 +35013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="K161" s="29">
         <f>IF($I55="完了",IF(COUNTA(K56:$DR56)=0,$J55,0),0)</f>
@@ -35472,7 +35464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="K162" s="29">
         <f>IF($I57="完了",IF(COUNTA(K58:$DR58)=0,$J57,0),0)</f>
@@ -35923,7 +35915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="K163" s="29">
         <f>IF($I59="完了",IF(COUNTA(K60:$DR60)=0,$J59,0),0)</f>
@@ -36374,7 +36366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="K164" s="29">
         <f>IF($I61="完了",IF(COUNTA(K62:$DR62)=0,$J61,0),0)</f>
@@ -36825,7 +36817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="K165" s="29">
         <f>IF($I63="完了",IF(COUNTA(K64:$DR64)=0,$J63,0),0)</f>
@@ -37276,7 +37268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="K166" s="29">
         <f>IF($I65="完了",IF(COUNTA(K66:$DR66)=0,$J65,0),0)</f>
@@ -37727,7 +37719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="K167" s="29">
         <f>IF($I67="完了",IF(COUNTA(K68:$DR68)=0,$J67,0),0)</f>
@@ -38178,7 +38170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="K168" s="29">
         <f>IF($I69="完了",IF(COUNTA(K70:$DR70)=0,$J69,0),0)</f>
@@ -38629,7 +38621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="K169" s="29">
         <f>IF($I71="完了",IF(COUNTA(K72:$DR72)=0,$J71,0),0)</f>
@@ -39080,7 +39072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="K170" s="29">
         <f>IF($I73="完了",IF(COUNTA(K74:$DR74)=0,$J73,0),0)</f>
@@ -39531,7 +39523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="K171" s="29">
         <f>IF($I75="完了",IF(COUNTA(K76:$DR76)=0,$J75,0),0)</f>
@@ -39982,7 +39974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="K172" s="29">
         <f>IF($I77="完了",IF(COUNTA(K78:$DR78)=0,$J77,0),0)</f>
@@ -40433,7 +40425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="K173" s="29">
         <f>IF($I79="完了",IF(COUNTA(K80:$DR80)=0,$J79,0),0)</f>
@@ -40884,7 +40876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="K174" s="29">
         <f>IF($I81="完了",IF(COUNTA(K82:$DR82)=0,$J81,0),0)</f>
@@ -41335,7 +41327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="K175" s="29">
         <f>IF($I83="完了",IF(COUNTA(K84:$DR84)=0,$J83,0),0)</f>
@@ -41786,7 +41778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="K176" s="29">
         <f>IF($I85="完了",IF(COUNTA(K86:$DR86)=0,$J85,0),0)</f>
@@ -42237,7 +42229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="K177" s="29">
         <f>IF($I87="完了",IF(COUNTA(K88:$DR88)=0,$J87,0),0)</f>
@@ -42688,7 +42680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="K178" s="29">
         <f>IF($I89="完了",IF(COUNTA(K90:$DR90)=0,$J89,0),0)</f>
@@ -43139,7 +43131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="K179" s="29">
         <f>IF($I91="完了",IF(COUNTA(K92:$DR92)=0,$J91,0),0)</f>
@@ -43590,7 +43582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="K180" s="29">
         <f>IF($I93="完了",IF(COUNTA(K94:$DR94)=0,$J93,0),0)</f>
@@ -44041,7 +44033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="K181" s="29">
         <f>IF($I95="完了",IF(COUNTA(K96:$DR96)=0,$J95,0),0)</f>
@@ -44492,7 +44484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="K182" s="29">
         <f>IF($I97="完了",IF(COUNTA(K98:$DR98)=0,$J97,0),0)</f>
@@ -44943,7 +44935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="K183" s="29">
         <f>IF($I99="完了",IF(COUNTA(K100:$DR100)=0,$J99,0),0)</f>
@@ -45394,7 +45386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="K184" s="29">
         <f>IF($I101="完了",IF(COUNTA(K102:$DR102)=0,$J101,0),0)</f>
@@ -45845,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="K185" s="29">
         <f>IF($I103="完了",IF(COUNTA(K104:$DR104)=0,$J103,0),0)</f>
@@ -46296,7 +46288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="25"/>
       <c r="K186" s="29">
         <f>IF($I105="完了",IF(COUNTA(K106:$DR106)=0,$J105,0),0)</f>
@@ -46747,7 +46739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="25"/>
       <c r="K187" s="29">
         <f>IF($I107="完了",IF(COUNTA(K108:$DR108)=0,$J107,0),0)</f>
@@ -47198,7 +47190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="25"/>
       <c r="K188" s="29">
         <f>IF($I109="完了",IF(COUNTA(K110:$DR110)=0,$J109,0),0)</f>
@@ -47649,7 +47641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="25"/>
       <c r="K189" s="29">
         <f>IF($I111="完了",IF(COUNTA(K112:$DR112)=0,$J111,0),0)</f>
@@ -48100,7 +48092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="25"/>
       <c r="K190" s="29">
         <f>IF($I113="完了",IF(COUNTA(K114:$DR114)=0,$J113,0),0)</f>
@@ -48551,7 +48543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="25"/>
       <c r="K191" s="29">
         <f>IF($I115="完了",IF(COUNTA(K116:$DR116)=0,$J115,0),0)</f>
@@ -49002,7 +48994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
       <c r="K192" s="29">
         <f>IF($I117="完了",IF(COUNTA(K118:$DR118)=0,$J117,0),0)</f>
@@ -49453,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
       <c r="K193" s="29">
         <f>IF($I119="完了",IF(COUNTA(K120:$DR120)=0,$J119,0),0)</f>
@@ -49904,7 +49896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
       <c r="K194" s="29">
         <f>IF($I121="完了",IF(COUNTA(K122:$DR122)=0,$J121,0),0)</f>
@@ -50355,7 +50347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
       <c r="K195" s="29">
         <f>IF($I123="完了",IF(COUNTA(K124:$DR124)=0,$J123,0),0)</f>
@@ -50806,7 +50798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="24"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -50931,7 +50923,7 @@
       <c r="DR196" s="2"/>
       <c r="DS196" s="2"/>
     </row>
-    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -51332,8 +51324,6 @@
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -51350,8 +51340,6 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -51368,8 +51356,6 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -51539,6 +51525,11 @@
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="F55:F56"/>
@@ -51549,7 +51540,12 @@
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="G57:G58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="B67:B68"/>
@@ -51568,12 +51564,6 @@
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F63:F64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -51598,6 +51588,8 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="A63:A64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A53:A54"/>
@@ -51928,47 +51920,47 @@
       <selection activeCell="DI28" sqref="DI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="8" width="7.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="15" width="7.625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" customWidth="1"/>
-    <col min="17" max="18" width="7.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="8" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="15" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="23" max="23" width="6.44140625" customWidth="1"/>
     <col min="24" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5" customWidth="1"/>
+    <col min="30" max="30" width="6.44140625" customWidth="1"/>
     <col min="31" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.5" customWidth="1"/>
+    <col min="37" max="37" width="6.44140625" customWidth="1"/>
     <col min="38" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5" customWidth="1"/>
+    <col min="44" max="44" width="6.44140625" customWidth="1"/>
     <col min="45" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="6.5" customWidth="1"/>
+    <col min="51" max="51" width="6.44140625" customWidth="1"/>
     <col min="52" max="57" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="6.5" customWidth="1"/>
+    <col min="58" max="58" width="6.44140625" customWidth="1"/>
     <col min="59" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="6.5" customWidth="1"/>
+    <col min="65" max="65" width="6.44140625" customWidth="1"/>
     <col min="66" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="6.5" customWidth="1"/>
+    <col min="72" max="72" width="6.44140625" customWidth="1"/>
     <col min="73" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="6.5" customWidth="1"/>
+    <col min="79" max="79" width="6.44140625" customWidth="1"/>
     <col min="80" max="85" width="0" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="6.5" customWidth="1"/>
+    <col min="86" max="86" width="6.44140625" customWidth="1"/>
     <col min="87" max="92" width="0" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="6.5" customWidth="1"/>
+    <col min="93" max="93" width="6.44140625" customWidth="1"/>
     <col min="94" max="99" width="0" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="6.5" customWidth="1"/>
+    <col min="100" max="100" width="6.44140625" customWidth="1"/>
     <col min="101" max="106" width="0" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="6.5" customWidth="1"/>
+    <col min="107" max="107" width="6.44140625" customWidth="1"/>
     <col min="108" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="6.5" customWidth="1"/>
+    <col min="113" max="113" width="6.44140625" customWidth="1"/>
     <col min="114" max="114" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="str">
         <f>ガント!J129</f>
         <v>日付</v>
@@ -52422,7 +52414,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="str">
         <f>ガント!J130</f>
         <v>PV</v>
@@ -52789,94 +52781,94 @@
       </c>
       <c r="CN28" s="51">
         <f>ガント!CW130</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="CO28" s="51">
         <f>ガント!CX130</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CP28" s="51">
         <f>ガント!CY130</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CQ28" s="51">
         <f>ガント!CZ130</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CR28" s="51">
         <f>ガント!DA130</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="CS28" s="51">
         <f>ガント!DB130</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="CT28" s="51">
         <f>ガント!DC130</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="CU28" s="51">
         <f>ガント!DD130</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV28" s="51">
         <f>ガント!DE130</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW28" s="51">
         <f>ガント!DF130</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CX28" s="51">
         <f>ガント!DG130</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY28" s="51">
         <f>ガント!DH130</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="CZ28" s="51">
         <f>ガント!DI130</f>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DA28" s="51">
         <f>ガント!DJ130</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DB28" s="51">
         <f>ガント!DK130</f>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="DC28" s="51">
         <f>ガント!DL130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DD28" s="51">
         <f>ガント!DM130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DE28" s="51">
         <f>ガント!DN130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DF28" s="51">
         <f>ガント!DO130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DG28" s="51">
         <f>ガント!DP130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DH28" s="51">
         <f>ガント!DQ130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="DI28" s="51">
         <f>ガント!DR130</f>
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="str">
         <f>ガント!J131</f>
         <v>AC</v>
@@ -53039,19 +53031,19 @@
       </c>
       <c r="AO29" s="51">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX131,NA())</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP29" s="51">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY131,NA())</f>
-        <v>104</v>
-      </c>
-      <c r="AQ29" s="51">
+        <v>102</v>
+      </c>
+      <c r="AQ29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ131,NA())</f>
-        <v>105</v>
-      </c>
-      <c r="AR29" s="51">
+        <v>#N/A</v>
+      </c>
+      <c r="AR29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA131,NA())</f>
-        <v>109</v>
+        <v>#N/A</v>
       </c>
       <c r="AS29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB131,NA())</f>
@@ -53330,7 +53322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="str">
         <f>ガント!J132</f>
         <v>EV</v>
@@ -53501,11 +53493,11 @@
       </c>
       <c r="AQ30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ132,NA())</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="AR30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA132,NA())</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="AS30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB132,NA())</f>
@@ -53784,7 +53776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>45</v>
       </c>
@@ -54237,7 +54229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>46</v>
       </c>
@@ -54690,7 +54682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>47</v>
       </c>
@@ -55143,7 +55135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>48</v>
       </c>
@@ -55628,24 +55620,24 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
     <col min="2" max="3" width="13" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="60" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="60"/>
-    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>98</v>
       </c>
@@ -55671,7 +55663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>108</v>
       </c>
@@ -55695,7 +55687,7 @@
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" s="63">
         <f>ROW()-4</f>
         <v>1</v>
@@ -55718,7 +55710,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f t="shared" ref="A6:A29" si="0">ROW()-4</f>
         <v>2</v>
@@ -55741,7 +55733,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -55754,7 +55746,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -55767,7 +55759,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -55780,7 +55772,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -55793,7 +55785,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -55806,7 +55798,7 @@
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -55819,7 +55811,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -55832,7 +55824,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -55845,7 +55837,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -55858,7 +55850,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -55871,7 +55863,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -55884,7 +55876,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -55897,7 +55889,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -55910,7 +55902,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -55923,7 +55915,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -55936,7 +55928,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -55949,7 +55941,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -55962,7 +55954,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -55975,7 +55967,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -55988,7 +55980,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -56001,7 +55993,7 @@
       <c r="G26" s="64"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -56014,7 +56006,7 @@
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -56027,7 +56019,7 @@
       <c r="G28" s="64"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -56077,86 +56069,83 @@
       <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
     </row>
-    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
     </row>
-    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -56164,6 +56153,9 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56178,31 +56170,31 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="35" t="s">
         <v>53</v>
       </c>
@@ -56216,7 +56208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="53">
         <v>1</v>
       </c>
@@ -56240,7 +56232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -56267,7 +56259,7 @@
       </c>
       <c r="I3" s="58"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="53">
         <v>3</v>
       </c>
@@ -56293,7 +56285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="53">
         <v>4</v>
       </c>
@@ -56317,7 +56309,7 @@
       </c>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -56340,7 +56332,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <v>6</v>
       </c>
@@ -56360,7 +56352,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="57"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <v>7</v>
       </c>
@@ -56384,7 +56376,7 @@
       </c>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <v>8</v>
       </c>
@@ -56408,7 +56400,7 @@
       </c>
       <c r="I9" s="57"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -56433,7 +56425,7 @@
       </c>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <v>10</v>
       </c>
@@ -56453,7 +56445,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="57"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <v>11</v>
       </c>
@@ -56473,7 +56465,7 @@
       <c r="H12" s="53"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <v>12</v>
       </c>
@@ -56497,7 +56489,7 @@
       </c>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <v>13</v>
       </c>
@@ -56521,7 +56513,7 @@
       </c>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -56548,7 +56540,7 @@
       </c>
       <c r="I15" s="57"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <v>15</v>
       </c>
@@ -56590,25 +56582,25 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="102"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>149</v>
       </c>
@@ -56622,7 +56614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>150</v>
       </c>
@@ -56633,7 +56625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
@@ -56644,77 +56636,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
     </row>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1546,6 +1546,41 @@
     <t>ガントチャート，EVM</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>記入欄</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認しました。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubを操作した際に、ファイルが消えた</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/5/23：
+ロールバックした</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1658,7 +1693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1912,13 +1947,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,6 +2189,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2169,26 +2216,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,25 +2263,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2859,16 +2928,16 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>305</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>331</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>357</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,7 +3051,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3121,7 +3190,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3167,11 +3236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="264771984"/>
-        <c:axId val="264772544"/>
+        <c:axId val="174201696"/>
+        <c:axId val="174202256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="264771984"/>
+        <c:axId val="174201696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,14 +3250,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264772544"/>
+        <c:crossAx val="174202256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264772544"/>
+        <c:axId val="174202256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3278,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264771984"/>
+        <c:crossAx val="174201696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3702,11 +3771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS197"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="AX32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13:I14"/>
+      <selection pane="bottomRight" activeCell="DK66" sqref="DK66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3725,61 +3794,61 @@
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="88"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="90"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3808,25 +3877,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -3954,10 +4023,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -3974,7 +4043,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
@@ -4316,26 +4385,26 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="68">
-        <v>0</v>
-      </c>
-      <c r="B5" s="70" t="str">
+      <c r="A5" s="69">
+        <v>0</v>
+      </c>
+      <c r="B5" s="71" t="str">
         <f>B1</f>
         <v>○○システム開発</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70" t="s">
         <v>161</v>
       </c>
       <c r="J5" s="12">
@@ -4486,15 +4555,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4643,19 +4712,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4774,15 +4843,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4901,27 +4970,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="73"/>
+      <c r="I9" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="12">
@@ -5054,15 +5123,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5191,27 +5260,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="68">
+      <c r="A11" s="69">
         <v>1.2</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J11" s="12">
@@ -5340,15 +5409,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5477,27 +5546,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="68">
+      <c r="A13" s="69">
         <v>1.3</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="73"/>
+      <c r="I13" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="12">
@@ -5620,15 +5689,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -5761,17 +5830,17 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -5890,15 +5959,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6017,25 +6086,25 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="12">
@@ -6160,15 +6229,15 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -6301,21 +6370,21 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72" t="s">
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J19" s="12">
@@ -6446,15 +6515,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -6585,21 +6654,21 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72" t="s">
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J21" s="12">
@@ -6730,15 +6799,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>1.125</v>
@@ -6869,17 +6938,17 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="12" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v/>
@@ -6998,15 +7067,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="13" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v/>
@@ -7125,21 +7194,21 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72" t="s">
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73" t="s">
         <v>155</v>
       </c>
       <c r="J25" s="12">
@@ -7264,15 +7333,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7395,17 +7464,17 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -7524,15 +7593,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -7651,23 +7720,23 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72" t="s">
+      <c r="E29" s="73"/>
+      <c r="F29" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="73"/>
+      <c r="I29" s="73" t="s">
         <v>161</v>
       </c>
       <c r="J29" s="12">
@@ -7804,15 +7873,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -7937,17 +8006,17 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -8066,15 +8135,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -8193,21 +8262,21 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72" t="s">
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="73"/>
+      <c r="I33" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="12">
@@ -8348,15 +8417,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8475,17 +8544,17 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8604,15 +8673,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -8731,21 +8800,21 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72" t="s">
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="12">
@@ -8886,15 +8955,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9013,21 +9082,21 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72" t="s">
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="12">
@@ -9158,15 +9227,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9285,21 +9354,21 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72" t="s">
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="12">
@@ -9430,15 +9499,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="13">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9557,21 +9626,21 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="72" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="12">
@@ -9702,15 +9771,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="73"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9829,21 +9898,21 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="72" t="s">
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="12">
@@ -9974,15 +10043,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="73"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10101,17 +10170,17 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="72"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="73"/>
       <c r="J47" s="12" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
         <v/>
@@ -10230,15 +10299,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="73"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="13" t="str">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v/>
@@ -10357,21 +10426,21 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69" t="s">
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="12">
@@ -10494,15 +10563,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10621,17 +10690,17 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68" t="s">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="72"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="73"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v/>
@@ -10750,15 +10819,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="73"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v/>
@@ -10877,21 +10946,21 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="72" t="s">
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="73" t="s">
         <v>161</v>
       </c>
       <c r="J53" s="12">
@@ -11034,15 +11103,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="73"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -11163,17 +11232,17 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11292,15 +11361,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11419,26 +11488,26 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69" t="s">
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="12">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
@@ -11537,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="CW57" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX57" s="37">
         <v>4</v>
@@ -11564,15 +11633,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
       <c r="J58" s="13">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11691,26 +11760,26 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69" t="s">
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="12">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -11809,7 +11878,7 @@
         <v>1</v>
       </c>
       <c r="CW59" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX59" s="37">
         <v>4</v>
@@ -11836,15 +11905,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11963,17 +12032,17 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68" t="s">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12092,15 +12161,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12219,21 +12288,21 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70" t="s">
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72" t="s">
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J63" s="12">
@@ -12364,15 +12433,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="13">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12491,26 +12560,26 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="69" t="s">
+      <c r="E65" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69" t="s">
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J65" s="12">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
@@ -12623,7 +12692,7 @@
         <v>3</v>
       </c>
       <c r="DK65" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DL65" s="37">
         <v>9</v>
@@ -12636,15 +12705,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="13">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12763,15 +12832,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12890,15 +12959,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13017,15 +13086,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13144,15 +13213,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13271,15 +13340,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13398,15 +13467,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13525,15 +13594,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13652,15 +13721,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -13779,15 +13848,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -13906,15 +13975,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -14033,15 +14102,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14160,15 +14229,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14287,15 +14356,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14414,15 +14483,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14541,15 +14610,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14668,15 +14737,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -14795,15 +14864,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -14922,15 +14991,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -15049,15 +15118,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15176,15 +15245,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15303,15 +15372,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15430,15 +15499,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15557,15 +15626,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15684,15 +15753,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -15811,15 +15880,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
+      <c r="A91" s="71"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -15938,15 +16007,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16065,15 +16134,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16192,15 +16261,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16319,15 +16388,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16446,15 +16515,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16573,15 +16642,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="72"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="73"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16700,15 +16769,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="73"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="74"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -16827,15 +16896,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="72"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="73"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -16954,15 +17023,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="68"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="73"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="74"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17081,15 +17150,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="72"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="73"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17208,15 +17277,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="73"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="74"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17335,15 +17404,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
+      <c r="A103" s="69"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17462,15 +17531,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17589,15 +17658,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="72"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="73"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -17716,15 +17785,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="73"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="74"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -17843,15 +17912,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="72"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="73"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -17970,15 +18039,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="73"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="74"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18097,15 +18166,15 @@
       <c r="DR108" s="41"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="72"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="73"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -18224,15 +18293,15 @@
       <c r="DR109" s="38"/>
     </row>
     <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="69"/>
-      <c r="I110" s="73"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="74"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -18351,15 +18420,15 @@
       <c r="DR110" s="41"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18478,15 +18547,15 @@
       <c r="DR111" s="38"/>
     </row>
     <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18605,15 +18674,15 @@
       <c r="DR112" s="41"/>
     </row>
     <row r="113" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
+      <c r="A113" s="69"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -18732,15 +18801,15 @@
       <c r="DR113" s="38"/>
     </row>
     <row r="114" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A114" s="68"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="69"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -18859,15 +18928,15 @@
       <c r="DR114" s="41"/>
     </row>
     <row r="115" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A115" s="68"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -18986,15 +19055,15 @@
       <c r="DR115" s="38"/>
     </row>
     <row r="116" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19113,15 +19182,15 @@
       <c r="DR116" s="41"/>
     </row>
     <row r="117" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A117" s="68"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
+      <c r="A117" s="69"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19240,15 +19309,15 @@
       <c r="DR117" s="38"/>
     </row>
     <row r="118" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A118" s="68"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19367,15 +19436,15 @@
       <c r="DR118" s="41"/>
     </row>
     <row r="119" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
+      <c r="A119" s="71"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -19494,15 +19563,15 @@
       <c r="DR119" s="38"/>
     </row>
     <row r="120" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A120" s="71"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
+      <c r="A120" s="72"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -19621,15 +19690,15 @@
       <c r="DR120" s="41"/>
     </row>
     <row r="121" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A121" s="68"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -19748,15 +19817,15 @@
       <c r="DR121" s="38"/>
     </row>
     <row r="122" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A122" s="68"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="69"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -19875,15 +19944,15 @@
       <c r="DR122" s="41"/>
     </row>
     <row r="123" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A123" s="68"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="69"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20002,15 +20071,15 @@
       <c r="DR123" s="38"/>
     </row>
     <row r="124" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A124" s="68"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="69"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20503,7 +20572,7 @@
       </c>
       <c r="CW126" s="28">
         <f t="array" ref="CW126">SUM(IF(MOD(ROW(CW$5:CW$124),2)=1,CW$5:CW$124,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CX126" s="28">
         <f t="array" ref="CX126">SUM(IF(MOD(ROW(CX$5:CX$124),2)=1,CX$5:CX$124,0))</f>
@@ -20559,7 +20628,7 @@
       </c>
       <c r="DK126" s="28">
         <f t="array" ref="DK126">SUM(IF(MOD(ROW(DK$5:DK$124),2)=1,DK$5:DK$124,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DL126" s="28">
         <f t="array" ref="DL126">SUM(IF(MOD(ROW(DL$5:DL$124),2)=1,DL$5:DL$124,0))</f>
@@ -22219,91 +22288,91 @@
       </c>
       <c r="CW130" s="30">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="CX130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CY130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CZ130" s="30">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="DA130" s="30">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="DB130" s="30">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="DC130" s="30">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="DD130" s="30">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="DE130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DF130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DG130" s="30">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DH130" s="30">
         <f t="shared" si="1"/>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="DI130" s="30">
         <f t="shared" si="1"/>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="DJ130" s="30">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DK130" s="30">
         <f t="shared" si="1"/>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DL130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DM130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DN130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DO130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DP130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DQ130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DR130" s="30">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
@@ -51002,372 +51071,164 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="554">
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -51392,170 +51253,378 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K129:DR129 K4:DR68">
@@ -52730,91 +52799,91 @@
       </c>
       <c r="CN28" s="51">
         <f>ガント!CW130</f>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="CO28" s="51">
         <f>ガント!CX130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CP28" s="51">
         <f>ガント!CY130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CQ28" s="51">
         <f>ガント!CZ130</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CR28" s="51">
         <f>ガント!DA130</f>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="CS28" s="51">
         <f>ガント!DB130</f>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CT28" s="51">
         <f>ガント!DC130</f>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="CU28" s="51">
         <f>ガント!DD130</f>
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CV28" s="51">
         <f>ガント!DE130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CW28" s="51">
         <f>ガント!DF130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CX28" s="51">
         <f>ガント!DG130</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="CY28" s="51">
         <f>ガント!DH130</f>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CZ28" s="51">
         <f>ガント!DI130</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="DA28" s="51">
         <f>ガント!DJ130</f>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DB28" s="51">
         <f>ガント!DK130</f>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DC28" s="51">
         <f>ガント!DL130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DD28" s="51">
         <f>ガント!DM130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DE28" s="51">
         <f>ガント!DN130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DF28" s="51">
         <f>ガント!DO130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DG28" s="51">
         <f>ガント!DP130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DH28" s="51">
         <f>ガント!DQ130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DI28" s="51">
         <f>ガント!DR130</f>
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.15">
@@ -52966,33 +53035,33 @@
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT131,NA())</f>
         <v>102</v>
       </c>
-      <c r="AL29" s="51" t="e">
+      <c r="AL29" s="51">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AM29" s="51">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AN29" s="51">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AO29" s="51">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AP29" s="51">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AQ29" s="51">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ131,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR29" s="51" t="e">
+        <v>102</v>
+      </c>
+      <c r="AR29" s="51">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA131,NA())</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="AS29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB131,NA())</f>
@@ -53422,31 +53491,31 @@
       </c>
       <c r="AL30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AM30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AN30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AO30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AP30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AQ30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AR30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA132,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AS30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB132,NA())</f>
@@ -55561,15 +55630,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="13" style="60" bestFit="1" customWidth="1"/>
@@ -55682,16 +55751,26 @@
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>171</v>
+      </c>
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
@@ -56012,14 +56091,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="96"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="96"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="96"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56053,11 +56218,11 @@
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
       <c r="F1" s="35" t="s">
         <v>53</v>
       </c>
@@ -56442,7 +56607,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56455,10 +56620,10 @@
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="9" t="s">
         <v>28</v>
       </c>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="参考→" sheetId="6" r:id="rId4"/>
     <sheet name="予定表" sheetId="4" r:id="rId5"/>
     <sheet name="データ" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガント!$A$4:$DR$64</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1541,6 +1542,60 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>手戻りが生じた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/5/26：
+作業時間を増やして、改善途中</t>
+    <rPh sb="11" eb="13">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シニアレビューが遅れた</t>
+    <rPh sb="8" eb="9">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/5/26：
+PMが連絡をとる</t>
+    <rPh sb="14" eb="16">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2276,7 +2331,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3196,11 +3272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="93367488"/>
-        <c:axId val="93368048"/>
+        <c:axId val="171374272"/>
+        <c:axId val="171374832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93367488"/>
+        <c:axId val="171374272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,14 +3286,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93368048"/>
+        <c:crossAx val="171374832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93368048"/>
+        <c:axId val="171374832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,7 +3314,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93367488"/>
+        <c:crossAx val="171374272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3731,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS197"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -51610,282 +51686,282 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K125:DR125 K4:DR64">
-    <cfRule type="expression" dxfId="64" priority="117">
+    <cfRule type="expression" dxfId="67" priority="117">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="118">
+    <cfRule type="expression" dxfId="66" priority="118">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="119">
+    <cfRule type="expression" dxfId="65" priority="119">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11 J17 J19 J23 J25 J27 J39 J41 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J9 D9:D10 I9:I10 J37 J31 J33 J29 J21 D57:I64 E53:I56 D51:I52 E49:I50 D17:I48">
-    <cfRule type="expression" dxfId="61" priority="116">
+    <cfRule type="expression" dxfId="64" priority="116">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J18 J20 J24 J26 J28 J40 J42 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J10 J38 J32 J34 J30 J22">
-    <cfRule type="expression" dxfId="60" priority="115">
+    <cfRule type="expression" dxfId="63" priority="115">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="59" priority="97">
+    <cfRule type="expression" dxfId="62" priority="97">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="58" priority="96">
+    <cfRule type="expression" dxfId="61" priority="96">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="57" priority="95">
+    <cfRule type="expression" dxfId="60" priority="95">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="56" priority="94">
+    <cfRule type="expression" dxfId="59" priority="94">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="55" priority="86">
+    <cfRule type="expression" dxfId="58" priority="86">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:I16 D15:E16">
-    <cfRule type="expression" dxfId="54" priority="78">
+    <cfRule type="expression" dxfId="57" priority="78">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:DR63 K61:DR61 K59:DR59 K57:DR57 K55:DR55 K53:DR53 K51:DR51 K47:DR47 K45:DR45 K43:DR43 K41:DR41 K39:DR39 K37:DR37 K35:DR35 K27:DR27 K25:DR25 K23:DR23 K9:DR9 K7:DR7 K33:DR33 K31:DR31 K29:DR29 K5:DR5 K19:DR19 K17:DR17 K15:DR15 K13:DR13 K11:DR11 K21:DR21 K49:DR49">
-    <cfRule type="expression" dxfId="53" priority="89">
+    <cfRule type="expression" dxfId="56" priority="89">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:DR64 K62:DR62 K60:DR60 K58:DR58 K56:DR56 K54:DR54 K52:DR52 K50:DR50 K48:DR48 K46:DR46 K44:DR44 K42:DR42 K40:DR40 K38:DR38 K36:DR36 K30:DR30 K28:DR28 K26:DR26 K24:DR24 K10:DR10 K8:DR8 K6:DR6 K34:DR34 K32:DR32 K22:DR22 K20:DR20 K18:DR18 K16:DR16 K14:DR14 K12:DR12">
-    <cfRule type="expression" dxfId="52" priority="88">
+    <cfRule type="expression" dxfId="55" priority="88">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="51" priority="84">
+    <cfRule type="expression" dxfId="54" priority="84">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="50" priority="85">
+    <cfRule type="expression" dxfId="53" priority="85">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 D53:D56 D49:D50 C17:C64">
-    <cfRule type="expression" dxfId="49" priority="79">
+    <cfRule type="expression" dxfId="52" priority="79">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="81">
+    <cfRule type="expression" dxfId="51" priority="81">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="47" priority="60">
+    <cfRule type="expression" dxfId="50" priority="60">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="46" priority="77">
+    <cfRule type="expression" dxfId="49" priority="77">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="45" priority="76">
+    <cfRule type="expression" dxfId="48" priority="76">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="44" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="74">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="42" priority="72">
+    <cfRule type="expression" dxfId="45" priority="72">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="41" priority="71">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="40" priority="70">
+    <cfRule type="expression" dxfId="43" priority="70">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="39" priority="67">
+    <cfRule type="expression" dxfId="42" priority="67">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="68">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="37" priority="59">
+    <cfRule type="expression" dxfId="40" priority="59">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="36" priority="58">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="35" priority="57">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="29" priority="22">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$C35=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>$C35=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:DR120">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67 J69 J73 J75 J77 J79 J81 J93 J95 J97 J99 J101 J103 J105 J107 J109 J111 J113 J115 J117 J119 J91 J85 J87 J83 J71 D67:I120">
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>$C67=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68 J70 J74 J76 J78 J80 J82 J94 J96 J98 J100 J102 J104 J106 J108 J110 J112 J114 J116 J118 J120 J92 J86 J88 J84 J72">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>$C67=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:I66 D65:E66">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>$C65=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:DR119 K117:DR117 K115:DR115 K113:DR113 K111:DR111 K109:DR109 K107:DR107 K101:DR101 K99:DR99 K97:DR97 K95:DR95 K93:DR93 K91:DR91 K89:DR89 K81:DR81 K79:DR79 K77:DR77 K75:DR75 K73:DR73 K87:DR87 K85:DR85 K83:DR83 K69:DR69 K67:DR67 K65:DR65 K71:DR71 K103:DR103 K105:DR105">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>K65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:DR120 K118:DR118 K116:DR116 K114:DR114 K112:DR112 K110:DR110 K108:DR108 K106:DR106 K104:DR104 K102:DR102 K100:DR100 K98:DR98 K96:DR96 K94:DR94 K92:DR92 K90:DR90 K84:DR84 K82:DR82 K80:DR80 K78:DR78 K76:DR76 K74:DR74 K88:DR88 K86:DR86 K72:DR72 K70:DR70 K68:DR68 K66:DR66">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>K66&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:C120">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$I67="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>$I67="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C65=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$C65=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C66">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$I65="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$I65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F66">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C65=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$C89=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C89=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51917,7 +51993,7 @@
   <dimension ref="A27:DI34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="DI28" sqref="DI28"/>
+      <selection activeCell="A27" sqref="A27:DI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -53045,17 +53121,17 @@
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA127,NA())</f>
         <v>124</v>
       </c>
-      <c r="AS29" s="51" t="e">
+      <c r="AS29" s="51">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB127,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT29" s="51" t="e">
+        <v>124</v>
+      </c>
+      <c r="AT29" s="51">
         <f ca="1">IF(TODAY()&gt;=AT$27,ガント!BC127,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU29" s="51" t="e">
+        <v>124</v>
+      </c>
+      <c r="AU29" s="51">
         <f ca="1">IF(TODAY()&gt;=AU$27,ガント!BD127,NA())</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="AV29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE127,NA())</f>
@@ -53501,15 +53577,15 @@
       </c>
       <c r="AS30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB128,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AT30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AT$27,ガント!BC128,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AU30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AU$27,ガント!BD128,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AV30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE128,NA())</f>
@@ -55592,13 +55668,13 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DI27">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55612,12 +55688,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -55756,29 +55832,49 @@
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>171</v>
+      </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>173</v>
+      </c>
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
     </row>
@@ -56046,12 +56142,12 @@
   <autoFilter ref="A3:H29"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56741,4 +56837,713 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DI2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:DI2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="52">
+        <v>41740</v>
+      </c>
+      <c r="C1" s="52">
+        <v>41741</v>
+      </c>
+      <c r="D1" s="52">
+        <v>41742</v>
+      </c>
+      <c r="E1" s="52">
+        <v>41743</v>
+      </c>
+      <c r="F1" s="52">
+        <v>41744</v>
+      </c>
+      <c r="G1" s="52">
+        <v>41745</v>
+      </c>
+      <c r="H1" s="52">
+        <v>41746</v>
+      </c>
+      <c r="I1" s="52">
+        <v>41747</v>
+      </c>
+      <c r="J1" s="52">
+        <v>41748</v>
+      </c>
+      <c r="K1" s="52">
+        <v>41749</v>
+      </c>
+      <c r="L1" s="52">
+        <v>41750</v>
+      </c>
+      <c r="M1" s="52">
+        <v>41751</v>
+      </c>
+      <c r="N1" s="52">
+        <v>41752</v>
+      </c>
+      <c r="O1" s="52">
+        <v>41753</v>
+      </c>
+      <c r="P1" s="52">
+        <v>41754</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>41755</v>
+      </c>
+      <c r="R1" s="52">
+        <v>41756</v>
+      </c>
+      <c r="S1" s="52">
+        <v>41757</v>
+      </c>
+      <c r="T1" s="52">
+        <v>41758</v>
+      </c>
+      <c r="U1" s="52">
+        <v>41759</v>
+      </c>
+      <c r="V1" s="52">
+        <v>41760</v>
+      </c>
+      <c r="W1" s="52">
+        <v>41761</v>
+      </c>
+      <c r="X1" s="52">
+        <v>41762</v>
+      </c>
+      <c r="Y1" s="52">
+        <v>41763</v>
+      </c>
+      <c r="Z1" s="52">
+        <v>41764</v>
+      </c>
+      <c r="AA1" s="52">
+        <v>41765</v>
+      </c>
+      <c r="AB1" s="52">
+        <v>41766</v>
+      </c>
+      <c r="AC1" s="52">
+        <v>41767</v>
+      </c>
+      <c r="AD1" s="52">
+        <v>41768</v>
+      </c>
+      <c r="AE1" s="52">
+        <v>41769</v>
+      </c>
+      <c r="AF1" s="52">
+        <v>41770</v>
+      </c>
+      <c r="AG1" s="52">
+        <v>41771</v>
+      </c>
+      <c r="AH1" s="52">
+        <v>41772</v>
+      </c>
+      <c r="AI1" s="52">
+        <v>41773</v>
+      </c>
+      <c r="AJ1" s="52">
+        <v>41774</v>
+      </c>
+      <c r="AK1" s="52">
+        <v>41775</v>
+      </c>
+      <c r="AL1" s="52">
+        <v>41776</v>
+      </c>
+      <c r="AM1" s="52">
+        <v>41777</v>
+      </c>
+      <c r="AN1" s="52">
+        <v>41778</v>
+      </c>
+      <c r="AO1" s="52">
+        <v>41779</v>
+      </c>
+      <c r="AP1" s="52">
+        <v>41780</v>
+      </c>
+      <c r="AQ1" s="52">
+        <v>41781</v>
+      </c>
+      <c r="AR1" s="52">
+        <v>41782</v>
+      </c>
+      <c r="AS1" s="52">
+        <v>41783</v>
+      </c>
+      <c r="AT1" s="52">
+        <v>41784</v>
+      </c>
+      <c r="AU1" s="52">
+        <v>41785</v>
+      </c>
+      <c r="AV1" s="52">
+        <v>41786</v>
+      </c>
+      <c r="AW1" s="52">
+        <v>41787</v>
+      </c>
+      <c r="AX1" s="52">
+        <v>41788</v>
+      </c>
+      <c r="AY1" s="52">
+        <v>41789</v>
+      </c>
+      <c r="AZ1" s="52">
+        <v>41790</v>
+      </c>
+      <c r="BA1" s="52">
+        <v>41791</v>
+      </c>
+      <c r="BB1" s="52">
+        <v>41792</v>
+      </c>
+      <c r="BC1" s="52">
+        <v>41793</v>
+      </c>
+      <c r="BD1" s="52">
+        <v>41794</v>
+      </c>
+      <c r="BE1" s="52">
+        <v>41795</v>
+      </c>
+      <c r="BF1" s="52">
+        <v>41796</v>
+      </c>
+      <c r="BG1" s="52">
+        <v>41797</v>
+      </c>
+      <c r="BH1" s="52">
+        <v>41798</v>
+      </c>
+      <c r="BI1" s="52">
+        <v>41799</v>
+      </c>
+      <c r="BJ1" s="52">
+        <v>41800</v>
+      </c>
+      <c r="BK1" s="52">
+        <v>41801</v>
+      </c>
+      <c r="BL1" s="52">
+        <v>41802</v>
+      </c>
+      <c r="BM1" s="52">
+        <v>41803</v>
+      </c>
+      <c r="BN1" s="52">
+        <v>41804</v>
+      </c>
+      <c r="BO1" s="52">
+        <v>41805</v>
+      </c>
+      <c r="BP1" s="52">
+        <v>41806</v>
+      </c>
+      <c r="BQ1" s="52">
+        <v>41807</v>
+      </c>
+      <c r="BR1" s="52">
+        <v>41808</v>
+      </c>
+      <c r="BS1" s="52">
+        <v>41809</v>
+      </c>
+      <c r="BT1" s="52">
+        <v>41810</v>
+      </c>
+      <c r="BU1" s="52">
+        <v>41811</v>
+      </c>
+      <c r="BV1" s="52">
+        <v>41812</v>
+      </c>
+      <c r="BW1" s="52">
+        <v>41813</v>
+      </c>
+      <c r="BX1" s="52">
+        <v>41814</v>
+      </c>
+      <c r="BY1" s="52">
+        <v>41815</v>
+      </c>
+      <c r="BZ1" s="52">
+        <v>41816</v>
+      </c>
+      <c r="CA1" s="52">
+        <v>41817</v>
+      </c>
+      <c r="CB1" s="52">
+        <v>41818</v>
+      </c>
+      <c r="CC1" s="52">
+        <v>41819</v>
+      </c>
+      <c r="CD1" s="52">
+        <v>41820</v>
+      </c>
+      <c r="CE1" s="52">
+        <v>41821</v>
+      </c>
+      <c r="CF1" s="52">
+        <v>41822</v>
+      </c>
+      <c r="CG1" s="52">
+        <v>41823</v>
+      </c>
+      <c r="CH1" s="52">
+        <v>41824</v>
+      </c>
+      <c r="CI1" s="52">
+        <v>41825</v>
+      </c>
+      <c r="CJ1" s="52">
+        <v>41826</v>
+      </c>
+      <c r="CK1" s="52">
+        <v>41827</v>
+      </c>
+      <c r="CL1" s="52">
+        <v>41828</v>
+      </c>
+      <c r="CM1" s="52">
+        <v>41829</v>
+      </c>
+      <c r="CN1" s="52">
+        <v>41830</v>
+      </c>
+      <c r="CO1" s="52">
+        <v>41831</v>
+      </c>
+      <c r="CP1" s="52">
+        <v>41832</v>
+      </c>
+      <c r="CQ1" s="52">
+        <v>41833</v>
+      </c>
+      <c r="CR1" s="52">
+        <v>41834</v>
+      </c>
+      <c r="CS1" s="52">
+        <v>41835</v>
+      </c>
+      <c r="CT1" s="52">
+        <v>41836</v>
+      </c>
+      <c r="CU1" s="52">
+        <v>41837</v>
+      </c>
+      <c r="CV1" s="52">
+        <v>41838</v>
+      </c>
+      <c r="CW1" s="52">
+        <v>41839</v>
+      </c>
+      <c r="CX1" s="52">
+        <v>41840</v>
+      </c>
+      <c r="CY1" s="52">
+        <v>41841</v>
+      </c>
+      <c r="CZ1" s="52">
+        <v>41842</v>
+      </c>
+      <c r="DA1" s="52">
+        <v>41843</v>
+      </c>
+      <c r="DB1" s="52">
+        <v>41844</v>
+      </c>
+      <c r="DC1" s="52">
+        <v>41845</v>
+      </c>
+      <c r="DD1" s="52">
+        <v>41846</v>
+      </c>
+      <c r="DE1" s="52">
+        <v>41847</v>
+      </c>
+      <c r="DF1" s="52">
+        <v>41848</v>
+      </c>
+      <c r="DG1" s="52">
+        <v>41849</v>
+      </c>
+      <c r="DH1" s="52">
+        <v>41850</v>
+      </c>
+      <c r="DI1" s="52">
+        <v>41851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="51">
+        <v>8</v>
+      </c>
+      <c r="C2" s="51">
+        <v>8</v>
+      </c>
+      <c r="D2" s="51">
+        <v>8</v>
+      </c>
+      <c r="E2" s="51">
+        <v>12</v>
+      </c>
+      <c r="F2" s="51">
+        <v>16</v>
+      </c>
+      <c r="G2" s="51">
+        <v>20</v>
+      </c>
+      <c r="H2" s="51">
+        <v>24</v>
+      </c>
+      <c r="I2" s="51">
+        <v>36</v>
+      </c>
+      <c r="J2" s="51">
+        <v>36</v>
+      </c>
+      <c r="K2" s="51">
+        <v>36</v>
+      </c>
+      <c r="L2" s="51">
+        <v>40</v>
+      </c>
+      <c r="M2" s="51">
+        <v>44</v>
+      </c>
+      <c r="N2" s="51">
+        <v>48</v>
+      </c>
+      <c r="O2" s="51">
+        <v>52</v>
+      </c>
+      <c r="P2" s="51">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>68</v>
+      </c>
+      <c r="R2" s="51">
+        <v>68</v>
+      </c>
+      <c r="S2" s="51">
+        <v>71</v>
+      </c>
+      <c r="T2" s="51">
+        <v>74</v>
+      </c>
+      <c r="U2" s="51">
+        <v>74</v>
+      </c>
+      <c r="V2" s="51">
+        <v>74</v>
+      </c>
+      <c r="W2" s="51">
+        <v>74</v>
+      </c>
+      <c r="X2" s="51">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="51">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="51">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="51">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="51">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="51">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="51">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="51">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="51">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="51">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="51">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="51">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="51">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="51">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="51">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="51">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="51">
+        <v>116</v>
+      </c>
+      <c r="AO2" s="51">
+        <v>119</v>
+      </c>
+      <c r="AP2" s="51">
+        <v>122</v>
+      </c>
+      <c r="AQ2" s="51">
+        <v>125</v>
+      </c>
+      <c r="AR2" s="51">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="51">
+        <v>139</v>
+      </c>
+      <c r="AT2" s="51">
+        <v>139</v>
+      </c>
+      <c r="AU2" s="51">
+        <v>142</v>
+      </c>
+      <c r="AV2" s="51">
+        <v>145</v>
+      </c>
+      <c r="AW2" s="51">
+        <v>148</v>
+      </c>
+      <c r="AX2" s="51">
+        <v>151</v>
+      </c>
+      <c r="AY2" s="51">
+        <v>165</v>
+      </c>
+      <c r="AZ2" s="51">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="51">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="51">
+        <v>168</v>
+      </c>
+      <c r="BC2" s="51">
+        <v>171</v>
+      </c>
+      <c r="BD2" s="51">
+        <v>174</v>
+      </c>
+      <c r="BE2" s="51">
+        <v>177</v>
+      </c>
+      <c r="BF2" s="51">
+        <v>191</v>
+      </c>
+      <c r="BG2" s="51">
+        <v>191</v>
+      </c>
+      <c r="BH2" s="51">
+        <v>191</v>
+      </c>
+      <c r="BI2" s="51">
+        <v>194</v>
+      </c>
+      <c r="BJ2" s="51">
+        <v>197</v>
+      </c>
+      <c r="BK2" s="51">
+        <v>200</v>
+      </c>
+      <c r="BL2" s="51">
+        <v>203</v>
+      </c>
+      <c r="BM2" s="51">
+        <v>216</v>
+      </c>
+      <c r="BN2" s="51">
+        <v>216</v>
+      </c>
+      <c r="BO2" s="51">
+        <v>216</v>
+      </c>
+      <c r="BP2" s="51">
+        <v>218</v>
+      </c>
+      <c r="BQ2" s="51">
+        <v>220</v>
+      </c>
+      <c r="BR2" s="51">
+        <v>222</v>
+      </c>
+      <c r="BS2" s="51">
+        <v>224</v>
+      </c>
+      <c r="BT2" s="51">
+        <v>237</v>
+      </c>
+      <c r="BU2" s="51">
+        <v>237</v>
+      </c>
+      <c r="BV2" s="51">
+        <v>237</v>
+      </c>
+      <c r="BW2" s="51">
+        <v>239</v>
+      </c>
+      <c r="BX2" s="51">
+        <v>241</v>
+      </c>
+      <c r="BY2" s="51">
+        <v>243</v>
+      </c>
+      <c r="BZ2" s="51">
+        <v>245</v>
+      </c>
+      <c r="CA2" s="51">
+        <v>258</v>
+      </c>
+      <c r="CB2" s="51">
+        <v>258</v>
+      </c>
+      <c r="CC2" s="51">
+        <v>258</v>
+      </c>
+      <c r="CD2" s="51">
+        <v>261</v>
+      </c>
+      <c r="CE2" s="51">
+        <v>264</v>
+      </c>
+      <c r="CF2" s="51">
+        <v>267</v>
+      </c>
+      <c r="CG2" s="51">
+        <v>270</v>
+      </c>
+      <c r="CH2" s="51">
+        <v>284</v>
+      </c>
+      <c r="CI2" s="51">
+        <v>284</v>
+      </c>
+      <c r="CJ2" s="51">
+        <v>284</v>
+      </c>
+      <c r="CK2" s="51">
+        <v>286</v>
+      </c>
+      <c r="CL2" s="51">
+        <v>288</v>
+      </c>
+      <c r="CM2" s="51">
+        <v>290</v>
+      </c>
+      <c r="CN2" s="51">
+        <v>294</v>
+      </c>
+      <c r="CO2" s="51">
+        <v>307</v>
+      </c>
+      <c r="CP2" s="51">
+        <v>307</v>
+      </c>
+      <c r="CQ2" s="51">
+        <v>307</v>
+      </c>
+      <c r="CR2" s="51">
+        <v>310</v>
+      </c>
+      <c r="CS2" s="51">
+        <v>313</v>
+      </c>
+      <c r="CT2" s="51">
+        <v>316</v>
+      </c>
+      <c r="CU2" s="51">
+        <v>319</v>
+      </c>
+      <c r="CV2" s="51">
+        <v>333</v>
+      </c>
+      <c r="CW2" s="51">
+        <v>333</v>
+      </c>
+      <c r="CX2" s="51">
+        <v>333</v>
+      </c>
+      <c r="CY2" s="51">
+        <v>336</v>
+      </c>
+      <c r="CZ2" s="51">
+        <v>339</v>
+      </c>
+      <c r="DA2" s="51">
+        <v>342</v>
+      </c>
+      <c r="DB2" s="51">
+        <v>346</v>
+      </c>
+      <c r="DC2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DD2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DE2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DF2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DG2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DH2" s="51">
+        <v>360</v>
+      </c>
+      <c r="DI2" s="51">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:DI1">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>WEEKDAY(B$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>WEEKDAY(B$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -2104,21 +2104,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2128,46 +2121,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2187,6 +2159,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3169,11 +3169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168726128"/>
-        <c:axId val="168726688"/>
+        <c:axId val="259498912"/>
+        <c:axId val="256285008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168726128"/>
+        <c:axId val="259498912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,14 +3183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168726688"/>
+        <c:crossAx val="256285008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168726688"/>
+        <c:axId val="256285008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3211,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168726128"/>
+        <c:crossAx val="259498912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,10 +3705,10 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="BE20" sqref="BE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3727,65 +3727,65 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="90" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="87" t="s">
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="90" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="86" t="s">
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="81">
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="69">
         <v>41785</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="83"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="71"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3814,25 +3814,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -3960,10 +3960,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -3980,7 +3980,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4322,26 +4322,26 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="69">
-        <v>0</v>
-      </c>
-      <c r="B5" s="71" t="str">
+      <c r="A5" s="76">
+        <v>0</v>
+      </c>
+      <c r="B5" s="86" t="str">
         <f>B1</f>
         <v>滞在管理アプリ開発</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77" t="s">
         <v>137</v>
       </c>
       <c r="J5" s="12">
@@ -4492,15 +4492,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4649,19 +4649,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="69">
+      <c r="A7" s="76">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4780,15 +4780,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4907,27 +4907,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="69">
+      <c r="A9" s="76">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="12">
@@ -5060,15 +5060,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5197,27 +5197,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="69">
+      <c r="A11" s="76">
         <v>1.2</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="72" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="12">
@@ -5346,15 +5346,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5483,27 +5483,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="69">
+      <c r="A13" s="76">
         <v>1.3</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="72" t="s">
         <v>131</v>
       </c>
       <c r="J13" s="12">
@@ -5626,15 +5626,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -5767,19 +5767,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="71">
+      <c r="A15" s="86">
         <v>2</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -5898,15 +5898,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6025,27 +6025,27 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="71">
+      <c r="A17" s="86">
         <v>2.1</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73" t="s">
+      <c r="H17" s="72"/>
+      <c r="I17" s="72" t="s">
         <v>131</v>
       </c>
       <c r="J17" s="12">
@@ -6180,18 +6180,18 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
-        <v>4.125</v>
+        <v>5.125</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -6255,7 +6255,9 @@
       <c r="BD18" s="40">
         <v>9</v>
       </c>
-      <c r="BE18" s="40"/>
+      <c r="BE18" s="40">
+        <v>8</v>
+      </c>
       <c r="BF18" s="40"/>
       <c r="BG18" s="40"/>
       <c r="BH18" s="40"/>
@@ -6323,19 +6325,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="71">
+      <c r="A19" s="86">
         <v>3</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6454,15 +6456,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6581,25 +6583,25 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71">
+      <c r="A21" s="86">
         <v>3.1</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="72"/>
+      <c r="F21" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73" t="s">
+      <c r="H21" s="72"/>
+      <c r="I21" s="72" t="s">
         <v>137</v>
       </c>
       <c r="J21" s="12">
@@ -6740,15 +6742,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>3.375</v>
@@ -6887,23 +6889,23 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="71">
+      <c r="A23" s="86">
         <v>3.2</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73" t="s">
+      <c r="H23" s="72"/>
+      <c r="I23" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="12">
@@ -7044,15 +7046,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7171,23 +7173,23 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="71">
+      <c r="A25" s="86">
         <v>3.3</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J25" s="12">
@@ -7328,15 +7330,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7455,21 +7457,21 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73" t="s">
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J27" s="12">
@@ -7600,15 +7602,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7727,21 +7729,21 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73" t="s">
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J29" s="12">
@@ -7872,15 +7874,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7999,21 +8001,21 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="73" t="s">
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="12">
@@ -8144,15 +8146,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="74"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8271,21 +8273,21 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69" t="s">
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="73" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J33" s="12">
@@ -8416,15 +8418,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="74"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8543,21 +8545,21 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="73" t="s">
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J35" s="12">
@@ -8680,15 +8682,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="74"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="13">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8807,17 +8809,17 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="73"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="12" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
         <v/>
@@ -8936,15 +8938,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="74"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="73"/>
       <c r="J38" s="13" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v/>
@@ -9063,21 +9065,21 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="73" t="s">
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="72" t="s">
         <v>137</v>
       </c>
       <c r="J39" s="12">
@@ -9220,15 +9222,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="74"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -9349,17 +9351,17 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9478,15 +9480,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9605,21 +9607,21 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69" t="s">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70" t="s">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77" t="s">
         <v>46</v>
       </c>
       <c r="J43" s="12">
@@ -9750,15 +9752,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9877,21 +9879,21 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70" t="s">
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77" t="s">
         <v>46</v>
       </c>
       <c r="J45" s="12">
@@ -10022,15 +10024,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10149,21 +10151,21 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73" t="s">
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72" t="s">
         <v>46</v>
       </c>
       <c r="J47" s="12">
@@ -10294,15 +10296,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10421,15 +10423,15 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -10548,15 +10550,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -10675,15 +10677,15 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v/>
@@ -10802,15 +10804,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v/>
@@ -10929,15 +10931,15 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11056,15 +11058,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11183,15 +11185,15 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11310,15 +11312,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11437,15 +11439,15 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11564,15 +11566,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -11691,15 +11693,15 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -11818,15 +11820,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -11945,15 +11947,15 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12072,15 +12074,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12199,15 +12201,15 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12326,15 +12328,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12453,15 +12455,15 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12580,15 +12582,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -12707,15 +12709,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12834,15 +12836,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -12961,15 +12963,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13088,15 +13090,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13215,15 +13217,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13342,15 +13344,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13469,15 +13471,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13596,15 +13598,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -13723,15 +13725,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -13850,15 +13852,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -13977,15 +13979,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14104,15 +14106,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14231,15 +14233,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14358,15 +14360,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14485,15 +14487,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="73"/>
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14612,15 +14614,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="74"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -14739,15 +14741,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="73"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -14866,15 +14868,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="74"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -14993,15 +14995,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="73"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15120,15 +15122,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="74"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="73"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15247,15 +15249,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="69"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15374,15 +15376,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15501,15 +15503,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="73"/>
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15628,15 +15630,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="74"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -15755,15 +15757,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="73"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -15882,15 +15884,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="74"/>
+      <c r="A92" s="76"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="73"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16009,15 +16011,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="69"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="73"/>
+      <c r="A93" s="76"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16136,15 +16138,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="74"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16263,15 +16265,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="69"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16390,15 +16392,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16517,15 +16519,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
+      <c r="A97" s="76"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16644,15 +16646,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -16771,15 +16773,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -16898,15 +16900,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17025,15 +17027,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="69"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
+      <c r="A101" s="76"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17152,15 +17154,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17279,15 +17281,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="71"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="73"/>
+      <c r="A103" s="86"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17406,15 +17408,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17533,15 +17535,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -17660,15 +17662,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
+      <c r="A106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -17787,15 +17789,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="69"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -17914,15 +17916,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="69"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="70"/>
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18701,7 +18703,7 @@
       </c>
       <c r="BE111" s="28">
         <f t="array" ref="BE111">SUM(IF(MOD(ROW(BE$5:BE$108),2)=0,BE$5:BE$108,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF111" s="28">
         <f t="array" ref="BF111">SUM(IF(MOD(ROW(BF$5:BF$108),2)=0,BF$5:BF$108,0))</f>
@@ -20437,267 +20439,267 @@
       </c>
       <c r="BE115" s="30">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BF115" s="30">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BG115" s="30">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BH115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BI115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BJ115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BK115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BL115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BM115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BN115" s="30">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BO115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BP115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BQ115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BR115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BS115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BT115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BU115" s="30">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BV115" s="30">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="BW115" s="30">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="BX115" s="30">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="BY115" s="30">
         <f t="shared" ref="BY115:DR115" si="3">BY111+BX115</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="BZ115" s="30">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="CA115" s="30">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="CB115" s="30">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="CC115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CD115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CE115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CF115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CG115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CH115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CI115" s="30">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CJ115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CK115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CL115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CM115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CN115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CO115" s="30">
         <f>CO111+CN115</f>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CP115" s="30">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="CQ115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CR115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CS115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CT115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CU115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CV115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CW115" s="30">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="CX115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="CY115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="CZ115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DA115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DB115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DC115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DD115" s="30">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DE115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DF115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DG115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DH115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DI115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DJ115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DK115" s="30">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DL115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DM115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DN115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DO115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DP115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DQ115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DR115" s="30">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:123" x14ac:dyDescent="0.15">
@@ -24371,11 +24373,11 @@
       </c>
       <c r="BD125" s="29">
         <f>IF(SUM($K125:BC125)=0,IF($I17="完了",IF(COUNTA(BE18:$DR18)=0,$J17,0),0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE125" s="29">
         <f>IF(SUM($K125:BD125)=0,IF($I17="完了",IF(COUNTA(BF18:$DR18)=0,$J17,0),0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF125" s="29">
         <f>IF(SUM($K125:BE125)=0,IF($I17="完了",IF(COUNTA(BG18:$DR18)=0,$J17,0),0),0)</f>
@@ -51256,52 +51258,417 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="B51:B52"/>
@@ -51326,418 +51693,53 @@
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K113:DR113 K4:DR52">
@@ -53188,9 +53190,9 @@
         <f ca="1">IF(TODAY()&gt;=AU$27,ガント!BD115,NA())</f>
         <v>131</v>
       </c>
-      <c r="AV29" s="51" t="e">
+      <c r="AV29" s="51">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE115,NA())</f>
-        <v>#N/A</v>
+        <v>139</v>
       </c>
       <c r="AW29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF115,NA())</f>
@@ -53644,7 +53646,7 @@
       </c>
       <c r="AV30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE116,NA())</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="AW30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF116,NA())</f>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -2104,6 +2104,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,33 +2160,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2159,34 +2187,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3169,11 +3169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259498912"/>
-        <c:axId val="256285008"/>
+        <c:axId val="169716224"/>
+        <c:axId val="169716784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259498912"/>
+        <c:axId val="169716224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,14 +3183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256285008"/>
+        <c:crossAx val="169716784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="256285008"/>
+        <c:axId val="169716784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3211,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259498912"/>
+        <c:crossAx val="169716224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,10 +3705,10 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BE20" sqref="BE20"/>
+      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3727,65 +3727,65 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="78" t="s">
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="69">
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="81">
         <v>41785</v>
       </c>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="71"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="83"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3814,25 +3814,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -3960,10 +3960,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -3980,7 +3980,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4322,26 +4322,26 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="76">
-        <v>0</v>
-      </c>
-      <c r="B5" s="86" t="str">
+      <c r="A5" s="69">
+        <v>0</v>
+      </c>
+      <c r="B5" s="71" t="str">
         <f>B1</f>
         <v>滞在管理アプリ開発</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70" t="s">
         <v>137</v>
       </c>
       <c r="J5" s="12">
@@ -4492,15 +4492,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4649,19 +4649,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="76">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4780,15 +4780,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4907,27 +4907,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="A9" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="73"/>
+      <c r="I9" s="73" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="12">
@@ -5060,15 +5060,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5197,27 +5197,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="76">
+      <c r="A11" s="69">
         <v>1.2</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="73" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="12">
@@ -5346,15 +5346,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5483,27 +5483,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="76">
+      <c r="A13" s="69">
         <v>1.3</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="86" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="73"/>
+      <c r="I13" s="73" t="s">
         <v>131</v>
       </c>
       <c r="J13" s="12">
@@ -5626,18 +5626,18 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -5698,7 +5698,9 @@
       <c r="BA14" s="40"/>
       <c r="BB14" s="40"/>
       <c r="BC14" s="40"/>
-      <c r="BD14" s="40"/>
+      <c r="BD14" s="40">
+        <v>3</v>
+      </c>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -5767,19 +5769,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="86">
+      <c r="A15" s="71">
         <v>2</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -5898,15 +5900,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6025,27 +6027,27 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="86">
+      <c r="A17" s="71">
         <v>2.1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="73" t="s">
         <v>131</v>
       </c>
       <c r="J17" s="12">
@@ -6180,18 +6182,18 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
-        <v>5.125</v>
+        <v>4.75</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -6253,7 +6255,7 @@
       <c r="BB18" s="40"/>
       <c r="BC18" s="40"/>
       <c r="BD18" s="40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BE18" s="40">
         <v>8</v>
@@ -6325,19 +6327,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="86">
+      <c r="A19" s="71">
         <v>3</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6456,15 +6458,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6583,25 +6585,25 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86">
+      <c r="A21" s="71">
         <v>3.1</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="73"/>
+      <c r="I21" s="73" t="s">
         <v>137</v>
       </c>
       <c r="J21" s="12">
@@ -6742,15 +6744,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>3.375</v>
@@ -6889,23 +6891,23 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="86">
+      <c r="A23" s="71">
         <v>3.2</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72" t="s">
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="73"/>
+      <c r="I23" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="12">
@@ -7046,15 +7048,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7173,23 +7175,23 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86">
+      <c r="A25" s="71">
         <v>3.3</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72" t="s">
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J25" s="12">
@@ -7330,15 +7332,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7457,21 +7459,21 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J27" s="12">
@@ -7602,15 +7604,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7729,21 +7731,21 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72" t="s">
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J29" s="12">
@@ -7874,15 +7876,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8001,21 +8003,21 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="72" t="s">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="12">
@@ -8146,15 +8148,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="73"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8273,21 +8275,21 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="72" t="s">
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J33" s="12">
@@ -8418,15 +8420,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="73"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8545,21 +8547,21 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="72" t="s">
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J35" s="12">
@@ -8682,15 +8684,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="73"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="13">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8809,17 +8811,17 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="72"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="73"/>
       <c r="J37" s="12" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
         <v/>
@@ -8938,15 +8940,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="73"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="13" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v/>
@@ -9065,21 +9067,21 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="72" t="s">
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="73" t="s">
         <v>137</v>
       </c>
       <c r="J39" s="12">
@@ -9222,15 +9224,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="73"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -9351,17 +9353,17 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9480,15 +9482,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9607,21 +9609,21 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J43" s="12">
@@ -9752,15 +9754,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9879,21 +9881,21 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77" t="s">
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70" t="s">
         <v>46</v>
       </c>
       <c r="J45" s="12">
@@ -10024,15 +10026,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
       <c r="J46" s="13">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10151,21 +10153,21 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72" t="s">
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73" t="s">
         <v>46</v>
       </c>
       <c r="J47" s="12">
@@ -10296,15 +10298,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10423,15 +10425,15 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -10550,15 +10552,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -10677,15 +10679,15 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
       <c r="J51" s="12" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v/>
@@ -10804,15 +10806,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
       <c r="J52" s="13" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v/>
@@ -10931,15 +10933,15 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11058,15 +11060,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11185,15 +11187,15 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11312,15 +11314,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11439,15 +11441,15 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11566,15 +11568,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -11693,15 +11695,15 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -11820,15 +11822,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -11947,15 +11949,15 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12074,15 +12076,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12201,15 +12203,15 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12328,15 +12330,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12455,15 +12457,15 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12582,15 +12584,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -12709,15 +12711,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -12836,15 +12838,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="87"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -12963,15 +12965,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13090,15 +13092,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="87"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13217,15 +13219,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="86"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13344,15 +13346,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="87"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13471,15 +13473,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13598,15 +13600,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="87"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -13725,15 +13727,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -13852,15 +13854,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="87"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -13979,15 +13981,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14106,15 +14108,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="87"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14233,15 +14235,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="86"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14360,15 +14362,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14487,15 +14489,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="76"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="72"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="73"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14614,15 +14616,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="76"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="73"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="74"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -14741,15 +14743,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="76"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="72"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="73"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -14868,15 +14870,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="76"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="73"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="74"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -14995,15 +14997,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="76"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="72"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15122,15 +15124,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="73"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="74"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15249,15 +15251,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="76"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15376,15 +15378,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="76"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="70"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15503,15 +15505,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="76"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="72"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="73"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15630,15 +15632,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="76"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="73"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="74"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -15757,15 +15759,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="76"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="72"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="73"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -15884,15 +15886,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="76"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="73"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="74"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16011,15 +16013,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="76"/>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="72"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="73"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16138,15 +16140,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="76"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="73"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="74"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16265,15 +16267,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="76"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16392,15 +16394,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="76"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16519,15 +16521,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="76"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
-      <c r="I97" s="77"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16646,15 +16648,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="76"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -16773,15 +16775,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="76"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -16900,15 +16902,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17027,15 +17029,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="76"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17154,15 +17156,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="76"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17281,15 +17283,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="86"/>
-      <c r="B103" s="86"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17408,15 +17410,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="87"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17535,15 +17537,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="76"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -17662,15 +17664,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="76"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -17789,15 +17791,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="76"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -17916,15 +17918,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="76"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -23383,7 +23385,7 @@
       </c>
       <c r="AM123" s="29">
         <f>IF(SUM($K123:AL123)=0,IF($I13="完了",IF(COUNTA(AN14:$DR14)=0,$J13,0),0),0)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN123" s="29">
         <f>IF(SUM($K123:AM123)=0,IF($I13="完了",IF(COUNTA(AO14:$DR14)=0,$J13,0),0),0)</f>
@@ -23451,7 +23453,7 @@
       </c>
       <c r="BD123" s="29">
         <f>IF(SUM($K123:BC123)=0,IF($I13="完了",IF(COUNTA(BE14:$DR14)=0,$J13,0),0),0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BE123" s="29">
         <f>IF(SUM($K123:BD123)=0,IF($I13="完了",IF(COUNTA(BF14:$DR14)=0,$J13,0),0),0)</f>
@@ -51258,378 +51260,92 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="482">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="I33:I34"/>
@@ -51654,92 +51370,378 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K113:DR113 K4:DR52">

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -2103,16 +2103,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2123,30 +2127,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,25 +2174,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3449,11 +3449,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="180594016"/>
-        <c:axId val="180594576"/>
+        <c:axId val="262410288"/>
+        <c:axId val="262410848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180594016"/>
+        <c:axId val="262410288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,14 +3463,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180594576"/>
+        <c:crossAx val="262410848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180594576"/>
+        <c:axId val="262410848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3491,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180594016"/>
+        <c:crossAx val="262410288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3985,10 +3985,10 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="AM5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CW48" sqref="CW48"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4007,26 +4007,26 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="88"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="81" t="s">
         <v>0</v>
       </c>
@@ -4054,18 +4054,18 @@
       <c r="AF1" s="85"/>
       <c r="AG1" s="85"/>
       <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AI1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74">
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="87">
         <v>41789</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="89"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4094,25 +4094,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4240,10 +4240,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4260,7 +4260,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4602,29 +4602,29 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="73">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="68">
+        <v>0</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69" t="s">
         <v>129</v>
       </c>
       <c r="J5" s="12">
@@ -4775,15 +4775,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4932,19 +4932,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+      <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5063,15 +5063,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5190,27 +5190,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72" t="s">
         <v>129</v>
       </c>
       <c r="J9" s="12">
@@ -5343,15 +5343,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5480,27 +5480,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="73">
+      <c r="A11" s="68">
         <v>1.2</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="72" t="s">
         <v>129</v>
       </c>
       <c r="J11" s="12">
@@ -5629,15 +5629,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5766,27 +5766,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="73">
+      <c r="A13" s="68">
         <v>1.3</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="72" t="s">
         <v>129</v>
       </c>
       <c r="J13" s="12">
@@ -5909,15 +5909,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -6052,19 +6052,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="70">
         <v>2</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6183,15 +6183,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6310,27 +6310,27 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="70">
         <v>2.1</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="72"/>
+      <c r="I17" s="72" t="s">
         <v>130</v>
       </c>
       <c r="J17" s="12">
@@ -6465,15 +6465,15 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>5.25</v>
@@ -6614,19 +6614,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="70">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6745,15 +6745,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6872,27 +6872,27 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="70">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="72"/>
+      <c r="I21" s="72" t="s">
         <v>130</v>
       </c>
       <c r="J21" s="12">
@@ -7033,15 +7033,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -7184,27 +7184,27 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="70">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="72"/>
+      <c r="I23" s="72" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="12">
@@ -7345,15 +7345,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7474,19 +7474,19 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="70">
         <v>3.3</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="12" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
         <v/>
@@ -7605,15 +7605,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="13" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v/>
@@ -7732,27 +7732,27 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="72"/>
+      <c r="I27" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="12">
@@ -7883,15 +7883,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8010,27 +8010,27 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="12">
@@ -8161,15 +8161,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8288,27 +8288,27 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="72"/>
+      <c r="I31" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="12">
@@ -8435,15 +8435,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8562,27 +8562,27 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73" t="s">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="72"/>
+      <c r="I33" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="12">
@@ -8707,15 +8707,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8834,19 +8834,19 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="70">
         <v>3.4</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8965,15 +8965,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -9092,27 +9092,27 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71" t="s">
+      <c r="H37" s="72"/>
+      <c r="I37" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J37" s="12">
@@ -9243,15 +9243,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9370,27 +9370,27 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="72"/>
+      <c r="I39" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J39" s="12">
@@ -9513,15 +9513,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9640,19 +9640,19 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="70">
         <v>4</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9771,15 +9771,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9898,27 +9898,27 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="70">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G43" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71" t="s">
+      <c r="H43" s="72"/>
+      <c r="I43" s="72" t="s">
         <v>130</v>
       </c>
       <c r="J43" s="12">
@@ -10061,15 +10061,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10192,19 +10192,19 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="70">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -10323,15 +10323,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -10450,27 +10450,27 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="70">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E47" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="71" t="s">
+      <c r="G47" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="72"/>
+      <c r="I47" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J47" s="12">
@@ -10601,15 +10601,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10728,27 +10728,27 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="68">
+      <c r="A49" s="70">
         <v>5.2</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="72"/>
+      <c r="I49" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="12">
@@ -10879,15 +10879,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11006,27 +11006,27 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="68">
+      <c r="A51" s="70">
         <v>5.3</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="72"/>
+      <c r="I51" s="72" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="12">
@@ -11157,15 +11157,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
       <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11284,15 +11284,15 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="68"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11411,15 +11411,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="69"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11538,15 +11538,15 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11665,15 +11665,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11792,15 +11792,15 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11919,15 +11919,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -12046,15 +12046,15 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -12173,15 +12173,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -12300,15 +12300,15 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12427,15 +12427,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12554,15 +12554,15 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12681,15 +12681,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12808,15 +12808,15 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12935,15 +12935,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -13062,15 +13062,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -13189,15 +13189,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13316,15 +13316,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13443,15 +13443,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13570,15 +13570,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13697,15 +13697,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13824,15 +13824,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13951,15 +13951,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -14078,15 +14078,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -14205,15 +14205,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -14332,15 +14332,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14459,15 +14459,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14586,15 +14586,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14713,15 +14713,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14840,15 +14840,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14967,15 +14967,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -15094,15 +15094,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -15221,15 +15221,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -15348,15 +15348,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15475,15 +15475,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15602,15 +15602,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15729,15 +15729,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15856,15 +15856,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15983,15 +15983,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -16110,15 +16110,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -16237,15 +16237,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16364,15 +16364,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16491,15 +16491,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="72"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16618,15 +16618,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16745,15 +16745,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16872,15 +16872,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16999,15 +16999,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -17126,15 +17126,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="73"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="71"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -17253,15 +17253,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="72"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17380,15 +17380,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="73"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="71"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17507,15 +17507,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="72"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17634,15 +17634,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73"/>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="71"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17761,15 +17761,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="72"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17888,15 +17888,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -18015,15 +18015,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -18142,15 +18142,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="71"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="72"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -18269,15 +18269,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="73"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="72"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18396,15 +18396,15 @@
       <c r="DR108" s="41"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="73"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="71"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="72"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -18523,15 +18523,15 @@
       <c r="DR109" s="38"/>
     </row>
     <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="72"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -18650,15 +18650,15 @@
       <c r="DR110" s="41"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="71"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="72"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18777,15 +18777,15 @@
       <c r="DR111" s="38"/>
     </row>
     <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="72"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18904,15 +18904,15 @@
       <c r="DR112" s="41"/>
     </row>
     <row r="113" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -19031,15 +19031,15 @@
       <c r="DR113" s="38"/>
     </row>
     <row r="114" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="70"/>
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -19158,15 +19158,15 @@
       <c r="DR114" s="41"/>
     </row>
     <row r="115" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -19285,15 +19285,15 @@
       <c r="DR115" s="38"/>
     </row>
     <row r="116" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="70"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19412,15 +19412,15 @@
       <c r="DR116" s="41"/>
     </row>
     <row r="117" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19539,15 +19539,15 @@
       <c r="DR117" s="38"/>
     </row>
     <row r="118" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19666,15 +19666,15 @@
       <c r="DR118" s="41"/>
     </row>
     <row r="119" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A119" s="73"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="70"/>
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -19793,15 +19793,15 @@
       <c r="DR119" s="38"/>
     </row>
     <row r="120" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A120" s="73"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="70"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="70"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -19920,15 +19920,15 @@
       <c r="DR120" s="41"/>
     </row>
     <row r="121" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A121" s="68"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -20047,15 +20047,15 @@
       <c r="DR121" s="38"/>
     </row>
     <row r="122" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
+      <c r="A122" s="71"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="73"/>
+      <c r="I122" s="73"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -20174,15 +20174,15 @@
       <c r="DR122" s="41"/>
     </row>
     <row r="123" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A123" s="73"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20301,15 +20301,15 @@
       <c r="DR123" s="38"/>
     </row>
     <row r="124" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A124" s="73"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20428,15 +20428,15 @@
       <c r="DR124" s="41"/>
     </row>
     <row r="125" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A125" s="73"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
-      <c r="I125" s="70"/>
+      <c r="A125" s="68"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="69"/>
       <c r="J125" s="12" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
         <v/>
@@ -20555,15 +20555,15 @@
       <c r="DR125" s="38"/>
     </row>
     <row r="126" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A126" s="73"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="70"/>
-      <c r="F126" s="70"/>
-      <c r="G126" s="70"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="70"/>
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="13" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
         <v/>
@@ -51287,372 +51287,179 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="563">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -51677,179 +51484,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K131:DR131 K4:DR4 K49:DR70 DM5:DR48">

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="172">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1504,6 +1504,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1616,7 +1620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1870,13 +1874,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2103,20 +2118,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2127,31 +2138,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,20 +2184,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,11 +2216,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="119">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2967,6 +3009,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3449,11 +3512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="262410288"/>
-        <c:axId val="262410848"/>
+        <c:axId val="262656256"/>
+        <c:axId val="262656816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="262410288"/>
+        <c:axId val="262656256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,14 +3526,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262410848"/>
+        <c:crossAx val="262656816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262410848"/>
+        <c:axId val="262656816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3554,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262410288"/>
+        <c:crossAx val="262656256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4007,26 +4070,26 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="75"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="81" t="s">
         <v>0</v>
       </c>
@@ -4054,18 +4117,18 @@
       <c r="AF1" s="85"/>
       <c r="AG1" s="85"/>
       <c r="AH1" s="86"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AI1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="74">
         <v>41789</v>
       </c>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="89"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="76"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4094,25 +4157,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4240,10 +4303,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4260,7 +4323,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4602,29 +4665,29 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="68">
-        <v>0</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="73">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70" t="s">
         <v>129</v>
       </c>
       <c r="J5" s="12">
@@ -4775,15 +4838,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4932,19 +4995,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+      <c r="A7" s="73">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5063,15 +5126,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5190,27 +5253,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="68">
+      <c r="A9" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71" t="s">
         <v>129</v>
       </c>
       <c r="J9" s="12">
@@ -5343,15 +5406,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5480,27 +5543,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="68">
+      <c r="A11" s="73">
         <v>1.2</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71" t="s">
         <v>129</v>
       </c>
       <c r="J11" s="12">
@@ -5629,15 +5692,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5766,27 +5829,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="68">
+      <c r="A13" s="73">
         <v>1.3</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>129</v>
       </c>
       <c r="J13" s="12">
@@ -5909,15 +5972,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -6052,19 +6115,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="70">
+      <c r="A15" s="68">
         <v>2</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6183,15 +6246,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6310,27 +6373,27 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="70">
+      <c r="A17" s="68">
         <v>2.1</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="71" t="s">
         <v>130</v>
       </c>
       <c r="J17" s="12">
@@ -6465,15 +6528,15 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>5.25</v>
@@ -6614,19 +6677,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="70">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6745,15 +6808,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6872,27 +6935,27 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71" t="s">
         <v>130</v>
       </c>
       <c r="J21" s="12">
@@ -7033,15 +7096,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -7184,27 +7247,27 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="70">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="71"/>
+      <c r="I23" s="71" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="12">
@@ -7345,15 +7408,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7474,19 +7537,19 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70">
+      <c r="A25" s="68">
         <v>3.3</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="12" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
         <v/>
@@ -7605,15 +7668,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="13" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v/>
@@ -7732,27 +7795,27 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="12">
@@ -7883,15 +7946,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8010,27 +8073,27 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="12">
@@ -8161,15 +8224,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8288,27 +8351,27 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="12">
@@ -8435,15 +8498,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8562,27 +8625,27 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="71"/>
+      <c r="I33" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="12">
@@ -8707,15 +8770,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8834,19 +8897,19 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70">
+      <c r="A35" s="68">
         <v>3.4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -8965,15 +9028,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -9092,27 +9155,27 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72" t="s">
+      <c r="H37" s="71"/>
+      <c r="I37" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J37" s="12">
@@ -9243,15 +9306,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9370,27 +9433,27 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72" t="s">
+      <c r="H39" s="71"/>
+      <c r="I39" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J39" s="12">
@@ -9513,15 +9576,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9640,19 +9703,19 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70">
+      <c r="A41" s="68">
         <v>4</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9771,15 +9834,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9898,27 +9961,27 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70">
+      <c r="A43" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72" t="s">
+      <c r="H43" s="71"/>
+      <c r="I43" s="71" t="s">
         <v>130</v>
       </c>
       <c r="J43" s="12">
@@ -10061,15 +10124,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10192,19 +10255,19 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="70">
+      <c r="A45" s="68">
         <v>5</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -10323,15 +10386,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -10450,27 +10513,27 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="70">
+      <c r="A47" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="F47" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G47" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72" t="s">
+      <c r="H47" s="71"/>
+      <c r="I47" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J47" s="12">
@@ -10601,15 +10664,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10728,27 +10791,27 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="68">
         <v>5.2</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72" t="s">
+      <c r="H49" s="71"/>
+      <c r="I49" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="12">
@@ -10879,15 +10942,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11006,27 +11069,27 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="68">
         <v>5.3</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="72" t="s">
+      <c r="E51" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="72" t="s">
+      <c r="F51" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="12">
@@ -11157,15 +11220,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11284,15 +11347,15 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11411,15 +11474,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11538,15 +11601,15 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11665,15 +11728,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11792,15 +11855,15 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11919,15 +11982,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -12046,15 +12109,15 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -12173,15 +12236,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -12300,15 +12363,15 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12427,15 +12490,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12554,15 +12617,15 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12681,15 +12744,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12808,15 +12871,15 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12935,15 +12998,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -13062,15 +13125,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -13189,15 +13252,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13316,15 +13379,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13443,15 +13506,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13570,15 +13633,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13697,15 +13760,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13824,15 +13887,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -13951,15 +14014,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -14078,15 +14141,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -14205,15 +14268,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -14332,15 +14395,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14459,15 +14522,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14586,15 +14649,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14713,15 +14776,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14840,15 +14903,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -14967,15 +15030,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -15094,15 +15157,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -15221,15 +15284,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -15348,15 +15411,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15475,15 +15538,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15602,15 +15665,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15729,15 +15792,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15856,15 +15919,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -15983,15 +16046,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -16110,15 +16173,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -16237,15 +16300,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16364,15 +16427,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16491,15 +16554,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16618,15 +16681,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16745,15 +16808,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16872,15 +16935,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -16999,15 +17062,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -17126,15 +17189,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="72"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -17253,15 +17316,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="68"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="73"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17380,15 +17443,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="72"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="71"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17507,15 +17570,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="73"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17634,15 +17697,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="72"/>
+      <c r="A103" s="73"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="71"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17761,15 +17824,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="73"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17888,15 +17951,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -18015,15 +18078,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -18142,15 +18205,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="72"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -18269,15 +18332,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="73"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18396,15 +18459,15 @@
       <c r="DR108" s="41"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="72"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="71"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -18523,15 +18586,15 @@
       <c r="DR109" s="38"/>
     </row>
     <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="69"/>
-      <c r="I110" s="73"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -18650,15 +18713,15 @@
       <c r="DR110" s="41"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="72"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="71"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18777,15 +18840,15 @@
       <c r="DR111" s="38"/>
     </row>
     <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="73"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18904,15 +18967,15 @@
       <c r="DR112" s="41"/>
     </row>
     <row r="113" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -19031,15 +19094,15 @@
       <c r="DR113" s="38"/>
     </row>
     <row r="114" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A114" s="68"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -19158,15 +19221,15 @@
       <c r="DR114" s="41"/>
     </row>
     <row r="115" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A115" s="68"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -19285,15 +19348,15 @@
       <c r="DR115" s="38"/>
     </row>
     <row r="116" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="73"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19412,15 +19475,15 @@
       <c r="DR116" s="41"/>
     </row>
     <row r="117" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A117" s="68"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19539,15 +19602,15 @@
       <c r="DR117" s="38"/>
     </row>
     <row r="118" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A118" s="68"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19666,15 +19729,15 @@
       <c r="DR118" s="41"/>
     </row>
     <row r="119" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A119" s="68"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="69"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="70"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -19793,15 +19856,15 @@
       <c r="DR119" s="38"/>
     </row>
     <row r="120" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A120" s="68"/>
-      <c r="B120" s="68"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="69"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="73"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -19920,15 +19983,15 @@
       <c r="DR120" s="41"/>
     </row>
     <row r="121" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="72"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="72"/>
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -20047,15 +20110,15 @@
       <c r="DR121" s="38"/>
     </row>
     <row r="122" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A122" s="71"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="73"/>
+      <c r="A122" s="69"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -20174,15 +20237,15 @@
       <c r="DR122" s="41"/>
     </row>
     <row r="123" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A123" s="68"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="69"/>
+      <c r="A123" s="73"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20301,15 +20364,15 @@
       <c r="DR123" s="38"/>
     </row>
     <row r="124" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A124" s="68"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="73"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20428,15 +20491,15 @@
       <c r="DR124" s="41"/>
     </row>
     <row r="125" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A125" s="68"/>
-      <c r="B125" s="68"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="69"/>
+      <c r="A125" s="73"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="70"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="70"/>
       <c r="J125" s="12" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
         <v/>
@@ -20555,15 +20618,15 @@
       <c r="DR125" s="38"/>
     </row>
     <row r="126" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A126" s="68"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="68"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="73"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="70"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="70"/>
       <c r="J126" s="13" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
         <v/>
@@ -51287,24 +51350,527 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="563">
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -51329,1024 +51895,521 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K131:DR131 K4:DR4 K49:DR70 DM5:DR48">
-    <cfRule type="expression" dxfId="112" priority="177">
+    <cfRule type="expression" dxfId="115" priority="177">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="178">
+    <cfRule type="expression" dxfId="114" priority="178">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="179">
+    <cfRule type="expression" dxfId="113" priority="179">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11 J17 J19 J23 J25 J27 J29 J31 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69 J9 D9:D10 I9:I10 J41 J35 J37 J33 J21 E19:I20 I17:I18 H21:I26 D65:I70">
-    <cfRule type="expression" dxfId="109" priority="176">
+    <cfRule type="expression" dxfId="112" priority="176">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J18 J20 J24 J26 J28 J30 J32 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J10 J42 J36 J38 J34 J22">
-    <cfRule type="expression" dxfId="108" priority="175">
+    <cfRule type="expression" dxfId="111" priority="175">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="107" priority="157">
+    <cfRule type="expression" dxfId="110" priority="157">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="106" priority="156">
+    <cfRule type="expression" dxfId="109" priority="156">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="105" priority="155">
+    <cfRule type="expression" dxfId="108" priority="155">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="104" priority="154">
+    <cfRule type="expression" dxfId="107" priority="154">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="103" priority="146">
+    <cfRule type="expression" dxfId="106" priority="146">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:I16 E15:E16">
-    <cfRule type="expression" dxfId="102" priority="138">
+    <cfRule type="expression" dxfId="105" priority="138">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:DR69 K67:DR67 K65:DR65 K63:DR63 K61:DR61 K59:DR59 K57:DR57 K51:DR51 K49:DR49 DM47:DR47 DM45:DR45 DM43:DR43 DM41:DR41 DM39:DR39 DM31:DR31 DM29:DR29 DM27:DR27 DM25:DR25 DM23:DR23 DM9:DR9 DM7:DR7 DM37:DR37 DM35:DR35 DM33:DR33 DM5:DR5 DM19:DR19 DM17:DR17 DM15:DR15 DM13:DR13 DM11:DR11 DM21:DR21 K53:DR53 K55:DR55">
-    <cfRule type="expression" dxfId="101" priority="149">
+    <cfRule type="expression" dxfId="104" priority="149">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:DR70 K68:DR68 K66:DR66 K64:DR64 K62:DR62 K60:DR60 K58:DR58 K56:DR56 K54:DR54 K52:DR52 K50:DR50 DM48:DR48 DM46:DR46 DM44:DR44 DM42:DR42 DM40:DR40 DM34:DR34 DM32:DR32 DM30:DR30 DM28:DR28 DM26:DR26 DM24:DR24 DM10:DR10 DM8:DR8 DM6:DR6 DM38:DR38 DM36:DR36 DM22:DR22 DM20:DR20 DM18:DR18 DM16:DR16 DM14:DR14 DM12:DR12">
-    <cfRule type="expression" dxfId="100" priority="148">
+    <cfRule type="expression" dxfId="103" priority="148">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="99" priority="144">
+    <cfRule type="expression" dxfId="102" priority="144">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="98" priority="145">
+    <cfRule type="expression" dxfId="101" priority="145">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C65:C70">
-    <cfRule type="expression" dxfId="97" priority="139">
+    <cfRule type="expression" dxfId="100" priority="139">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="141">
+    <cfRule type="expression" dxfId="99" priority="141">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="95" priority="120">
+    <cfRule type="expression" dxfId="98" priority="120">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="94" priority="137">
+    <cfRule type="expression" dxfId="97" priority="137">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="93" priority="136">
+    <cfRule type="expression" dxfId="96" priority="136">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="92" priority="132">
+    <cfRule type="expression" dxfId="95" priority="132">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="91" priority="131">
+    <cfRule type="expression" dxfId="94" priority="131">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="90" priority="130">
+    <cfRule type="expression" dxfId="93" priority="130">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="89" priority="127">
+    <cfRule type="expression" dxfId="92" priority="127">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="128">
+    <cfRule type="expression" dxfId="91" priority="128">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="87" priority="119">
+    <cfRule type="expression" dxfId="90" priority="119">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="86" priority="118">
+    <cfRule type="expression" dxfId="89" priority="118">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="85" priority="117">
+    <cfRule type="expression" dxfId="88" priority="117">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="84" priority="90">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="83" priority="88">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="89">
+    <cfRule type="expression" dxfId="85" priority="89">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="84" priority="87">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="80" priority="86">
+    <cfRule type="expression" dxfId="83" priority="86">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="79" priority="85">
+    <cfRule type="expression" dxfId="82" priority="85">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="78" priority="84">
+    <cfRule type="expression" dxfId="81" priority="84">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="77" priority="83">
+    <cfRule type="expression" dxfId="80" priority="83">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="76" priority="82">
+    <cfRule type="expression" dxfId="79" priority="82">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="75" priority="81">
+    <cfRule type="expression" dxfId="78" priority="81">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="74" priority="80">
+    <cfRule type="expression" dxfId="77" priority="80">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="76" priority="79">
       <formula>$C39=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="72" priority="78">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>$C39=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:DR126">
-    <cfRule type="expression" dxfId="71" priority="75">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="76">
+    <cfRule type="expression" dxfId="73" priority="76">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="77">
+    <cfRule type="expression" dxfId="72" priority="77">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73 J75 J79 J81 J83 J85 J87 J99 J101 J103 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J97 J91 J93 J89 J77 D73:I126">
-    <cfRule type="expression" dxfId="68" priority="74">
+    <cfRule type="expression" dxfId="71" priority="74">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76 J80 J82 J84 J86 J88 J100 J102 J104 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J98 J92 J94 J90 J78">
-    <cfRule type="expression" dxfId="67" priority="73">
+    <cfRule type="expression" dxfId="70" priority="73">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:I72 D71:E72">
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="69" priority="68">
       <formula>$C71=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125:DR125 K123:DR123 K121:DR121 K119:DR119 K117:DR117 K115:DR115 K113:DR113 K107:DR107 K105:DR105 K103:DR103 K101:DR101 K99:DR99 K97:DR97 K95:DR95 K87:DR87 K85:DR85 K83:DR83 K81:DR81 K79:DR79 K93:DR93 K91:DR91 K89:DR89 K75:DR75 K73:DR73 K71:DR71 K77:DR77 K109:DR109 K111:DR111">
-    <cfRule type="expression" dxfId="65" priority="72">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>K71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:DR126 K124:DR124 K122:DR122 K120:DR120 K118:DR118 K116:DR116 K114:DR114 K112:DR112 K110:DR110 K108:DR108 K106:DR106 K104:DR104 K102:DR102 K100:DR100 K98:DR98 K96:DR96 K90:DR90 K88:DR88 K86:DR86 K84:DR84 K82:DR82 K80:DR80 K94:DR94 K92:DR92 K78:DR78 K76:DR76 K74:DR74 K72:DR72">
-    <cfRule type="expression" dxfId="64" priority="71">
+    <cfRule type="expression" dxfId="67" priority="71">
       <formula>K72&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C126">
-    <cfRule type="expression" dxfId="63" priority="69">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>$I73="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70">
+    <cfRule type="expression" dxfId="65" priority="70">
       <formula>$I73="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71">
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="64" priority="67">
       <formula>$C71=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>$C71=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="expression" dxfId="59" priority="64">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$I71="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65">
+    <cfRule type="expression" dxfId="61" priority="65">
       <formula>$I71="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F72">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="60" priority="63">
       <formula>$C71=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="expression" dxfId="56" priority="62">
+    <cfRule type="expression" dxfId="59" priority="62">
       <formula>$C95=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="58" priority="61">
       <formula>$C95=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D26">
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>$C17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C26">
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="55" priority="58">
       <formula>$I17="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>$I17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>$C17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="50" priority="53">
       <formula>$C17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>$C17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>$C17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E26">
-    <cfRule type="expression" dxfId="44" priority="50">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>$C21=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F26">
-    <cfRule type="expression" dxfId="43" priority="49">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>$C21=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G26">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>$C21=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT47:DL52 K5:DL48">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:DL45 K41:DL41 K35:DL35 K21:DL21 K19:DL19 K9:DL9 K7:DL7 K25:DL25 K23:DL23 K5:DL5 K17:DL17 K15:DL15 K13:DL13 K11:DL11 K39:DL39 CT51:DL51 CT49:DL49 K47:DL47 K43:DL43 K37:DL37 K29:DL29 K27:DL27 K33:DL33 K31:DL31">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:DL46 K42:DL42 K40:DL40 K38:DL38 K36:DL36 K24:DL24 K22:DL22 K20:DL20 K10:DL10 K8:DL8 K6:DL6 K26:DL26 K18:DL18 K16:DL16 K14:DL14 K12:DL12 CT52:DL52 CT50:DL50 K48:DL48 K44:DL44 K30:DL30 K28:DL28 K34:DL34 K32:DL32">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I40">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>$C27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D40">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>$C27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C40">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$I27="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$I27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E36">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>$C27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F36">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>$C27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G36">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>$C27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:I54 E57:I58 H55:I56 H59:I64">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>$C53=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D64">
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>$C53=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D56 D59:D60 C53:C64">
-    <cfRule type="expression" dxfId="27" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>$I53="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$I53="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>$C55=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F56">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>$C55=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>$C55=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E64">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>$C59=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F64">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$C59=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G64">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>$C59=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:I42 E45:I46 H43:I44 H47:I52">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$C41=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D52">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>$C41=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44 D47:D48 C41:C52">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$I41="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$I41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$C43=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C43=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G44">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>$C43=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E52">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$C47=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F52">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$C47=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G52">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$C47=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E40">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$C37=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F40">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C37=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G40">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C37=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52378,7 +52441,7 @@
   <dimension ref="A27:DI34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="DI28" sqref="DI28"/>
+      <selection activeCell="B27" sqref="B27:DI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56053,13 +56116,13 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DI27">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56537,22 +56600,22 @@
   <autoFilter ref="A3:H29"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B4 D4:H4 D10:H29 A10:B29">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C10:C29">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B9 D5:H9">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C9">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56574,15 +56637,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" activeCellId="1" sqref="A1:Q2 G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="52">
+        <v>41740</v>
+      </c>
+      <c r="C1" s="52">
+        <v>41747</v>
+      </c>
+      <c r="D1" s="52">
+        <v>41754</v>
+      </c>
+      <c r="E1" s="52">
+        <v>41761</v>
+      </c>
+      <c r="F1" s="52">
+        <v>41768</v>
+      </c>
+      <c r="G1" s="52">
+        <v>41775</v>
+      </c>
+      <c r="H1" s="52">
+        <v>41782</v>
+      </c>
+      <c r="I1" s="52">
+        <v>41789</v>
+      </c>
+      <c r="J1" s="52">
+        <v>41796</v>
+      </c>
+      <c r="K1" s="52">
+        <v>41803</v>
+      </c>
+      <c r="L1" s="52">
+        <v>41810</v>
+      </c>
+      <c r="M1" s="52">
+        <v>41817</v>
+      </c>
+      <c r="N1" s="52">
+        <v>41824</v>
+      </c>
+      <c r="O1" s="52">
+        <v>41831</v>
+      </c>
+      <c r="P1" s="52">
+        <v>41838</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>41845</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="51">
+        <v>7</v>
+      </c>
+      <c r="C2" s="51">
+        <v>31</v>
+      </c>
+      <c r="D2" s="51">
+        <v>59</v>
+      </c>
+      <c r="E2" s="51">
+        <v>65</v>
+      </c>
+      <c r="F2" s="51">
+        <v>79</v>
+      </c>
+      <c r="G2" s="51">
+        <v>104</v>
+      </c>
+      <c r="H2" s="51">
+        <v>130</v>
+      </c>
+      <c r="I2" s="51">
+        <v>156</v>
+      </c>
+      <c r="J2" s="51">
+        <v>182</v>
+      </c>
+      <c r="K2" s="51">
+        <v>207</v>
+      </c>
+      <c r="L2" s="51">
+        <v>233</v>
+      </c>
+      <c r="M2" s="51">
+        <v>259</v>
+      </c>
+      <c r="N2" s="51">
+        <v>285</v>
+      </c>
+      <c r="O2" s="51">
+        <v>307</v>
+      </c>
+      <c r="P2" s="51">
+        <v>333</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:Q1">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>WEEKDAY(B$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>WEEKDAY(B$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -2118,16 +2118,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2138,30 +2148,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,25 +2195,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2216,17 +2222,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -3009,27 +3009,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3512,11 +3491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="262656256"/>
-        <c:axId val="262656816"/>
+        <c:axId val="167389568"/>
+        <c:axId val="167390128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="262656256"/>
+        <c:axId val="167389568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,14 +3505,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262656816"/>
+        <c:crossAx val="167390128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262656816"/>
+        <c:axId val="167390128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3533,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262656256"/>
+        <c:crossAx val="167389568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4048,7 +4027,7 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="CJ14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I17" sqref="I17:I18"/>
@@ -4070,65 +4049,65 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="88"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86">
         <v>4.2</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84" t="s">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74">
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="89">
         <v>41789</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="91"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4157,25 +4136,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4303,10 +4282,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4323,7 +4302,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4665,29 +4644,29 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="73">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71" t="s">
         <v>129</v>
       </c>
       <c r="J5" s="12">
@@ -4838,15 +4817,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4995,19 +4974,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5126,15 +5105,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5253,27 +5232,27 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="74"/>
+      <c r="I9" s="74" t="s">
         <v>129</v>
       </c>
       <c r="J9" s="12">
@@ -5406,15 +5385,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5543,27 +5522,27 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="73">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="74" t="s">
         <v>129</v>
       </c>
       <c r="J11" s="12">
@@ -5692,15 +5671,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5829,27 +5808,27 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="73">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="74" t="s">
         <v>129</v>
       </c>
       <c r="J13" s="12">
@@ -5972,15 +5951,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -6115,19 +6094,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6246,15 +6225,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6373,27 +6352,27 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="72">
         <v>2.1</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="74"/>
+      <c r="I17" s="74" t="s">
         <v>130</v>
       </c>
       <c r="J17" s="12">
@@ -6528,15 +6507,15 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>5.25</v>
@@ -6677,19 +6656,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="72">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6808,15 +6787,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6935,27 +6914,27 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="72">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="74" t="s">
         <v>130</v>
       </c>
       <c r="J21" s="12">
@@ -7096,15 +7075,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -7247,27 +7226,27 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="72">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="74"/>
+      <c r="I23" s="74" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="12">
@@ -7408,15 +7387,15 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -7537,19 +7516,19 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="72">
         <v>3.3</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="12" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
         <v/>
@@ -7668,15 +7647,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="13" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v/>
@@ -7795,27 +7774,27 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="74"/>
+      <c r="I27" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="12">
@@ -7946,15 +7925,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8073,27 +8052,27 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="12">
@@ -8224,15 +8203,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8351,27 +8330,27 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="74"/>
+      <c r="I31" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="12">
@@ -8498,15 +8477,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8625,27 +8604,27 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="74"/>
+      <c r="I33" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="12">
@@ -8770,15 +8749,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8897,19 +8876,19 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="72">
         <v>3.4</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -9028,15 +9007,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -9155,27 +9134,27 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71" t="s">
+      <c r="H37" s="74"/>
+      <c r="I37" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J37" s="12">
@@ -9306,15 +9285,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9433,27 +9412,27 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="74"/>
+      <c r="I39" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J39" s="12">
@@ -9576,15 +9555,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9703,19 +9682,19 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="72">
         <v>4</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9834,15 +9813,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9961,27 +9940,27 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="72">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G43" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71" t="s">
+      <c r="H43" s="74"/>
+      <c r="I43" s="74" t="s">
         <v>130</v>
       </c>
       <c r="J43" s="12">
@@ -10124,15 +10103,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10255,19 +10234,19 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="72">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -10386,15 +10365,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -10513,27 +10492,27 @@
       <c r="DR46" s="41"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="72">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="72"/>
+      <c r="C47" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E47" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="71" t="s">
+      <c r="G47" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="74"/>
+      <c r="I47" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J47" s="12">
@@ -10664,15 +10643,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10791,27 +10770,27 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="68">
+      <c r="A49" s="72">
         <v>5.2</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="72"/>
+      <c r="C49" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="74"/>
+      <c r="I49" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="12">
@@ -10942,15 +10921,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="13">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11069,27 +11048,27 @@
       <c r="DR50" s="41"/>
     </row>
     <row r="51" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="68">
+      <c r="A51" s="72">
         <v>5.3</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="74"/>
+      <c r="I51" s="74" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="12">
@@ -11220,15 +11199,15 @@
       <c r="DR51" s="38"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
       <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11347,15 +11326,15 @@
       <c r="DR52" s="41"/>
     </row>
     <row r="53" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="68"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
       <c r="J53" s="12" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v/>
@@ -11474,15 +11453,15 @@
       <c r="DR53" s="38"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="69"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
       <c r="J54" s="13" t="str">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v/>
@@ -11601,15 +11580,15 @@
       <c r="DR54" s="41"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
       <c r="J55" s="12" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -11728,15 +11707,15 @@
       <c r="DR55" s="38"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
       <c r="J56" s="13" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -11855,15 +11834,15 @@
       <c r="DR56" s="41"/>
     </row>
     <row r="57" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -11982,15 +11961,15 @@
       <c r="DR57" s="38"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -12109,15 +12088,15 @@
       <c r="DR58" s="41"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
       <c r="J59" s="12" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v/>
@@ -12236,15 +12215,15 @@
       <c r="DR59" s="38"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
       <c r="J60" s="13" t="str">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v/>
@@ -12363,15 +12342,15 @@
       <c r="DR60" s="41"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
       <c r="J61" s="12" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v/>
@@ -12490,15 +12469,15 @@
       <c r="DR61" s="38"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
       <c r="J62" s="13" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v/>
@@ -12617,15 +12596,15 @@
       <c r="DR62" s="41"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
       <c r="J63" s="12" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
         <v/>
@@ -12744,15 +12723,15 @@
       <c r="DR63" s="38"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
       <c r="J64" s="13" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v/>
@@ -12871,15 +12850,15 @@
       <c r="DR64" s="41"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -12998,15 +12977,15 @@
       <c r="DR65" s="38"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -13125,15 +13104,15 @@
       <c r="DR66" s="41"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -13252,15 +13231,15 @@
       <c r="DR67" s="38"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -13379,15 +13358,15 @@
       <c r="DR68" s="41"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -13506,15 +13485,15 @@
       <c r="DR69" s="38"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -13633,15 +13612,15 @@
       <c r="DR70" s="41"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -13760,15 +13739,15 @@
       <c r="DR71" s="38"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -13887,15 +13866,15 @@
       <c r="DR72" s="41"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -14014,15 +13993,15 @@
       <c r="DR73" s="38"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -14141,15 +14120,15 @@
       <c r="DR74" s="41"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -14268,15 +14247,15 @@
       <c r="DR75" s="38"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -14395,15 +14374,15 @@
       <c r="DR76" s="41"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -14522,15 +14501,15 @@
       <c r="DR77" s="38"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -14649,15 +14628,15 @@
       <c r="DR78" s="41"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -14776,15 +14755,15 @@
       <c r="DR79" s="38"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -14903,15 +14882,15 @@
       <c r="DR80" s="41"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -15030,15 +15009,15 @@
       <c r="DR81" s="38"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -15157,15 +15136,15 @@
       <c r="DR82" s="41"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -15284,15 +15263,15 @@
       <c r="DR83" s="38"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -15411,15 +15390,15 @@
       <c r="DR84" s="41"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -15538,15 +15517,15 @@
       <c r="DR85" s="38"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -15665,15 +15644,15 @@
       <c r="DR86" s="41"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -15792,15 +15771,15 @@
       <c r="DR87" s="38"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -15919,15 +15898,15 @@
       <c r="DR88" s="41"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
+      <c r="A89" s="72"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -16046,15 +16025,15 @@
       <c r="DR89" s="38"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -16173,15 +16152,15 @@
       <c r="DR90" s="41"/>
     </row>
     <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
+      <c r="A91" s="72"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -16300,15 +16279,15 @@
       <c r="DR91" s="38"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -16427,15 +16406,15 @@
       <c r="DR92" s="41"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -16554,15 +16533,15 @@
       <c r="DR93" s="38"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="72"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -16681,15 +16660,15 @@
       <c r="DR94" s="41"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
+      <c r="A95" s="72"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -16808,15 +16787,15 @@
       <c r="DR95" s="38"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -16935,15 +16914,15 @@
       <c r="DR96" s="41"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
+      <c r="A97" s="72"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -17062,15 +17041,15 @@
       <c r="DR97" s="38"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -17189,15 +17168,15 @@
       <c r="DR98" s="41"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="73"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="71"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="74"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -17316,15 +17295,15 @@
       <c r="DR99" s="38"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="72"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="75"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -17443,15 +17422,15 @@
       <c r="DR100" s="41"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="73"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="71"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="74"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -17570,15 +17549,15 @@
       <c r="DR101" s="38"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="72"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="75"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -17697,15 +17676,15 @@
       <c r="DR102" s="41"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73"/>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="71"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="74"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -17824,15 +17803,15 @@
       <c r="DR103" s="38"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="72"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="75"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -17951,15 +17930,15 @@
       <c r="DR104" s="41"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -18078,15 +18057,15 @@
       <c r="DR105" s="38"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -18205,15 +18184,15 @@
       <c r="DR106" s="41"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="71"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="74"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -18332,15 +18311,15 @@
       <c r="DR107" s="38"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="73"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="72"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="75"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -18459,15 +18438,15 @@
       <c r="DR108" s="41"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="73"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="71"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="74"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -18586,15 +18565,15 @@
       <c r="DR109" s="38"/>
     </row>
     <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="72"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="75"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -18713,15 +18692,15 @@
       <c r="DR110" s="41"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="71"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="74"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -18840,15 +18819,15 @@
       <c r="DR111" s="38"/>
     </row>
     <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="72"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="75"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -18967,15 +18946,15 @@
       <c r="DR112" s="41"/>
     </row>
     <row r="113" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -19094,15 +19073,15 @@
       <c r="DR113" s="38"/>
     </row>
     <row r="114" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="70"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -19221,15 +19200,15 @@
       <c r="DR114" s="41"/>
     </row>
     <row r="115" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -19348,15 +19327,15 @@
       <c r="DR115" s="38"/>
     </row>
     <row r="116" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="70"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -19475,15 +19454,15 @@
       <c r="DR116" s="41"/>
     </row>
     <row r="117" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -19602,15 +19581,15 @@
       <c r="DR117" s="38"/>
     </row>
     <row r="118" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -19729,15 +19708,15 @@
       <c r="DR118" s="41"/>
     </row>
     <row r="119" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A119" s="73"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="70"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -19856,15 +19835,15 @@
       <c r="DR119" s="38"/>
     </row>
     <row r="120" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A120" s="73"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="70"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="70"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -19983,15 +19962,15 @@
       <c r="DR120" s="41"/>
     </row>
     <row r="121" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A121" s="68"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="74"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -20110,15 +20089,15 @@
       <c r="DR121" s="38"/>
     </row>
     <row r="122" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
+      <c r="A122" s="73"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="75"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -20237,15 +20216,15 @@
       <c r="DR122" s="41"/>
     </row>
     <row r="123" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A123" s="73"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -20364,15 +20343,15 @@
       <c r="DR123" s="38"/>
     </row>
     <row r="124" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A124" s="73"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -20491,15 +20470,15 @@
       <c r="DR124" s="41"/>
     </row>
     <row r="125" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A125" s="73"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
-      <c r="I125" s="70"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
       <c r="J125" s="12" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
         <v/>
@@ -20618,15 +20597,15 @@
       <c r="DR125" s="38"/>
     </row>
     <row r="126" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A126" s="73"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="70"/>
-      <c r="F126" s="70"/>
-      <c r="G126" s="70"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="70"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
       <c r="J126" s="13" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
         <v/>
@@ -51350,372 +51329,179 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="563">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -51740,179 +51526,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K131:DR131 K4:DR4 K49:DR70 DM5:DR48">
@@ -56651,7 +56630,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="69" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="52">
@@ -56704,7 +56683,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="68" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="51">
@@ -56801,11 +56780,11 @@
       <c r="B1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="35" t="s">
         <v>51</v>
       </c>
@@ -57203,10 +57182,10 @@
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="9" t="s">
         <v>27</v>
       </c>

--- a/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_管理ツール_矢吹研A班.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1124,13 +1124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト計画書</t>
-    <rPh sb="3" eb="6">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> プロジェクト監視・コントロール</t>
     <rPh sb="7" eb="9">
       <t>カンシ</t>
@@ -1394,14 +1387,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014/5/30：
-ユーザからの指導があった</t>
-    <rPh sb="17" eb="19">
-      <t>シドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラム、納品書、マニュアル</t>
     <rPh sb="6" eb="9">
       <t>ノウヒンショ</t>
@@ -1414,10 +1399,6 @@
   </si>
   <si>
     <t>プログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1494,10 +1475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト報告書</t>
     <rPh sb="3" eb="6">
       <t>ホウコクショ</t>
@@ -1506,6 +1483,74 @@
   </si>
   <si>
     <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+  </si>
+  <si>
+    <t>不明点の確認</t>
+  </si>
+  <si>
+    <t>提出方法が違った</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/6/2：
+ユーザからの指導があった</t>
+    <rPh sb="16" eb="18">
+      <t>シドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/5/30：
+シニアからの指導があった</t>
+    <rPh sb="17" eb="19">
+      <t>シドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注書（テスト計画書含む</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2124,20 +2169,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2148,31 +2189,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,20 +2235,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2226,7 +2271,208 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2273,6 +2519,62 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2409,134 +2711,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2592,24 +2767,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2928,48 +3085,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
@@ -3177,7 +3292,7 @@
                   <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>259</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>285</c:v>
@@ -3309,7 +3424,7 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -3491,11 +3606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167389568"/>
-        <c:axId val="167390128"/>
+        <c:axId val="265537072"/>
+        <c:axId val="265537632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167389568"/>
+        <c:axId val="265537072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3505,14 +3620,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167390128"/>
+        <c:crossAx val="265537632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167390128"/>
+        <c:axId val="265537632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3648,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167389568"/>
+        <c:crossAx val="265537072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4027,10 +4142,10 @@
   <dimension ref="A1:DS197"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="CJ14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17:I18"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4049,26 +4164,26 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="77"/>
+      <c r="B1" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="90"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
       <c r="P1" s="83" t="s">
         <v>0</v>
       </c>
@@ -4090,24 +4205,24 @@
       <c r="AB1" s="84"/>
       <c r="AC1" s="85"/>
       <c r="AD1" s="86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="87"/>
       <c r="AF1" s="87"/>
       <c r="AG1" s="87"/>
       <c r="AH1" s="88"/>
-      <c r="AI1" s="82" t="s">
+      <c r="AI1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="89">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="76">
         <v>41789</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="91"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="78"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4127,7 +4242,7 @@
       </c>
       <c r="I2" s="11">
         <f>SUM(J6,J8,J12,J10,J14,J16,J18,J20,J24,J26,J28,J30,J32,J34,J22,J36,J38,J40,J42,J44,J46,J48,J50,J52,J54,J56,J58,J60,J62,J64,J66,J68,J70)/20</f>
-        <v>1.1812499999999999</v>
+        <v>1.2562500000000001</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>29</v>
@@ -4136,25 +4251,25 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -4282,10 +4397,10 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -4302,7 +4417,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="78"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -4644,30 +4759,30 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="75">
+        <v>0</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71" t="s">
-        <v>129</v>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="J5" s="12">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
@@ -4817,15 +4932,15 @@
       <c r="DR5" s="38"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="13">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -4974,19 +5089,19 @@
       <c r="DR6" s="41"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -5105,15 +5220,15 @@
       <c r="DR7" s="38"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -5232,28 +5347,28 @@
       <c r="DR8" s="41"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="75">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74" t="s">
-        <v>129</v>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="J9" s="12">
         <f>IF(C9&lt;&gt;"",SUM(K9:DR9)/データ!$D$2,"")</f>
@@ -5385,15 +5500,15 @@
       <c r="DR9" s="38"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5522,28 +5637,28 @@
       <c r="DR10" s="41"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="75">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74" t="s">
-        <v>129</v>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="J11" s="12">
         <f>IF(C11&lt;&gt;"",SUM(K11:DR11)/データ!$D$2,"")</f>
@@ -5671,15 +5786,15 @@
       <c r="DR11" s="38"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -5808,28 +5923,28 @@
       <c r="DR12" s="41"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="75">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74" t="s">
-        <v>129</v>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="J13" s="12">
         <f>IF(C13&lt;&gt;"",SUM(K13:DR13)/データ!$D$2,"")</f>
@@ -5951,15 +6066,15 @@
       <c r="DR13" s="38"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="13">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -6094,19 +6209,19 @@
       <c r="DR14" s="41"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="70">
         <v>2</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="12" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
         <v/>
@@ -6225,15 +6340,15 @@
       <c r="DR15" s="38"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="13" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v/>
@@ -6352,28 +6467,28 @@
       <c r="DR16" s="41"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="72">
+      <c r="A17" s="70">
         <v>2.1</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74" t="s">
-        <v>130</v>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="J17" s="12">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
@@ -6507,15 +6622,15 @@
       <c r="DR17" s="38"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="13">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>5.25</v>
@@ -6656,19 +6771,19 @@
       <c r="DR18" s="41"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="72">
+      <c r="A19" s="70">
         <v>3</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="12" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
         <v/>
@@ -6787,15 +6902,15 @@
       <c r="DR19" s="38"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="13" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v/>
@@ -6914,28 +7029,28 @@
       <c r="DR20" s="41"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72">
+      <c r="A21" s="70">
         <v>3.1</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74" t="s">
-        <v>130</v>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="J21" s="12">
         <f>IF(C21&lt;&gt;"",SUM(K21:DR21)/データ!$D$2,"")</f>
@@ -7075,15 +7190,15 @@
       <c r="DR21" s="38"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>4.125</v>
@@ -7226,28 +7341,28 @@
       <c r="DR22" s="41"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="72">
+      <c r="A23" s="70">
         <v>3.2</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74" t="s">
-        <v>130</v>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="J23" s="12">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
@@ -7387,18 +7502,18 @@
       <c r="DR23" s="38"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="13">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
-        <v>0.375</v>
+        <v>1.875</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -7451,7 +7566,9 @@
       <c r="BG24" s="40">
         <v>3</v>
       </c>
-      <c r="BH24" s="40"/>
+      <c r="BH24" s="40">
+        <v>12</v>
+      </c>
       <c r="BI24" s="41"/>
       <c r="BJ24" s="42"/>
       <c r="BK24" s="40"/>
@@ -7516,19 +7633,19 @@
       <c r="DR24" s="41"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="70">
         <v>3.3</v>
       </c>
-      <c r="B25" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="B25" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="12" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
         <v/>
@@ -7647,15 +7764,15 @@
       <c r="DR25" s="38"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="13" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v/>
@@ -7774,27 +7891,27 @@
       <c r="DR26" s="41"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74" t="s">
+      <c r="A27" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="12">
@@ -7925,15 +8042,15 @@
       <c r="DR27" s="38"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="13">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8052,27 +8169,27 @@
       <c r="DR28" s="41"/>
     </row>
     <row r="29" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74" t="s">
+      <c r="A29" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="12">
@@ -8203,15 +8320,15 @@
       <c r="DR29" s="38"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8330,32 +8447,32 @@
       <c r="DR30" s="41"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74" t="s">
+      <c r="A31" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="12">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
@@ -8439,8 +8556,12 @@
       <c r="CH31" s="37">
         <v>3</v>
       </c>
-      <c r="CI31" s="37"/>
-      <c r="CJ31" s="37"/>
+      <c r="CI31" s="37">
+        <v>3</v>
+      </c>
+      <c r="CJ31" s="37">
+        <v>8</v>
+      </c>
       <c r="CK31" s="37"/>
       <c r="CL31" s="37"/>
       <c r="CM31" s="38"/>
@@ -8477,15 +8598,15 @@
       <c r="DR31" s="38"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="13">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8604,32 +8725,32 @@
       <c r="DR32" s="41"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72" t="s">
-        <v>162</v>
+      <c r="A33" s="70" t="s">
+        <v>159</v>
       </c>
       <c r="B33" s="70"/>
       <c r="C33" s="70" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="12">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
@@ -8707,19 +8828,25 @@
       <c r="CF33" s="37"/>
       <c r="CG33" s="37"/>
       <c r="CH33" s="37"/>
-      <c r="CI33" s="37">
-        <v>3</v>
-      </c>
-      <c r="CJ33" s="37">
-        <v>9</v>
-      </c>
+      <c r="CI33" s="37"/>
+      <c r="CJ33" s="37"/>
       <c r="CK33" s="37"/>
       <c r="CL33" s="37"/>
-      <c r="CM33" s="38"/>
-      <c r="CN33" s="39"/>
-      <c r="CO33" s="37"/>
-      <c r="CP33" s="37"/>
-      <c r="CQ33" s="37"/>
+      <c r="CM33" s="38">
+        <v>3</v>
+      </c>
+      <c r="CN33" s="39">
+        <v>3</v>
+      </c>
+      <c r="CO33" s="37">
+        <v>3</v>
+      </c>
+      <c r="CP33" s="37">
+        <v>3</v>
+      </c>
+      <c r="CQ33" s="37">
+        <v>3</v>
+      </c>
       <c r="CR33" s="37"/>
       <c r="CS33" s="37"/>
       <c r="CT33" s="37"/>
@@ -8749,15 +8876,15 @@
       <c r="DR33" s="38"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8876,19 +9003,19 @@
       <c r="DR34" s="41"/>
     </row>
     <row r="35" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="70">
         <v>3.4</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
       <c r="J35" s="12" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v/>
@@ -9007,15 +9134,15 @@
       <c r="DR35" s="38"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="13" t="str">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v/>
@@ -9134,32 +9261,32 @@
       <c r="DR36" s="41"/>
     </row>
     <row r="37" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72" t="s">
-        <v>166</v>
+      <c r="A37" s="70" t="s">
+        <v>163</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J37" s="12">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -9241,18 +9368,10 @@
       <c r="CJ37" s="37"/>
       <c r="CK37" s="37"/>
       <c r="CL37" s="37"/>
-      <c r="CM37" s="38">
-        <v>3</v>
-      </c>
-      <c r="CN37" s="39">
-        <v>3</v>
-      </c>
-      <c r="CO37" s="37">
-        <v>3</v>
-      </c>
-      <c r="CP37" s="37">
-        <v>3</v>
-      </c>
+      <c r="CM37" s="38"/>
+      <c r="CN37" s="39"/>
+      <c r="CO37" s="37"/>
+      <c r="CP37" s="37"/>
       <c r="CQ37" s="37">
         <v>6</v>
       </c>
@@ -9285,15 +9404,15 @@
       <c r="DR37" s="38"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="13">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9412,32 +9531,32 @@
       <c r="DR38" s="41"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72" t="s">
-        <v>167</v>
+      <c r="A39" s="70" t="s">
+        <v>164</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J39" s="12">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
@@ -9524,7 +9643,7 @@
       <c r="CO39" s="37"/>
       <c r="CP39" s="37"/>
       <c r="CQ39" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CR39" s="37"/>
       <c r="CS39" s="37"/>
@@ -9555,15 +9674,15 @@
       <c r="DR39" s="38"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9682,19 +9801,19 @@
       <c r="DR40" s="41"/>
     </row>
     <row r="41" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72">
+      <c r="A41" s="70">
         <v>4</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
       <c r="J41" s="12" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v/>
@@ -9813,15 +9932,15 @@
       <c r="DR41" s="38"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="13" t="str">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v/>
@@ -9940,28 +10059,28 @@
       <c r="DR42" s="41"/>
     </row>
     <row r="43" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="72">
+      <c r="A43" s="70">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="74" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74" t="s">
-        <v>130</v>
+      <c r="E43" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="J43" s="12">
         <f>IF(C43&lt;&gt;"",SUM(K43:DR43)/データ!$D$2,"")</f>
@@ -10103,15 +10222,15 @@
       <c r="DR43" s="38"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10234,19 +10353,19 @@
       <c r="DR44" s="41"/>
     </row>
     <row r="45" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="70">
         <v>5</v>
       </c>
-      <c r="B45" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
+      <c r="B45" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -10365,15 +10484,15 @@
       <c r="DR45" s="38"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -10491,28 +10610,28 @@
       <c r="DQ46" s="40"/>
       <c r="DR46" s="41"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="72">
+    <row r="47" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="70">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J47" s="12">
@@ -10643,15 +10762,15 @@
       <c r="DR47" s="38"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10770,27 +10889,27 @@
       <c r="DR48" s="41"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="72">
+      <c r="A49" s="70">
         <v>5.2</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74" t="s">
+      <c r="E49" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="12">
@@ -10921,15 +11040,15 @@
       <c r="DR49" s="38"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r=